--- a/England Northern Premier League/England Northern Premier League.xlsx
+++ b/England Northern Premier League/England Northern Premier League.xlsx
@@ -38305,7 +38305,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>7496513</v>
+        <v>7496517</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38317,58 +38317,58 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F425" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G425" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J425" t="s">
         <v>59</v>
       </c>
       <c r="K425">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L425">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M425">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N425">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="O425">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P425">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q425">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R425">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S425">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T425">
         <v>3</v>
       </c>
       <c r="U425">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V425">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W425">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="X425">
         <v>-1</v>
@@ -38377,16 +38377,16 @@
         <v>-1</v>
       </c>
       <c r="Z425">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA425">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB425">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC425">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -38394,7 +38394,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>7496517</v>
+        <v>7496513</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -38406,58 +38406,58 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F426" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G426" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H426">
+        <v>2</v>
+      </c>
+      <c r="I426">
         <v>1</v>
-      </c>
-      <c r="I426">
-        <v>0</v>
       </c>
       <c r="J426" t="s">
         <v>59</v>
       </c>
       <c r="K426">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L426">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M426">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N426">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="O426">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P426">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q426">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R426">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S426">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T426">
         <v>3</v>
       </c>
       <c r="U426">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V426">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W426">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="X426">
         <v>-1</v>
@@ -38466,16 +38466,16 @@
         <v>-1</v>
       </c>
       <c r="Z426">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA426">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB426">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC426">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="427" spans="1:29">
@@ -42310,7 +42310,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>6933127</v>
+        <v>6933129</v>
       </c>
       <c r="C470" t="s">
         <v>28</v>
@@ -42322,73 +42322,73 @@
         <v>45292.5</v>
       </c>
       <c r="F470" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G470" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H470">
+        <v>2</v>
+      </c>
+      <c r="I470">
         <v>3</v>
       </c>
-      <c r="I470">
-        <v>2</v>
-      </c>
       <c r="J470" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K470">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="L470">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M470">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N470">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="O470">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P470">
-        <v>11</v>
+        <v>2.375</v>
       </c>
       <c r="Q470">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R470">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S470">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T470">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U470">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V470">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W470">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X470">
         <v>-1</v>
       </c>
       <c r="Y470">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z470">
         <v>-1</v>
       </c>
       <c r="AA470">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB470">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC470">
         <v>-1</v>
@@ -42577,7 +42577,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>6933129</v>
+        <v>6933127</v>
       </c>
       <c r="C473" t="s">
         <v>28</v>
@@ -42589,73 +42589,73 @@
         <v>45292.5</v>
       </c>
       <c r="F473" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G473" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I473">
+        <v>2</v>
+      </c>
+      <c r="J473" t="s">
+        <v>59</v>
+      </c>
+      <c r="K473">
+        <v>1.45</v>
+      </c>
+      <c r="L473">
+        <v>4</v>
+      </c>
+      <c r="M473">
+        <v>6</v>
+      </c>
+      <c r="N473">
+        <v>1.2</v>
+      </c>
+      <c r="O473">
+        <v>5.5</v>
+      </c>
+      <c r="P473">
+        <v>11</v>
+      </c>
+      <c r="Q473">
+        <v>-1.75</v>
+      </c>
+      <c r="R473">
+        <v>1.8</v>
+      </c>
+      <c r="S473">
+        <v>2</v>
+      </c>
+      <c r="T473">
         <v>3</v>
       </c>
-      <c r="J473" t="s">
-        <v>60</v>
-      </c>
-      <c r="K473">
-        <v>2.2</v>
-      </c>
-      <c r="L473">
-        <v>3.6</v>
-      </c>
-      <c r="M473">
-        <v>2.6</v>
-      </c>
-      <c r="N473">
-        <v>2.4</v>
-      </c>
-      <c r="O473">
-        <v>3.6</v>
-      </c>
-      <c r="P473">
-        <v>2.375</v>
-      </c>
-      <c r="Q473">
-        <v>0</v>
-      </c>
-      <c r="R473">
-        <v>1.925</v>
-      </c>
-      <c r="S473">
-        <v>1.875</v>
-      </c>
-      <c r="T473">
-        <v>2.75</v>
-      </c>
       <c r="U473">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V473">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W473">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X473">
         <v>-1</v>
       </c>
       <c r="Y473">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z473">
         <v>-1</v>
       </c>
       <c r="AA473">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB473">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC473">
         <v>-1</v>
@@ -44713,7 +44713,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>6932960</v>
+        <v>6933148</v>
       </c>
       <c r="C497" t="s">
         <v>28</v>
@@ -44725,73 +44725,73 @@
         <v>45311.5</v>
       </c>
       <c r="F497" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G497" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H497">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I497">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J497" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K497">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L497">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M497">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N497">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O497">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P497">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q497">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R497">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S497">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T497">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U497">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V497">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W497">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X497">
         <v>-1</v>
       </c>
       <c r="Y497">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z497">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA497">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB497">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC497">
         <v>-1</v>
@@ -44802,7 +44802,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>6933147</v>
+        <v>6932960</v>
       </c>
       <c r="C498" t="s">
         <v>28</v>
@@ -44814,58 +44814,58 @@
         <v>45311.5</v>
       </c>
       <c r="F498" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G498" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H498">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I498">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J498" t="s">
         <v>59</v>
       </c>
       <c r="K498">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="L498">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M498">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N498">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O498">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P498">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q498">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R498">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S498">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T498">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U498">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V498">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W498">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X498">
         <v>-1</v>
@@ -44874,13 +44874,13 @@
         <v>-1</v>
       </c>
       <c r="Z498">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA498">
         <v>-1</v>
       </c>
       <c r="AB498">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC498">
         <v>-1</v>
@@ -44891,7 +44891,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>6933148</v>
+        <v>6933146</v>
       </c>
       <c r="C499" t="s">
         <v>28</v>
@@ -44903,40 +44903,40 @@
         <v>45311.5</v>
       </c>
       <c r="F499" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G499" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I499">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J499" t="s">
         <v>60</v>
       </c>
       <c r="K499">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="L499">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M499">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="N499">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O499">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P499">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="Q499">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R499">
         <v>1.85</v>
@@ -44945,13 +44945,13 @@
         <v>1.95</v>
       </c>
       <c r="T499">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U499">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V499">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W499">
         <v>-1</v>
@@ -44960,7 +44960,7 @@
         <v>-1</v>
       </c>
       <c r="Y499">
-        <v>1.45</v>
+        <v>0.909</v>
       </c>
       <c r="Z499">
         <v>-1</v>
@@ -44969,7 +44969,7 @@
         <v>0.95</v>
       </c>
       <c r="AB499">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC499">
         <v>-1</v>
@@ -44980,7 +44980,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>6933146</v>
+        <v>6933147</v>
       </c>
       <c r="C500" t="s">
         <v>28</v>
@@ -44992,73 +44992,73 @@
         <v>45311.5</v>
       </c>
       <c r="F500" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G500" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I500">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J500" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K500">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="L500">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M500">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="N500">
-        <v>3.3</v>
+        <v>1.363</v>
       </c>
       <c r="O500">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P500">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q500">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R500">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S500">
+        <v>1.825</v>
+      </c>
+      <c r="T500">
+        <v>3</v>
+      </c>
+      <c r="U500">
+        <v>1.75</v>
+      </c>
+      <c r="V500">
         <v>1.95</v>
       </c>
-      <c r="T500">
-        <v>2.75</v>
-      </c>
-      <c r="U500">
-        <v>1.95</v>
-      </c>
-      <c r="V500">
-        <v>1.85</v>
-      </c>
       <c r="W500">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X500">
         <v>-1</v>
       </c>
       <c r="Y500">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z500">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA500">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB500">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AC500">
         <v>-1</v>

--- a/England Northern Premier League/England Northern Premier League.xlsx
+++ b/England Northern Premier League/England Northern Premier League.xlsx
@@ -13723,7 +13723,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6933072</v>
+        <v>6932930</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13735,58 +13735,58 @@
         <v>45241.5</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H149">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>53</v>
       </c>
       <c r="K149">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L149">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M149">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N149">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O149">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P149">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q149">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R149">
+        <v>2.025</v>
+      </c>
+      <c r="S149">
+        <v>1.775</v>
+      </c>
+      <c r="T149">
+        <v>3</v>
+      </c>
+      <c r="U149">
         <v>1.85</v>
       </c>
-      <c r="S149">
+      <c r="V149">
         <v>1.95</v>
       </c>
-      <c r="T149">
-        <v>2.75</v>
-      </c>
-      <c r="U149">
-        <v>1.925</v>
-      </c>
-      <c r="V149">
-        <v>1.875</v>
-      </c>
       <c r="W149">
-        <v>0.615</v>
+        <v>0.5</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13795,16 +13795,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13812,7 +13812,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6932930</v>
+        <v>6933077</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13824,40 +13824,40 @@
         <v>45241.5</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
         <v>3</v>
       </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
       <c r="J150" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K150">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="L150">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M150">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N150">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O150">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P150">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q150">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R150">
         <v>2.025</v>
@@ -13866,34 +13866,34 @@
         <v>1.775</v>
       </c>
       <c r="T150">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W150">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z150">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB150">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AC150">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13901,7 +13901,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6933077</v>
+        <v>6933076</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13913,76 +13913,76 @@
         <v>45241.5</v>
       </c>
       <c r="F151" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G151" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
         <v>0</v>
       </c>
-      <c r="I151">
-        <v>3</v>
-      </c>
       <c r="J151" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K151">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L151">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M151">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N151">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="O151">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P151">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q151">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R151">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="S151">
-        <v>1.775</v>
+        <v>2.1</v>
       </c>
       <c r="T151">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U151">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V151">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA151">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB151">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13990,7 +13990,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6933076</v>
+        <v>6933075</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14002,76 +14002,76 @@
         <v>45241.5</v>
       </c>
       <c r="F152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G152" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H152">
         <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K152">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L152">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N152">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="O152">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P152">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S152">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T152">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14079,7 +14079,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6933075</v>
+        <v>6933074</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14091,76 +14091,76 @@
         <v>45241.5</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G153" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153">
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K153">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L153">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M153">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N153">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="O153">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q153">
+        <v>-0.75</v>
+      </c>
+      <c r="R153">
+        <v>1.875</v>
+      </c>
+      <c r="S153">
+        <v>1.925</v>
+      </c>
+      <c r="T153">
+        <v>3</v>
+      </c>
+      <c r="U153">
+        <v>1.95</v>
+      </c>
+      <c r="V153">
+        <v>1.85</v>
+      </c>
+      <c r="W153">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
+        <v>0.4375</v>
+      </c>
+      <c r="AA153">
         <v>-0.5</v>
       </c>
-      <c r="R153">
-        <v>1.8</v>
-      </c>
-      <c r="S153">
-        <v>2</v>
-      </c>
-      <c r="T153">
-        <v>2.75</v>
-      </c>
-      <c r="U153">
-        <v>1.875</v>
-      </c>
-      <c r="V153">
-        <v>1.925</v>
-      </c>
-      <c r="W153">
-        <v>-1</v>
-      </c>
-      <c r="X153">
-        <v>2.6</v>
-      </c>
-      <c r="Y153">
-        <v>-1</v>
-      </c>
-      <c r="Z153">
-        <v>-1</v>
-      </c>
-      <c r="AA153">
-        <v>1</v>
-      </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14168,7 +14168,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6933074</v>
+        <v>6933073</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14180,49 +14180,49 @@
         <v>45241.5</v>
       </c>
       <c r="F154" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J154" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K154">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M154">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N154">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="O154">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P154">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q154">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R154">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S154">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T154">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U154">
         <v>1.95</v>
@@ -14231,25 +14231,25 @@
         <v>1.85</v>
       </c>
       <c r="W154">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z154">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB154">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC154">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14257,7 +14257,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6933073</v>
+        <v>6933072</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14269,73 +14269,73 @@
         <v>45241.5</v>
       </c>
       <c r="F155" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K155">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L155">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M155">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N155">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O155">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P155">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="Q155">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R155">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S155">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T155">
         <v>2.75</v>
       </c>
       <c r="U155">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V155">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA155">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -15414,7 +15414,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7472373</v>
+        <v>7387967</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15426,73 +15426,73 @@
         <v>45251.69791666666</v>
       </c>
       <c r="F168" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G168" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H168">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I168">
+        <v>3</v>
+      </c>
+      <c r="J168" t="s">
+        <v>55</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>3.5</v>
+      </c>
+      <c r="M168">
+        <v>3.1</v>
+      </c>
+      <c r="N168">
+        <v>2.3</v>
+      </c>
+      <c r="O168">
+        <v>3.4</v>
+      </c>
+      <c r="P168">
+        <v>2.625</v>
+      </c>
+      <c r="Q168">
         <v>0</v>
       </c>
-      <c r="J168" t="s">
-        <v>53</v>
-      </c>
-      <c r="K168">
-        <v>1.3</v>
-      </c>
-      <c r="L168">
-        <v>5.25</v>
-      </c>
-      <c r="M168">
-        <v>6.5</v>
-      </c>
-      <c r="N168">
-        <v>1.166</v>
-      </c>
-      <c r="O168">
-        <v>6.5</v>
-      </c>
-      <c r="P168">
-        <v>11</v>
-      </c>
-      <c r="Q168">
-        <v>-2</v>
-      </c>
       <c r="R168">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T168">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U168">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB168">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC168">
         <v>-1</v>
@@ -15503,7 +15503,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7387967</v>
+        <v>7472373</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15515,73 +15515,73 @@
         <v>45251.69791666666</v>
       </c>
       <c r="F169" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G169" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I169">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K169">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="L169">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M169">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N169">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="O169">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P169">
-        <v>2.625</v>
+        <v>11</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R169">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S169">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T169">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U169">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V169">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X169">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA169">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC169">
         <v>-1</v>
@@ -16215,7 +16215,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6933085</v>
+        <v>6932938</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16227,58 +16227,58 @@
         <v>45255.5</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
         <v>53</v>
       </c>
       <c r="K177">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L177">
         <v>3.75</v>
       </c>
       <c r="M177">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N177">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="O177">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q177">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S177">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
         <v>3</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W177">
-        <v>0.7</v>
+        <v>1.75</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16287,16 +16287,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC177">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16304,7 +16304,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6932938</v>
+        <v>6933086</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16316,73 +16316,73 @@
         <v>45255.5</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G178" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178">
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K178">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L178">
+        <v>3.6</v>
+      </c>
+      <c r="M178">
+        <v>3.8</v>
+      </c>
+      <c r="N178">
+        <v>1.55</v>
+      </c>
+      <c r="O178">
         <v>3.75</v>
       </c>
-      <c r="M178">
-        <v>1.8</v>
-      </c>
-      <c r="N178">
+      <c r="P178">
+        <v>4.75</v>
+      </c>
+      <c r="Q178">
+        <v>-1</v>
+      </c>
+      <c r="R178">
+        <v>2.025</v>
+      </c>
+      <c r="S178">
+        <v>1.775</v>
+      </c>
+      <c r="T178">
+        <v>2.5</v>
+      </c>
+      <c r="U178">
+        <v>1.825</v>
+      </c>
+      <c r="V178">
+        <v>1.975</v>
+      </c>
+      <c r="W178">
+        <v>-1</v>
+      </c>
+      <c r="X178">
         <v>2.75</v>
       </c>
-      <c r="O178">
-        <v>3.6</v>
-      </c>
-      <c r="P178">
-        <v>2.1</v>
-      </c>
-      <c r="Q178">
-        <v>0.25</v>
-      </c>
-      <c r="R178">
-        <v>1.875</v>
-      </c>
-      <c r="S178">
-        <v>1.925</v>
-      </c>
-      <c r="T178">
-        <v>3</v>
-      </c>
-      <c r="U178">
-        <v>1.925</v>
-      </c>
-      <c r="V178">
-        <v>1.875</v>
-      </c>
-      <c r="W178">
-        <v>1.75</v>
-      </c>
-      <c r="X178">
-        <v>-1</v>
-      </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB178">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16393,7 +16393,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6933086</v>
+        <v>6932936</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16405,73 +16405,73 @@
         <v>45255.5</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H179">
         <v>2</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J179" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K179">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="L179">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M179">
+        <v>2.6</v>
+      </c>
+      <c r="N179">
+        <v>1.95</v>
+      </c>
+      <c r="O179">
         <v>3.8</v>
       </c>
-      <c r="N179">
-        <v>1.55</v>
-      </c>
-      <c r="O179">
-        <v>3.75</v>
-      </c>
       <c r="P179">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q179">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S179">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U179">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V179">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z179">
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB179">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16482,7 +16482,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6932936</v>
+        <v>6933085</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16494,76 +16494,76 @@
         <v>45255.5</v>
       </c>
       <c r="F180" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G180" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H180">
         <v>2</v>
       </c>
       <c r="I180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K180">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L180">
         <v>3.75</v>
       </c>
       <c r="M180">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N180">
+        <v>1.7</v>
+      </c>
+      <c r="O180">
+        <v>4</v>
+      </c>
+      <c r="P180">
+        <v>3.6</v>
+      </c>
+      <c r="Q180">
+        <v>-0.75</v>
+      </c>
+      <c r="R180">
         <v>1.95</v>
       </c>
-      <c r="O180">
-        <v>3.8</v>
-      </c>
-      <c r="P180">
-        <v>3</v>
-      </c>
-      <c r="Q180">
-        <v>-0.25</v>
-      </c>
-      <c r="R180">
-        <v>1.75</v>
-      </c>
       <c r="S180">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
         <v>3</v>
       </c>
       <c r="U180">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V180">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA180">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB180">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16660,7 +16660,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6933087</v>
+        <v>6933088</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16672,58 +16672,58 @@
         <v>45255.5</v>
       </c>
       <c r="F182" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G182" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H182">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J182" t="s">
         <v>53</v>
       </c>
       <c r="K182">
-        <v>1.533</v>
+        <v>1.3</v>
       </c>
       <c r="L182">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M182">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N182">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O182">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P182">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q182">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R182">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S182">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T182">
         <v>3</v>
       </c>
       <c r="U182">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V182">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W182">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16732,13 +16732,13 @@
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB182">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -16749,7 +16749,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6933088</v>
+        <v>6933087</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16761,58 +16761,58 @@
         <v>45255.5</v>
       </c>
       <c r="F183" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
         <v>53</v>
       </c>
       <c r="K183">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="L183">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M183">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N183">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O183">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P183">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q183">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R183">
+        <v>2</v>
+      </c>
+      <c r="S183">
         <v>1.8</v>
-      </c>
-      <c r="S183">
-        <v>2</v>
       </c>
       <c r="T183">
         <v>3</v>
       </c>
       <c r="U183">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V183">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W183">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -16821,13 +16821,13 @@
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA183">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC183">
         <v>-1</v>
@@ -17194,7 +17194,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7496514</v>
+        <v>7496515</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17206,76 +17206,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F188" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G188" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J188" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K188">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="L188">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M188">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="N188">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="O188">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P188">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="Q188">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R188">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S188">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T188">
         <v>3</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z188">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC188">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17283,7 +17283,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7496515</v>
+        <v>7496514</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17295,76 +17295,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F189" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G189" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K189">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="L189">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M189">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="N189">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="O189">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P189">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="Q189">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R189">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S189">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T189">
         <v>3</v>
       </c>
       <c r="U189">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V189">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y189">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA189">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17372,7 +17372,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6932943</v>
+        <v>6932942</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17384,76 +17384,76 @@
         <v>45262.5</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G190" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>3</v>
+      </c>
+      <c r="J190" t="s">
+        <v>54</v>
+      </c>
+      <c r="K190">
+        <v>2.3</v>
+      </c>
+      <c r="L190">
+        <v>3.6</v>
+      </c>
+      <c r="M190">
+        <v>2.625</v>
+      </c>
+      <c r="N190">
+        <v>2.3</v>
+      </c>
+      <c r="O190">
+        <v>3.6</v>
+      </c>
+      <c r="P190">
+        <v>2.55</v>
+      </c>
+      <c r="Q190">
         <v>0</v>
       </c>
-      <c r="I190">
-        <v>0</v>
-      </c>
-      <c r="J190" t="s">
-        <v>55</v>
-      </c>
-      <c r="K190">
+      <c r="R190">
         <v>1.8</v>
       </c>
-      <c r="L190">
-        <v>3.8</v>
-      </c>
-      <c r="M190">
-        <v>3.6</v>
-      </c>
-      <c r="N190">
-        <v>1.85</v>
-      </c>
-      <c r="O190">
-        <v>3.8</v>
-      </c>
-      <c r="P190">
-        <v>3.4</v>
-      </c>
-      <c r="Q190">
-        <v>-0.5</v>
-      </c>
-      <c r="R190">
-        <v>1.9</v>
-      </c>
       <c r="S190">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T190">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U190">
+        <v>1.825</v>
+      </c>
+      <c r="V190">
         <v>1.975</v>
       </c>
-      <c r="V190">
-        <v>1.825</v>
-      </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC190">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17461,7 +17461,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6932942</v>
+        <v>6932943</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17473,76 +17473,76 @@
         <v>45262.5</v>
       </c>
       <c r="F191" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G191" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191" t="s">
+        <v>55</v>
+      </c>
+      <c r="K191">
+        <v>1.8</v>
+      </c>
+      <c r="L191">
+        <v>3.8</v>
+      </c>
+      <c r="M191">
+        <v>3.6</v>
+      </c>
+      <c r="N191">
+        <v>1.85</v>
+      </c>
+      <c r="O191">
+        <v>3.8</v>
+      </c>
+      <c r="P191">
+        <v>3.4</v>
+      </c>
+      <c r="Q191">
+        <v>-0.5</v>
+      </c>
+      <c r="R191">
+        <v>1.9</v>
+      </c>
+      <c r="S191">
+        <v>1.9</v>
+      </c>
+      <c r="T191">
         <v>3</v>
       </c>
-      <c r="J191" t="s">
-        <v>54</v>
-      </c>
-      <c r="K191">
-        <v>2.3</v>
-      </c>
-      <c r="L191">
-        <v>3.6</v>
-      </c>
-      <c r="M191">
-        <v>2.625</v>
-      </c>
-      <c r="N191">
-        <v>2.3</v>
-      </c>
-      <c r="O191">
-        <v>3.6</v>
-      </c>
-      <c r="P191">
-        <v>2.55</v>
-      </c>
-      <c r="Q191">
-        <v>0</v>
-      </c>
-      <c r="R191">
-        <v>1.8</v>
-      </c>
-      <c r="S191">
-        <v>2</v>
-      </c>
-      <c r="T191">
-        <v>2.75</v>
-      </c>
       <c r="U191">
+        <v>1.975</v>
+      </c>
+      <c r="V191">
         <v>1.825</v>
       </c>
-      <c r="V191">
-        <v>1.975</v>
-      </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y191">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
         <v>0.825</v>
-      </c>
-      <c r="AC191">
-        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -18262,7 +18262,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7496517</v>
+        <v>7496513</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18274,58 +18274,58 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F200" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G200" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H200">
+        <v>2</v>
+      </c>
+      <c r="I200">
         <v>1</v>
-      </c>
-      <c r="I200">
-        <v>0</v>
       </c>
       <c r="J200" t="s">
         <v>53</v>
       </c>
       <c r="K200">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L200">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M200">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N200">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="O200">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P200">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q200">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R200">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S200">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T200">
         <v>3</v>
       </c>
       <c r="U200">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V200">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W200">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="X200">
         <v>-1</v>
@@ -18334,16 +18334,16 @@
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC200">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18351,7 +18351,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7496513</v>
+        <v>7496517</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18363,58 +18363,58 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F201" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G201" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
         <v>53</v>
       </c>
       <c r="K201">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L201">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M201">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N201">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="O201">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q201">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S201">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T201">
         <v>3</v>
       </c>
       <c r="U201">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V201">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18423,16 +18423,16 @@
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA201">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18707,7 +18707,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6932871</v>
+        <v>6933109</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18719,73 +18719,73 @@
         <v>45276.5</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H205">
         <v>2</v>
       </c>
       <c r="I205">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J205" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K205">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L205">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M205">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="N205">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O205">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P205">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q205">
         <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S205">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T205">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U205">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V205">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB205">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC205">
         <v>-1</v>
@@ -18796,7 +18796,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6933109</v>
+        <v>6932871</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18808,73 +18808,73 @@
         <v>45276.5</v>
       </c>
       <c r="F206" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G206" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H206">
         <v>2</v>
       </c>
       <c r="I206">
+        <v>2</v>
+      </c>
+      <c r="J206" t="s">
+        <v>55</v>
+      </c>
+      <c r="K206">
+        <v>2</v>
+      </c>
+      <c r="L206">
+        <v>3.6</v>
+      </c>
+      <c r="M206">
         <v>3</v>
       </c>
-      <c r="J206" t="s">
-        <v>54</v>
-      </c>
-      <c r="K206">
-        <v>2.1</v>
-      </c>
-      <c r="L206">
-        <v>3.75</v>
-      </c>
-      <c r="M206">
-        <v>2.7</v>
-      </c>
       <c r="N206">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O206">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P206">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q206">
         <v>-0.5</v>
       </c>
       <c r="R206">
+        <v>1.95</v>
+      </c>
+      <c r="S206">
+        <v>1.85</v>
+      </c>
+      <c r="T206">
+        <v>3.25</v>
+      </c>
+      <c r="U206">
         <v>1.9</v>
       </c>
-      <c r="S206">
+      <c r="V206">
         <v>1.9</v>
       </c>
-      <c r="T206">
-        <v>3</v>
-      </c>
-      <c r="U206">
-        <v>1.925</v>
-      </c>
-      <c r="V206">
-        <v>1.875</v>
-      </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y206">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
         <v>-1</v>
       </c>
       <c r="AA206">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB206">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB206">
-        <v>0.925</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6932872</v>
+        <v>6933107</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,58 +19253,58 @@
         <v>45276.5</v>
       </c>
       <c r="F211" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G211" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H211">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="s">
         <v>53</v>
       </c>
       <c r="K211">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L211">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M211">
+        <v>3.3</v>
+      </c>
+      <c r="N211">
+        <v>1.75</v>
+      </c>
+      <c r="O211">
+        <v>3.75</v>
+      </c>
+      <c r="P211">
         <v>3.5</v>
       </c>
-      <c r="N211">
-        <v>1.55</v>
-      </c>
-      <c r="O211">
-        <v>4.2</v>
-      </c>
-      <c r="P211">
-        <v>4.333</v>
-      </c>
       <c r="Q211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R211">
+        <v>1.8</v>
+      </c>
+      <c r="S211">
+        <v>2</v>
+      </c>
+      <c r="T211">
+        <v>2.5</v>
+      </c>
+      <c r="U211">
+        <v>1.75</v>
+      </c>
+      <c r="V211">
         <v>1.95</v>
       </c>
-      <c r="S211">
-        <v>1.85</v>
-      </c>
-      <c r="T211">
-        <v>3.25</v>
-      </c>
-      <c r="U211">
-        <v>1.95</v>
-      </c>
-      <c r="V211">
-        <v>1.85</v>
-      </c>
       <c r="W211">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="X211">
         <v>-1</v>
@@ -19313,13 +19313,13 @@
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA211">
         <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AC211">
         <v>-1</v>
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6933107</v>
+        <v>6933106</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,40 +19342,40 @@
         <v>45276.5</v>
       </c>
       <c r="F212" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G212" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H212">
         <v>3</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J212" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K212">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="L212">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M212">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="N212">
-        <v>1.75</v>
+        <v>1.222</v>
       </c>
       <c r="O212">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P212">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="Q212">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R212">
         <v>1.8</v>
@@ -19384,31 +19384,31 @@
         <v>2</v>
       </c>
       <c r="T212">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U212">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V212">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W212">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z212">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB212">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC212">
         <v>-1</v>
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6933106</v>
+        <v>6933105</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,49 +19431,49 @@
         <v>45276.5</v>
       </c>
       <c r="F213" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G213" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K213">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L213">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M213">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="N213">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="O213">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P213">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="Q213">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S213">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T213">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U213">
         <v>1.9</v>
@@ -19485,16 +19485,16 @@
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y213">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA213">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB213">
         <v>0.8999999999999999</v>
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6933105</v>
+        <v>6932872</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,73 +19520,73 @@
         <v>45276.5</v>
       </c>
       <c r="F214" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G214" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K214">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L214">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M214">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N214">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="O214">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P214">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="Q214">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R214">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S214">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T214">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V214">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X214">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA214">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -22178,7 +22178,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6933127</v>
+        <v>6933129</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22190,73 +22190,73 @@
         <v>45292.5</v>
       </c>
       <c r="F244" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G244" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H244">
+        <v>2</v>
+      </c>
+      <c r="I244">
         <v>3</v>
       </c>
-      <c r="I244">
-        <v>2</v>
-      </c>
       <c r="J244" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K244">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M244">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N244">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="O244">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P244">
-        <v>11</v>
+        <v>2.375</v>
       </c>
       <c r="Q244">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R244">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S244">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T244">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U244">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V244">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W244">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X244">
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z244">
         <v>-1</v>
       </c>
       <c r="AA244">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB244">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC244">
         <v>-1</v>
@@ -22267,7 +22267,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6933125</v>
+        <v>6933127</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22279,76 +22279,76 @@
         <v>45292.5</v>
       </c>
       <c r="F245" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G245" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I245">
+        <v>2</v>
+      </c>
+      <c r="J245" t="s">
+        <v>53</v>
+      </c>
+      <c r="K245">
+        <v>1.45</v>
+      </c>
+      <c r="L245">
+        <v>4</v>
+      </c>
+      <c r="M245">
+        <v>6</v>
+      </c>
+      <c r="N245">
+        <v>1.2</v>
+      </c>
+      <c r="O245">
+        <v>5.5</v>
+      </c>
+      <c r="P245">
+        <v>11</v>
+      </c>
+      <c r="Q245">
+        <v>-1.75</v>
+      </c>
+      <c r="R245">
+        <v>1.8</v>
+      </c>
+      <c r="S245">
+        <v>2</v>
+      </c>
+      <c r="T245">
+        <v>3</v>
+      </c>
+      <c r="U245">
+        <v>2</v>
+      </c>
+      <c r="V245">
+        <v>1.8</v>
+      </c>
+      <c r="W245">
+        <v>0.2</v>
+      </c>
+      <c r="X245">
+        <v>-1</v>
+      </c>
+      <c r="Y245">
+        <v>-1</v>
+      </c>
+      <c r="Z245">
+        <v>-1</v>
+      </c>
+      <c r="AA245">
         <v>1</v>
       </c>
-      <c r="J245" t="s">
-        <v>54</v>
-      </c>
-      <c r="K245">
-        <v>2.6</v>
-      </c>
-      <c r="L245">
-        <v>3.75</v>
-      </c>
-      <c r="M245">
-        <v>2.15</v>
-      </c>
-      <c r="N245">
-        <v>3.2</v>
-      </c>
-      <c r="O245">
-        <v>3.8</v>
-      </c>
-      <c r="P245">
-        <v>1.833</v>
-      </c>
-      <c r="Q245">
-        <v>0.5</v>
-      </c>
-      <c r="R245">
-        <v>1.9</v>
-      </c>
-      <c r="S245">
-        <v>1.9</v>
-      </c>
-      <c r="T245">
-        <v>2.75</v>
-      </c>
-      <c r="U245">
-        <v>1.875</v>
-      </c>
-      <c r="V245">
-        <v>1.925</v>
-      </c>
-      <c r="W245">
-        <v>-1</v>
-      </c>
-      <c r="X245">
-        <v>-1</v>
-      </c>
-      <c r="Y245">
-        <v>0.833</v>
-      </c>
-      <c r="Z245">
-        <v>-1</v>
-      </c>
-      <c r="AA245">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB245">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC245">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22356,7 +22356,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6932955</v>
+        <v>6933125</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22368,76 +22368,76 @@
         <v>45292.5</v>
       </c>
       <c r="F246" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G246" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H246">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J246" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K246">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L246">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M246">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="N246">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="O246">
         <v>3.8</v>
       </c>
       <c r="P246">
-        <v>3.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q246">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R246">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S246">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T246">
         <v>2.75</v>
       </c>
       <c r="U246">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V246">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W246">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z246">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA246">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB246">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC246">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22445,7 +22445,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6932878</v>
+        <v>6932955</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22457,76 +22457,76 @@
         <v>45292.5</v>
       </c>
       <c r="F247" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G247" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K247">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L247">
         <v>3.6</v>
       </c>
       <c r="M247">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N247">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O247">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P247">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q247">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R247">
+        <v>1.825</v>
+      </c>
+      <c r="S247">
+        <v>1.975</v>
+      </c>
+      <c r="T247">
+        <v>2.75</v>
+      </c>
+      <c r="U247">
+        <v>1.85</v>
+      </c>
+      <c r="V247">
         <v>1.95</v>
       </c>
-      <c r="S247">
-        <v>1.75</v>
-      </c>
-      <c r="T247">
-        <v>3.25</v>
-      </c>
-      <c r="U247">
-        <v>1.875</v>
-      </c>
-      <c r="V247">
-        <v>1.925</v>
-      </c>
       <c r="W247">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X247">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
         <v>-1</v>
       </c>
       <c r="Z247">
+        <v>0.825</v>
+      </c>
+      <c r="AA247">
+        <v>-1</v>
+      </c>
+      <c r="AB247">
+        <v>0.425</v>
+      </c>
+      <c r="AC247">
         <v>-0.5</v>
-      </c>
-      <c r="AA247">
-        <v>0.375</v>
-      </c>
-      <c r="AB247">
-        <v>0.875</v>
-      </c>
-      <c r="AC247">
-        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22534,7 +22534,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6933129</v>
+        <v>6932878</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22546,73 +22546,73 @@
         <v>45292.5</v>
       </c>
       <c r="F248" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G248" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H248">
         <v>2</v>
       </c>
       <c r="I248">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J248" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K248">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L248">
         <v>3.6</v>
       </c>
       <c r="M248">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N248">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="O248">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P248">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="Q248">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R248">
+        <v>1.95</v>
+      </c>
+      <c r="S248">
+        <v>1.75</v>
+      </c>
+      <c r="T248">
+        <v>3.25</v>
+      </c>
+      <c r="U248">
+        <v>1.875</v>
+      </c>
+      <c r="V248">
         <v>1.925</v>
       </c>
-      <c r="S248">
-        <v>1.875</v>
-      </c>
-      <c r="T248">
+      <c r="W248">
+        <v>-1</v>
+      </c>
+      <c r="X248">
         <v>2.75</v>
       </c>
-      <c r="U248">
-        <v>1.975</v>
-      </c>
-      <c r="V248">
-        <v>1.825</v>
-      </c>
-      <c r="W248">
-        <v>-1</v>
-      </c>
-      <c r="X248">
-        <v>-1</v>
-      </c>
       <c r="Y248">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA248">
+        <v>0.375</v>
+      </c>
+      <c r="AB248">
         <v>0.875</v>
-      </c>
-      <c r="AB248">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC248">
         <v>-1</v>
@@ -23157,7 +23157,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6933134</v>
+        <v>6933130</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23169,10 +23169,10 @@
         <v>45297.5</v>
       </c>
       <c r="F255" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G255" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -23184,40 +23184,40 @@
         <v>54</v>
       </c>
       <c r="K255">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L255">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M255">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N255">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="O255">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P255">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q255">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R255">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S255">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T255">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U255">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V255">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W255">
         <v>-1</v>
@@ -23226,19 +23226,19 @@
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z255">
         <v>-1</v>
       </c>
       <c r="AA255">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB255">
         <v>-1</v>
       </c>
       <c r="AC255">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23246,7 +23246,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6933135</v>
+        <v>6933134</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23258,76 +23258,76 @@
         <v>45297.5</v>
       </c>
       <c r="F256" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G256" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H256">
         <v>0</v>
       </c>
       <c r="I256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K256">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L256">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M256">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N256">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O256">
         <v>3.5</v>
       </c>
       <c r="P256">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="Q256">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R256">
+        <v>1.85</v>
+      </c>
+      <c r="S256">
         <v>1.95</v>
       </c>
-      <c r="S256">
-        <v>1.85</v>
-      </c>
       <c r="T256">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U256">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V256">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W256">
         <v>-1</v>
       </c>
       <c r="X256">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y256">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z256">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA256">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB256">
         <v>-1</v>
       </c>
       <c r="AC256">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23335,7 +23335,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6933130</v>
+        <v>6933135</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23347,76 +23347,76 @@
         <v>45297.5</v>
       </c>
       <c r="F257" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G257" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H257">
         <v>0</v>
       </c>
       <c r="I257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K257">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="L257">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M257">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N257">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O257">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P257">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q257">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R257">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S257">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T257">
         <v>2.75</v>
       </c>
       <c r="U257">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V257">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W257">
         <v>-1</v>
       </c>
       <c r="X257">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y257">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA257">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB257">
         <v>-1</v>
       </c>
       <c r="AC257">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -24581,7 +24581,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6932883</v>
+        <v>6932960</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24593,73 +24593,73 @@
         <v>45311.5</v>
       </c>
       <c r="F271" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G271" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J271" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K271">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L271">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M271">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N271">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="O271">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P271">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="Q271">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R271">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S271">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T271">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U271">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V271">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W271">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X271">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y271">
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC271">
         <v>-1</v>
@@ -24670,7 +24670,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6932960</v>
+        <v>6933146</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24682,73 +24682,73 @@
         <v>45311.5</v>
       </c>
       <c r="F272" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G272" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H272">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I272">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J272" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K272">
-        <v>1.615</v>
+        <v>3.75</v>
       </c>
       <c r="L272">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M272">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="N272">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="O272">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P272">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q272">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R272">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S272">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T272">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U272">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V272">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W272">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X272">
         <v>-1</v>
       </c>
       <c r="Y272">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z272">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA272">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB272">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC272">
         <v>-1</v>
@@ -24759,7 +24759,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6933146</v>
+        <v>6932883</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24771,73 +24771,73 @@
         <v>45311.5</v>
       </c>
       <c r="F273" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G273" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J273" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K273">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L273">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M273">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="N273">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O273">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P273">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="Q273">
         <v>0.5</v>
       </c>
       <c r="R273">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S273">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T273">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U273">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V273">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W273">
         <v>-1</v>
       </c>
       <c r="X273">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y273">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z273">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA273">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB273">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC273">
         <v>-1</v>
@@ -25026,7 +25026,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6933147</v>
+        <v>6933148</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25038,73 +25038,73 @@
         <v>45311.5</v>
       </c>
       <c r="F276" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G276" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H276">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I276">
+        <v>3</v>
+      </c>
+      <c r="J276" t="s">
+        <v>54</v>
+      </c>
+      <c r="K276">
+        <v>2.25</v>
+      </c>
+      <c r="L276">
+        <v>3.4</v>
+      </c>
+      <c r="M276">
+        <v>2.625</v>
+      </c>
+      <c r="N276">
+        <v>2.375</v>
+      </c>
+      <c r="O276">
+        <v>3.5</v>
+      </c>
+      <c r="P276">
+        <v>2.45</v>
+      </c>
+      <c r="Q276">
         <v>0</v>
       </c>
-      <c r="J276" t="s">
-        <v>53</v>
-      </c>
-      <c r="K276">
-        <v>1.363</v>
-      </c>
-      <c r="L276">
-        <v>4.333</v>
-      </c>
-      <c r="M276">
-        <v>6.5</v>
-      </c>
-      <c r="N276">
-        <v>1.363</v>
-      </c>
-      <c r="O276">
-        <v>4.5</v>
-      </c>
-      <c r="P276">
-        <v>6.5</v>
-      </c>
-      <c r="Q276">
-        <v>-1.5</v>
-      </c>
       <c r="R276">
+        <v>1.85</v>
+      </c>
+      <c r="S276">
+        <v>1.95</v>
+      </c>
+      <c r="T276">
+        <v>3.25</v>
+      </c>
+      <c r="U276">
         <v>1.975</v>
       </c>
-      <c r="S276">
+      <c r="V276">
         <v>1.825</v>
       </c>
-      <c r="T276">
-        <v>3</v>
-      </c>
-      <c r="U276">
-        <v>1.75</v>
-      </c>
-      <c r="V276">
-        <v>1.95</v>
-      </c>
       <c r="W276">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X276">
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z276">
+        <v>-1</v>
+      </c>
+      <c r="AA276">
+        <v>0.95</v>
+      </c>
+      <c r="AB276">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA276">
-        <v>-1</v>
-      </c>
-      <c r="AB276">
-        <v>0.75</v>
       </c>
       <c r="AC276">
         <v>-1</v>
@@ -25115,7 +25115,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6933148</v>
+        <v>6933147</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25127,73 +25127,73 @@
         <v>45311.5</v>
       </c>
       <c r="F277" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G277" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277" t="s">
+        <v>53</v>
+      </c>
+      <c r="K277">
+        <v>1.363</v>
+      </c>
+      <c r="L277">
+        <v>4.333</v>
+      </c>
+      <c r="M277">
+        <v>6.5</v>
+      </c>
+      <c r="N277">
+        <v>1.363</v>
+      </c>
+      <c r="O277">
+        <v>4.5</v>
+      </c>
+      <c r="P277">
+        <v>6.5</v>
+      </c>
+      <c r="Q277">
+        <v>-1.5</v>
+      </c>
+      <c r="R277">
+        <v>1.975</v>
+      </c>
+      <c r="S277">
+        <v>1.825</v>
+      </c>
+      <c r="T277">
         <v>3</v>
       </c>
-      <c r="J277" t="s">
-        <v>54</v>
-      </c>
-      <c r="K277">
-        <v>2.25</v>
-      </c>
-      <c r="L277">
-        <v>3.4</v>
-      </c>
-      <c r="M277">
-        <v>2.625</v>
-      </c>
-      <c r="N277">
-        <v>2.375</v>
-      </c>
-      <c r="O277">
-        <v>3.5</v>
-      </c>
-      <c r="P277">
-        <v>2.45</v>
-      </c>
-      <c r="Q277">
-        <v>0</v>
-      </c>
-      <c r="R277">
-        <v>1.85</v>
-      </c>
-      <c r="S277">
+      <c r="U277">
+        <v>1.75</v>
+      </c>
+      <c r="V277">
         <v>1.95</v>
       </c>
-      <c r="T277">
-        <v>3.25</v>
-      </c>
-      <c r="U277">
-        <v>1.975</v>
-      </c>
-      <c r="V277">
-        <v>1.825</v>
-      </c>
       <c r="W277">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X277">
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z277">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA277">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB277">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC277">
         <v>-1</v>
@@ -26450,7 +26450,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6933162</v>
+        <v>6933163</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26462,73 +26462,73 @@
         <v>45325.5</v>
       </c>
       <c r="F292" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G292" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I292">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J292" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K292">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="L292">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M292">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N292">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="O292">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P292">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q292">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R292">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S292">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T292">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U292">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V292">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W292">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z292">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA292">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB292">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC292">
         <v>-1</v>
@@ -26539,7 +26539,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6933161</v>
+        <v>6933162</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26551,76 +26551,76 @@
         <v>45325.5</v>
       </c>
       <c r="F293" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G293" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H293">
         <v>2</v>
       </c>
       <c r="I293">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J293" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K293">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L293">
         <v>5</v>
       </c>
       <c r="M293">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N293">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="O293">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="P293">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="Q293">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R293">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S293">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T293">
         <v>3.25</v>
       </c>
       <c r="U293">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V293">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W293">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X293">
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z293">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA293">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AB293">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC293">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26628,7 +26628,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6932963</v>
+        <v>6933161</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26640,76 +26640,76 @@
         <v>45325.5</v>
       </c>
       <c r="F294" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G294" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I294">
         <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K294">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="L294">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M294">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="N294">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O294">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P294">
-        <v>1.833</v>
+        <v>4.333</v>
       </c>
       <c r="Q294">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R294">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S294">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T294">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U294">
+        <v>1.975</v>
+      </c>
+      <c r="V294">
         <v>1.825</v>
       </c>
-      <c r="V294">
-        <v>1.975</v>
-      </c>
       <c r="W294">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X294">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y294">
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA294">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB294">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC294">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26717,7 +26717,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6933159</v>
+        <v>6932963</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26729,76 +26729,76 @@
         <v>45325.5</v>
       </c>
       <c r="F295" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G295" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H295">
+        <v>1</v>
+      </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
+      <c r="J295" t="s">
+        <v>55</v>
+      </c>
+      <c r="K295">
+        <v>2.625</v>
+      </c>
+      <c r="L295">
+        <v>3.6</v>
+      </c>
+      <c r="M295">
+        <v>2.2</v>
+      </c>
+      <c r="N295">
+        <v>3.2</v>
+      </c>
+      <c r="O295">
         <v>4</v>
       </c>
-      <c r="I295">
+      <c r="P295">
+        <v>1.833</v>
+      </c>
+      <c r="Q295">
+        <v>0.5</v>
+      </c>
+      <c r="R295">
+        <v>1.925</v>
+      </c>
+      <c r="S295">
+        <v>1.875</v>
+      </c>
+      <c r="T295">
         <v>3</v>
       </c>
-      <c r="J295" t="s">
-        <v>53</v>
-      </c>
-      <c r="K295">
-        <v>3.5</v>
-      </c>
-      <c r="L295">
-        <v>4</v>
-      </c>
-      <c r="M295">
-        <v>1.727</v>
-      </c>
-      <c r="N295">
-        <v>3.6</v>
-      </c>
-      <c r="O295">
-        <v>4.5</v>
-      </c>
-      <c r="P295">
-        <v>1.615</v>
-      </c>
-      <c r="Q295">
-        <v>0.75</v>
-      </c>
-      <c r="R295">
-        <v>2</v>
-      </c>
-      <c r="S295">
-        <v>1.8</v>
-      </c>
-      <c r="T295">
-        <v>3.5</v>
-      </c>
       <c r="U295">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V295">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W295">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X295">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y295">
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA295">
         <v>-1</v>
       </c>
       <c r="AB295">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC295">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26806,7 +26806,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6933163</v>
+        <v>6933159</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26818,40 +26818,40 @@
         <v>45325.5</v>
       </c>
       <c r="F296" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G296" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H296">
+        <v>4</v>
+      </c>
+      <c r="I296">
         <v>3</v>
-      </c>
-      <c r="I296">
-        <v>0</v>
       </c>
       <c r="J296" t="s">
         <v>53</v>
       </c>
       <c r="K296">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="L296">
         <v>4</v>
       </c>
       <c r="M296">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="N296">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="O296">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P296">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="Q296">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R296">
         <v>2</v>
@@ -26860,16 +26860,16 @@
         <v>1.8</v>
       </c>
       <c r="T296">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U296">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V296">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W296">
-        <v>0.571</v>
+        <v>2.6</v>
       </c>
       <c r="X296">
         <v>-1</v>
@@ -26884,7 +26884,7 @@
         <v>-1</v>
       </c>
       <c r="AB296">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC296">
         <v>-1</v>
@@ -26895,7 +26895,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6933730</v>
+        <v>6933160</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26907,76 +26907,76 @@
         <v>45325.5</v>
       </c>
       <c r="F297" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G297" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H297">
+        <v>2</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297" t="s">
+        <v>53</v>
+      </c>
+      <c r="K297">
+        <v>1.952</v>
+      </c>
+      <c r="L297">
+        <v>3.75</v>
+      </c>
+      <c r="M297">
         <v>3</v>
       </c>
-      <c r="I297">
-        <v>4</v>
-      </c>
-      <c r="J297" t="s">
-        <v>54</v>
-      </c>
-      <c r="K297">
-        <v>1.571</v>
-      </c>
-      <c r="L297">
-        <v>4</v>
-      </c>
-      <c r="M297">
-        <v>4.333</v>
-      </c>
       <c r="N297">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="O297">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P297">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q297">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R297">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S297">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T297">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U297">
+        <v>1.875</v>
+      </c>
+      <c r="V297">
         <v>1.925</v>
       </c>
-      <c r="V297">
-        <v>1.875</v>
-      </c>
       <c r="W297">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA297">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
+        <v>-1</v>
+      </c>
+      <c r="AC297">
         <v>0.925</v>
-      </c>
-      <c r="AC297">
-        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26984,7 +26984,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6933160</v>
+        <v>6933730</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26996,76 +26996,76 @@
         <v>45325.5</v>
       </c>
       <c r="F298" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G298" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I298">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J298" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K298">
-        <v>1.952</v>
+        <v>1.571</v>
       </c>
       <c r="L298">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M298">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N298">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O298">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P298">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q298">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R298">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S298">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T298">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U298">
+        <v>1.925</v>
+      </c>
+      <c r="V298">
         <v>1.875</v>
       </c>
-      <c r="V298">
-        <v>1.925</v>
-      </c>
       <c r="W298">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X298">
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z298">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA298">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB298">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC298">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -28319,7 +28319,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>6933817</v>
+        <v>6933813</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28331,76 +28331,76 @@
         <v>45339.5</v>
       </c>
       <c r="F313" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G313" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J313" t="s">
         <v>55</v>
       </c>
       <c r="K313">
-        <v>2.2</v>
+        <v>1.222</v>
       </c>
       <c r="L313">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M313">
-        <v>2.7</v>
+        <v>9.5</v>
       </c>
       <c r="N313">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="O313">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P313">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q313">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R313">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S313">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T313">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U313">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V313">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W313">
         <v>-1</v>
       </c>
       <c r="X313">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y313">
         <v>-1</v>
       </c>
       <c r="Z313">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA313">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB313">
         <v>-1</v>
       </c>
       <c r="AC313">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28408,7 +28408,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>6933814</v>
+        <v>6933817</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28420,16 +28420,16 @@
         <v>45339.5</v>
       </c>
       <c r="F314" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G314" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J314" t="s">
         <v>55</v>
@@ -28438,58 +28438,58 @@
         <v>2.2</v>
       </c>
       <c r="L314">
+        <v>3.5</v>
+      </c>
+      <c r="M314">
+        <v>2.7</v>
+      </c>
+      <c r="N314">
         <v>3.6</v>
       </c>
-      <c r="M314">
-        <v>2.625</v>
-      </c>
-      <c r="N314">
-        <v>1.95</v>
-      </c>
       <c r="O314">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P314">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q314">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R314">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S314">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T314">
         <v>2.75</v>
       </c>
       <c r="U314">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V314">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W314">
         <v>-1</v>
       </c>
       <c r="X314">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y314">
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA314">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB314">
         <v>-1</v>
       </c>
       <c r="AC314">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28497,7 +28497,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6933815</v>
+        <v>6933814</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28509,76 +28509,76 @@
         <v>45339.5</v>
       </c>
       <c r="F315" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G315" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H315">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I315">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J315" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K315">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L315">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M315">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N315">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O315">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P315">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q315">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R315">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S315">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T315">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U315">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V315">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W315">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X315">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y315">
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA315">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB315">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC315">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28586,7 +28586,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>6933818</v>
+        <v>6933815</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28598,16 +28598,16 @@
         <v>45339.5</v>
       </c>
       <c r="F316" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G316" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H316">
+        <v>5</v>
+      </c>
+      <c r="I316">
         <v>3</v>
-      </c>
-      <c r="I316">
-        <v>2</v>
       </c>
       <c r="J316" t="s">
         <v>53</v>
@@ -28622,34 +28622,34 @@
         <v>3.1</v>
       </c>
       <c r="N316">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O316">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P316">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q316">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R316">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S316">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T316">
         <v>3</v>
       </c>
       <c r="U316">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V316">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W316">
-        <v>1.05</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X316">
         <v>-1</v>
@@ -28658,13 +28658,13 @@
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA316">
         <v>-1</v>
       </c>
       <c r="AB316">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC316">
         <v>-1</v>
@@ -28675,7 +28675,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6933813</v>
+        <v>6933818</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28687,40 +28687,40 @@
         <v>45339.5</v>
       </c>
       <c r="F317" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G317" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J317" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K317">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="L317">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M317">
-        <v>9.5</v>
+        <v>3.1</v>
       </c>
       <c r="N317">
-        <v>1.25</v>
+        <v>2.05</v>
       </c>
       <c r="O317">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P317">
-        <v>8.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q317">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R317">
         <v>1.825</v>
@@ -28729,34 +28729,34 @@
         <v>1.975</v>
       </c>
       <c r="T317">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U317">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V317">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W317">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X317">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA317">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB317">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC317">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -29298,7 +29298,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6934822</v>
+        <v>6934821</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29310,46 +29310,46 @@
         <v>45346.5</v>
       </c>
       <c r="F324" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G324" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J324" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K324">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L324">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M324">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N324">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O324">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P324">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q324">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R324">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S324">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T324">
         <v>2.5</v>
@@ -29361,19 +29361,19 @@
         <v>2.025</v>
       </c>
       <c r="W324">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X324">
         <v>-1</v>
       </c>
       <c r="Y324">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z324">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA324">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB324">
         <v>0.7749999999999999</v>
@@ -29387,7 +29387,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6934821</v>
+        <v>6934822</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29399,46 +29399,46 @@
         <v>45346.5</v>
       </c>
       <c r="F325" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G325" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H325">
+        <v>2</v>
+      </c>
+      <c r="I325">
         <v>1</v>
       </c>
-      <c r="I325">
-        <v>4</v>
-      </c>
       <c r="J325" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K325">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L325">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M325">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N325">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="O325">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P325">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q325">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R325">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S325">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T325">
         <v>2.5</v>
@@ -29450,19 +29450,19 @@
         <v>2.025</v>
       </c>
       <c r="W325">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X325">
         <v>-1</v>
       </c>
       <c r="Y325">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z325">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA325">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB325">
         <v>0.7749999999999999</v>
@@ -30099,7 +30099,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7841946</v>
+        <v>7888541</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30111,76 +30111,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F333" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G333" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H333">
         <v>1</v>
       </c>
       <c r="I333">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J333" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K333">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L333">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M333">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="N333">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O333">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P333">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="Q333">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R333">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S333">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T333">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U333">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V333">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W333">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z333">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA333">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB333">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC333">
-        <v>1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30188,7 +30188,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7888541</v>
+        <v>7841946</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30200,76 +30200,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F334" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G334" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H334">
         <v>1</v>
       </c>
       <c r="I334">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J334" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K334">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L334">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M334">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="N334">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O334">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P334">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="Q334">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R334">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S334">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T334">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U334">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V334">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W334">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z334">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA334">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB334">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC334">
-        <v>0.475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30811,7 +30811,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7841945</v>
+        <v>7901699</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30823,10 +30823,10 @@
         <v>45360.5</v>
       </c>
       <c r="F341" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G341" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H341">
         <v>0</v>
@@ -30838,41 +30838,41 @@
         <v>54</v>
       </c>
       <c r="K341">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L341">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M341">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N341">
+        <v>2.75</v>
+      </c>
+      <c r="O341">
+        <v>3.6</v>
+      </c>
+      <c r="P341">
+        <v>2.1</v>
+      </c>
+      <c r="Q341">
+        <v>0.25</v>
+      </c>
+      <c r="R341">
+        <v>1.85</v>
+      </c>
+      <c r="S341">
         <v>1.95</v>
       </c>
-      <c r="O341">
-        <v>3.4</v>
-      </c>
-      <c r="P341">
-        <v>3.3</v>
-      </c>
-      <c r="Q341">
-        <v>-0.5</v>
-      </c>
-      <c r="R341">
-        <v>2</v>
-      </c>
-      <c r="S341">
+      <c r="T341">
+        <v>3.25</v>
+      </c>
+      <c r="U341">
+        <v>2</v>
+      </c>
+      <c r="V341">
         <v>1.8</v>
       </c>
-      <c r="T341">
-        <v>2.5</v>
-      </c>
-      <c r="U341">
-        <v>1.95</v>
-      </c>
-      <c r="V341">
-        <v>1.85</v>
-      </c>
       <c r="W341">
         <v>-1</v>
       </c>
@@ -30880,19 +30880,19 @@
         <v>-1</v>
       </c>
       <c r="Y341">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="Z341">
         <v>-1</v>
       </c>
       <c r="AA341">
+        <v>0.95</v>
+      </c>
+      <c r="AB341">
+        <v>-1</v>
+      </c>
+      <c r="AC341">
         <v>0.8</v>
-      </c>
-      <c r="AB341">
-        <v>-1</v>
-      </c>
-      <c r="AC341">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -30989,7 +30989,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>7901699</v>
+        <v>7841945</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -31001,10 +31001,10 @@
         <v>45360.5</v>
       </c>
       <c r="F343" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G343" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H343">
         <v>0</v>
@@ -31016,41 +31016,41 @@
         <v>54</v>
       </c>
       <c r="K343">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L343">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M343">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N343">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="O343">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P343">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q343">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R343">
+        <v>2</v>
+      </c>
+      <c r="S343">
+        <v>1.8</v>
+      </c>
+      <c r="T343">
+        <v>2.5</v>
+      </c>
+      <c r="U343">
+        <v>1.95</v>
+      </c>
+      <c r="V343">
         <v>1.85</v>
       </c>
-      <c r="S343">
-        <v>1.95</v>
-      </c>
-      <c r="T343">
-        <v>3.25</v>
-      </c>
-      <c r="U343">
-        <v>2</v>
-      </c>
-      <c r="V343">
-        <v>1.8</v>
-      </c>
       <c r="W343">
         <v>-1</v>
       </c>
@@ -31058,19 +31058,19 @@
         <v>-1</v>
       </c>
       <c r="Y343">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="Z343">
         <v>-1</v>
       </c>
       <c r="AA343">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB343">
         <v>-1</v>
       </c>
       <c r="AC343">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -31256,7 +31256,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6938024</v>
+        <v>6938025</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31268,76 +31268,76 @@
         <v>45367.5</v>
       </c>
       <c r="F346" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G346" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H346">
+        <v>2</v>
+      </c>
+      <c r="I346">
         <v>0</v>
       </c>
-      <c r="I346">
+      <c r="J346" t="s">
+        <v>53</v>
+      </c>
+      <c r="K346">
+        <v>1.727</v>
+      </c>
+      <c r="L346">
+        <v>3.75</v>
+      </c>
+      <c r="M346">
+        <v>3.75</v>
+      </c>
+      <c r="N346">
+        <v>1.615</v>
+      </c>
+      <c r="O346">
+        <v>3.8</v>
+      </c>
+      <c r="P346">
+        <v>4.2</v>
+      </c>
+      <c r="Q346">
+        <v>-0.75</v>
+      </c>
+      <c r="R346">
+        <v>1.85</v>
+      </c>
+      <c r="S346">
+        <v>1.95</v>
+      </c>
+      <c r="T346">
         <v>3</v>
       </c>
-      <c r="J346" t="s">
-        <v>54</v>
-      </c>
-      <c r="K346">
-        <v>4.5</v>
-      </c>
-      <c r="L346">
-        <v>4.5</v>
-      </c>
-      <c r="M346">
-        <v>1.5</v>
-      </c>
-      <c r="N346">
-        <v>4.75</v>
-      </c>
-      <c r="O346">
-        <v>4.5</v>
-      </c>
-      <c r="P346">
-        <v>1.45</v>
-      </c>
-      <c r="Q346">
-        <v>1.25</v>
-      </c>
-      <c r="R346">
-        <v>1.825</v>
-      </c>
-      <c r="S346">
-        <v>1.975</v>
-      </c>
-      <c r="T346">
-        <v>3.25</v>
-      </c>
       <c r="U346">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V346">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W346">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X346">
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA346">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB346">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC346">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31345,7 +31345,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6938025</v>
+        <v>6938026</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31357,76 +31357,76 @@
         <v>45367.5</v>
       </c>
       <c r="F347" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G347" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J347" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K347">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="L347">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M347">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N347">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="O347">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P347">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q347">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R347">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S347">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T347">
         <v>3</v>
       </c>
       <c r="U347">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V347">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W347">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X347">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA347">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31434,7 +31434,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6938026</v>
+        <v>6938028</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31446,76 +31446,76 @@
         <v>45367.5</v>
       </c>
       <c r="F348" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G348" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H348">
         <v>1</v>
       </c>
       <c r="I348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J348" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K348">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L348">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M348">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="N348">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O348">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P348">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q348">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R348">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S348">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T348">
         <v>3</v>
       </c>
       <c r="U348">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V348">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W348">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X348">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y348">
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA348">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB348">
         <v>-1</v>
       </c>
       <c r="AC348">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31523,7 +31523,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6938028</v>
+        <v>6938020</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31535,16 +31535,16 @@
         <v>45367.5</v>
       </c>
       <c r="F349" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G349" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H349">
+        <v>2</v>
+      </c>
+      <c r="I349">
         <v>1</v>
-      </c>
-      <c r="I349">
-        <v>0</v>
       </c>
       <c r="J349" t="s">
         <v>53</v>
@@ -31559,34 +31559,34 @@
         <v>2.25</v>
       </c>
       <c r="N349">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="O349">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P349">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="Q349">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R349">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S349">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T349">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U349">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V349">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W349">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="X349">
         <v>-1</v>
@@ -31595,16 +31595,16 @@
         <v>-1</v>
       </c>
       <c r="Z349">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="AA349">
         <v>-1</v>
       </c>
       <c r="AB349">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC349">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31612,7 +31612,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>6938020</v>
+        <v>6938024</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31624,76 +31624,76 @@
         <v>45367.5</v>
       </c>
       <c r="F350" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G350" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J350" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K350">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L350">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M350">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N350">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="O350">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P350">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q350">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R350">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S350">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T350">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U350">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V350">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W350">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z350">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA350">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB350">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC350">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31701,7 +31701,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>6938023</v>
+        <v>6938022</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31713,13 +31713,13 @@
         <v>45367.5</v>
       </c>
       <c r="F351" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G351" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I351">
         <v>0</v>
@@ -31728,43 +31728,43 @@
         <v>53</v>
       </c>
       <c r="K351">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L351">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M351">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N351">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O351">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P351">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q351">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R351">
+        <v>2</v>
+      </c>
+      <c r="S351">
         <v>1.8</v>
-      </c>
-      <c r="S351">
-        <v>2</v>
       </c>
       <c r="T351">
         <v>2.75</v>
       </c>
       <c r="U351">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V351">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W351">
-        <v>1.7</v>
+        <v>0.75</v>
       </c>
       <c r="X351">
         <v>-1</v>
@@ -31773,16 +31773,16 @@
         <v>-1</v>
       </c>
       <c r="Z351">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AA351">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB351">
         <v>-1</v>
       </c>
       <c r="AC351">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31790,7 +31790,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6938022</v>
+        <v>6938023</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31802,13 +31802,13 @@
         <v>45367.5</v>
       </c>
       <c r="F352" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G352" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I352">
         <v>0</v>
@@ -31817,43 +31817,43 @@
         <v>53</v>
       </c>
       <c r="K352">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L352">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M352">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N352">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="O352">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P352">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q352">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R352">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S352">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T352">
         <v>2.75</v>
       </c>
       <c r="U352">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V352">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W352">
-        <v>0.75</v>
+        <v>1.7</v>
       </c>
       <c r="X352">
         <v>-1</v>
@@ -31862,16 +31862,16 @@
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA352">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB352">
         <v>-1</v>
       </c>
       <c r="AC352">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -32858,7 +32858,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6939435</v>
+        <v>6939432</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32870,76 +32870,76 @@
         <v>45374.5</v>
       </c>
       <c r="F364" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G364" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364">
         <v>0</v>
       </c>
       <c r="J364" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K364">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L364">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M364">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N364">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O364">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P364">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="Q364">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R364">
+        <v>1.85</v>
+      </c>
+      <c r="S364">
         <v>1.95</v>
       </c>
-      <c r="S364">
-        <v>1.85</v>
-      </c>
       <c r="T364">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U364">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V364">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W364">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X364">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y364">
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA364">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB364">
         <v>-1</v>
       </c>
       <c r="AC364">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -32947,7 +32947,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6939434</v>
+        <v>6939433</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32959,76 +32959,76 @@
         <v>45374.5</v>
       </c>
       <c r="F365" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G365" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H365">
+        <v>4</v>
+      </c>
+      <c r="I365">
+        <v>2</v>
+      </c>
+      <c r="J365" t="s">
+        <v>53</v>
+      </c>
+      <c r="K365">
+        <v>2.2</v>
+      </c>
+      <c r="L365">
+        <v>3.6</v>
+      </c>
+      <c r="M365">
+        <v>2.6</v>
+      </c>
+      <c r="N365">
+        <v>2.2</v>
+      </c>
+      <c r="O365">
+        <v>3.75</v>
+      </c>
+      <c r="P365">
+        <v>2.7</v>
+      </c>
+      <c r="Q365">
+        <v>-0.25</v>
+      </c>
+      <c r="R365">
+        <v>2</v>
+      </c>
+      <c r="S365">
+        <v>1.8</v>
+      </c>
+      <c r="T365">
+        <v>2.75</v>
+      </c>
+      <c r="U365">
+        <v>1.875</v>
+      </c>
+      <c r="V365">
+        <v>1.925</v>
+      </c>
+      <c r="W365">
+        <v>1.2</v>
+      </c>
+      <c r="X365">
+        <v>-1</v>
+      </c>
+      <c r="Y365">
+        <v>-1</v>
+      </c>
+      <c r="Z365">
         <v>1</v>
       </c>
-      <c r="I365">
-        <v>2</v>
-      </c>
-      <c r="J365" t="s">
-        <v>54</v>
-      </c>
-      <c r="K365">
-        <v>1.5</v>
-      </c>
-      <c r="L365">
-        <v>4.5</v>
-      </c>
-      <c r="M365">
-        <v>4.5</v>
-      </c>
-      <c r="N365">
-        <v>1.833</v>
-      </c>
-      <c r="O365">
-        <v>4.2</v>
-      </c>
-      <c r="P365">
-        <v>3.25</v>
-      </c>
-      <c r="Q365">
-        <v>-0.5</v>
-      </c>
-      <c r="R365">
-        <v>1.85</v>
-      </c>
-      <c r="S365">
-        <v>1.95</v>
-      </c>
-      <c r="T365">
-        <v>3</v>
-      </c>
-      <c r="U365">
-        <v>2</v>
-      </c>
-      <c r="V365">
-        <v>1.8</v>
-      </c>
-      <c r="W365">
-        <v>-1</v>
-      </c>
-      <c r="X365">
-        <v>-1</v>
-      </c>
-      <c r="Y365">
-        <v>2.25</v>
-      </c>
-      <c r="Z365">
-        <v>-1</v>
-      </c>
       <c r="AA365">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB365">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC365">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366" spans="1:29">
@@ -33036,7 +33036,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6939433</v>
+        <v>6939434</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33048,76 +33048,76 @@
         <v>45374.5</v>
       </c>
       <c r="F366" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G366" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H366">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I366">
         <v>2</v>
       </c>
       <c r="J366" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K366">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L366">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M366">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="N366">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O366">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P366">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="Q366">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R366">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S366">
+        <v>1.95</v>
+      </c>
+      <c r="T366">
+        <v>3</v>
+      </c>
+      <c r="U366">
+        <v>2</v>
+      </c>
+      <c r="V366">
         <v>1.8</v>
       </c>
-      <c r="T366">
-        <v>2.75</v>
-      </c>
-      <c r="U366">
-        <v>1.875</v>
-      </c>
-      <c r="V366">
-        <v>1.925</v>
-      </c>
       <c r="W366">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X366">
         <v>-1</v>
       </c>
       <c r="Y366">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z366">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA366">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB366">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC366">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33125,7 +33125,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6939432</v>
+        <v>6939435</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33137,76 +33137,76 @@
         <v>45374.5</v>
       </c>
       <c r="F367" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G367" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367">
         <v>0</v>
       </c>
       <c r="J367" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K367">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L367">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M367">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N367">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O367">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P367">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q367">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R367">
+        <v>1.95</v>
+      </c>
+      <c r="S367">
         <v>1.85</v>
       </c>
-      <c r="S367">
-        <v>1.95</v>
-      </c>
       <c r="T367">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U367">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V367">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W367">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X367">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y367">
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA367">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB367">
         <v>-1</v>
       </c>
       <c r="AC367">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33214,7 +33214,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>7901704</v>
+        <v>7901701</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33226,13 +33226,13 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F368" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G368" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I368">
         <v>2</v>
@@ -33241,40 +33241,40 @@
         <v>54</v>
       </c>
       <c r="K368">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L368">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M368">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="N368">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O368">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P368">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q368">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R368">
         <v>1.95</v>
       </c>
       <c r="S368">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T368">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U368">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V368">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W368">
         <v>-1</v>
@@ -33283,19 +33283,19 @@
         <v>-1</v>
       </c>
       <c r="Y368">
-        <v>0.95</v>
+        <v>2.1</v>
       </c>
       <c r="Z368">
         <v>-1</v>
       </c>
       <c r="AA368">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB368">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC368">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -33303,7 +33303,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>7901701</v>
+        <v>7901704</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33315,13 +33315,13 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F369" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G369" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369">
         <v>2</v>
@@ -33330,40 +33330,40 @@
         <v>54</v>
       </c>
       <c r="K369">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L369">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M369">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="N369">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O369">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P369">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q369">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R369">
         <v>1.95</v>
       </c>
       <c r="S369">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T369">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U369">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V369">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W369">
         <v>-1</v>
@@ -33372,19 +33372,19 @@
         <v>-1</v>
       </c>
       <c r="Y369">
-        <v>2.1</v>
+        <v>0.95</v>
       </c>
       <c r="Z369">
         <v>-1</v>
       </c>
       <c r="AA369">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB369">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC369">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="370" spans="1:29">
@@ -33570,7 +33570,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6940798</v>
+        <v>6940789</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33582,46 +33582,46 @@
         <v>45381.5</v>
       </c>
       <c r="F372" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G372" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H372">
         <v>1</v>
       </c>
       <c r="I372">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J372" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K372">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="L372">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M372">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="N372">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O372">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P372">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="Q372">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R372">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S372">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T372">
         <v>3</v>
@@ -33633,25 +33633,25 @@
         <v>1.875</v>
       </c>
       <c r="W372">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X372">
         <v>-1</v>
       </c>
       <c r="Y372">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z372">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA372">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB372">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC372">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33659,7 +33659,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6940789</v>
+        <v>6940798</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33671,46 +33671,46 @@
         <v>45381.5</v>
       </c>
       <c r="F373" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G373" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H373">
         <v>1</v>
       </c>
       <c r="I373">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J373" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K373">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="L373">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M373">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="N373">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O373">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P373">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q373">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R373">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S373">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T373">
         <v>3</v>
@@ -33722,25 +33722,25 @@
         <v>1.875</v>
       </c>
       <c r="W373">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X373">
         <v>-1</v>
       </c>
       <c r="Y373">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z373">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA373">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB373">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC373">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33926,7 +33926,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6940794</v>
+        <v>6940793</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33938,13 +33938,13 @@
         <v>45381.5</v>
       </c>
       <c r="F376" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G376" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I376">
         <v>3</v>
@@ -33953,31 +33953,31 @@
         <v>54</v>
       </c>
       <c r="K376">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L376">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M376">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="N376">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="O376">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P376">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="Q376">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R376">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S376">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T376">
         <v>2.75</v>
@@ -33995,13 +33995,13 @@
         <v>-1</v>
       </c>
       <c r="Y376">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="Z376">
         <v>-1</v>
       </c>
       <c r="AA376">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB376">
         <v>0.9750000000000001</v>
@@ -34015,7 +34015,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6940795</v>
+        <v>6940794</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34027,73 +34027,73 @@
         <v>45381.5</v>
       </c>
       <c r="F377" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G377" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H377">
         <v>2</v>
       </c>
       <c r="I377">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J377" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K377">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L377">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M377">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N377">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O377">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P377">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q377">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R377">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S377">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T377">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U377">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V377">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W377">
         <v>-1</v>
       </c>
       <c r="X377">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y377">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z377">
         <v>-1</v>
       </c>
       <c r="AA377">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB377">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC377">
         <v>-1</v>
@@ -34104,7 +34104,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>6940796</v>
+        <v>6940795</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34116,34 +34116,34 @@
         <v>45381.5</v>
       </c>
       <c r="F378" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G378" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H378">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J378" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K378">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L378">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M378">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N378">
         <v>1.5</v>
       </c>
       <c r="O378">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P378">
         <v>4.5</v>
@@ -34152,37 +34152,37 @@
         <v>-1</v>
       </c>
       <c r="R378">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S378">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T378">
         <v>3</v>
       </c>
       <c r="U378">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V378">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W378">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X378">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y378">
         <v>-1</v>
       </c>
       <c r="Z378">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA378">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB378">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC378">
         <v>-1</v>
@@ -34193,7 +34193,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>6940793</v>
+        <v>6940796</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34205,73 +34205,73 @@
         <v>45381.5</v>
       </c>
       <c r="F379" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G379" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H379">
+        <v>3</v>
+      </c>
+      <c r="I379">
         <v>1</v>
       </c>
-      <c r="I379">
+      <c r="J379" t="s">
+        <v>53</v>
+      </c>
+      <c r="K379">
+        <v>1.363</v>
+      </c>
+      <c r="L379">
+        <v>5</v>
+      </c>
+      <c r="M379">
+        <v>5.5</v>
+      </c>
+      <c r="N379">
+        <v>1.5</v>
+      </c>
+      <c r="O379">
+        <v>4.75</v>
+      </c>
+      <c r="P379">
+        <v>4.5</v>
+      </c>
+      <c r="Q379">
+        <v>-1</v>
+      </c>
+      <c r="R379">
+        <v>1.775</v>
+      </c>
+      <c r="S379">
+        <v>2.025</v>
+      </c>
+      <c r="T379">
         <v>3</v>
       </c>
-      <c r="J379" t="s">
-        <v>54</v>
-      </c>
-      <c r="K379">
-        <v>2.2</v>
-      </c>
-      <c r="L379">
-        <v>3.6</v>
-      </c>
-      <c r="M379">
-        <v>2.6</v>
-      </c>
-      <c r="N379">
-        <v>2.375</v>
-      </c>
-      <c r="O379">
-        <v>3.8</v>
-      </c>
-      <c r="P379">
-        <v>2.4</v>
-      </c>
-      <c r="Q379">
-        <v>0</v>
-      </c>
-      <c r="R379">
-        <v>1.875</v>
-      </c>
-      <c r="S379">
-        <v>1.925</v>
-      </c>
-      <c r="T379">
-        <v>2.75</v>
-      </c>
       <c r="U379">
+        <v>1.825</v>
+      </c>
+      <c r="V379">
         <v>1.975</v>
       </c>
-      <c r="V379">
-        <v>1.825</v>
-      </c>
       <c r="W379">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z379">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA379">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB379">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC379">
         <v>-1</v>
@@ -34282,7 +34282,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>6941584</v>
+        <v>6941583</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34294,49 +34294,49 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F380" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G380" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I380">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J380" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K380">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="L380">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="M380">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="N380">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="O380">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P380">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="Q380">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R380">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S380">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T380">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U380">
         <v>1.95</v>
@@ -34345,25 +34345,25 @@
         <v>1.85</v>
       </c>
       <c r="W380">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X380">
         <v>-1</v>
       </c>
       <c r="Y380">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z380">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA380">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB380">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC380">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -34371,7 +34371,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>6941590</v>
+        <v>6941587</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34383,73 +34383,73 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F381" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G381" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I381">
+        <v>2</v>
+      </c>
+      <c r="J381" t="s">
+        <v>53</v>
+      </c>
+      <c r="K381">
+        <v>2</v>
+      </c>
+      <c r="L381">
+        <v>3.7</v>
+      </c>
+      <c r="M381">
+        <v>3.1</v>
+      </c>
+      <c r="N381">
+        <v>2.05</v>
+      </c>
+      <c r="O381">
+        <v>3.75</v>
+      </c>
+      <c r="P381">
         <v>3</v>
       </c>
-      <c r="J381" t="s">
-        <v>54</v>
-      </c>
-      <c r="K381">
-        <v>1.4</v>
-      </c>
-      <c r="L381">
-        <v>4.75</v>
-      </c>
-      <c r="M381">
-        <v>6</v>
-      </c>
-      <c r="N381">
-        <v>1.4</v>
-      </c>
-      <c r="O381">
-        <v>4.75</v>
-      </c>
-      <c r="P381">
-        <v>6.5</v>
-      </c>
       <c r="Q381">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R381">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S381">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T381">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U381">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V381">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W381">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X381">
         <v>-1</v>
       </c>
       <c r="Y381">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z381">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA381">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB381">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC381">
         <v>-1</v>
@@ -34460,7 +34460,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>6941595</v>
+        <v>6941590</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34472,55 +34472,55 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F382" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G382" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I382">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J382" t="s">
         <v>54</v>
       </c>
       <c r="K382">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L382">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M382">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="N382">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O382">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P382">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q382">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R382">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S382">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T382">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U382">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V382">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W382">
         <v>-1</v>
@@ -34529,19 +34529,19 @@
         <v>-1</v>
       </c>
       <c r="Y382">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="Z382">
         <v>-1</v>
       </c>
       <c r="AA382">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB382">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC382">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383" spans="1:29">
@@ -34549,7 +34549,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>6941596</v>
+        <v>6941595</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34561,76 +34561,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F383" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G383" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I383">
+        <v>2</v>
+      </c>
+      <c r="J383" t="s">
+        <v>54</v>
+      </c>
+      <c r="K383">
+        <v>2.3</v>
+      </c>
+      <c r="L383">
+        <v>3.6</v>
+      </c>
+      <c r="M383">
+        <v>2.625</v>
+      </c>
+      <c r="N383">
+        <v>2.15</v>
+      </c>
+      <c r="O383">
+        <v>3.6</v>
+      </c>
+      <c r="P383">
+        <v>2.8</v>
+      </c>
+      <c r="Q383">
+        <v>-0.25</v>
+      </c>
+      <c r="R383">
+        <v>1.95</v>
+      </c>
+      <c r="S383">
+        <v>1.85</v>
+      </c>
+      <c r="T383">
+        <v>3</v>
+      </c>
+      <c r="U383">
+        <v>1.925</v>
+      </c>
+      <c r="V383">
+        <v>1.875</v>
+      </c>
+      <c r="W383">
+        <v>-1</v>
+      </c>
+      <c r="X383">
+        <v>-1</v>
+      </c>
+      <c r="Y383">
+        <v>1.8</v>
+      </c>
+      <c r="Z383">
+        <v>-1</v>
+      </c>
+      <c r="AA383">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB383">
         <v>0</v>
       </c>
-      <c r="J383" t="s">
-        <v>53</v>
-      </c>
-      <c r="K383">
-        <v>2.2</v>
-      </c>
-      <c r="L383">
-        <v>3.5</v>
-      </c>
-      <c r="M383">
-        <v>2.8</v>
-      </c>
-      <c r="N383">
-        <v>2.375</v>
-      </c>
-      <c r="O383">
-        <v>3.5</v>
-      </c>
-      <c r="P383">
-        <v>2.6</v>
-      </c>
-      <c r="Q383">
-        <v>0</v>
-      </c>
-      <c r="R383">
-        <v>1.8</v>
-      </c>
-      <c r="S383">
-        <v>2</v>
-      </c>
-      <c r="T383">
-        <v>2.5</v>
-      </c>
-      <c r="U383">
-        <v>1.8</v>
-      </c>
-      <c r="V383">
-        <v>2</v>
-      </c>
-      <c r="W383">
-        <v>1.375</v>
-      </c>
-      <c r="X383">
-        <v>-1</v>
-      </c>
-      <c r="Y383">
-        <v>-1</v>
-      </c>
-      <c r="Z383">
-        <v>0.8</v>
-      </c>
-      <c r="AA383">
-        <v>-1</v>
-      </c>
-      <c r="AB383">
-        <v>-1</v>
-      </c>
       <c r="AC383">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="384" spans="1:29">
@@ -34638,7 +34638,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>6941594</v>
+        <v>6941596</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34650,76 +34650,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F384" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G384" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H384">
         <v>2</v>
       </c>
       <c r="I384">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J384" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K384">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="L384">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="M384">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="N384">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="O384">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P384">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q384">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R384">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S384">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T384">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U384">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V384">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W384">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X384">
         <v>-1</v>
       </c>
       <c r="Y384">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z384">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AA384">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB384">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC384">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:29">
@@ -34727,7 +34727,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>6941587</v>
+        <v>6941594</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34739,73 +34739,73 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F385" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G385" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H385">
+        <v>2</v>
+      </c>
+      <c r="I385">
         <v>3</v>
       </c>
-      <c r="I385">
-        <v>2</v>
-      </c>
       <c r="J385" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K385">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L385">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="M385">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="N385">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="O385">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P385">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="Q385">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R385">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S385">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T385">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U385">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V385">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W385">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X385">
         <v>-1</v>
       </c>
       <c r="Y385">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z385">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AA385">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB385">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC385">
         <v>-1</v>
@@ -34994,7 +34994,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>6941583</v>
+        <v>6941584</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -35006,49 +35006,49 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F388" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G388" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H388">
+        <v>0</v>
+      </c>
+      <c r="I388">
+        <v>2</v>
+      </c>
+      <c r="J388" t="s">
+        <v>54</v>
+      </c>
+      <c r="K388">
+        <v>2.5</v>
+      </c>
+      <c r="L388">
+        <v>3.7</v>
+      </c>
+      <c r="M388">
+        <v>2.375</v>
+      </c>
+      <c r="N388">
+        <v>2.7</v>
+      </c>
+      <c r="O388">
+        <v>3.75</v>
+      </c>
+      <c r="P388">
+        <v>2.2</v>
+      </c>
+      <c r="Q388">
+        <v>0.25</v>
+      </c>
+      <c r="R388">
+        <v>1.825</v>
+      </c>
+      <c r="S388">
+        <v>1.975</v>
+      </c>
+      <c r="T388">
         <v>3</v>
-      </c>
-      <c r="I388">
-        <v>1</v>
-      </c>
-      <c r="J388" t="s">
-        <v>53</v>
-      </c>
-      <c r="K388">
-        <v>4.6</v>
-      </c>
-      <c r="L388">
-        <v>4.2</v>
-      </c>
-      <c r="M388">
-        <v>1.571</v>
-      </c>
-      <c r="N388">
-        <v>4.5</v>
-      </c>
-      <c r="O388">
-        <v>4</v>
-      </c>
-      <c r="P388">
-        <v>1.615</v>
-      </c>
-      <c r="Q388">
-        <v>0.75</v>
-      </c>
-      <c r="R388">
-        <v>2.025</v>
-      </c>
-      <c r="S388">
-        <v>1.775</v>
-      </c>
-      <c r="T388">
-        <v>2.75</v>
       </c>
       <c r="U388">
         <v>1.95</v>
@@ -35057,25 +35057,25 @@
         <v>1.85</v>
       </c>
       <c r="W388">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X388">
         <v>-1</v>
       </c>
       <c r="Y388">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z388">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA388">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB388">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC388">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/England Northern Premier League/England Northern Premier League.xlsx
+++ b/England Northern Premier League/England Northern Premier League.xlsx
@@ -13723,7 +13723,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6932930</v>
+        <v>6933072</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13735,58 +13735,58 @@
         <v>45241.5</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
         <v>53</v>
       </c>
       <c r="K149">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L149">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M149">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N149">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O149">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q149">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
-        <v>0.5</v>
+        <v>0.615</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13795,16 +13795,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC149">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13812,7 +13812,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6933077</v>
+        <v>6932930</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13824,40 +13824,40 @@
         <v>45241.5</v>
       </c>
       <c r="F150" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H150">
+        <v>3</v>
+      </c>
+      <c r="I150">
         <v>0</v>
       </c>
-      <c r="I150">
-        <v>3</v>
-      </c>
       <c r="J150" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K150">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M150">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N150">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O150">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P150">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q150">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R150">
         <v>2.025</v>
@@ -13866,34 +13866,34 @@
         <v>1.775</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V150">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA150">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AC150">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13901,7 +13901,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6933076</v>
+        <v>6933077</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13913,76 +13913,76 @@
         <v>45241.5</v>
       </c>
       <c r="F151" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G151" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K151">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="L151">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M151">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N151">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O151">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P151">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q151">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R151">
+        <v>2.025</v>
+      </c>
+      <c r="S151">
+        <v>1.775</v>
+      </c>
+      <c r="T151">
+        <v>2.75</v>
+      </c>
+      <c r="U151">
+        <v>2.025</v>
+      </c>
+      <c r="V151">
+        <v>1.775</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
+        <v>-1</v>
+      </c>
+      <c r="Y151">
         <v>1.7</v>
       </c>
-      <c r="S151">
-        <v>2.1</v>
-      </c>
-      <c r="T151">
-        <v>3.25</v>
-      </c>
-      <c r="U151">
-        <v>1.95</v>
-      </c>
-      <c r="V151">
-        <v>1.85</v>
-      </c>
-      <c r="W151">
-        <v>0.444</v>
-      </c>
-      <c r="X151">
-        <v>-1</v>
-      </c>
-      <c r="Y151">
-        <v>-1</v>
-      </c>
       <c r="Z151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC151">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13990,7 +13990,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6933075</v>
+        <v>6933076</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14002,76 +14002,76 @@
         <v>45241.5</v>
       </c>
       <c r="F152" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G152" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H152">
         <v>1</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K152">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L152">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M152">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N152">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P152">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q152">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R152">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S152">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U152">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X152">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA152">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14079,7 +14079,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6933074</v>
+        <v>6933075</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14091,76 +14091,76 @@
         <v>45241.5</v>
       </c>
       <c r="F153" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153">
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K153">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L153">
+        <v>3.4</v>
+      </c>
+      <c r="M153">
+        <v>2.6</v>
+      </c>
+      <c r="N153">
+        <v>1.727</v>
+      </c>
+      <c r="O153">
+        <v>3.6</v>
+      </c>
+      <c r="P153">
         <v>4</v>
       </c>
-      <c r="M153">
-        <v>4</v>
-      </c>
-      <c r="N153">
-        <v>1.666</v>
-      </c>
-      <c r="O153">
-        <v>4</v>
-      </c>
-      <c r="P153">
-        <v>3.8</v>
-      </c>
       <c r="Q153">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
+        <v>1.8</v>
+      </c>
+      <c r="S153">
+        <v>2</v>
+      </c>
+      <c r="T153">
+        <v>2.75</v>
+      </c>
+      <c r="U153">
         <v>1.875</v>
       </c>
-      <c r="S153">
+      <c r="V153">
         <v>1.925</v>
       </c>
-      <c r="T153">
-        <v>3</v>
-      </c>
-      <c r="U153">
-        <v>1.95</v>
-      </c>
-      <c r="V153">
-        <v>1.85</v>
-      </c>
       <c r="W153">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14168,7 +14168,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6933073</v>
+        <v>6933074</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14180,49 +14180,49 @@
         <v>45241.5</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154" t="s">
+        <v>53</v>
+      </c>
+      <c r="K154">
+        <v>1.615</v>
+      </c>
+      <c r="L154">
+        <v>4</v>
+      </c>
+      <c r="M154">
+        <v>4</v>
+      </c>
+      <c r="N154">
+        <v>1.666</v>
+      </c>
+      <c r="O154">
+        <v>4</v>
+      </c>
+      <c r="P154">
+        <v>3.8</v>
+      </c>
+      <c r="Q154">
+        <v>-0.75</v>
+      </c>
+      <c r="R154">
+        <v>1.875</v>
+      </c>
+      <c r="S154">
+        <v>1.925</v>
+      </c>
+      <c r="T154">
         <v>3</v>
-      </c>
-      <c r="J154" t="s">
-        <v>54</v>
-      </c>
-      <c r="K154">
-        <v>2.75</v>
-      </c>
-      <c r="L154">
-        <v>3.4</v>
-      </c>
-      <c r="M154">
-        <v>2.2</v>
-      </c>
-      <c r="N154">
-        <v>3</v>
-      </c>
-      <c r="O154">
-        <v>3.5</v>
-      </c>
-      <c r="P154">
-        <v>2.05</v>
-      </c>
-      <c r="Q154">
-        <v>0.25</v>
-      </c>
-      <c r="R154">
-        <v>1.975</v>
-      </c>
-      <c r="S154">
-        <v>1.825</v>
-      </c>
-      <c r="T154">
-        <v>2.75</v>
       </c>
       <c r="U154">
         <v>1.95</v>
@@ -14231,25 +14231,25 @@
         <v>1.85</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA154">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB154">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14257,7 +14257,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6933072</v>
+        <v>6933073</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14269,73 +14269,73 @@
         <v>45241.5</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H155">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K155">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L155">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M155">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="N155">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O155">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P155">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q155">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R155">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S155">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T155">
         <v>2.75</v>
       </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V155">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W155">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z155">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB155">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -15414,7 +15414,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7387967</v>
+        <v>7472373</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15426,73 +15426,73 @@
         <v>45251.69791666666</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G168" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I168">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K168">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="L168">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M168">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N168">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="O168">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P168">
-        <v>2.625</v>
+        <v>11</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R168">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U168">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X168">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA168">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC168">
         <v>-1</v>
@@ -15503,7 +15503,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7472373</v>
+        <v>7387967</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15515,73 +15515,73 @@
         <v>45251.69791666666</v>
       </c>
       <c r="F169" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G169" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H169">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I169">
+        <v>3</v>
+      </c>
+      <c r="J169" t="s">
+        <v>55</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>3.5</v>
+      </c>
+      <c r="M169">
+        <v>3.1</v>
+      </c>
+      <c r="N169">
+        <v>2.3</v>
+      </c>
+      <c r="O169">
+        <v>3.4</v>
+      </c>
+      <c r="P169">
+        <v>2.625</v>
+      </c>
+      <c r="Q169">
         <v>0</v>
       </c>
-      <c r="J169" t="s">
-        <v>53</v>
-      </c>
-      <c r="K169">
-        <v>1.3</v>
-      </c>
-      <c r="L169">
-        <v>5.25</v>
-      </c>
-      <c r="M169">
-        <v>6.5</v>
-      </c>
-      <c r="N169">
-        <v>1.166</v>
-      </c>
-      <c r="O169">
-        <v>6.5</v>
-      </c>
-      <c r="P169">
-        <v>11</v>
-      </c>
-      <c r="Q169">
-        <v>-2</v>
-      </c>
       <c r="R169">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S169">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T169">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U169">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V169">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W169">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB169">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC169">
         <v>-1</v>
@@ -16215,7 +16215,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6932938</v>
+        <v>6933085</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16227,58 +16227,58 @@
         <v>45255.5</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
         <v>53</v>
       </c>
       <c r="K177">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L177">
         <v>3.75</v>
       </c>
       <c r="M177">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N177">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="O177">
+        <v>4</v>
+      </c>
+      <c r="P177">
         <v>3.6</v>
       </c>
-      <c r="P177">
-        <v>2.1</v>
-      </c>
       <c r="Q177">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T177">
         <v>3</v>
       </c>
       <c r="U177">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
-        <v>1.75</v>
+        <v>0.7</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16287,16 +16287,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB177">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16304,7 +16304,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6933086</v>
+        <v>6932938</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16316,73 +16316,73 @@
         <v>45255.5</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I178">
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K178">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L178">
+        <v>3.75</v>
+      </c>
+      <c r="M178">
+        <v>1.8</v>
+      </c>
+      <c r="N178">
+        <v>2.75</v>
+      </c>
+      <c r="O178">
         <v>3.6</v>
       </c>
-      <c r="M178">
-        <v>3.8</v>
-      </c>
-      <c r="N178">
-        <v>1.55</v>
-      </c>
-      <c r="O178">
-        <v>3.75</v>
-      </c>
       <c r="P178">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q178">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S178">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U178">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V178">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X178">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA178">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16393,7 +16393,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6932936</v>
+        <v>6933086</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16405,73 +16405,73 @@
         <v>45255.5</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H179">
         <v>2</v>
       </c>
       <c r="I179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K179">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="L179">
+        <v>3.6</v>
+      </c>
+      <c r="M179">
+        <v>3.8</v>
+      </c>
+      <c r="N179">
+        <v>1.55</v>
+      </c>
+      <c r="O179">
         <v>3.75</v>
       </c>
-      <c r="M179">
-        <v>2.6</v>
-      </c>
-      <c r="N179">
-        <v>1.95</v>
-      </c>
-      <c r="O179">
-        <v>3.8</v>
-      </c>
       <c r="P179">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R179">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S179">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T179">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V179">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y179">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB179">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16482,7 +16482,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6933085</v>
+        <v>6932936</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16494,76 +16494,76 @@
         <v>45255.5</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G180" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H180">
         <v>2</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K180">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L180">
         <v>3.75</v>
       </c>
       <c r="M180">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N180">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P180">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q180">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
+        <v>1.75</v>
+      </c>
+      <c r="S180">
         <v>1.95</v>
-      </c>
-      <c r="S180">
-        <v>1.85</v>
       </c>
       <c r="T180">
         <v>3</v>
       </c>
       <c r="U180">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W180">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z180">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB180">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC180">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16660,7 +16660,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6933088</v>
+        <v>6933087</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16672,58 +16672,58 @@
         <v>45255.5</v>
       </c>
       <c r="F182" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G182" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J182" t="s">
         <v>53</v>
       </c>
       <c r="K182">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="L182">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M182">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N182">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O182">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P182">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q182">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R182">
+        <v>2</v>
+      </c>
+      <c r="S182">
         <v>1.8</v>
-      </c>
-      <c r="S182">
-        <v>2</v>
       </c>
       <c r="T182">
         <v>3</v>
       </c>
       <c r="U182">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W182">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="X182">
         <v>-1</v>
@@ -16732,13 +16732,13 @@
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA182">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -16749,7 +16749,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6933087</v>
+        <v>6933088</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16761,58 +16761,58 @@
         <v>45255.5</v>
       </c>
       <c r="F183" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G183" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H183">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
         <v>53</v>
       </c>
       <c r="K183">
-        <v>1.533</v>
+        <v>1.3</v>
       </c>
       <c r="L183">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M183">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N183">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O183">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P183">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R183">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S183">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T183">
         <v>3</v>
       </c>
       <c r="U183">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V183">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W183">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -16821,13 +16821,13 @@
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB183">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC183">
         <v>-1</v>
@@ -17194,7 +17194,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7496515</v>
+        <v>7496514</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17206,76 +17206,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F188" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G188" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K188">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="L188">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M188">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="N188">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="O188">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P188">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="Q188">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R188">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S188">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T188">
         <v>3</v>
       </c>
       <c r="U188">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y188">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA188">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17283,7 +17283,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7496514</v>
+        <v>7496515</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17295,76 +17295,76 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F189" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G189" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J189" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K189">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="L189">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M189">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="N189">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="O189">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P189">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="Q189">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R189">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S189">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T189">
         <v>3</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z189">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC189">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17372,7 +17372,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6932942</v>
+        <v>6932943</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17384,76 +17384,76 @@
         <v>45262.5</v>
       </c>
       <c r="F190" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190" t="s">
+        <v>55</v>
+      </c>
+      <c r="K190">
+        <v>1.8</v>
+      </c>
+      <c r="L190">
+        <v>3.8</v>
+      </c>
+      <c r="M190">
+        <v>3.6</v>
+      </c>
+      <c r="N190">
+        <v>1.85</v>
+      </c>
+      <c r="O190">
+        <v>3.8</v>
+      </c>
+      <c r="P190">
+        <v>3.4</v>
+      </c>
+      <c r="Q190">
+        <v>-0.5</v>
+      </c>
+      <c r="R190">
+        <v>1.9</v>
+      </c>
+      <c r="S190">
+        <v>1.9</v>
+      </c>
+      <c r="T190">
         <v>3</v>
       </c>
-      <c r="J190" t="s">
-        <v>54</v>
-      </c>
-      <c r="K190">
-        <v>2.3</v>
-      </c>
-      <c r="L190">
-        <v>3.6</v>
-      </c>
-      <c r="M190">
-        <v>2.625</v>
-      </c>
-      <c r="N190">
-        <v>2.3</v>
-      </c>
-      <c r="O190">
-        <v>3.6</v>
-      </c>
-      <c r="P190">
-        <v>2.55</v>
-      </c>
-      <c r="Q190">
-        <v>0</v>
-      </c>
-      <c r="R190">
-        <v>1.8</v>
-      </c>
-      <c r="S190">
-        <v>2</v>
-      </c>
-      <c r="T190">
-        <v>2.75</v>
-      </c>
       <c r="U190">
+        <v>1.975</v>
+      </c>
+      <c r="V190">
         <v>1.825</v>
       </c>
-      <c r="V190">
-        <v>1.975</v>
-      </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y190">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB190">
+        <v>-1</v>
+      </c>
+      <c r="AC190">
         <v>0.825</v>
-      </c>
-      <c r="AC190">
-        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17461,7 +17461,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6932943</v>
+        <v>6932942</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17473,76 +17473,76 @@
         <v>45262.5</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G191" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
+        <v>3</v>
+      </c>
+      <c r="J191" t="s">
+        <v>54</v>
+      </c>
+      <c r="K191">
+        <v>2.3</v>
+      </c>
+      <c r="L191">
+        <v>3.6</v>
+      </c>
+      <c r="M191">
+        <v>2.625</v>
+      </c>
+      <c r="N191">
+        <v>2.3</v>
+      </c>
+      <c r="O191">
+        <v>3.6</v>
+      </c>
+      <c r="P191">
+        <v>2.55</v>
+      </c>
+      <c r="Q191">
         <v>0</v>
       </c>
-      <c r="I191">
-        <v>0</v>
-      </c>
-      <c r="J191" t="s">
-        <v>55</v>
-      </c>
-      <c r="K191">
+      <c r="R191">
         <v>1.8</v>
       </c>
-      <c r="L191">
-        <v>3.8</v>
-      </c>
-      <c r="M191">
-        <v>3.6</v>
-      </c>
-      <c r="N191">
-        <v>1.85</v>
-      </c>
-      <c r="O191">
-        <v>3.8</v>
-      </c>
-      <c r="P191">
-        <v>3.4</v>
-      </c>
-      <c r="Q191">
-        <v>-0.5</v>
-      </c>
-      <c r="R191">
-        <v>1.9</v>
-      </c>
       <c r="S191">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T191">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U191">
+        <v>1.825</v>
+      </c>
+      <c r="V191">
         <v>1.975</v>
       </c>
-      <c r="V191">
-        <v>1.825</v>
-      </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC191">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -18262,7 +18262,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7496513</v>
+        <v>7496517</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18274,58 +18274,58 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F200" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G200" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
         <v>53</v>
       </c>
       <c r="K200">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L200">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M200">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N200">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="O200">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P200">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q200">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S200">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T200">
         <v>3</v>
       </c>
       <c r="U200">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V200">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W200">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="X200">
         <v>-1</v>
@@ -18334,16 +18334,16 @@
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA200">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18351,7 +18351,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7496517</v>
+        <v>7496513</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18363,58 +18363,58 @@
         <v>45272.69791666666</v>
       </c>
       <c r="F201" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G201" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H201">
+        <v>2</v>
+      </c>
+      <c r="I201">
         <v>1</v>
-      </c>
-      <c r="I201">
-        <v>0</v>
       </c>
       <c r="J201" t="s">
         <v>53</v>
       </c>
       <c r="K201">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L201">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M201">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N201">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="O201">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P201">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q201">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R201">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S201">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T201">
         <v>3</v>
       </c>
       <c r="U201">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V201">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W201">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18423,16 +18423,16 @@
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC201">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18707,7 +18707,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6933109</v>
+        <v>6932871</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18719,73 +18719,73 @@
         <v>45276.5</v>
       </c>
       <c r="F205" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G205" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H205">
         <v>2</v>
       </c>
       <c r="I205">
+        <v>2</v>
+      </c>
+      <c r="J205" t="s">
+        <v>55</v>
+      </c>
+      <c r="K205">
+        <v>2</v>
+      </c>
+      <c r="L205">
+        <v>3.6</v>
+      </c>
+      <c r="M205">
         <v>3</v>
       </c>
-      <c r="J205" t="s">
-        <v>54</v>
-      </c>
-      <c r="K205">
-        <v>2.1</v>
-      </c>
-      <c r="L205">
-        <v>3.75</v>
-      </c>
-      <c r="M205">
-        <v>2.7</v>
-      </c>
       <c r="N205">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O205">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P205">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q205">
         <v>-0.5</v>
       </c>
       <c r="R205">
+        <v>1.95</v>
+      </c>
+      <c r="S205">
+        <v>1.85</v>
+      </c>
+      <c r="T205">
+        <v>3.25</v>
+      </c>
+      <c r="U205">
         <v>1.9</v>
       </c>
-      <c r="S205">
+      <c r="V205">
         <v>1.9</v>
       </c>
-      <c r="T205">
-        <v>3</v>
-      </c>
-      <c r="U205">
-        <v>1.925</v>
-      </c>
-      <c r="V205">
-        <v>1.875</v>
-      </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y205">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB205">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB205">
-        <v>0.925</v>
       </c>
       <c r="AC205">
         <v>-1</v>
@@ -18796,7 +18796,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6932871</v>
+        <v>6933109</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18808,73 +18808,73 @@
         <v>45276.5</v>
       </c>
       <c r="F206" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G206" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H206">
         <v>2</v>
       </c>
       <c r="I206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J206" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K206">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L206">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M206">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="N206">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O206">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P206">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q206">
         <v>-0.5</v>
       </c>
       <c r="R206">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S206">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T206">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U206">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V206">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z206">
         <v>-1</v>
       </c>
       <c r="AA206">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB206">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -19241,7 +19241,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6933107</v>
+        <v>6932872</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19253,58 +19253,58 @@
         <v>45276.5</v>
       </c>
       <c r="F211" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G211" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H211">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
         <v>53</v>
       </c>
       <c r="K211">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L211">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M211">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N211">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="O211">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P211">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q211">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R211">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S211">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T211">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U211">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V211">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W211">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="X211">
         <v>-1</v>
@@ -19313,13 +19313,13 @@
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA211">
         <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AC211">
         <v>-1</v>
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6933106</v>
+        <v>6933107</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,40 +19342,40 @@
         <v>45276.5</v>
       </c>
       <c r="F212" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H212">
         <v>3</v>
       </c>
       <c r="I212">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K212">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="L212">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M212">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="N212">
-        <v>1.222</v>
+        <v>1.75</v>
       </c>
       <c r="O212">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P212">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q212">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
         <v>1.8</v>
@@ -19384,31 +19384,31 @@
         <v>2</v>
       </c>
       <c r="T212">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V212">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA212">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC212">
         <v>-1</v>
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6933105</v>
+        <v>6933106</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,49 +19431,49 @@
         <v>45276.5</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J213" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K213">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L213">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M213">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="N213">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="O213">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P213">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="Q213">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R213">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S213">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T213">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U213">
         <v>1.9</v>
@@ -19485,16 +19485,16 @@
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z213">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB213">
         <v>0.8999999999999999</v>
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6932872</v>
+        <v>6933105</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,73 +19520,73 @@
         <v>45276.5</v>
       </c>
       <c r="F214" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G214" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H214">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K214">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M214">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N214">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="O214">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P214">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q214">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S214">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T214">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W214">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB214">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -22178,7 +22178,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6933129</v>
+        <v>6933127</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22190,73 +22190,73 @@
         <v>45292.5</v>
       </c>
       <c r="F244" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G244" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I244">
+        <v>2</v>
+      </c>
+      <c r="J244" t="s">
+        <v>53</v>
+      </c>
+      <c r="K244">
+        <v>1.45</v>
+      </c>
+      <c r="L244">
+        <v>4</v>
+      </c>
+      <c r="M244">
+        <v>6</v>
+      </c>
+      <c r="N244">
+        <v>1.2</v>
+      </c>
+      <c r="O244">
+        <v>5.5</v>
+      </c>
+      <c r="P244">
+        <v>11</v>
+      </c>
+      <c r="Q244">
+        <v>-1.75</v>
+      </c>
+      <c r="R244">
+        <v>1.8</v>
+      </c>
+      <c r="S244">
+        <v>2</v>
+      </c>
+      <c r="T244">
         <v>3</v>
       </c>
-      <c r="J244" t="s">
-        <v>54</v>
-      </c>
-      <c r="K244">
-        <v>2.2</v>
-      </c>
-      <c r="L244">
-        <v>3.6</v>
-      </c>
-      <c r="M244">
-        <v>2.6</v>
-      </c>
-      <c r="N244">
-        <v>2.4</v>
-      </c>
-      <c r="O244">
-        <v>3.6</v>
-      </c>
-      <c r="P244">
-        <v>2.375</v>
-      </c>
-      <c r="Q244">
-        <v>0</v>
-      </c>
-      <c r="R244">
-        <v>1.925</v>
-      </c>
-      <c r="S244">
-        <v>1.875</v>
-      </c>
-      <c r="T244">
-        <v>2.75</v>
-      </c>
       <c r="U244">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V244">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X244">
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
         <v>-1</v>
       </c>
       <c r="AA244">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB244">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC244">
         <v>-1</v>
@@ -22267,7 +22267,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6933127</v>
+        <v>6933125</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22279,76 +22279,76 @@
         <v>45292.5</v>
       </c>
       <c r="F245" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G245" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H245">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K245">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="L245">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M245">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="N245">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="O245">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P245">
-        <v>11</v>
+        <v>1.833</v>
       </c>
       <c r="Q245">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R245">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S245">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T245">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U245">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V245">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W245">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z245">
         <v>-1</v>
       </c>
       <c r="AA245">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB245">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC245">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22356,7 +22356,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6933125</v>
+        <v>6932955</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22368,76 +22368,76 @@
         <v>45292.5</v>
       </c>
       <c r="F246" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G246" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H246">
+        <v>3</v>
+      </c>
+      <c r="I246">
         <v>0</v>
       </c>
-      <c r="I246">
-        <v>1</v>
-      </c>
       <c r="J246" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K246">
+        <v>2.2</v>
+      </c>
+      <c r="L246">
+        <v>3.6</v>
+      </c>
+      <c r="M246">
         <v>2.6</v>
       </c>
-      <c r="L246">
-        <v>3.75</v>
-      </c>
-      <c r="M246">
-        <v>2.15</v>
-      </c>
       <c r="N246">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O246">
         <v>3.8</v>
       </c>
       <c r="P246">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="Q246">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R246">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S246">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T246">
         <v>2.75</v>
       </c>
       <c r="U246">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V246">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W246">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA246">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB246">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC246">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22445,7 +22445,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6932955</v>
+        <v>6932878</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22457,76 +22457,76 @@
         <v>45292.5</v>
       </c>
       <c r="F247" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G247" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H247">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J247" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K247">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L247">
         <v>3.6</v>
       </c>
       <c r="M247">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N247">
+        <v>2.2</v>
+      </c>
+      <c r="O247">
+        <v>3.75</v>
+      </c>
+      <c r="P247">
+        <v>2.55</v>
+      </c>
+      <c r="Q247">
+        <v>-0.25</v>
+      </c>
+      <c r="R247">
+        <v>1.95</v>
+      </c>
+      <c r="S247">
         <v>1.75</v>
       </c>
-      <c r="O247">
-        <v>3.8</v>
-      </c>
-      <c r="P247">
-        <v>3.5</v>
-      </c>
-      <c r="Q247">
+      <c r="T247">
+        <v>3.25</v>
+      </c>
+      <c r="U247">
+        <v>1.875</v>
+      </c>
+      <c r="V247">
+        <v>1.925</v>
+      </c>
+      <c r="W247">
+        <v>-1</v>
+      </c>
+      <c r="X247">
+        <v>2.75</v>
+      </c>
+      <c r="Y247">
+        <v>-1</v>
+      </c>
+      <c r="Z247">
         <v>-0.5</v>
       </c>
-      <c r="R247">
-        <v>1.825</v>
-      </c>
-      <c r="S247">
-        <v>1.975</v>
-      </c>
-      <c r="T247">
-        <v>2.75</v>
-      </c>
-      <c r="U247">
-        <v>1.85</v>
-      </c>
-      <c r="V247">
-        <v>1.95</v>
-      </c>
-      <c r="W247">
-        <v>0.75</v>
-      </c>
-      <c r="X247">
-        <v>-1</v>
-      </c>
-      <c r="Y247">
-        <v>-1</v>
-      </c>
-      <c r="Z247">
-        <v>0.825</v>
-      </c>
       <c r="AA247">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB247">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AC247">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22534,7 +22534,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6932878</v>
+        <v>6933129</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22546,73 +22546,73 @@
         <v>45292.5</v>
       </c>
       <c r="F248" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G248" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H248">
         <v>2</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J248" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K248">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L248">
         <v>3.6</v>
       </c>
       <c r="M248">
+        <v>2.6</v>
+      </c>
+      <c r="N248">
         <v>2.4</v>
       </c>
-      <c r="N248">
-        <v>2.2</v>
-      </c>
       <c r="O248">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P248">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="Q248">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R248">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S248">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T248">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U248">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V248">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W248">
         <v>-1</v>
       </c>
       <c r="X248">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z248">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB248">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC248">
         <v>-1</v>
@@ -23157,7 +23157,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6933130</v>
+        <v>6933134</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23169,10 +23169,10 @@
         <v>45297.5</v>
       </c>
       <c r="F255" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G255" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -23184,41 +23184,41 @@
         <v>54</v>
       </c>
       <c r="K255">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L255">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M255">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="N255">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="O255">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P255">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q255">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R255">
+        <v>1.85</v>
+      </c>
+      <c r="S255">
+        <v>1.95</v>
+      </c>
+      <c r="T255">
+        <v>2.5</v>
+      </c>
+      <c r="U255">
         <v>1.9</v>
       </c>
-      <c r="S255">
+      <c r="V255">
         <v>1.9</v>
       </c>
-      <c r="T255">
-        <v>2.75</v>
-      </c>
-      <c r="U255">
-        <v>1.825</v>
-      </c>
-      <c r="V255">
-        <v>1.975</v>
-      </c>
       <c r="W255">
         <v>-1</v>
       </c>
@@ -23226,19 +23226,19 @@
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z255">
         <v>-1</v>
       </c>
       <c r="AA255">
+        <v>0.95</v>
+      </c>
+      <c r="AB255">
+        <v>-1</v>
+      </c>
+      <c r="AC255">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB255">
-        <v>-1</v>
-      </c>
-      <c r="AC255">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23246,7 +23246,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6933134</v>
+        <v>6933135</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23258,76 +23258,76 @@
         <v>45297.5</v>
       </c>
       <c r="F256" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G256" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H256">
         <v>0</v>
       </c>
       <c r="I256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K256">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L256">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M256">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N256">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O256">
         <v>3.5</v>
       </c>
       <c r="P256">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="Q256">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R256">
+        <v>1.95</v>
+      </c>
+      <c r="S256">
         <v>1.85</v>
       </c>
-      <c r="S256">
+      <c r="T256">
+        <v>2.75</v>
+      </c>
+      <c r="U256">
         <v>1.95</v>
       </c>
-      <c r="T256">
+      <c r="V256">
+        <v>1.85</v>
+      </c>
+      <c r="W256">
+        <v>-1</v>
+      </c>
+      <c r="X256">
         <v>2.5</v>
       </c>
-      <c r="U256">
-        <v>1.9</v>
-      </c>
-      <c r="V256">
-        <v>1.9</v>
-      </c>
-      <c r="W256">
-        <v>-1</v>
-      </c>
-      <c r="X256">
-        <v>-1</v>
-      </c>
       <c r="Y256">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA256">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB256">
         <v>-1</v>
       </c>
       <c r="AC256">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23335,7 +23335,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6933135</v>
+        <v>6933130</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23347,76 +23347,76 @@
         <v>45297.5</v>
       </c>
       <c r="F257" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G257" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H257">
         <v>0</v>
       </c>
       <c r="I257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K257">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="L257">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M257">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N257">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O257">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P257">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="Q257">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R257">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S257">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T257">
         <v>2.75</v>
       </c>
       <c r="U257">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V257">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W257">
         <v>-1</v>
       </c>
       <c r="X257">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y257">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z257">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA257">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB257">
         <v>-1</v>
       </c>
       <c r="AC257">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -24581,7 +24581,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6932960</v>
+        <v>6932883</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24593,73 +24593,73 @@
         <v>45311.5</v>
       </c>
       <c r="F271" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G271" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H271">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J271" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K271">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L271">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M271">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N271">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="O271">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P271">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="Q271">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R271">
+        <v>1.9</v>
+      </c>
+      <c r="S271">
+        <v>1.9</v>
+      </c>
+      <c r="T271">
+        <v>3</v>
+      </c>
+      <c r="U271">
+        <v>1.925</v>
+      </c>
+      <c r="V271">
         <v>1.875</v>
       </c>
-      <c r="S271">
-        <v>1.925</v>
-      </c>
-      <c r="T271">
-        <v>2.5</v>
-      </c>
-      <c r="U271">
-        <v>1.8</v>
-      </c>
-      <c r="V271">
-        <v>2</v>
-      </c>
       <c r="W271">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X271">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y271">
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC271">
         <v>-1</v>
@@ -24670,7 +24670,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6933146</v>
+        <v>6932960</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24682,73 +24682,73 @@
         <v>45311.5</v>
       </c>
       <c r="F272" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G272" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H272">
+        <v>4</v>
+      </c>
+      <c r="I272">
         <v>1</v>
       </c>
-      <c r="I272">
-        <v>7</v>
-      </c>
       <c r="J272" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K272">
-        <v>3.75</v>
+        <v>1.615</v>
       </c>
       <c r="L272">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M272">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="N272">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="O272">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P272">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q272">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R272">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S272">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T272">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U272">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V272">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W272">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X272">
         <v>-1</v>
       </c>
       <c r="Y272">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z272">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA272">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB272">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC272">
         <v>-1</v>
@@ -24759,7 +24759,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6932883</v>
+        <v>6933146</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24771,73 +24771,73 @@
         <v>45311.5</v>
       </c>
       <c r="F273" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G273" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J273" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K273">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L273">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M273">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="N273">
+        <v>3.3</v>
+      </c>
+      <c r="O273">
         <v>3.6</v>
       </c>
-      <c r="O273">
-        <v>3.4</v>
-      </c>
       <c r="P273">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="Q273">
         <v>0.5</v>
       </c>
       <c r="R273">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S273">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T273">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U273">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V273">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W273">
         <v>-1</v>
       </c>
       <c r="X273">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y273">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z273">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA273">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB273">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC273">
         <v>-1</v>
@@ -25026,7 +25026,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6933148</v>
+        <v>6933147</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25038,73 +25038,73 @@
         <v>45311.5</v>
       </c>
       <c r="F276" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G276" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276" t="s">
+        <v>53</v>
+      </c>
+      <c r="K276">
+        <v>1.363</v>
+      </c>
+      <c r="L276">
+        <v>4.333</v>
+      </c>
+      <c r="M276">
+        <v>6.5</v>
+      </c>
+      <c r="N276">
+        <v>1.363</v>
+      </c>
+      <c r="O276">
+        <v>4.5</v>
+      </c>
+      <c r="P276">
+        <v>6.5</v>
+      </c>
+      <c r="Q276">
+        <v>-1.5</v>
+      </c>
+      <c r="R276">
+        <v>1.975</v>
+      </c>
+      <c r="S276">
+        <v>1.825</v>
+      </c>
+      <c r="T276">
         <v>3</v>
       </c>
-      <c r="J276" t="s">
-        <v>54</v>
-      </c>
-      <c r="K276">
-        <v>2.25</v>
-      </c>
-      <c r="L276">
-        <v>3.4</v>
-      </c>
-      <c r="M276">
-        <v>2.625</v>
-      </c>
-      <c r="N276">
-        <v>2.375</v>
-      </c>
-      <c r="O276">
-        <v>3.5</v>
-      </c>
-      <c r="P276">
-        <v>2.45</v>
-      </c>
-      <c r="Q276">
-        <v>0</v>
-      </c>
-      <c r="R276">
-        <v>1.85</v>
-      </c>
-      <c r="S276">
+      <c r="U276">
+        <v>1.75</v>
+      </c>
+      <c r="V276">
         <v>1.95</v>
       </c>
-      <c r="T276">
-        <v>3.25</v>
-      </c>
-      <c r="U276">
-        <v>1.975</v>
-      </c>
-      <c r="V276">
-        <v>1.825</v>
-      </c>
       <c r="W276">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X276">
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA276">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB276">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC276">
         <v>-1</v>
@@ -25115,7 +25115,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6933147</v>
+        <v>6933148</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25127,73 +25127,73 @@
         <v>45311.5</v>
       </c>
       <c r="F277" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G277" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H277">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I277">
+        <v>3</v>
+      </c>
+      <c r="J277" t="s">
+        <v>54</v>
+      </c>
+      <c r="K277">
+        <v>2.25</v>
+      </c>
+      <c r="L277">
+        <v>3.4</v>
+      </c>
+      <c r="M277">
+        <v>2.625</v>
+      </c>
+      <c r="N277">
+        <v>2.375</v>
+      </c>
+      <c r="O277">
+        <v>3.5</v>
+      </c>
+      <c r="P277">
+        <v>2.45</v>
+      </c>
+      <c r="Q277">
         <v>0</v>
       </c>
-      <c r="J277" t="s">
-        <v>53</v>
-      </c>
-      <c r="K277">
-        <v>1.363</v>
-      </c>
-      <c r="L277">
-        <v>4.333</v>
-      </c>
-      <c r="M277">
-        <v>6.5</v>
-      </c>
-      <c r="N277">
-        <v>1.363</v>
-      </c>
-      <c r="O277">
-        <v>4.5</v>
-      </c>
-      <c r="P277">
-        <v>6.5</v>
-      </c>
-      <c r="Q277">
-        <v>-1.5</v>
-      </c>
       <c r="R277">
+        <v>1.85</v>
+      </c>
+      <c r="S277">
+        <v>1.95</v>
+      </c>
+      <c r="T277">
+        <v>3.25</v>
+      </c>
+      <c r="U277">
         <v>1.975</v>
       </c>
-      <c r="S277">
+      <c r="V277">
         <v>1.825</v>
       </c>
-      <c r="T277">
-        <v>3</v>
-      </c>
-      <c r="U277">
-        <v>1.75</v>
-      </c>
-      <c r="V277">
-        <v>1.95</v>
-      </c>
       <c r="W277">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X277">
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z277">
+        <v>-1</v>
+      </c>
+      <c r="AA277">
+        <v>0.95</v>
+      </c>
+      <c r="AB277">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA277">
-        <v>-1</v>
-      </c>
-      <c r="AB277">
-        <v>0.75</v>
       </c>
       <c r="AC277">
         <v>-1</v>
@@ -26450,7 +26450,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6933163</v>
+        <v>6933162</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26462,73 +26462,73 @@
         <v>45325.5</v>
       </c>
       <c r="F292" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G292" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H292">
+        <v>2</v>
+      </c>
+      <c r="I292">
         <v>3</v>
       </c>
-      <c r="I292">
-        <v>0</v>
-      </c>
       <c r="J292" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K292">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="L292">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M292">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="N292">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="O292">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P292">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="Q292">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R292">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S292">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T292">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U292">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V292">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W292">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z292">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA292">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB292">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC292">
         <v>-1</v>
@@ -26539,7 +26539,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6933162</v>
+        <v>6933161</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26551,76 +26551,76 @@
         <v>45325.5</v>
       </c>
       <c r="F293" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G293" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H293">
         <v>2</v>
       </c>
       <c r="I293">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K293">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L293">
         <v>5</v>
       </c>
       <c r="M293">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N293">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="O293">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="P293">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q293">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R293">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S293">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T293">
         <v>3.25</v>
       </c>
       <c r="U293">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V293">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W293">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X293">
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA293">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AB293">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC293">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26628,7 +26628,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6933161</v>
+        <v>6932963</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26640,76 +26640,76 @@
         <v>45325.5</v>
       </c>
       <c r="F294" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G294" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294">
         <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K294">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="L294">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M294">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N294">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O294">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P294">
-        <v>4.333</v>
+        <v>1.833</v>
       </c>
       <c r="Q294">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R294">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S294">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T294">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U294">
+        <v>1.825</v>
+      </c>
+      <c r="V294">
         <v>1.975</v>
       </c>
-      <c r="V294">
-        <v>1.825</v>
-      </c>
       <c r="W294">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X294">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y294">
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA294">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB294">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC294">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26717,7 +26717,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6932963</v>
+        <v>6933159</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26729,76 +26729,76 @@
         <v>45325.5</v>
       </c>
       <c r="F295" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G295" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H295">
+        <v>4</v>
+      </c>
+      <c r="I295">
+        <v>3</v>
+      </c>
+      <c r="J295" t="s">
+        <v>53</v>
+      </c>
+      <c r="K295">
+        <v>3.5</v>
+      </c>
+      <c r="L295">
+        <v>4</v>
+      </c>
+      <c r="M295">
+        <v>1.727</v>
+      </c>
+      <c r="N295">
+        <v>3.6</v>
+      </c>
+      <c r="O295">
+        <v>4.5</v>
+      </c>
+      <c r="P295">
+        <v>1.615</v>
+      </c>
+      <c r="Q295">
+        <v>0.75</v>
+      </c>
+      <c r="R295">
+        <v>2</v>
+      </c>
+      <c r="S295">
+        <v>1.8</v>
+      </c>
+      <c r="T295">
+        <v>3.5</v>
+      </c>
+      <c r="U295">
+        <v>1.95</v>
+      </c>
+      <c r="V295">
+        <v>1.85</v>
+      </c>
+      <c r="W295">
+        <v>2.6</v>
+      </c>
+      <c r="X295">
+        <v>-1</v>
+      </c>
+      <c r="Y295">
+        <v>-1</v>
+      </c>
+      <c r="Z295">
         <v>1</v>
       </c>
-      <c r="I295">
-        <v>1</v>
-      </c>
-      <c r="J295" t="s">
-        <v>55</v>
-      </c>
-      <c r="K295">
-        <v>2.625</v>
-      </c>
-      <c r="L295">
-        <v>3.6</v>
-      </c>
-      <c r="M295">
-        <v>2.2</v>
-      </c>
-      <c r="N295">
-        <v>3.2</v>
-      </c>
-      <c r="O295">
-        <v>4</v>
-      </c>
-      <c r="P295">
-        <v>1.833</v>
-      </c>
-      <c r="Q295">
-        <v>0.5</v>
-      </c>
-      <c r="R295">
-        <v>1.925</v>
-      </c>
-      <c r="S295">
-        <v>1.875</v>
-      </c>
-      <c r="T295">
-        <v>3</v>
-      </c>
-      <c r="U295">
-        <v>1.825</v>
-      </c>
-      <c r="V295">
-        <v>1.975</v>
-      </c>
-      <c r="W295">
-        <v>-1</v>
-      </c>
-      <c r="X295">
-        <v>3</v>
-      </c>
-      <c r="Y295">
-        <v>-1</v>
-      </c>
-      <c r="Z295">
-        <v>0.925</v>
-      </c>
       <c r="AA295">
         <v>-1</v>
       </c>
       <c r="AB295">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC295">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26806,7 +26806,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6933159</v>
+        <v>6933163</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26818,40 +26818,40 @@
         <v>45325.5</v>
       </c>
       <c r="F296" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G296" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H296">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I296">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J296" t="s">
         <v>53</v>
       </c>
       <c r="K296">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="L296">
         <v>4</v>
       </c>
       <c r="M296">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="N296">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="O296">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P296">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="Q296">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R296">
         <v>2</v>
@@ -26860,16 +26860,16 @@
         <v>1.8</v>
       </c>
       <c r="T296">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U296">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V296">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W296">
-        <v>2.6</v>
+        <v>0.571</v>
       </c>
       <c r="X296">
         <v>-1</v>
@@ -26884,7 +26884,7 @@
         <v>-1</v>
       </c>
       <c r="AB296">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC296">
         <v>-1</v>
@@ -26895,7 +26895,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6933160</v>
+        <v>6933730</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26907,76 +26907,76 @@
         <v>45325.5</v>
       </c>
       <c r="F297" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G297" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I297">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J297" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K297">
-        <v>1.952</v>
+        <v>1.571</v>
       </c>
       <c r="L297">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M297">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N297">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="O297">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P297">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q297">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R297">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S297">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T297">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U297">
+        <v>1.925</v>
+      </c>
+      <c r="V297">
         <v>1.875</v>
       </c>
-      <c r="V297">
-        <v>1.925</v>
-      </c>
       <c r="W297">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z297">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB297">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC297">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26984,7 +26984,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6933730</v>
+        <v>6933160</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26996,76 +26996,76 @@
         <v>45325.5</v>
       </c>
       <c r="F298" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G298" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H298">
+        <v>2</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298" t="s">
+        <v>53</v>
+      </c>
+      <c r="K298">
+        <v>1.952</v>
+      </c>
+      <c r="L298">
+        <v>3.75</v>
+      </c>
+      <c r="M298">
         <v>3</v>
       </c>
-      <c r="I298">
-        <v>4</v>
-      </c>
-      <c r="J298" t="s">
-        <v>54</v>
-      </c>
-      <c r="K298">
-        <v>1.571</v>
-      </c>
-      <c r="L298">
-        <v>4</v>
-      </c>
-      <c r="M298">
-        <v>4.333</v>
-      </c>
       <c r="N298">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="O298">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P298">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q298">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R298">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S298">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T298">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U298">
+        <v>1.875</v>
+      </c>
+      <c r="V298">
         <v>1.925</v>
       </c>
-      <c r="V298">
-        <v>1.875</v>
-      </c>
       <c r="W298">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X298">
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z298">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA298">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB298">
+        <v>-1</v>
+      </c>
+      <c r="AC298">
         <v>0.925</v>
-      </c>
-      <c r="AC298">
-        <v>-1</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -28319,7 +28319,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>6933813</v>
+        <v>6933817</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28331,76 +28331,76 @@
         <v>45339.5</v>
       </c>
       <c r="F313" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G313" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J313" t="s">
         <v>55</v>
       </c>
       <c r="K313">
-        <v>1.222</v>
+        <v>2.2</v>
       </c>
       <c r="L313">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M313">
-        <v>9.5</v>
+        <v>2.7</v>
       </c>
       <c r="N313">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="O313">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P313">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q313">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R313">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S313">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T313">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U313">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V313">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W313">
         <v>-1</v>
       </c>
       <c r="X313">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y313">
         <v>-1</v>
       </c>
       <c r="Z313">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA313">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB313">
         <v>-1</v>
       </c>
       <c r="AC313">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28408,7 +28408,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>6933817</v>
+        <v>6933814</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28420,16 +28420,16 @@
         <v>45339.5</v>
       </c>
       <c r="F314" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G314" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J314" t="s">
         <v>55</v>
@@ -28438,58 +28438,58 @@
         <v>2.2</v>
       </c>
       <c r="L314">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M314">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N314">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O314">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P314">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="Q314">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R314">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S314">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T314">
         <v>2.75</v>
       </c>
       <c r="U314">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V314">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W314">
         <v>-1</v>
       </c>
       <c r="X314">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y314">
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA314">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB314">
         <v>-1</v>
       </c>
       <c r="AC314">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28497,7 +28497,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6933814</v>
+        <v>6933815</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28509,76 +28509,76 @@
         <v>45339.5</v>
       </c>
       <c r="F315" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G315" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I315">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J315" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K315">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L315">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M315">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N315">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O315">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P315">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q315">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R315">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S315">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T315">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U315">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V315">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W315">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X315">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y315">
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA315">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB315">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC315">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28586,7 +28586,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>6933815</v>
+        <v>6933818</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28598,16 +28598,16 @@
         <v>45339.5</v>
       </c>
       <c r="F316" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G316" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H316">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I316">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J316" t="s">
         <v>53</v>
@@ -28622,34 +28622,34 @@
         <v>3.1</v>
       </c>
       <c r="N316">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O316">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P316">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q316">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R316">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S316">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T316">
         <v>3</v>
       </c>
       <c r="U316">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V316">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W316">
-        <v>0.6659999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X316">
         <v>-1</v>
@@ -28658,13 +28658,13 @@
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA316">
         <v>-1</v>
       </c>
       <c r="AB316">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC316">
         <v>-1</v>
@@ -28675,7 +28675,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6933818</v>
+        <v>6933813</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28687,40 +28687,40 @@
         <v>45339.5</v>
       </c>
       <c r="F317" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G317" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H317">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J317" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K317">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="L317">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M317">
-        <v>3.1</v>
+        <v>9.5</v>
       </c>
       <c r="N317">
-        <v>2.05</v>
+        <v>1.25</v>
       </c>
       <c r="O317">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P317">
-        <v>3.1</v>
+        <v>8.5</v>
       </c>
       <c r="Q317">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R317">
         <v>1.825</v>
@@ -28729,34 +28729,34 @@
         <v>1.975</v>
       </c>
       <c r="T317">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U317">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V317">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W317">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X317">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
+        <v>-1</v>
+      </c>
+      <c r="AA317">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB317">
+        <v>-1</v>
+      </c>
+      <c r="AC317">
         <v>0.825</v>
-      </c>
-      <c r="AA317">
-        <v>-1</v>
-      </c>
-      <c r="AB317">
-        <v>0.75</v>
-      </c>
-      <c r="AC317">
-        <v>-1</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -29298,7 +29298,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6934821</v>
+        <v>6934822</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29310,46 +29310,46 @@
         <v>45346.5</v>
       </c>
       <c r="F324" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G324" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H324">
+        <v>2</v>
+      </c>
+      <c r="I324">
         <v>1</v>
       </c>
-      <c r="I324">
-        <v>4</v>
-      </c>
       <c r="J324" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K324">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L324">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M324">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N324">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="O324">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P324">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q324">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R324">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S324">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T324">
         <v>2.5</v>
@@ -29361,19 +29361,19 @@
         <v>2.025</v>
       </c>
       <c r="W324">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X324">
         <v>-1</v>
       </c>
       <c r="Y324">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z324">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA324">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB324">
         <v>0.7749999999999999</v>
@@ -29387,7 +29387,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6934822</v>
+        <v>6934821</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29399,46 +29399,46 @@
         <v>45346.5</v>
       </c>
       <c r="F325" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G325" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J325" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K325">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L325">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M325">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N325">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O325">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P325">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q325">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R325">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S325">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T325">
         <v>2.5</v>
@@ -29450,19 +29450,19 @@
         <v>2.025</v>
       </c>
       <c r="W325">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X325">
         <v>-1</v>
       </c>
       <c r="Y325">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z325">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA325">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB325">
         <v>0.7749999999999999</v>
@@ -30099,7 +30099,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7888541</v>
+        <v>7841946</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30111,76 +30111,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F333" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G333" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H333">
         <v>1</v>
       </c>
       <c r="I333">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J333" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K333">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L333">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M333">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="N333">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O333">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P333">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="Q333">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R333">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S333">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T333">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U333">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V333">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W333">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z333">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA333">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB333">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC333">
-        <v>0.475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30188,7 +30188,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7841946</v>
+        <v>7888541</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30200,76 +30200,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F334" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G334" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H334">
         <v>1</v>
       </c>
       <c r="I334">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J334" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K334">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L334">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M334">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="N334">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O334">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P334">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="Q334">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R334">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S334">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T334">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U334">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V334">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W334">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z334">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA334">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB334">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC334">
-        <v>1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30811,7 +30811,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7901699</v>
+        <v>7841945</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30823,10 +30823,10 @@
         <v>45360.5</v>
       </c>
       <c r="F341" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G341" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H341">
         <v>0</v>
@@ -30838,41 +30838,41 @@
         <v>54</v>
       </c>
       <c r="K341">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L341">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M341">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N341">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="O341">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P341">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q341">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R341">
+        <v>2</v>
+      </c>
+      <c r="S341">
+        <v>1.8</v>
+      </c>
+      <c r="T341">
+        <v>2.5</v>
+      </c>
+      <c r="U341">
+        <v>1.95</v>
+      </c>
+      <c r="V341">
         <v>1.85</v>
       </c>
-      <c r="S341">
-        <v>1.95</v>
-      </c>
-      <c r="T341">
-        <v>3.25</v>
-      </c>
-      <c r="U341">
-        <v>2</v>
-      </c>
-      <c r="V341">
-        <v>1.8</v>
-      </c>
       <c r="W341">
         <v>-1</v>
       </c>
@@ -30880,19 +30880,19 @@
         <v>-1</v>
       </c>
       <c r="Y341">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="Z341">
         <v>-1</v>
       </c>
       <c r="AA341">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB341">
         <v>-1</v>
       </c>
       <c r="AC341">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -30989,7 +30989,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>7841945</v>
+        <v>7901699</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -31001,10 +31001,10 @@
         <v>45360.5</v>
       </c>
       <c r="F343" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G343" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H343">
         <v>0</v>
@@ -31016,41 +31016,41 @@
         <v>54</v>
       </c>
       <c r="K343">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L343">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M343">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N343">
+        <v>2.75</v>
+      </c>
+      <c r="O343">
+        <v>3.6</v>
+      </c>
+      <c r="P343">
+        <v>2.1</v>
+      </c>
+      <c r="Q343">
+        <v>0.25</v>
+      </c>
+      <c r="R343">
+        <v>1.85</v>
+      </c>
+      <c r="S343">
         <v>1.95</v>
       </c>
-      <c r="O343">
-        <v>3.4</v>
-      </c>
-      <c r="P343">
-        <v>3.3</v>
-      </c>
-      <c r="Q343">
-        <v>-0.5</v>
-      </c>
-      <c r="R343">
-        <v>2</v>
-      </c>
-      <c r="S343">
+      <c r="T343">
+        <v>3.25</v>
+      </c>
+      <c r="U343">
+        <v>2</v>
+      </c>
+      <c r="V343">
         <v>1.8</v>
       </c>
-      <c r="T343">
-        <v>2.5</v>
-      </c>
-      <c r="U343">
-        <v>1.95</v>
-      </c>
-      <c r="V343">
-        <v>1.85</v>
-      </c>
       <c r="W343">
         <v>-1</v>
       </c>
@@ -31058,19 +31058,19 @@
         <v>-1</v>
       </c>
       <c r="Y343">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="Z343">
         <v>-1</v>
       </c>
       <c r="AA343">
+        <v>0.95</v>
+      </c>
+      <c r="AB343">
+        <v>-1</v>
+      </c>
+      <c r="AC343">
         <v>0.8</v>
-      </c>
-      <c r="AB343">
-        <v>-1</v>
-      </c>
-      <c r="AC343">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -31256,7 +31256,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6938025</v>
+        <v>6938024</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31268,76 +31268,76 @@
         <v>45367.5</v>
       </c>
       <c r="F346" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G346" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J346" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K346">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="L346">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M346">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="N346">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="O346">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P346">
-        <v>4.2</v>
+        <v>1.45</v>
       </c>
       <c r="Q346">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R346">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S346">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T346">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U346">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V346">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W346">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X346">
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z346">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA346">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB346">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC346">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31345,7 +31345,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6938026</v>
+        <v>6938025</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31357,76 +31357,76 @@
         <v>45367.5</v>
       </c>
       <c r="F347" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G347" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J347" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K347">
+        <v>1.727</v>
+      </c>
+      <c r="L347">
+        <v>3.75</v>
+      </c>
+      <c r="M347">
+        <v>3.75</v>
+      </c>
+      <c r="N347">
         <v>1.615</v>
       </c>
-      <c r="L347">
-        <v>4.333</v>
-      </c>
-      <c r="M347">
+      <c r="O347">
         <v>3.8</v>
       </c>
-      <c r="N347">
-        <v>1.444</v>
-      </c>
-      <c r="O347">
-        <v>4.5</v>
-      </c>
       <c r="P347">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q347">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R347">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S347">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T347">
         <v>3</v>
       </c>
       <c r="U347">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V347">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W347">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X347">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA347">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31434,7 +31434,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6938028</v>
+        <v>6938026</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31446,76 +31446,76 @@
         <v>45367.5</v>
       </c>
       <c r="F348" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G348" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H348">
         <v>1</v>
       </c>
       <c r="I348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J348" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K348">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L348">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M348">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="N348">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="O348">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P348">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="Q348">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R348">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S348">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T348">
         <v>3</v>
       </c>
       <c r="U348">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V348">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W348">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X348">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y348">
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA348">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB348">
         <v>-1</v>
       </c>
       <c r="AC348">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31523,7 +31523,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>6938020</v>
+        <v>6938028</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31535,16 +31535,16 @@
         <v>45367.5</v>
       </c>
       <c r="F349" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G349" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J349" t="s">
         <v>53</v>
@@ -31559,34 +31559,34 @@
         <v>2.25</v>
       </c>
       <c r="N349">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="O349">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P349">
+        <v>2.45</v>
+      </c>
+      <c r="Q349">
+        <v>-0.25</v>
+      </c>
+      <c r="R349">
+        <v>2.05</v>
+      </c>
+      <c r="S349">
         <v>1.75</v>
       </c>
-      <c r="Q349">
-        <v>0.75</v>
-      </c>
-      <c r="R349">
-        <v>1.75</v>
-      </c>
-      <c r="S349">
-        <v>1.95</v>
-      </c>
       <c r="T349">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U349">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V349">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W349">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="X349">
         <v>-1</v>
@@ -31595,16 +31595,16 @@
         <v>-1</v>
       </c>
       <c r="Z349">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="AA349">
         <v>-1</v>
       </c>
       <c r="AB349">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC349">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31612,7 +31612,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>6938024</v>
+        <v>6938020</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31624,76 +31624,76 @@
         <v>45367.5</v>
       </c>
       <c r="F350" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G350" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J350" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K350">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L350">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M350">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N350">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="O350">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P350">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="Q350">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R350">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S350">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T350">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U350">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V350">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W350">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
+        <v>-1</v>
+      </c>
+      <c r="Z350">
+        <v>0.75</v>
+      </c>
+      <c r="AA350">
+        <v>-1</v>
+      </c>
+      <c r="AB350">
         <v>0.45</v>
       </c>
-      <c r="Z350">
-        <v>-1</v>
-      </c>
-      <c r="AA350">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB350">
+      <c r="AC350">
         <v>-0.5</v>
-      </c>
-      <c r="AC350">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31701,7 +31701,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>6938022</v>
+        <v>6938023</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31713,13 +31713,13 @@
         <v>45367.5</v>
       </c>
       <c r="F351" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G351" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I351">
         <v>0</v>
@@ -31728,43 +31728,43 @@
         <v>53</v>
       </c>
       <c r="K351">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L351">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M351">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N351">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="O351">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P351">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q351">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R351">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S351">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T351">
         <v>2.75</v>
       </c>
       <c r="U351">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V351">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W351">
-        <v>0.75</v>
+        <v>1.7</v>
       </c>
       <c r="X351">
         <v>-1</v>
@@ -31773,16 +31773,16 @@
         <v>-1</v>
       </c>
       <c r="Z351">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA351">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB351">
         <v>-1</v>
       </c>
       <c r="AC351">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31790,7 +31790,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6938023</v>
+        <v>6938022</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31802,13 +31802,13 @@
         <v>45367.5</v>
       </c>
       <c r="F352" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G352" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352">
         <v>0</v>
@@ -31817,43 +31817,43 @@
         <v>53</v>
       </c>
       <c r="K352">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L352">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M352">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N352">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O352">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P352">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q352">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R352">
+        <v>2</v>
+      </c>
+      <c r="S352">
         <v>1.8</v>
-      </c>
-      <c r="S352">
-        <v>2</v>
       </c>
       <c r="T352">
         <v>2.75</v>
       </c>
       <c r="U352">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V352">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W352">
-        <v>1.7</v>
+        <v>0.75</v>
       </c>
       <c r="X352">
         <v>-1</v>
@@ -31862,16 +31862,16 @@
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB352">
         <v>-1</v>
       </c>
       <c r="AC352">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -32858,7 +32858,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6939432</v>
+        <v>6939435</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32870,76 +32870,76 @@
         <v>45374.5</v>
       </c>
       <c r="F364" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G364" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364">
         <v>0</v>
       </c>
       <c r="J364" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K364">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L364">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M364">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N364">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O364">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P364">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q364">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R364">
+        <v>1.95</v>
+      </c>
+      <c r="S364">
         <v>1.85</v>
       </c>
-      <c r="S364">
-        <v>1.95</v>
-      </c>
       <c r="T364">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U364">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V364">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W364">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X364">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y364">
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA364">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB364">
         <v>-1</v>
       </c>
       <c r="AC364">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -32947,7 +32947,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6939433</v>
+        <v>6939434</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32959,76 +32959,76 @@
         <v>45374.5</v>
       </c>
       <c r="F365" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G365" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H365">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I365">
         <v>2</v>
       </c>
       <c r="J365" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K365">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L365">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M365">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="N365">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O365">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P365">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="Q365">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R365">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S365">
+        <v>1.95</v>
+      </c>
+      <c r="T365">
+        <v>3</v>
+      </c>
+      <c r="U365">
+        <v>2</v>
+      </c>
+      <c r="V365">
         <v>1.8</v>
       </c>
-      <c r="T365">
-        <v>2.75</v>
-      </c>
-      <c r="U365">
-        <v>1.875</v>
-      </c>
-      <c r="V365">
-        <v>1.925</v>
-      </c>
       <c r="W365">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X365">
         <v>-1</v>
       </c>
       <c r="Y365">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z365">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA365">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB365">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC365">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="366" spans="1:29">
@@ -33036,7 +33036,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6939434</v>
+        <v>6939433</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33048,76 +33048,76 @@
         <v>45374.5</v>
       </c>
       <c r="F366" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G366" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H366">
+        <v>4</v>
+      </c>
+      <c r="I366">
+        <v>2</v>
+      </c>
+      <c r="J366" t="s">
+        <v>53</v>
+      </c>
+      <c r="K366">
+        <v>2.2</v>
+      </c>
+      <c r="L366">
+        <v>3.6</v>
+      </c>
+      <c r="M366">
+        <v>2.6</v>
+      </c>
+      <c r="N366">
+        <v>2.2</v>
+      </c>
+      <c r="O366">
+        <v>3.75</v>
+      </c>
+      <c r="P366">
+        <v>2.7</v>
+      </c>
+      <c r="Q366">
+        <v>-0.25</v>
+      </c>
+      <c r="R366">
+        <v>2</v>
+      </c>
+      <c r="S366">
+        <v>1.8</v>
+      </c>
+      <c r="T366">
+        <v>2.75</v>
+      </c>
+      <c r="U366">
+        <v>1.875</v>
+      </c>
+      <c r="V366">
+        <v>1.925</v>
+      </c>
+      <c r="W366">
+        <v>1.2</v>
+      </c>
+      <c r="X366">
+        <v>-1</v>
+      </c>
+      <c r="Y366">
+        <v>-1</v>
+      </c>
+      <c r="Z366">
         <v>1</v>
       </c>
-      <c r="I366">
-        <v>2</v>
-      </c>
-      <c r="J366" t="s">
-        <v>54</v>
-      </c>
-      <c r="K366">
-        <v>1.5</v>
-      </c>
-      <c r="L366">
-        <v>4.5</v>
-      </c>
-      <c r="M366">
-        <v>4.5</v>
-      </c>
-      <c r="N366">
-        <v>1.833</v>
-      </c>
-      <c r="O366">
-        <v>4.2</v>
-      </c>
-      <c r="P366">
-        <v>3.25</v>
-      </c>
-      <c r="Q366">
-        <v>-0.5</v>
-      </c>
-      <c r="R366">
-        <v>1.85</v>
-      </c>
-      <c r="S366">
-        <v>1.95</v>
-      </c>
-      <c r="T366">
-        <v>3</v>
-      </c>
-      <c r="U366">
-        <v>2</v>
-      </c>
-      <c r="V366">
-        <v>1.8</v>
-      </c>
-      <c r="W366">
-        <v>-1</v>
-      </c>
-      <c r="X366">
-        <v>-1</v>
-      </c>
-      <c r="Y366">
-        <v>2.25</v>
-      </c>
-      <c r="Z366">
-        <v>-1</v>
-      </c>
       <c r="AA366">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB366">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC366">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33125,7 +33125,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6939435</v>
+        <v>6939432</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33137,76 +33137,76 @@
         <v>45374.5</v>
       </c>
       <c r="F367" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G367" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367">
         <v>0</v>
       </c>
       <c r="J367" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K367">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L367">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M367">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N367">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O367">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P367">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="Q367">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R367">
+        <v>1.85</v>
+      </c>
+      <c r="S367">
         <v>1.95</v>
       </c>
-      <c r="S367">
-        <v>1.85</v>
-      </c>
       <c r="T367">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U367">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V367">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W367">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X367">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y367">
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA367">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB367">
         <v>-1</v>
       </c>
       <c r="AC367">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33214,7 +33214,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>7901701</v>
+        <v>7901704</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33226,13 +33226,13 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F368" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G368" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368">
         <v>2</v>
@@ -33241,40 +33241,40 @@
         <v>54</v>
       </c>
       <c r="K368">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L368">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M368">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="N368">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O368">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P368">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q368">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R368">
         <v>1.95</v>
       </c>
       <c r="S368">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T368">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U368">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V368">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W368">
         <v>-1</v>
@@ -33283,19 +33283,19 @@
         <v>-1</v>
       </c>
       <c r="Y368">
-        <v>2.1</v>
+        <v>0.95</v>
       </c>
       <c r="Z368">
         <v>-1</v>
       </c>
       <c r="AA368">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB368">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC368">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -33303,7 +33303,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>7901704</v>
+        <v>7901701</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33315,13 +33315,13 @@
         <v>45377.69791666666</v>
       </c>
       <c r="F369" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G369" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I369">
         <v>2</v>
@@ -33330,40 +33330,40 @@
         <v>54</v>
       </c>
       <c r="K369">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L369">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M369">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="N369">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O369">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P369">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q369">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R369">
         <v>1.95</v>
       </c>
       <c r="S369">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T369">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U369">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V369">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W369">
         <v>-1</v>
@@ -33372,19 +33372,19 @@
         <v>-1</v>
       </c>
       <c r="Y369">
-        <v>0.95</v>
+        <v>2.1</v>
       </c>
       <c r="Z369">
         <v>-1</v>
       </c>
       <c r="AA369">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB369">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC369">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="370" spans="1:29">
@@ -33570,7 +33570,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6940789</v>
+        <v>6940798</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33582,46 +33582,46 @@
         <v>45381.5</v>
       </c>
       <c r="F372" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G372" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H372">
         <v>1</v>
       </c>
       <c r="I372">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J372" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K372">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="L372">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M372">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="N372">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O372">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P372">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q372">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R372">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S372">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T372">
         <v>3</v>
@@ -33633,25 +33633,25 @@
         <v>1.875</v>
       </c>
       <c r="W372">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X372">
         <v>-1</v>
       </c>
       <c r="Y372">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z372">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA372">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB372">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC372">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33659,7 +33659,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6940798</v>
+        <v>6940789</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33671,46 +33671,46 @@
         <v>45381.5</v>
       </c>
       <c r="F373" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G373" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H373">
         <v>1</v>
       </c>
       <c r="I373">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J373" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K373">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="L373">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M373">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="N373">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O373">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P373">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="Q373">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R373">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S373">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T373">
         <v>3</v>
@@ -33722,25 +33722,25 @@
         <v>1.875</v>
       </c>
       <c r="W373">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X373">
         <v>-1</v>
       </c>
       <c r="Y373">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z373">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA373">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB373">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC373">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33926,7 +33926,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6940793</v>
+        <v>6940794</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33938,13 +33938,13 @@
         <v>45381.5</v>
       </c>
       <c r="F376" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G376" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I376">
         <v>3</v>
@@ -33953,31 +33953,31 @@
         <v>54</v>
       </c>
       <c r="K376">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L376">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M376">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N376">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O376">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P376">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q376">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R376">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S376">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T376">
         <v>2.75</v>
@@ -33995,13 +33995,13 @@
         <v>-1</v>
       </c>
       <c r="Y376">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="Z376">
         <v>-1</v>
       </c>
       <c r="AA376">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB376">
         <v>0.9750000000000001</v>
@@ -34015,7 +34015,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6940794</v>
+        <v>6940795</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34027,73 +34027,73 @@
         <v>45381.5</v>
       </c>
       <c r="F377" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G377" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H377">
         <v>2</v>
       </c>
       <c r="I377">
+        <v>2</v>
+      </c>
+      <c r="J377" t="s">
+        <v>55</v>
+      </c>
+      <c r="K377">
+        <v>1.909</v>
+      </c>
+      <c r="L377">
+        <v>3.6</v>
+      </c>
+      <c r="M377">
+        <v>3.2</v>
+      </c>
+      <c r="N377">
+        <v>1.5</v>
+      </c>
+      <c r="O377">
+        <v>4.2</v>
+      </c>
+      <c r="P377">
+        <v>4.5</v>
+      </c>
+      <c r="Q377">
+        <v>-1</v>
+      </c>
+      <c r="R377">
+        <v>1.8</v>
+      </c>
+      <c r="S377">
+        <v>2</v>
+      </c>
+      <c r="T377">
         <v>3</v>
       </c>
-      <c r="J377" t="s">
-        <v>54</v>
-      </c>
-      <c r="K377">
-        <v>1.615</v>
-      </c>
-      <c r="L377">
-        <v>4.333</v>
-      </c>
-      <c r="M377">
-        <v>3.75</v>
-      </c>
-      <c r="N377">
-        <v>1.85</v>
-      </c>
-      <c r="O377">
-        <v>4.333</v>
-      </c>
-      <c r="P377">
-        <v>2.9</v>
-      </c>
-      <c r="Q377">
-        <v>-0.5</v>
-      </c>
-      <c r="R377">
-        <v>1.9</v>
-      </c>
-      <c r="S377">
-        <v>1.9</v>
-      </c>
-      <c r="T377">
-        <v>2.75</v>
-      </c>
       <c r="U377">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V377">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W377">
         <v>-1</v>
       </c>
       <c r="X377">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y377">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z377">
         <v>-1</v>
       </c>
       <c r="AA377">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB377">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC377">
         <v>-1</v>
@@ -34104,7 +34104,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>6940795</v>
+        <v>6940796</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34116,34 +34116,34 @@
         <v>45381.5</v>
       </c>
       <c r="F378" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G378" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I378">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J378" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K378">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L378">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M378">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N378">
         <v>1.5</v>
       </c>
       <c r="O378">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P378">
         <v>4.5</v>
@@ -34152,37 +34152,37 @@
         <v>-1</v>
       </c>
       <c r="R378">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S378">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T378">
         <v>3</v>
       </c>
       <c r="U378">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V378">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W378">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X378">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y378">
         <v>-1</v>
       </c>
       <c r="Z378">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA378">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB378">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC378">
         <v>-1</v>
@@ -34193,7 +34193,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>6940796</v>
+        <v>6940793</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34205,73 +34205,73 @@
         <v>45381.5</v>
       </c>
       <c r="F379" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G379" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H379">
+        <v>1</v>
+      </c>
+      <c r="I379">
         <v>3</v>
       </c>
-      <c r="I379">
-        <v>1</v>
-      </c>
       <c r="J379" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K379">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L379">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M379">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N379">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O379">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P379">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q379">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R379">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S379">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T379">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U379">
+        <v>1.975</v>
+      </c>
+      <c r="V379">
         <v>1.825</v>
       </c>
-      <c r="V379">
-        <v>1.975</v>
-      </c>
       <c r="W379">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z379">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA379">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB379">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC379">
         <v>-1</v>
@@ -34282,7 +34282,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>6941583</v>
+        <v>6941584</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34294,49 +34294,49 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F380" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G380" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H380">
+        <v>0</v>
+      </c>
+      <c r="I380">
+        <v>2</v>
+      </c>
+      <c r="J380" t="s">
+        <v>54</v>
+      </c>
+      <c r="K380">
+        <v>2.5</v>
+      </c>
+      <c r="L380">
+        <v>3.7</v>
+      </c>
+      <c r="M380">
+        <v>2.375</v>
+      </c>
+      <c r="N380">
+        <v>2.7</v>
+      </c>
+      <c r="O380">
+        <v>3.75</v>
+      </c>
+      <c r="P380">
+        <v>2.2</v>
+      </c>
+      <c r="Q380">
+        <v>0.25</v>
+      </c>
+      <c r="R380">
+        <v>1.825</v>
+      </c>
+      <c r="S380">
+        <v>1.975</v>
+      </c>
+      <c r="T380">
         <v>3</v>
-      </c>
-      <c r="I380">
-        <v>1</v>
-      </c>
-      <c r="J380" t="s">
-        <v>53</v>
-      </c>
-      <c r="K380">
-        <v>4.6</v>
-      </c>
-      <c r="L380">
-        <v>4.2</v>
-      </c>
-      <c r="M380">
-        <v>1.571</v>
-      </c>
-      <c r="N380">
-        <v>4.5</v>
-      </c>
-      <c r="O380">
-        <v>4</v>
-      </c>
-      <c r="P380">
-        <v>1.615</v>
-      </c>
-      <c r="Q380">
-        <v>0.75</v>
-      </c>
-      <c r="R380">
-        <v>2.025</v>
-      </c>
-      <c r="S380">
-        <v>1.775</v>
-      </c>
-      <c r="T380">
-        <v>2.75</v>
       </c>
       <c r="U380">
         <v>1.95</v>
@@ -34345,25 +34345,25 @@
         <v>1.85</v>
       </c>
       <c r="W380">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X380">
         <v>-1</v>
       </c>
       <c r="Y380">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z380">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA380">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB380">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC380">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -34371,7 +34371,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>6941587</v>
+        <v>6941590</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34383,73 +34383,73 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F381" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G381" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H381">
+        <v>2</v>
+      </c>
+      <c r="I381">
         <v>3</v>
       </c>
-      <c r="I381">
-        <v>2</v>
-      </c>
       <c r="J381" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K381">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L381">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="M381">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N381">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O381">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P381">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Q381">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R381">
+        <v>1.925</v>
+      </c>
+      <c r="S381">
+        <v>1.775</v>
+      </c>
+      <c r="T381">
+        <v>3.25</v>
+      </c>
+      <c r="U381">
         <v>1.825</v>
       </c>
-      <c r="S381">
+      <c r="V381">
         <v>1.975</v>
       </c>
-      <c r="T381">
-        <v>2.75</v>
-      </c>
-      <c r="U381">
-        <v>1.85</v>
-      </c>
-      <c r="V381">
-        <v>1.95</v>
-      </c>
       <c r="W381">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X381">
         <v>-1</v>
       </c>
       <c r="Y381">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z381">
+        <v>-1</v>
+      </c>
+      <c r="AA381">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB381">
         <v>0.825</v>
-      </c>
-      <c r="AA381">
-        <v>-1</v>
-      </c>
-      <c r="AB381">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC381">
         <v>-1</v>
@@ -34460,7 +34460,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>6941590</v>
+        <v>6941595</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34472,55 +34472,55 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F382" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G382" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J382" t="s">
         <v>54</v>
       </c>
       <c r="K382">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L382">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M382">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="N382">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O382">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P382">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q382">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R382">
+        <v>1.95</v>
+      </c>
+      <c r="S382">
+        <v>1.85</v>
+      </c>
+      <c r="T382">
+        <v>3</v>
+      </c>
+      <c r="U382">
         <v>1.925</v>
       </c>
-      <c r="S382">
-        <v>1.775</v>
-      </c>
-      <c r="T382">
-        <v>3.25</v>
-      </c>
-      <c r="U382">
-        <v>1.825</v>
-      </c>
       <c r="V382">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W382">
         <v>-1</v>
@@ -34529,19 +34529,19 @@
         <v>-1</v>
       </c>
       <c r="Y382">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="Z382">
         <v>-1</v>
       </c>
       <c r="AA382">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB382">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC382">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="383" spans="1:29">
@@ -34549,7 +34549,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>6941595</v>
+        <v>6941596</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34561,76 +34561,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F383" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G383" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H383">
+        <v>2</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383" t="s">
+        <v>53</v>
+      </c>
+      <c r="K383">
+        <v>2.2</v>
+      </c>
+      <c r="L383">
+        <v>3.5</v>
+      </c>
+      <c r="M383">
+        <v>2.8</v>
+      </c>
+      <c r="N383">
+        <v>2.375</v>
+      </c>
+      <c r="O383">
+        <v>3.5</v>
+      </c>
+      <c r="P383">
+        <v>2.6</v>
+      </c>
+      <c r="Q383">
+        <v>0</v>
+      </c>
+      <c r="R383">
+        <v>1.8</v>
+      </c>
+      <c r="S383">
+        <v>2</v>
+      </c>
+      <c r="T383">
+        <v>2.5</v>
+      </c>
+      <c r="U383">
+        <v>1.8</v>
+      </c>
+      <c r="V383">
+        <v>2</v>
+      </c>
+      <c r="W383">
+        <v>1.375</v>
+      </c>
+      <c r="X383">
+        <v>-1</v>
+      </c>
+      <c r="Y383">
+        <v>-1</v>
+      </c>
+      <c r="Z383">
+        <v>0.8</v>
+      </c>
+      <c r="AA383">
+        <v>-1</v>
+      </c>
+      <c r="AB383">
+        <v>-1</v>
+      </c>
+      <c r="AC383">
         <v>1</v>
-      </c>
-      <c r="I383">
-        <v>2</v>
-      </c>
-      <c r="J383" t="s">
-        <v>54</v>
-      </c>
-      <c r="K383">
-        <v>2.3</v>
-      </c>
-      <c r="L383">
-        <v>3.6</v>
-      </c>
-      <c r="M383">
-        <v>2.625</v>
-      </c>
-      <c r="N383">
-        <v>2.15</v>
-      </c>
-      <c r="O383">
-        <v>3.6</v>
-      </c>
-      <c r="P383">
-        <v>2.8</v>
-      </c>
-      <c r="Q383">
-        <v>-0.25</v>
-      </c>
-      <c r="R383">
-        <v>1.95</v>
-      </c>
-      <c r="S383">
-        <v>1.85</v>
-      </c>
-      <c r="T383">
-        <v>3</v>
-      </c>
-      <c r="U383">
-        <v>1.925</v>
-      </c>
-      <c r="V383">
-        <v>1.875</v>
-      </c>
-      <c r="W383">
-        <v>-1</v>
-      </c>
-      <c r="X383">
-        <v>-1</v>
-      </c>
-      <c r="Y383">
-        <v>1.8</v>
-      </c>
-      <c r="Z383">
-        <v>-1</v>
-      </c>
-      <c r="AA383">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB383">
-        <v>0</v>
-      </c>
-      <c r="AC383">
-        <v>-0</v>
       </c>
     </row>
     <row r="384" spans="1:29">
@@ -34638,7 +34638,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>6941596</v>
+        <v>6941594</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34650,76 +34650,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F384" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G384" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H384">
         <v>2</v>
       </c>
       <c r="I384">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J384" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K384">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="L384">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="M384">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="N384">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="O384">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P384">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="Q384">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R384">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S384">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T384">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U384">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V384">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W384">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X384">
         <v>-1</v>
       </c>
       <c r="Y384">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z384">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AA384">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB384">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC384">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385" spans="1:29">
@@ -34727,7 +34727,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>6941594</v>
+        <v>6941585</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34739,76 +34739,76 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F385" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G385" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H385">
         <v>2</v>
       </c>
       <c r="I385">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J385" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K385">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="L385">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="M385">
-        <v>1.363</v>
+        <v>4.75</v>
       </c>
       <c r="N385">
-        <v>5.25</v>
+        <v>1.615</v>
       </c>
       <c r="O385">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P385">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q385">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R385">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S385">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T385">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U385">
+        <v>1.925</v>
+      </c>
+      <c r="V385">
         <v>1.875</v>
       </c>
-      <c r="V385">
-        <v>1.925</v>
-      </c>
       <c r="W385">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X385">
         <v>-1</v>
       </c>
       <c r="Y385">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z385">
-        <v>0.475</v>
+        <v>0.4</v>
       </c>
       <c r="AA385">
         <v>-0.5</v>
       </c>
       <c r="AB385">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC385">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="386" spans="1:29">
@@ -34816,7 +34816,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>6941585</v>
+        <v>6941587</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34828,58 +34828,58 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F386" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G386" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I386">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J386" t="s">
         <v>53</v>
       </c>
       <c r="K386">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L386">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="M386">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N386">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O386">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P386">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q386">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R386">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S386">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T386">
         <v>2.75</v>
       </c>
       <c r="U386">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V386">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W386">
-        <v>0.615</v>
+        <v>1.05</v>
       </c>
       <c r="X386">
         <v>-1</v>
@@ -34888,16 +34888,16 @@
         <v>-1</v>
       </c>
       <c r="Z386">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA386">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB386">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC386">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387" spans="1:29">
@@ -34994,7 +34994,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>6941584</v>
+        <v>6941583</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -35006,49 +35006,49 @@
         <v>45383.45833333334</v>
       </c>
       <c r="F388" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G388" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I388">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J388" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K388">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="L388">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="M388">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="N388">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="O388">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P388">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="Q388">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R388">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S388">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T388">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U388">
         <v>1.95</v>
@@ -35057,25 +35057,25 @@
         <v>1.85</v>
       </c>
       <c r="W388">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X388">
         <v>-1</v>
       </c>
       <c r="Y388">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z388">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA388">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB388">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC388">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/England Northern Premier League/England Northern Premier League.xlsx
+++ b/England Northern Premier League/England Northern Premier League.xlsx
@@ -2784,7 +2784,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6932835</v>
+        <v>6932893</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2793,76 +2793,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J27">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K27">
+        <v>3.75</v>
+      </c>
+      <c r="L27">
+        <v>2.25</v>
+      </c>
+      <c r="M27">
+        <v>2.8</v>
+      </c>
+      <c r="N27">
         <v>4</v>
       </c>
-      <c r="L27">
-        <v>5</v>
-      </c>
-      <c r="M27">
-        <v>1.666</v>
-      </c>
-      <c r="N27">
-        <v>3.6</v>
-      </c>
       <c r="O27">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="P27">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q27">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R27">
+        <v>1.825</v>
+      </c>
+      <c r="S27">
+        <v>2.5</v>
+      </c>
+      <c r="T27">
+        <v>1.75</v>
+      </c>
+      <c r="U27">
         <v>1.95</v>
       </c>
-      <c r="S27">
-        <v>2.75</v>
-      </c>
-      <c r="T27">
+      <c r="V27">
         <v>1.8</v>
       </c>
-      <c r="U27">
-        <v>2</v>
-      </c>
-      <c r="V27">
-        <v>-1</v>
-      </c>
       <c r="W27">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z27">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB27">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2870,7 +2870,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6932893</v>
+        <v>6932835</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2879,76 +2879,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J28">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K28">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="M28">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="N28">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O28">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="P28">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q28">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R28">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T28">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA28">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -3128,7 +3128,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6932991</v>
+        <v>6932990</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -3137,37 +3137,37 @@
         <v>45160.65625</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="s">
         <v>52</v>
       </c>
       <c r="J31">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K31">
         <v>3.5</v>
       </c>
       <c r="L31">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="M31">
         <v>2.2</v>
       </c>
       <c r="N31">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O31">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="P31">
         <v>-0.25</v>
@@ -3182,10 +3182,10 @@
         <v>2.5</v>
       </c>
       <c r="T31">
+        <v>1.875</v>
+      </c>
+      <c r="U31">
         <v>1.925</v>
-      </c>
-      <c r="U31">
-        <v>1.875</v>
       </c>
       <c r="V31">
         <v>1.2</v>
@@ -3203,7 +3203,7 @@
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB31">
         <v>-1</v>
@@ -3214,7 +3214,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6932989</v>
+        <v>6932991</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
@@ -3223,73 +3223,73 @@
         <v>45160.65625</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
         <v>1</v>
       </c>
-      <c r="H32">
-        <v>2</v>
-      </c>
       <c r="I32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J32">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K32">
         <v>3.5</v>
       </c>
       <c r="L32">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="M32">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="N32">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O32">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q32">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S32">
         <v>2.5</v>
       </c>
       <c r="T32">
+        <v>1.925</v>
+      </c>
+      <c r="U32">
         <v>1.875</v>
       </c>
-      <c r="U32">
-        <v>1.925</v>
-      </c>
       <c r="V32">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB32">
         <v>-1</v>
@@ -3300,7 +3300,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6932990</v>
+        <v>6932989</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
@@ -3309,46 +3309,46 @@
         <v>45160.65625</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K33">
         <v>3.5</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="M33">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="N33">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O33">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="P33">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R33">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S33">
         <v>2.5</v>
@@ -3360,19 +3360,19 @@
         <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA33">
         <v>0.875</v>
@@ -3472,7 +3472,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6932895</v>
+        <v>6932992</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
@@ -3481,58 +3481,58 @@
         <v>45160.65625</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G35">
         <v>3</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="s">
         <v>52</v>
       </c>
       <c r="J35">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="K35">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L35">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N35">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O35">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="P35">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q35">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
         <v>2.75</v>
       </c>
       <c r="T35">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U35">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V35">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="W35">
         <v>-1</v>
@@ -3541,16 +3541,16 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3558,7 +3558,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6932992</v>
+        <v>6932993</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
@@ -3567,10 +3567,10 @@
         <v>45160.65625</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3582,43 +3582,43 @@
         <v>52</v>
       </c>
       <c r="J36">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="K36">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L36">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="N36">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O36">
-        <v>1.65</v>
+        <v>3.75</v>
       </c>
       <c r="P36">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q36">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R36">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T36">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U36">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3627,16 +3627,16 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3644,7 +3644,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6932994</v>
+        <v>6932895</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
@@ -3653,58 +3653,58 @@
         <v>45160.65625</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="s">
         <v>52</v>
       </c>
       <c r="J37">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="K37">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L37">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="M37">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="N37">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O37">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="P37">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q37">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
         <v>2.75</v>
       </c>
       <c r="T37">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U37">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3713,16 +3713,16 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3730,7 +3730,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6932837</v>
+        <v>6932994</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
@@ -3739,76 +3739,76 @@
         <v>45160.65625</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J38">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="K38">
         <v>3.6</v>
       </c>
       <c r="L38">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="M38">
+        <v>1.75</v>
+      </c>
+      <c r="N38">
+        <v>3.6</v>
+      </c>
+      <c r="O38">
         <v>3.8</v>
       </c>
-      <c r="N38">
-        <v>3.8</v>
-      </c>
-      <c r="O38">
-        <v>1.7</v>
-      </c>
       <c r="P38">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q38">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S38">
         <v>2.75</v>
       </c>
       <c r="T38">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -3816,7 +3816,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6932993</v>
+        <v>6932837</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -3825,73 +3825,73 @@
         <v>45160.65625</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J39">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="K39">
         <v>3.6</v>
       </c>
       <c r="L39">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="M39">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="N39">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O39">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="P39">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q39">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T39">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA39">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB39">
         <v>-1</v>
@@ -4848,7 +4848,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6933006</v>
+        <v>6932841</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -4857,73 +4857,73 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>52</v>
+      </c>
+      <c r="J51">
+        <v>1.909</v>
+      </c>
+      <c r="K51">
+        <v>3.3</v>
+      </c>
+      <c r="L51">
+        <v>3.5</v>
+      </c>
+      <c r="M51">
+        <v>1.75</v>
+      </c>
+      <c r="N51">
+        <v>3.4</v>
+      </c>
+      <c r="O51">
         <v>4</v>
       </c>
-      <c r="I51" t="s">
-        <v>53</v>
-      </c>
-      <c r="J51">
-        <v>2.3</v>
-      </c>
-      <c r="K51">
-        <v>3.25</v>
-      </c>
-      <c r="L51">
-        <v>2.7</v>
-      </c>
-      <c r="M51">
-        <v>2.3</v>
-      </c>
-      <c r="N51">
-        <v>3.3</v>
-      </c>
-      <c r="O51">
-        <v>2.625</v>
-      </c>
       <c r="P51">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q51">
+        <v>1.825</v>
+      </c>
+      <c r="R51">
+        <v>1.975</v>
+      </c>
+      <c r="S51">
+        <v>2.75</v>
+      </c>
+      <c r="T51">
+        <v>1.925</v>
+      </c>
+      <c r="U51">
         <v>1.775</v>
       </c>
-      <c r="R51">
-        <v>2.025</v>
-      </c>
-      <c r="S51">
-        <v>2.5</v>
-      </c>
-      <c r="T51">
-        <v>2</v>
-      </c>
-      <c r="U51">
-        <v>1.8</v>
-      </c>
       <c r="V51">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z51">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB51">
         <v>-1</v>
@@ -4934,7 +4934,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6932841</v>
+        <v>6932899</v>
       </c>
       <c r="C52" t="s">
         <v>27</v>
@@ -4943,73 +4943,73 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
         <v>4</v>
       </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
       <c r="I52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J52">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="K52">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L52">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="N52">
+        <v>3.6</v>
+      </c>
+      <c r="O52">
         <v>3.4</v>
-      </c>
-      <c r="O52">
-        <v>4</v>
       </c>
       <c r="P52">
         <v>-0.5</v>
       </c>
       <c r="Q52">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
         <v>2.75</v>
       </c>
       <c r="T52">
+        <v>1.875</v>
+      </c>
+      <c r="U52">
         <v>1.925</v>
       </c>
-      <c r="U52">
-        <v>1.775</v>
-      </c>
       <c r="V52">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA52">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
         <v>-1</v>
@@ -5020,7 +5020,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6932899</v>
+        <v>6932900</v>
       </c>
       <c r="C53" t="s">
         <v>27</v>
@@ -5029,73 +5029,73 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J53">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="K53">
         <v>3.6</v>
       </c>
       <c r="L53">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M53">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="N53">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O53">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P53">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q53">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R53">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T53">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V53">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z53">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB53">
         <v>-1</v>
@@ -5106,7 +5106,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6932900</v>
+        <v>6933001</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -5115,58 +5115,58 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="s">
         <v>52</v>
       </c>
       <c r="J54">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="K54">
         <v>3.6</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="M54">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="N54">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O54">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="P54">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q54">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S54">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T54">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U54">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V54">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5175,16 +5175,16 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5192,7 +5192,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6933001</v>
+        <v>6933002</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -5201,76 +5201,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J55">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K55">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L55">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M55">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N55">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O55">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P55">
         <v>0.25</v>
       </c>
       <c r="Q55">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R55">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S55">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T55">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U55">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V55">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y55">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA55">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB55">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5278,7 +5278,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6933002</v>
+        <v>6933003</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
@@ -5287,76 +5287,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56" t="s">
+        <v>54</v>
+      </c>
+      <c r="J56">
+        <v>2.5</v>
+      </c>
+      <c r="K56">
+        <v>3.2</v>
+      </c>
+      <c r="L56">
+        <v>2.5</v>
+      </c>
+      <c r="M56">
+        <v>2.375</v>
+      </c>
+      <c r="N56">
+        <v>3.2</v>
+      </c>
+      <c r="O56">
+        <v>2.7</v>
+      </c>
+      <c r="P56">
         <v>0</v>
       </c>
-      <c r="H56">
-        <v>2</v>
-      </c>
-      <c r="I56" t="s">
-        <v>53</v>
-      </c>
-      <c r="J56">
-        <v>2.75</v>
-      </c>
-      <c r="K56">
-        <v>3.4</v>
-      </c>
-      <c r="L56">
+      <c r="Q56">
+        <v>1.775</v>
+      </c>
+      <c r="R56">
+        <v>2.025</v>
+      </c>
+      <c r="S56">
+        <v>2.5</v>
+      </c>
+      <c r="T56">
+        <v>2.025</v>
+      </c>
+      <c r="U56">
+        <v>1.775</v>
+      </c>
+      <c r="V56">
+        <v>-1</v>
+      </c>
+      <c r="W56">
         <v>2.2</v>
       </c>
-      <c r="M56">
-        <v>2.8</v>
-      </c>
-      <c r="N56">
-        <v>3.4</v>
-      </c>
-      <c r="O56">
-        <v>2.15</v>
-      </c>
-      <c r="P56">
-        <v>0.25</v>
-      </c>
-      <c r="Q56">
-        <v>1.825</v>
-      </c>
-      <c r="R56">
-        <v>1.975</v>
-      </c>
-      <c r="S56">
-        <v>2.25</v>
-      </c>
-      <c r="T56">
-        <v>1.8</v>
-      </c>
-      <c r="U56">
-        <v>2</v>
-      </c>
-      <c r="V56">
-        <v>-1</v>
-      </c>
-      <c r="W56">
-        <v>-1</v>
-      </c>
       <c r="X56">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z56">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB56">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5364,7 +5364,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6933003</v>
+        <v>6933004</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
@@ -5373,76 +5373,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="s">
         <v>54</v>
       </c>
       <c r="J57">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K57">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L57">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="M57">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="N57">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O57">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q57">
+        <v>1.825</v>
+      </c>
+      <c r="R57">
+        <v>1.975</v>
+      </c>
+      <c r="S57">
+        <v>2.75</v>
+      </c>
+      <c r="T57">
         <v>1.775</v>
       </c>
-      <c r="R57">
+      <c r="U57">
         <v>2.025</v>
       </c>
-      <c r="S57">
-        <v>2.5</v>
-      </c>
-      <c r="T57">
-        <v>2.025</v>
-      </c>
-      <c r="U57">
-        <v>1.775</v>
-      </c>
       <c r="V57">
         <v>-1</v>
       </c>
       <c r="W57">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA57">
+        <v>-1</v>
+      </c>
+      <c r="AB57">
         <v>1.025</v>
-      </c>
-      <c r="AB57">
-        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5450,7 +5450,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6933004</v>
+        <v>6933005</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
@@ -5459,37 +5459,37 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J58">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="K58">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L58">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M58">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="N58">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O58">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P58">
         <v>-0.75</v>
@@ -5501,34 +5501,34 @@
         <v>1.975</v>
       </c>
       <c r="S58">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T58">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U58">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V58">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W58">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z58">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5536,7 +5536,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6933005</v>
+        <v>6933006</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
@@ -5545,76 +5545,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G59">
         <v>2</v>
       </c>
       <c r="H59">
+        <v>4</v>
+      </c>
+      <c r="I59" t="s">
+        <v>53</v>
+      </c>
+      <c r="J59">
+        <v>2.3</v>
+      </c>
+      <c r="K59">
+        <v>3.25</v>
+      </c>
+      <c r="L59">
+        <v>2.7</v>
+      </c>
+      <c r="M59">
+        <v>2.3</v>
+      </c>
+      <c r="N59">
+        <v>3.3</v>
+      </c>
+      <c r="O59">
+        <v>2.625</v>
+      </c>
+      <c r="P59">
         <v>0</v>
       </c>
-      <c r="I59" t="s">
-        <v>52</v>
-      </c>
-      <c r="J59">
-        <v>1.571</v>
-      </c>
-      <c r="K59">
-        <v>3.75</v>
-      </c>
-      <c r="L59">
-        <v>4.75</v>
-      </c>
-      <c r="M59">
-        <v>1.615</v>
-      </c>
-      <c r="N59">
-        <v>3.6</v>
-      </c>
-      <c r="O59">
-        <v>4.5</v>
-      </c>
-      <c r="P59">
-        <v>-0.75</v>
-      </c>
       <c r="Q59">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R59">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S59">
         <v>2.5</v>
       </c>
       <c r="T59">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V59">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -6654,7 +6654,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6933026</v>
+        <v>6933022</v>
       </c>
       <c r="C72" t="s">
         <v>27</v>
@@ -6663,46 +6663,46 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J72">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K72">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L72">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="M72">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="N72">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O72">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q72">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S72">
         <v>2.5</v>
@@ -6714,19 +6714,19 @@
         <v>2</v>
       </c>
       <c r="V72">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z72">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
         <v>0.8</v>
@@ -6740,7 +6740,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6933025</v>
+        <v>6933026</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
@@ -6749,76 +6749,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E73" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G73">
         <v>2</v>
       </c>
       <c r="H73">
+        <v>4</v>
+      </c>
+      <c r="I73" t="s">
+        <v>53</v>
+      </c>
+      <c r="J73">
+        <v>2.3</v>
+      </c>
+      <c r="K73">
+        <v>3.2</v>
+      </c>
+      <c r="L73">
+        <v>2.7</v>
+      </c>
+      <c r="M73">
+        <v>2.4</v>
+      </c>
+      <c r="N73">
+        <v>3.2</v>
+      </c>
+      <c r="O73">
+        <v>2.6</v>
+      </c>
+      <c r="P73">
         <v>0</v>
       </c>
-      <c r="I73" t="s">
-        <v>52</v>
-      </c>
-      <c r="J73">
-        <v>1.3</v>
-      </c>
-      <c r="K73">
-        <v>5</v>
-      </c>
-      <c r="L73">
-        <v>7</v>
-      </c>
-      <c r="M73">
-        <v>1.3</v>
-      </c>
-      <c r="N73">
-        <v>4.75</v>
-      </c>
-      <c r="O73">
-        <v>7</v>
-      </c>
-      <c r="P73">
-        <v>-1.5</v>
-      </c>
       <c r="Q73">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R73">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S73">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T73">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U73">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V73">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB73">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6826,7 +6826,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6933024</v>
+        <v>6933025</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
@@ -6835,13 +6835,13 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -6850,25 +6850,25 @@
         <v>52</v>
       </c>
       <c r="J74">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="K74">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M74">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="N74">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="O74">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P74">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q74">
         <v>1.85</v>
@@ -6877,16 +6877,16 @@
         <v>1.95</v>
       </c>
       <c r="S74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T74">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V74">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -6895,16 +6895,16 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6912,7 +6912,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6933023</v>
+        <v>6933024</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
@@ -6921,76 +6921,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E75" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
         <v>0</v>
       </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
       <c r="I75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J75">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="K75">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L75">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M75">
-        <v>1.727</v>
+        <v>1.45</v>
       </c>
       <c r="N75">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="O75">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P75">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q75">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T75">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U75">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z75">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6998,7 +6998,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6933022</v>
+        <v>6933023</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -7007,76 +7007,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J76">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K76">
         <v>3.5</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M76">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="N76">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P76">
         <v>-0.75</v>
       </c>
       <c r="Q76">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R76">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T76">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V76">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y76">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7428,7 +7428,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6932849</v>
+        <v>6932912</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
@@ -7437,13 +7437,13 @@
         <v>45195.65625</v>
       </c>
       <c r="E81" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7452,43 +7452,43 @@
         <v>52</v>
       </c>
       <c r="J81">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="K81">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L81">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="M81">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="N81">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="O81">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q81">
+        <v>1.85</v>
+      </c>
+      <c r="R81">
         <v>1.95</v>
       </c>
-      <c r="R81">
-        <v>1.85</v>
-      </c>
       <c r="S81">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T81">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>0.55</v>
+        <v>0.8</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7497,16 +7497,16 @@
         <v>-1</v>
       </c>
       <c r="Y81">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z81">
+        <v>-1</v>
+      </c>
+      <c r="AA81">
+        <v>-1</v>
+      </c>
+      <c r="AB81">
         <v>0.95</v>
-      </c>
-      <c r="Z81">
-        <v>-1</v>
-      </c>
-      <c r="AA81">
-        <v>-1</v>
-      </c>
-      <c r="AB81">
-        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7514,7 +7514,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6932911</v>
+        <v>6933031</v>
       </c>
       <c r="C82" t="s">
         <v>27</v>
@@ -7523,10 +7523,10 @@
         <v>45195.65625</v>
       </c>
       <c r="E82" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F82" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7538,34 +7538,34 @@
         <v>54</v>
       </c>
       <c r="J82">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="K82">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L82">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M82">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="N82">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O82">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="P82">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S82">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T82">
         <v>1.95</v>
@@ -7577,16 +7577,16 @@
         <v>-1</v>
       </c>
       <c r="W82">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA82">
         <v>-1</v>
@@ -7600,7 +7600,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6933031</v>
+        <v>6933028</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7609,76 +7609,76 @@
         <v>45195.65625</v>
       </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J83">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K83">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L83">
         <v>2.5</v>
       </c>
       <c r="M83">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="N83">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O83">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q83">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R83">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S83">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T83">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V83">
         <v>-1</v>
       </c>
       <c r="W83">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7686,7 +7686,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6933028</v>
+        <v>6933027</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7695,73 +7695,73 @@
         <v>45195.65625</v>
       </c>
       <c r="E84" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F84" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84">
         <v>1</v>
       </c>
-      <c r="H84">
-        <v>2</v>
-      </c>
       <c r="I84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J84">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K84">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L84">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="M84">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N84">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O84">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="P84">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q84">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R84">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
         <v>2.5</v>
       </c>
       <c r="T84">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U84">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V84">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z84">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB84">
         <v>-1</v>
@@ -7772,7 +7772,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6933027</v>
+        <v>6932913</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -7781,58 +7781,58 @@
         <v>45195.65625</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="s">
         <v>52</v>
       </c>
       <c r="J85">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="K85">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L85">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="M85">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N85">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O85">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="P85">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q85">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R85">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S85">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T85">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -7841,13 +7841,13 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB85">
         <v>-1</v>
@@ -7858,7 +7858,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6932913</v>
+        <v>6932911</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -7867,76 +7867,76 @@
         <v>45195.65625</v>
       </c>
       <c r="E86" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J86">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="K86">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L86">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="M86">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="N86">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O86">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="P86">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q86">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T86">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V86">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7944,7 +7944,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6932912</v>
+        <v>6933032</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -7953,19 +7953,19 @@
         <v>45195.65625</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J87">
         <v>2.1</v>
@@ -7977,52 +7977,52 @@
         <v>2.7</v>
       </c>
       <c r="M87">
+        <v>2.875</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87">
+        <v>1.95</v>
+      </c>
+      <c r="P87">
+        <v>0.25</v>
+      </c>
+      <c r="Q87">
+        <v>2.025</v>
+      </c>
+      <c r="R87">
+        <v>1.775</v>
+      </c>
+      <c r="S87">
+        <v>2.5</v>
+      </c>
+      <c r="T87">
         <v>1.8</v>
       </c>
-      <c r="N87">
-        <v>3.8</v>
-      </c>
-      <c r="O87">
-        <v>3.3</v>
-      </c>
-      <c r="P87">
-        <v>-0.5</v>
-      </c>
-      <c r="Q87">
-        <v>1.85</v>
-      </c>
-      <c r="R87">
-        <v>1.95</v>
-      </c>
-      <c r="S87">
-        <v>2.75</v>
-      </c>
-      <c r="T87">
-        <v>1.75</v>
-      </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V87">
+        <v>-1</v>
+      </c>
+      <c r="W87">
+        <v>-1</v>
+      </c>
+      <c r="X87">
+        <v>0.95</v>
+      </c>
+      <c r="Y87">
+        <v>-1</v>
+      </c>
+      <c r="Z87">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA87">
         <v>0.8</v>
       </c>
-      <c r="W87">
-        <v>-1</v>
-      </c>
-      <c r="X87">
-        <v>-1</v>
-      </c>
-      <c r="Y87">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Z87">
-        <v>-1</v>
-      </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
       <c r="AB87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8030,7 +8030,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6933032</v>
+        <v>6933030</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8039,73 +8039,73 @@
         <v>45195.65625</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H88">
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J88">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="K88">
         <v>3.75</v>
       </c>
       <c r="L88">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="M88">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="N88">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O88">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="P88">
         <v>0.25</v>
       </c>
       <c r="Q88">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R88">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T88">
+        <v>1.85</v>
+      </c>
+      <c r="U88">
+        <v>1.95</v>
+      </c>
+      <c r="V88">
         <v>1.8</v>
       </c>
-      <c r="U88">
-        <v>2</v>
-      </c>
-      <c r="V88">
-        <v>-1</v>
-      </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
+        <v>-1</v>
+      </c>
+      <c r="Y88">
         <v>0.95</v>
       </c>
-      <c r="Y88">
-        <v>-1</v>
-      </c>
       <c r="Z88">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB88">
         <v>-1</v>
@@ -8116,7 +8116,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6933030</v>
+        <v>6932849</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8125,40 +8125,40 @@
         <v>45195.65625</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="s">
         <v>52</v>
       </c>
       <c r="J89">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="K89">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L89">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="M89">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="N89">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="O89">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="P89">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q89">
         <v>1.95</v>
@@ -8167,16 +8167,16 @@
         <v>1.85</v>
       </c>
       <c r="S89">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T89">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>0.55</v>
       </c>
       <c r="W89">
         <v>-1</v>
@@ -8191,10 +8191,10 @@
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -11126,7 +11126,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6932923</v>
+        <v>6933058</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
@@ -11135,58 +11135,58 @@
         <v>45223.65625</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="s">
         <v>52</v>
       </c>
       <c r="J124">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="K124">
         <v>3.5</v>
       </c>
       <c r="L124">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="M124">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="N124">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="P124">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q124">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="R124">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S124">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T124">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V124">
-        <v>0.909</v>
+        <v>1.3</v>
       </c>
       <c r="W124">
         <v>-1</v>
@@ -11195,16 +11195,16 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11212,7 +11212,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6933053</v>
+        <v>6932923</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
@@ -11221,76 +11221,76 @@
         <v>45223.65625</v>
       </c>
       <c r="E125" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="s">
         <v>52</v>
       </c>
       <c r="J125">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K125">
         <v>3.5</v>
       </c>
       <c r="L125">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M125">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N125">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O125">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P125">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q125">
+        <v>2</v>
+      </c>
+      <c r="R125">
         <v>1.8</v>
-      </c>
-      <c r="R125">
-        <v>2</v>
       </c>
       <c r="S125">
         <v>3</v>
       </c>
       <c r="T125">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
+        <v>0.909</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
         <v>1</v>
       </c>
-      <c r="W125">
-        <v>-1</v>
-      </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
-      <c r="Y125">
-        <v>0.8</v>
-      </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11298,7 +11298,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6933054</v>
+        <v>6933053</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
@@ -11307,58 +11307,58 @@
         <v>45223.65625</v>
       </c>
       <c r="E126" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="s">
         <v>52</v>
       </c>
       <c r="J126">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K126">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L126">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M126">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="N126">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P126">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q126">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R126">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S126">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T126">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U126">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V126">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11367,16 +11367,16 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB126">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -11384,7 +11384,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6933055</v>
+        <v>6933054</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>
@@ -11393,58 +11393,58 @@
         <v>45223.65625</v>
       </c>
       <c r="E127" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F127" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="s">
         <v>52</v>
       </c>
       <c r="J127">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="K127">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L127">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M127">
-        <v>1.285</v>
+        <v>1.7</v>
       </c>
       <c r="N127">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="O127">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P127">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q127">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R127">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S127">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T127">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U127">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V127">
-        <v>0.2849999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11453,16 +11453,16 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="128" spans="1:28">
@@ -11470,7 +11470,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6933056</v>
+        <v>6933055</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
@@ -11479,73 +11479,73 @@
         <v>45223.65625</v>
       </c>
       <c r="E128" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J128">
-        <v>3</v>
+        <v>1.166</v>
       </c>
       <c r="K128">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="L128">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M128">
+        <v>1.285</v>
+      </c>
+      <c r="N128">
+        <v>6</v>
+      </c>
+      <c r="O128">
+        <v>5.75</v>
+      </c>
+      <c r="P128">
+        <v>-1.75</v>
+      </c>
+      <c r="Q128">
+        <v>2</v>
+      </c>
+      <c r="R128">
+        <v>1.8</v>
+      </c>
+      <c r="S128">
         <v>3.25</v>
       </c>
-      <c r="N128">
-        <v>3.4</v>
-      </c>
-      <c r="O128">
-        <v>1.95</v>
-      </c>
-      <c r="P128">
+      <c r="T128">
+        <v>2.025</v>
+      </c>
+      <c r="U128">
+        <v>1.775</v>
+      </c>
+      <c r="V128">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="W128">
+        <v>-1</v>
+      </c>
+      <c r="X128">
+        <v>-1</v>
+      </c>
+      <c r="Y128">
         <v>0.5</v>
       </c>
-      <c r="Q128">
-        <v>1.775</v>
-      </c>
-      <c r="R128">
-        <v>2.025</v>
-      </c>
-      <c r="S128">
-        <v>2.5</v>
-      </c>
-      <c r="T128">
-        <v>1.85</v>
-      </c>
-      <c r="U128">
-        <v>1.95</v>
-      </c>
-      <c r="V128">
-        <v>-1</v>
-      </c>
-      <c r="W128">
-        <v>2.4</v>
-      </c>
-      <c r="X128">
-        <v>-1</v>
-      </c>
-      <c r="Y128">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA128">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB128">
         <v>-1</v>
@@ -11556,7 +11556,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6933057</v>
+        <v>6933056</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
@@ -11565,10 +11565,10 @@
         <v>45223.65625</v>
       </c>
       <c r="E129" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11580,40 +11580,40 @@
         <v>54</v>
       </c>
       <c r="J129">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K129">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L129">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="M129">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N129">
         <v>3.4</v>
       </c>
       <c r="O129">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="P129">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q129">
+        <v>1.775</v>
+      </c>
+      <c r="R129">
         <v>2.025</v>
       </c>
-      <c r="R129">
-        <v>1.775</v>
-      </c>
       <c r="S129">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T129">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
         <v>-1</v>
@@ -11625,13 +11625,13 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z129">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB129">
         <v>-1</v>
@@ -11642,7 +11642,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6933058</v>
+        <v>6933057</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
@@ -11651,73 +11651,73 @@
         <v>45223.65625</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J130">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K130">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L130">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="M130">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N130">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O130">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="P130">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q130">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S130">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T130">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA130">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
         <v>-1</v>
@@ -17662,7 +17662,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7496559</v>
+        <v>7496517</v>
       </c>
       <c r="C200" t="s">
         <v>27</v>
@@ -17671,76 +17671,76 @@
         <v>45272.69791666666</v>
       </c>
       <c r="E200" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F200" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200" t="s">
+        <v>52</v>
+      </c>
+      <c r="J200">
+        <v>2.2</v>
+      </c>
+      <c r="K200">
+        <v>3.5</v>
+      </c>
+      <c r="L200">
+        <v>2.7</v>
+      </c>
+      <c r="M200">
+        <v>2.6</v>
+      </c>
+      <c r="N200">
+        <v>3.6</v>
+      </c>
+      <c r="O200">
+        <v>2.25</v>
+      </c>
+      <c r="P200">
+        <v>0.25</v>
+      </c>
+      <c r="Q200">
+        <v>1.775</v>
+      </c>
+      <c r="R200">
+        <v>2.025</v>
+      </c>
+      <c r="S200">
         <v>3</v>
       </c>
-      <c r="H200">
-        <v>3</v>
-      </c>
-      <c r="I200" t="s">
-        <v>54</v>
-      </c>
-      <c r="J200">
-        <v>2.6</v>
-      </c>
-      <c r="K200">
-        <v>4</v>
-      </c>
-      <c r="L200">
-        <v>2.1</v>
-      </c>
-      <c r="M200">
-        <v>2.9</v>
-      </c>
-      <c r="N200">
-        <v>4.2</v>
-      </c>
-      <c r="O200">
-        <v>1.85</v>
-      </c>
-      <c r="P200">
-        <v>0.5</v>
-      </c>
-      <c r="Q200">
-        <v>1.875</v>
-      </c>
-      <c r="R200">
-        <v>1.925</v>
-      </c>
-      <c r="S200">
-        <v>3.5</v>
-      </c>
       <c r="T200">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U200">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V200">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="W200">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X200">
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z200">
         <v>-1</v>
       </c>
       <c r="AA200">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:28">
@@ -17748,7 +17748,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7496517</v>
+        <v>7496513</v>
       </c>
       <c r="C201" t="s">
         <v>27</v>
@@ -17757,58 +17757,58 @@
         <v>45272.69791666666</v>
       </c>
       <c r="E201" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G201">
+        <v>2</v>
+      </c>
+      <c r="H201">
         <v>1</v>
-      </c>
-      <c r="H201">
-        <v>0</v>
       </c>
       <c r="I201" t="s">
         <v>52</v>
       </c>
       <c r="J201">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="K201">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L201">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="M201">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="N201">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O201">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="P201">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q201">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="R201">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S201">
         <v>3</v>
       </c>
       <c r="T201">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U201">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V201">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="W201">
         <v>-1</v>
@@ -17817,16 +17817,16 @@
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB201">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:28">
@@ -17834,7 +17834,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7496513</v>
+        <v>7496559</v>
       </c>
       <c r="C202" t="s">
         <v>27</v>
@@ -17843,76 +17843,76 @@
         <v>45272.69791666666</v>
       </c>
       <c r="E202" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F202" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H202">
+        <v>3</v>
+      </c>
+      <c r="I202" t="s">
+        <v>54</v>
+      </c>
+      <c r="J202">
+        <v>2.6</v>
+      </c>
+      <c r="K202">
+        <v>4</v>
+      </c>
+      <c r="L202">
+        <v>2.1</v>
+      </c>
+      <c r="M202">
+        <v>2.9</v>
+      </c>
+      <c r="N202">
+        <v>4.2</v>
+      </c>
+      <c r="O202">
+        <v>1.85</v>
+      </c>
+      <c r="P202">
+        <v>0.5</v>
+      </c>
+      <c r="Q202">
+        <v>1.875</v>
+      </c>
+      <c r="R202">
+        <v>1.925</v>
+      </c>
+      <c r="S202">
+        <v>3.5</v>
+      </c>
+      <c r="T202">
+        <v>2</v>
+      </c>
+      <c r="U202">
+        <v>1.8</v>
+      </c>
+      <c r="V202">
+        <v>-1</v>
+      </c>
+      <c r="W202">
+        <v>3.2</v>
+      </c>
+      <c r="X202">
+        <v>-1</v>
+      </c>
+      <c r="Y202">
+        <v>0.875</v>
+      </c>
+      <c r="Z202">
+        <v>-1</v>
+      </c>
+      <c r="AA202">
         <v>1</v>
       </c>
-      <c r="I202" t="s">
-        <v>52</v>
-      </c>
-      <c r="J202">
-        <v>1.363</v>
-      </c>
-      <c r="K202">
-        <v>4.5</v>
-      </c>
-      <c r="L202">
-        <v>6.5</v>
-      </c>
-      <c r="M202">
-        <v>1.5</v>
-      </c>
-      <c r="N202">
-        <v>4.333</v>
-      </c>
-      <c r="O202">
-        <v>4.75</v>
-      </c>
-      <c r="P202">
-        <v>-1</v>
-      </c>
-      <c r="Q202">
-        <v>1.85</v>
-      </c>
-      <c r="R202">
-        <v>1.95</v>
-      </c>
-      <c r="S202">
-        <v>3</v>
-      </c>
-      <c r="T202">
-        <v>1.85</v>
-      </c>
-      <c r="U202">
-        <v>1.95</v>
-      </c>
-      <c r="V202">
-        <v>0.5</v>
-      </c>
-      <c r="W202">
-        <v>-1</v>
-      </c>
-      <c r="X202">
-        <v>-1</v>
-      </c>
-      <c r="Y202">
-        <v>0</v>
-      </c>
-      <c r="Z202">
-        <v>0</v>
-      </c>
-      <c r="AA202">
-        <v>0</v>
-      </c>
       <c r="AB202">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:28">
@@ -21962,7 +21962,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6933134</v>
+        <v>6933133</v>
       </c>
       <c r="C250" t="s">
         <v>27</v>
@@ -21971,49 +21971,49 @@
         <v>45297.5</v>
       </c>
       <c r="E250" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F250" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G250">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H250">
         <v>1</v>
       </c>
       <c r="I250" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J250">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="K250">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L250">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="M250">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N250">
         <v>3.5</v>
       </c>
       <c r="O250">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P250">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q250">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R250">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S250">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T250">
         <v>1.9</v>
@@ -22022,25 +22022,25 @@
         <v>1.9</v>
       </c>
       <c r="V250">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z250">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA250">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB250">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="251" spans="1:28">
@@ -22048,7 +22048,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6933133</v>
+        <v>6933131</v>
       </c>
       <c r="C251" t="s">
         <v>27</v>
@@ -22057,76 +22057,76 @@
         <v>45297.5</v>
       </c>
       <c r="E251" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J251">
-        <v>1.571</v>
+        <v>1.285</v>
       </c>
       <c r="K251">
+        <v>5.5</v>
+      </c>
+      <c r="L251">
+        <v>6.5</v>
+      </c>
+      <c r="M251">
+        <v>1.444</v>
+      </c>
+      <c r="N251">
+        <v>4.75</v>
+      </c>
+      <c r="O251">
+        <v>4.75</v>
+      </c>
+      <c r="P251">
+        <v>-1.25</v>
+      </c>
+      <c r="Q251">
+        <v>1.925</v>
+      </c>
+      <c r="R251">
+        <v>1.875</v>
+      </c>
+      <c r="S251">
+        <v>3</v>
+      </c>
+      <c r="T251">
+        <v>1.85</v>
+      </c>
+      <c r="U251">
+        <v>1.95</v>
+      </c>
+      <c r="V251">
+        <v>-1</v>
+      </c>
+      <c r="W251">
+        <v>-1</v>
+      </c>
+      <c r="X251">
         <v>3.75</v>
       </c>
-      <c r="L251">
-        <v>4.8</v>
-      </c>
-      <c r="M251">
-        <v>1.75</v>
-      </c>
-      <c r="N251">
-        <v>3.5</v>
-      </c>
-      <c r="O251">
-        <v>3.8</v>
-      </c>
-      <c r="P251">
-        <v>-0.75</v>
-      </c>
-      <c r="Q251">
-        <v>2</v>
-      </c>
-      <c r="R251">
-        <v>1.8</v>
-      </c>
-      <c r="S251">
-        <v>2.75</v>
-      </c>
-      <c r="T251">
-        <v>1.9</v>
-      </c>
-      <c r="U251">
-        <v>1.9</v>
-      </c>
-      <c r="V251">
-        <v>0.75</v>
-      </c>
-      <c r="W251">
-        <v>-1</v>
-      </c>
-      <c r="X251">
-        <v>-1</v>
-      </c>
       <c r="Y251">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA251">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AB251">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:28">
@@ -22134,7 +22134,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6933131</v>
+        <v>6933130</v>
       </c>
       <c r="C252" t="s">
         <v>27</v>
@@ -22143,55 +22143,55 @@
         <v>45297.5</v>
       </c>
       <c r="E252" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F252" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
         <v>1</v>
-      </c>
-      <c r="H252">
-        <v>2</v>
       </c>
       <c r="I252" t="s">
         <v>53</v>
       </c>
       <c r="J252">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="K252">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="L252">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M252">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="N252">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O252">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P252">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q252">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R252">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S252">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T252">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U252">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V252">
         <v>-1</v>
@@ -22200,19 +22200,19 @@
         <v>-1</v>
       </c>
       <c r="X252">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA252">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="253" spans="1:28">
@@ -22220,7 +22220,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6933130</v>
+        <v>6932957</v>
       </c>
       <c r="C253" t="s">
         <v>27</v>
@@ -22229,76 +22229,76 @@
         <v>45297.5</v>
       </c>
       <c r="E253" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F253" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G253">
+        <v>2</v>
+      </c>
+      <c r="H253">
         <v>0</v>
       </c>
-      <c r="H253">
-        <v>1</v>
-      </c>
       <c r="I253" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J253">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="K253">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L253">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="M253">
+        <v>2.5</v>
+      </c>
+      <c r="N253">
+        <v>3.5</v>
+      </c>
+      <c r="O253">
+        <v>2.3</v>
+      </c>
+      <c r="P253">
+        <v>0</v>
+      </c>
+      <c r="Q253">
+        <v>1.975</v>
+      </c>
+      <c r="R253">
+        <v>1.825</v>
+      </c>
+      <c r="S253">
+        <v>3</v>
+      </c>
+      <c r="T253">
+        <v>1.975</v>
+      </c>
+      <c r="U253">
+        <v>1.825</v>
+      </c>
+      <c r="V253">
         <v>1.5</v>
       </c>
-      <c r="N253">
-        <v>4.2</v>
-      </c>
-      <c r="O253">
-        <v>5</v>
-      </c>
-      <c r="P253">
-        <v>-1</v>
-      </c>
-      <c r="Q253">
-        <v>1.9</v>
-      </c>
-      <c r="R253">
-        <v>1.9</v>
-      </c>
-      <c r="S253">
-        <v>2.75</v>
-      </c>
-      <c r="T253">
-        <v>1.825</v>
-      </c>
-      <c r="U253">
-        <v>1.975</v>
-      </c>
-      <c r="V253">
-        <v>-1</v>
-      </c>
       <c r="W253">
         <v>-1</v>
       </c>
       <c r="X253">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z253">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
         <v>-1</v>
       </c>
       <c r="AB253">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="254" spans="1:28">
@@ -22306,7 +22306,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6932957</v>
+        <v>6933132</v>
       </c>
       <c r="C254" t="s">
         <v>27</v>
@@ -22315,49 +22315,49 @@
         <v>45297.5</v>
       </c>
       <c r="E254" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F254" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I254" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J254">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K254">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L254">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="M254">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N254">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O254">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="P254">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q254">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R254">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S254">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T254">
         <v>1.975</v>
@@ -22366,25 +22366,25 @@
         <v>1.825</v>
       </c>
       <c r="V254">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W254">
         <v>-1</v>
       </c>
       <c r="X254">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y254">
+        <v>-1</v>
+      </c>
+      <c r="Z254">
+        <v>1</v>
+      </c>
+      <c r="AA254">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z254">
-        <v>-1</v>
-      </c>
-      <c r="AA254">
-        <v>-1</v>
-      </c>
       <c r="AB254">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:28">
@@ -22392,7 +22392,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6933132</v>
+        <v>6933135</v>
       </c>
       <c r="C255" t="s">
         <v>27</v>
@@ -22401,76 +22401,76 @@
         <v>45297.5</v>
       </c>
       <c r="E255" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F255" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H255">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I255" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J255">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="K255">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L255">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="M255">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N255">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O255">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="P255">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q255">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R255">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S255">
         <v>2.75</v>
       </c>
       <c r="T255">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U255">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V255">
         <v>-1</v>
       </c>
       <c r="W255">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X255">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y255">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z255">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA255">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB255">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="256" spans="1:28">
@@ -22478,7 +22478,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6933135</v>
+        <v>6933134</v>
       </c>
       <c r="C256" t="s">
         <v>27</v>
@@ -22487,76 +22487,76 @@
         <v>45297.5</v>
       </c>
       <c r="E256" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F256" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G256">
         <v>0</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I256" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J256">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="K256">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L256">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="M256">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N256">
         <v>3.5</v>
       </c>
       <c r="O256">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="P256">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q256">
+        <v>1.85</v>
+      </c>
+      <c r="R256">
         <v>1.95</v>
       </c>
-      <c r="R256">
-        <v>1.85</v>
-      </c>
       <c r="S256">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T256">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U256">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V256">
         <v>-1</v>
       </c>
       <c r="W256">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X256">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y256">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA256">
         <v>-1</v>
       </c>
       <c r="AB256">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="257" spans="1:28">
@@ -22736,7 +22736,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7656277</v>
+        <v>7660483</v>
       </c>
       <c r="C259" t="s">
         <v>27</v>
@@ -22745,10 +22745,10 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E259" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F259" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -22760,40 +22760,40 @@
         <v>53</v>
       </c>
       <c r="J259">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="K259">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L259">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="M259">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N259">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O259">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="P259">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q259">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R259">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S259">
         <v>3</v>
       </c>
       <c r="T259">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U259">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V259">
         <v>-1</v>
@@ -22802,13 +22802,13 @@
         <v>-1</v>
       </c>
       <c r="X259">
-        <v>0.8500000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="Y259">
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA259">
         <v>0</v>
@@ -22822,7 +22822,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7660483</v>
+        <v>7656277</v>
       </c>
       <c r="C260" t="s">
         <v>27</v>
@@ -22831,10 +22831,10 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E260" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F260" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -22846,40 +22846,40 @@
         <v>53</v>
       </c>
       <c r="J260">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="K260">
+        <v>3.6</v>
+      </c>
+      <c r="L260">
+        <v>2.1</v>
+      </c>
+      <c r="M260">
+        <v>3.1</v>
+      </c>
+      <c r="N260">
         <v>3.75</v>
       </c>
-      <c r="L260">
-        <v>2.5</v>
-      </c>
-      <c r="M260">
-        <v>2.6</v>
-      </c>
-      <c r="N260">
-        <v>3.8</v>
-      </c>
       <c r="O260">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="P260">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q260">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R260">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S260">
         <v>3</v>
       </c>
       <c r="T260">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U260">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V260">
         <v>-1</v>
@@ -22888,13 +22888,13 @@
         <v>-1</v>
       </c>
       <c r="X260">
-        <v>1.15</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA260">
         <v>0</v>
@@ -23338,7 +23338,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7672840</v>
+        <v>6933144</v>
       </c>
       <c r="C266" t="s">
         <v>27</v>
@@ -23347,76 +23347,76 @@
         <v>45304.5</v>
       </c>
       <c r="E266" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F266" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G266">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J266">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="K266">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L266">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="M266">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="N266">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O266">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="P266">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q266">
+        <v>1.95</v>
+      </c>
+      <c r="R266">
+        <v>1.85</v>
+      </c>
+      <c r="S266">
+        <v>2.5</v>
+      </c>
+      <c r="T266">
         <v>1.9</v>
       </c>
-      <c r="R266">
+      <c r="U266">
         <v>1.9</v>
       </c>
-      <c r="S266">
-        <v>3</v>
-      </c>
-      <c r="T266">
-        <v>1.75</v>
-      </c>
-      <c r="U266">
-        <v>1.95</v>
-      </c>
       <c r="V266">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W266">
         <v>-1</v>
       </c>
       <c r="X266">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y266">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z266">
+        <v>-1</v>
+      </c>
+      <c r="AA266">
+        <v>-1</v>
+      </c>
+      <c r="AB266">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA266">
-        <v>0.75</v>
-      </c>
-      <c r="AB266">
-        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:28">
@@ -23424,7 +23424,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6933142</v>
+        <v>7672840</v>
       </c>
       <c r="C267" t="s">
         <v>27</v>
@@ -23433,73 +23433,73 @@
         <v>45304.5</v>
       </c>
       <c r="E267" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F267" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G267">
+        <v>1</v>
+      </c>
+      <c r="H267">
+        <v>3</v>
+      </c>
+      <c r="I267" t="s">
+        <v>53</v>
+      </c>
+      <c r="J267">
         <v>4</v>
       </c>
-      <c r="H267">
-        <v>0</v>
-      </c>
-      <c r="I267" t="s">
-        <v>52</v>
-      </c>
-      <c r="J267">
-        <v>1.444</v>
-      </c>
       <c r="K267">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L267">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="M267">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="N267">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O267">
-        <v>4.333</v>
+        <v>1.666</v>
       </c>
       <c r="P267">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Q267">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R267">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S267">
         <v>3</v>
       </c>
       <c r="T267">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U267">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V267">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W267">
         <v>-1</v>
       </c>
       <c r="X267">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y267">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z267">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA267">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB267">
         <v>-1</v>
@@ -23510,7 +23510,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6933144</v>
+        <v>6933142</v>
       </c>
       <c r="C268" t="s">
         <v>27</v>
@@ -23519,13 +23519,13 @@
         <v>45304.5</v>
       </c>
       <c r="E268" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F268" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G268">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -23534,43 +23534,43 @@
         <v>52</v>
       </c>
       <c r="J268">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="K268">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="L268">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="M268">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="N268">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O268">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P268">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q268">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R268">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S268">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T268">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U268">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V268">
-        <v>0.8500000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W268">
         <v>-1</v>
@@ -23579,16 +23579,16 @@
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="Z268">
         <v>-1</v>
       </c>
       <c r="AA268">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB268">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:28">
@@ -24370,7 +24370,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6932884</v>
+        <v>6933155</v>
       </c>
       <c r="C278" t="s">
         <v>27</v>
@@ -24379,76 +24379,76 @@
         <v>45318.5</v>
       </c>
       <c r="E278" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F278" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G278">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="s">
         <v>54</v>
       </c>
       <c r="J278">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="K278">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L278">
+        <v>1.533</v>
+      </c>
+      <c r="M278">
+        <v>4.75</v>
+      </c>
+      <c r="N278">
+        <v>3.6</v>
+      </c>
+      <c r="O278">
+        <v>1.571</v>
+      </c>
+      <c r="P278">
+        <v>0.75</v>
+      </c>
+      <c r="Q278">
+        <v>2.025</v>
+      </c>
+      <c r="R278">
+        <v>1.775</v>
+      </c>
+      <c r="S278">
         <v>2.5</v>
       </c>
-      <c r="M278">
-        <v>2.5</v>
-      </c>
-      <c r="N278">
-        <v>3.4</v>
-      </c>
-      <c r="O278">
-        <v>2.4</v>
-      </c>
-      <c r="P278">
-        <v>0</v>
-      </c>
-      <c r="Q278">
-        <v>1.95</v>
-      </c>
-      <c r="R278">
-        <v>1.85</v>
-      </c>
-      <c r="S278">
-        <v>3</v>
-      </c>
       <c r="T278">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U278">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V278">
         <v>-1</v>
       </c>
       <c r="W278">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="Z278">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB278">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:28">
@@ -24456,7 +24456,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6932962</v>
+        <v>6933728</v>
       </c>
       <c r="C279" t="s">
         <v>27</v>
@@ -24465,76 +24465,76 @@
         <v>45318.5</v>
       </c>
       <c r="E279" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F279" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G279">
+        <v>3</v>
+      </c>
+      <c r="H279">
         <v>0</v>
       </c>
-      <c r="H279">
-        <v>2</v>
-      </c>
       <c r="I279" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J279">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="K279">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L279">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="M279">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N279">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O279">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="P279">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q279">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R279">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S279">
         <v>2.75</v>
       </c>
       <c r="T279">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U279">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V279">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W279">
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z279">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA279">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB279">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="280" spans="1:28">
@@ -24542,7 +24542,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6933727</v>
+        <v>6932884</v>
       </c>
       <c r="C280" t="s">
         <v>27</v>
@@ -24551,76 +24551,76 @@
         <v>45318.5</v>
       </c>
       <c r="E280" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F280" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G280">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H280">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J280">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="K280">
         <v>3.4</v>
       </c>
       <c r="L280">
+        <v>2.5</v>
+      </c>
+      <c r="M280">
+        <v>2.5</v>
+      </c>
+      <c r="N280">
+        <v>3.4</v>
+      </c>
+      <c r="O280">
+        <v>2.4</v>
+      </c>
+      <c r="P280">
+        <v>0</v>
+      </c>
+      <c r="Q280">
+        <v>1.95</v>
+      </c>
+      <c r="R280">
+        <v>1.85</v>
+      </c>
+      <c r="S280">
+        <v>3</v>
+      </c>
+      <c r="T280">
+        <v>2</v>
+      </c>
+      <c r="U280">
         <v>1.8</v>
       </c>
-      <c r="M280">
-        <v>3.5</v>
-      </c>
-      <c r="N280">
-        <v>3.5</v>
-      </c>
-      <c r="O280">
-        <v>1.833</v>
-      </c>
-      <c r="P280">
-        <v>0.5</v>
-      </c>
-      <c r="Q280">
-        <v>1.9</v>
-      </c>
-      <c r="R280">
-        <v>1.9</v>
-      </c>
-      <c r="S280">
-        <v>2.75</v>
-      </c>
-      <c r="T280">
-        <v>1.95</v>
-      </c>
-      <c r="U280">
-        <v>1.85</v>
-      </c>
       <c r="V280">
         <v>-1</v>
       </c>
       <c r="W280">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X280">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y280">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z280">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA280">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB280">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="281" spans="1:28">
@@ -24628,7 +24628,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6933158</v>
+        <v>6932962</v>
       </c>
       <c r="C281" t="s">
         <v>27</v>
@@ -24637,55 +24637,55 @@
         <v>45318.5</v>
       </c>
       <c r="E281" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F281" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H281">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I281" t="s">
         <v>53</v>
       </c>
       <c r="J281">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="K281">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L281">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="M281">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="N281">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O281">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P281">
         <v>0.25</v>
       </c>
       <c r="Q281">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R281">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S281">
         <v>2.75</v>
       </c>
       <c r="T281">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U281">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V281">
         <v>-1</v>
@@ -24694,19 +24694,19 @@
         <v>-1</v>
       </c>
       <c r="X281">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
+        <v>1</v>
+      </c>
+      <c r="AA281">
+        <v>-1</v>
+      </c>
+      <c r="AB281">
         <v>0.925</v>
-      </c>
-      <c r="AA281">
-        <v>0.825</v>
-      </c>
-      <c r="AB281">
-        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:28">
@@ -24714,7 +24714,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6933154</v>
+        <v>6933727</v>
       </c>
       <c r="C282" t="s">
         <v>27</v>
@@ -24723,55 +24723,55 @@
         <v>45318.5</v>
       </c>
       <c r="E282" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F282" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H282">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I282" t="s">
         <v>53</v>
       </c>
       <c r="J282">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="K282">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L282">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="M282">
         <v>3.5</v>
       </c>
       <c r="N282">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O282">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="P282">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q282">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R282">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S282">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T282">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U282">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V282">
         <v>-1</v>
@@ -24780,16 +24780,16 @@
         <v>-1</v>
       </c>
       <c r="X282">
-        <v>0.7270000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="Y282">
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA282">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB282">
         <v>-1</v>
@@ -24800,7 +24800,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6933156</v>
+        <v>6933158</v>
       </c>
       <c r="C283" t="s">
         <v>27</v>
@@ -24809,55 +24809,55 @@
         <v>45318.5</v>
       </c>
       <c r="E283" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F283" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G283">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I283" t="s">
         <v>53</v>
       </c>
       <c r="J283">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="K283">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L283">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="M283">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="N283">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O283">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P283">
         <v>0.25</v>
       </c>
       <c r="Q283">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R283">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S283">
         <v>2.75</v>
       </c>
       <c r="T283">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U283">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V283">
         <v>-1</v>
@@ -24866,19 +24866,19 @@
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="Y283">
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA283">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB283">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:28">
@@ -24886,7 +24886,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6933155</v>
+        <v>6933154</v>
       </c>
       <c r="C284" t="s">
         <v>27</v>
@@ -24895,73 +24895,73 @@
         <v>45318.5</v>
       </c>
       <c r="E284" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F284" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I284" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J284">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K284">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L284">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="M284">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="N284">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O284">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="P284">
         <v>0.75</v>
       </c>
       <c r="Q284">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="R284">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S284">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T284">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U284">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V284">
         <v>-1</v>
       </c>
       <c r="W284">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X284">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y284">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z284">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA284">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB284">
         <v>-1</v>
@@ -24972,7 +24972,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6933153</v>
+        <v>6933156</v>
       </c>
       <c r="C285" t="s">
         <v>27</v>
@@ -24981,49 +24981,49 @@
         <v>45318.5</v>
       </c>
       <c r="E285" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F285" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G285">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H285">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J285">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="K285">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L285">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="M285">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="N285">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O285">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="P285">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q285">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R285">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S285">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T285">
         <v>1.9</v>
@@ -25032,25 +25032,25 @@
         <v>1.9</v>
       </c>
       <c r="V285">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W285">
         <v>-1</v>
       </c>
       <c r="X285">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y285">
+        <v>-1</v>
+      </c>
+      <c r="Z285">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA285">
+        <v>0.45</v>
+      </c>
+      <c r="AB285">
         <v>-0.5</v>
-      </c>
-      <c r="Z285">
-        <v>0.5</v>
-      </c>
-      <c r="AA285">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB285">
-        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:28">
@@ -25058,7 +25058,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6933157</v>
+        <v>6933153</v>
       </c>
       <c r="C286" t="s">
         <v>27</v>
@@ -25067,58 +25067,58 @@
         <v>45318.5</v>
       </c>
       <c r="E286" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F286" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G286">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I286" t="s">
         <v>52</v>
       </c>
       <c r="J286">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="K286">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L286">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="M286">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="N286">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O286">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="P286">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q286">
+        <v>1.8</v>
+      </c>
+      <c r="R286">
+        <v>2</v>
+      </c>
+      <c r="S286">
+        <v>3</v>
+      </c>
+      <c r="T286">
         <v>1.9</v>
       </c>
-      <c r="R286">
+      <c r="U286">
         <v>1.9</v>
       </c>
-      <c r="S286">
-        <v>2.75</v>
-      </c>
-      <c r="T286">
-        <v>1.85</v>
-      </c>
-      <c r="U286">
-        <v>1.95</v>
-      </c>
       <c r="V286">
-        <v>1.4</v>
+        <v>0.363</v>
       </c>
       <c r="W286">
         <v>-1</v>
@@ -25127,16 +25127,16 @@
         <v>-1</v>
       </c>
       <c r="Y286">
+        <v>-0.5</v>
+      </c>
+      <c r="Z286">
+        <v>0.5</v>
+      </c>
+      <c r="AA286">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z286">
-        <v>-1</v>
-      </c>
-      <c r="AA286">
-        <v>0.425</v>
-      </c>
       <c r="AB286">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:28">
@@ -25144,7 +25144,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6933728</v>
+        <v>6933157</v>
       </c>
       <c r="C287" t="s">
         <v>27</v>
@@ -25153,55 +25153,55 @@
         <v>45318.5</v>
       </c>
       <c r="E287" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F287" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G287">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I287" t="s">
         <v>52</v>
       </c>
       <c r="J287">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="K287">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L287">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="M287">
         <v>2.4</v>
       </c>
       <c r="N287">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O287">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P287">
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R287">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S287">
         <v>2.75</v>
       </c>
       <c r="T287">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U287">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V287">
         <v>1.4</v>
@@ -25213,13 +25213,13 @@
         <v>-1</v>
       </c>
       <c r="Y287">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z287">
         <v>-1</v>
       </c>
       <c r="AA287">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="AB287">
         <v>-0.5</v>
@@ -25660,7 +25660,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6933729</v>
+        <v>6933160</v>
       </c>
       <c r="C293" t="s">
         <v>27</v>
@@ -25669,10 +25669,10 @@
         <v>45325.5</v>
       </c>
       <c r="E293" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F293" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G293">
         <v>2</v>
@@ -25684,43 +25684,43 @@
         <v>52</v>
       </c>
       <c r="J293">
-        <v>1.727</v>
+        <v>1.952</v>
       </c>
       <c r="K293">
         <v>3.75</v>
       </c>
       <c r="L293">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M293">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="N293">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O293">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P293">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q293">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R293">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S293">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T293">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U293">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V293">
-        <v>0.55</v>
+        <v>0.8</v>
       </c>
       <c r="W293">
         <v>-1</v>
@@ -25729,7 +25729,7 @@
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z293">
         <v>-1</v>
@@ -25738,7 +25738,7 @@
         <v>-1</v>
       </c>
       <c r="AB293">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="294" spans="1:28">
@@ -25746,7 +25746,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6933160</v>
+        <v>6933729</v>
       </c>
       <c r="C294" t="s">
         <v>27</v>
@@ -25755,10 +25755,10 @@
         <v>45325.5</v>
       </c>
       <c r="E294" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F294" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G294">
         <v>2</v>
@@ -25770,43 +25770,43 @@
         <v>52</v>
       </c>
       <c r="J294">
-        <v>1.952</v>
+        <v>1.727</v>
       </c>
       <c r="K294">
         <v>3.75</v>
       </c>
       <c r="L294">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M294">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="N294">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O294">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P294">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q294">
+        <v>1.9</v>
+      </c>
+      <c r="R294">
+        <v>1.9</v>
+      </c>
+      <c r="S294">
+        <v>3.25</v>
+      </c>
+      <c r="T294">
         <v>1.85</v>
       </c>
-      <c r="R294">
+      <c r="U294">
         <v>1.95</v>
       </c>
-      <c r="S294">
-        <v>2.75</v>
-      </c>
-      <c r="T294">
-        <v>1.875</v>
-      </c>
-      <c r="U294">
-        <v>1.925</v>
-      </c>
       <c r="V294">
-        <v>0.8</v>
+        <v>0.55</v>
       </c>
       <c r="W294">
         <v>-1</v>
@@ -25815,7 +25815,7 @@
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z294">
         <v>-1</v>
@@ -25824,7 +25824,7 @@
         <v>-1</v>
       </c>
       <c r="AB294">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="295" spans="1:28">
@@ -29186,7 +29186,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7841946</v>
+        <v>7911240</v>
       </c>
       <c r="C334" t="s">
         <v>27</v>
@@ -29195,13 +29195,13 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E334" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F334" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G334">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H334">
         <v>0</v>
@@ -29210,34 +29210,34 @@
         <v>52</v>
       </c>
       <c r="J334">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K334">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L334">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="M334">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N334">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O334">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P334">
         <v>-0.25</v>
       </c>
       <c r="Q334">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R334">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S334">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T334">
         <v>1.8</v>
@@ -29246,7 +29246,7 @@
         <v>2</v>
       </c>
       <c r="V334">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="W334">
         <v>-1</v>
@@ -29255,16 +29255,16 @@
         <v>-1</v>
       </c>
       <c r="Y334">
+        <v>0.925</v>
+      </c>
+      <c r="Z334">
+        <v>-1</v>
+      </c>
+      <c r="AA334">
         <v>0.8</v>
       </c>
-      <c r="Z334">
-        <v>-1</v>
-      </c>
-      <c r="AA334">
-        <v>-1</v>
-      </c>
       <c r="AB334">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335" spans="1:28">
@@ -29272,7 +29272,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7911240</v>
+        <v>7888730</v>
       </c>
       <c r="C335" t="s">
         <v>27</v>
@@ -29281,76 +29281,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E335" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F335" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G335">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J335">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="K335">
+        <v>3.5</v>
+      </c>
+      <c r="L335">
+        <v>1.833</v>
+      </c>
+      <c r="M335">
+        <v>3.2</v>
+      </c>
+      <c r="N335">
         <v>3.4</v>
       </c>
-      <c r="L335">
-        <v>2.55</v>
-      </c>
-      <c r="M335">
-        <v>2.2</v>
-      </c>
-      <c r="N335">
-        <v>3.2</v>
-      </c>
       <c r="O335">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="P335">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q335">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R335">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S335">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T335">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U335">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V335">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W335">
         <v>-1</v>
       </c>
       <c r="X335">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y335">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z335">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA335">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AB335">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="336" spans="1:28">
@@ -29358,7 +29358,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7888730</v>
+        <v>7841946</v>
       </c>
       <c r="C336" t="s">
         <v>27</v>
@@ -29367,76 +29367,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E336" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F336" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G336">
         <v>1</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J336">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="K336">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L336">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="M336">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N336">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O336">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P336">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q336">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R336">
+        <v>2</v>
+      </c>
+      <c r="S336">
+        <v>2.5</v>
+      </c>
+      <c r="T336">
         <v>1.8</v>
       </c>
-      <c r="S336">
-        <v>2.75</v>
-      </c>
-      <c r="T336">
-        <v>1.975</v>
-      </c>
       <c r="U336">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V336">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W336">
         <v>-1</v>
       </c>
       <c r="X336">
+        <v>-1</v>
+      </c>
+      <c r="Y336">
+        <v>0.8</v>
+      </c>
+      <c r="Z336">
+        <v>-1</v>
+      </c>
+      <c r="AA336">
+        <v>-1</v>
+      </c>
+      <c r="AB336">
         <v>1</v>
-      </c>
-      <c r="Y336">
-        <v>-1</v>
-      </c>
-      <c r="Z336">
-        <v>0.8</v>
-      </c>
-      <c r="AA336">
-        <v>0.4875</v>
-      </c>
-      <c r="AB336">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="337" spans="1:28">
@@ -35636,7 +35636,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>8044183</v>
+        <v>7901703</v>
       </c>
       <c r="C409" t="s">
         <v>27</v>
@@ -35645,76 +35645,76 @@
         <v>45398.65625</v>
       </c>
       <c r="E409" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F409" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G409">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H409">
         <v>1</v>
       </c>
       <c r="I409" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J409">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="K409">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="L409">
-        <v>2.75</v>
+        <v>1.285</v>
       </c>
       <c r="M409">
-        <v>1.7</v>
+        <v>7</v>
       </c>
       <c r="N409">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="O409">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="P409">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q409">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R409">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S409">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T409">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U409">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V409">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W409">
         <v>-1</v>
       </c>
       <c r="X409">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y409">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z409">
         <v>-1</v>
       </c>
       <c r="AA409">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB409">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="410" spans="1:28">
@@ -35722,7 +35722,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>7901703</v>
+        <v>7947338</v>
       </c>
       <c r="C410" t="s">
         <v>27</v>
@@ -35731,55 +35731,55 @@
         <v>45398.65625</v>
       </c>
       <c r="E410" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F410" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I410" t="s">
         <v>53</v>
       </c>
       <c r="J410">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="K410">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L410">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="M410">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N410">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O410">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="P410">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q410">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R410">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S410">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T410">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U410">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V410">
         <v>-1</v>
@@ -35788,19 +35788,19 @@
         <v>-1</v>
       </c>
       <c r="X410">
-        <v>0.2849999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="Y410">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z410">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA410">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB410">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="411" spans="1:28">
@@ -35808,7 +35808,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7947338</v>
+        <v>7983901</v>
       </c>
       <c r="C411" t="s">
         <v>27</v>
@@ -35817,13 +35817,13 @@
         <v>45398.65625</v>
       </c>
       <c r="E411" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F411" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H411">
         <v>4</v>
@@ -35832,34 +35832,34 @@
         <v>53</v>
       </c>
       <c r="J411">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K411">
         <v>4</v>
       </c>
       <c r="L411">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M411">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="N411">
         <v>4</v>
       </c>
       <c r="O411">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="P411">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q411">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R411">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S411">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T411">
         <v>1.85</v>
@@ -35874,13 +35874,13 @@
         <v>-1</v>
       </c>
       <c r="X411">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="Y411">
         <v>-1</v>
       </c>
       <c r="Z411">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA411">
         <v>0.8500000000000001</v>
@@ -35894,7 +35894,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>7983901</v>
+        <v>8044183</v>
       </c>
       <c r="C412" t="s">
         <v>27</v>
@@ -35903,73 +35903,73 @@
         <v>45398.65625</v>
       </c>
       <c r="E412" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F412" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G412">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H412">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I412" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J412">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="K412">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="L412">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="M412">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="N412">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O412">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="P412">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q412">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R412">
+        <v>1.85</v>
+      </c>
+      <c r="S412">
+        <v>3.25</v>
+      </c>
+      <c r="T412">
+        <v>2</v>
+      </c>
+      <c r="U412">
         <v>1.8</v>
       </c>
-      <c r="S412">
-        <v>2.75</v>
-      </c>
-      <c r="T412">
-        <v>1.85</v>
-      </c>
-      <c r="U412">
-        <v>1.95</v>
-      </c>
       <c r="V412">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W412">
         <v>-1</v>
       </c>
       <c r="X412">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y412">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z412">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA412">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB412">
         <v>-1</v>
@@ -36152,7 +36152,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>6944249</v>
+        <v>6944257</v>
       </c>
       <c r="C415" t="s">
         <v>27</v>
@@ -36161,58 +36161,58 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E415" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F415" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G415">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I415" t="s">
         <v>52</v>
       </c>
       <c r="J415">
-        <v>1.125</v>
+        <v>2.2</v>
       </c>
       <c r="K415">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="L415">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="M415">
-        <v>1.125</v>
+        <v>2.2</v>
       </c>
       <c r="N415">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="O415">
-        <v>13</v>
+        <v>2.625</v>
       </c>
       <c r="P415">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q415">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R415">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S415">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="T415">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U415">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V415">
-        <v>0.125</v>
+        <v>1.2</v>
       </c>
       <c r="W415">
         <v>-1</v>
@@ -36221,13 +36221,13 @@
         <v>-1</v>
       </c>
       <c r="Y415">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Z415">
         <v>-1</v>
       </c>
       <c r="AA415">
-        <v>0.475</v>
+        <v>0.4625</v>
       </c>
       <c r="AB415">
         <v>-0.5</v>
@@ -36324,7 +36324,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>6944257</v>
+        <v>6944249</v>
       </c>
       <c r="C417" t="s">
         <v>27</v>
@@ -36333,58 +36333,58 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E417" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F417" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G417">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="s">
         <v>52</v>
       </c>
       <c r="J417">
-        <v>2.2</v>
+        <v>1.125</v>
       </c>
       <c r="K417">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="L417">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="M417">
-        <v>2.2</v>
+        <v>1.125</v>
       </c>
       <c r="N417">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="O417">
-        <v>2.625</v>
+        <v>13</v>
       </c>
       <c r="P417">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="Q417">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R417">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S417">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="T417">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U417">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V417">
-        <v>1.2</v>
+        <v>0.125</v>
       </c>
       <c r="W417">
         <v>-1</v>
@@ -36393,13 +36393,13 @@
         <v>-1</v>
       </c>
       <c r="Y417">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Z417">
         <v>-1</v>
       </c>
       <c r="AA417">
-        <v>0.4625</v>
+        <v>0.475</v>
       </c>
       <c r="AB417">
         <v>-0.5</v>
@@ -37098,7 +37098,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>6945095</v>
+        <v>6945087</v>
       </c>
       <c r="C426" t="s">
         <v>27</v>
@@ -37107,58 +37107,58 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E426" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F426" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G426">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H426">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="s">
         <v>52</v>
       </c>
       <c r="J426">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="K426">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="L426">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="M426">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="N426">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O426">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P426">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q426">
+        <v>1.975</v>
+      </c>
+      <c r="R426">
         <v>1.825</v>
       </c>
-      <c r="R426">
-        <v>1.975</v>
-      </c>
       <c r="S426">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T426">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U426">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V426">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="W426">
         <v>-1</v>
@@ -37167,13 +37167,13 @@
         <v>-1</v>
       </c>
       <c r="Y426">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z426">
         <v>-1</v>
       </c>
       <c r="AA426">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB426">
         <v>-1</v>
@@ -37184,7 +37184,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>6945094</v>
+        <v>6945088</v>
       </c>
       <c r="C427" t="s">
         <v>27</v>
@@ -37193,13 +37193,13 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E427" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F427" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G427">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H427">
         <v>0</v>
@@ -37208,43 +37208,43 @@
         <v>52</v>
       </c>
       <c r="J427">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="K427">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="L427">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="M427">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="N427">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O427">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="P427">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q427">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R427">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S427">
         <v>3.25</v>
       </c>
       <c r="T427">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U427">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V427">
-        <v>1.3</v>
+        <v>0.75</v>
       </c>
       <c r="W427">
         <v>-1</v>
@@ -37253,16 +37253,16 @@
         <v>-1</v>
       </c>
       <c r="Y427">
+        <v>0.95</v>
+      </c>
+      <c r="Z427">
+        <v>-1</v>
+      </c>
+      <c r="AA427">
+        <v>-1</v>
+      </c>
+      <c r="AB427">
         <v>0.825</v>
-      </c>
-      <c r="Z427">
-        <v>-1</v>
-      </c>
-      <c r="AA427">
-        <v>1</v>
-      </c>
-      <c r="AB427">
-        <v>-1</v>
       </c>
     </row>
     <row r="428" spans="1:28">
@@ -37270,7 +37270,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>6945093</v>
+        <v>6945089</v>
       </c>
       <c r="C428" t="s">
         <v>27</v>
@@ -37279,76 +37279,76 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E428" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F428" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G428">
+        <v>2</v>
+      </c>
+      <c r="H428">
         <v>0</v>
       </c>
-      <c r="H428">
-        <v>2</v>
-      </c>
       <c r="I428" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J428">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K428">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="L428">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="M428">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N428">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="O428">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="P428">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q428">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R428">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S428">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T428">
         <v>1.775</v>
       </c>
       <c r="U428">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V428">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W428">
         <v>-1</v>
       </c>
       <c r="X428">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y428">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="Z428">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA428">
         <v>-1</v>
       </c>
       <c r="AB428">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="429" spans="1:28">
@@ -37356,7 +37356,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>6945092</v>
+        <v>6945090</v>
       </c>
       <c r="C429" t="s">
         <v>27</v>
@@ -37365,43 +37365,43 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E429" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F429" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G429">
+        <v>2</v>
+      </c>
+      <c r="H429">
         <v>1</v>
       </c>
-      <c r="H429">
-        <v>3</v>
-      </c>
       <c r="I429" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J429">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K429">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="L429">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="M429">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N429">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O429">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="P429">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q429">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R429">
         <v>1.95</v>
@@ -37416,25 +37416,25 @@
         <v>1.9</v>
       </c>
       <c r="V429">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W429">
         <v>-1</v>
       </c>
       <c r="X429">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y429">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z429">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA429">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB429">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:28">
@@ -37442,7 +37442,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>6945090</v>
+        <v>6945092</v>
       </c>
       <c r="C430" t="s">
         <v>27</v>
@@ -37451,43 +37451,43 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E430" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F430" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G430">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I430" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J430">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K430">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="L430">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="M430">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N430">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O430">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="P430">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q430">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R430">
         <v>1.95</v>
@@ -37502,25 +37502,25 @@
         <v>1.9</v>
       </c>
       <c r="V430">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W430">
         <v>-1</v>
       </c>
       <c r="X430">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y430">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z430">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA430">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB430">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="431" spans="1:28">
@@ -37528,7 +37528,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>6945089</v>
+        <v>6945093</v>
       </c>
       <c r="C431" t="s">
         <v>27</v>
@@ -37537,76 +37537,76 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E431" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F431" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G431">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J431">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K431">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="L431">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="M431">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N431">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="O431">
-        <v>2.7</v>
+        <v>1.25</v>
       </c>
       <c r="P431">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="Q431">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="R431">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S431">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T431">
         <v>1.775</v>
       </c>
       <c r="U431">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V431">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W431">
         <v>-1</v>
       </c>
       <c r="X431">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y431">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="Z431">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA431">
         <v>-1</v>
       </c>
       <c r="AB431">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="432" spans="1:28">
@@ -37614,7 +37614,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>6945088</v>
+        <v>6945094</v>
       </c>
       <c r="C432" t="s">
         <v>27</v>
@@ -37623,13 +37623,13 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E432" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F432" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G432">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H432">
         <v>0</v>
@@ -37638,43 +37638,43 @@
         <v>52</v>
       </c>
       <c r="J432">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="K432">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="L432">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="M432">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="N432">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O432">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="P432">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q432">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R432">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S432">
         <v>3.25</v>
       </c>
       <c r="T432">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U432">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V432">
-        <v>0.75</v>
+        <v>1.3</v>
       </c>
       <c r="W432">
         <v>-1</v>
@@ -37683,16 +37683,16 @@
         <v>-1</v>
       </c>
       <c r="Y432">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z432">
         <v>-1</v>
       </c>
       <c r="AA432">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB432">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433" spans="1:28">
@@ -37700,7 +37700,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>6945087</v>
+        <v>6945095</v>
       </c>
       <c r="C433" t="s">
         <v>27</v>
@@ -37709,58 +37709,58 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E433" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F433" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G433">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I433" t="s">
         <v>52</v>
       </c>
       <c r="J433">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="K433">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="L433">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="M433">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="N433">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O433">
+        <v>2.5</v>
+      </c>
+      <c r="P433">
+        <v>0</v>
+      </c>
+      <c r="Q433">
+        <v>1.825</v>
+      </c>
+      <c r="R433">
+        <v>1.975</v>
+      </c>
+      <c r="S433">
         <v>3</v>
       </c>
-      <c r="P433">
-        <v>-0.5</v>
-      </c>
-      <c r="Q433">
-        <v>1.975</v>
-      </c>
-      <c r="R433">
-        <v>1.825</v>
-      </c>
-      <c r="S433">
-        <v>3.25</v>
-      </c>
       <c r="T433">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U433">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V433">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="W433">
         <v>-1</v>
@@ -37769,13 +37769,13 @@
         <v>-1</v>
       </c>
       <c r="Y433">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="Z433">
         <v>-1</v>
       </c>
       <c r="AA433">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB433">
         <v>-1</v>

--- a/England Northern Premier League/England Northern Premier League.xlsx
+++ b/England Northern Premier League/England Northern Premier League.xlsx
@@ -2784,7 +2784,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6932893</v>
+        <v>6932835</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2793,76 +2793,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J27">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K27">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="M27">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="N27">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O27">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q27">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T27">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA27">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2870,7 +2870,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6932835</v>
+        <v>6932893</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2879,76 +2879,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J28">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K28">
+        <v>3.75</v>
+      </c>
+      <c r="L28">
+        <v>2.25</v>
+      </c>
+      <c r="M28">
+        <v>2.8</v>
+      </c>
+      <c r="N28">
         <v>4</v>
       </c>
-      <c r="L28">
-        <v>5</v>
-      </c>
-      <c r="M28">
-        <v>1.666</v>
-      </c>
-      <c r="N28">
-        <v>3.6</v>
-      </c>
       <c r="O28">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="P28">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q28">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R28">
+        <v>1.825</v>
+      </c>
+      <c r="S28">
+        <v>2.5</v>
+      </c>
+      <c r="T28">
+        <v>1.75</v>
+      </c>
+      <c r="U28">
         <v>1.95</v>
       </c>
-      <c r="S28">
-        <v>2.75</v>
-      </c>
-      <c r="T28">
+      <c r="V28">
         <v>1.8</v>
       </c>
-      <c r="U28">
-        <v>2</v>
-      </c>
-      <c r="V28">
-        <v>-1</v>
-      </c>
       <c r="W28">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -3128,7 +3128,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6932990</v>
+        <v>6932991</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -3137,37 +3137,37 @@
         <v>45160.65625</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="s">
         <v>52</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="K31">
         <v>3.5</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="M31">
         <v>2.2</v>
       </c>
       <c r="N31">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O31">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P31">
         <v>-0.25</v>
@@ -3182,10 +3182,10 @@
         <v>2.5</v>
       </c>
       <c r="T31">
+        <v>1.925</v>
+      </c>
+      <c r="U31">
         <v>1.875</v>
-      </c>
-      <c r="U31">
-        <v>1.925</v>
       </c>
       <c r="V31">
         <v>1.2</v>
@@ -3203,7 +3203,7 @@
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB31">
         <v>-1</v>
@@ -3214,7 +3214,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6932991</v>
+        <v>6932989</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
@@ -3223,73 +3223,73 @@
         <v>45160.65625</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J32">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K32">
         <v>3.5</v>
       </c>
       <c r="L32">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="M32">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="N32">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O32">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="P32">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R32">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
         <v>2.5</v>
       </c>
       <c r="T32">
+        <v>1.875</v>
+      </c>
+      <c r="U32">
         <v>1.925</v>
       </c>
-      <c r="U32">
-        <v>1.875</v>
-      </c>
       <c r="V32">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA32">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB32">
         <v>-1</v>
@@ -3300,7 +3300,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6932989</v>
+        <v>6932990</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
@@ -3309,46 +3309,46 @@
         <v>45160.65625</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J33">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K33">
         <v>3.5</v>
       </c>
       <c r="L33">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="N33">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O33">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q33">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S33">
         <v>2.5</v>
@@ -3360,19 +3360,19 @@
         <v>1.925</v>
       </c>
       <c r="V33">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
         <v>0.875</v>
@@ -3472,7 +3472,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6932992</v>
+        <v>6932895</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
@@ -3481,58 +3481,58 @@
         <v>45160.65625</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G35">
         <v>3</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="s">
         <v>52</v>
       </c>
       <c r="J35">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="K35">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L35">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="M35">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N35">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O35">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="P35">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R35">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
         <v>2.75</v>
       </c>
       <c r="T35">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="W35">
         <v>-1</v>
@@ -3541,16 +3541,16 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3558,7 +3558,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6932993</v>
+        <v>6932992</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
@@ -3567,10 +3567,10 @@
         <v>45160.65625</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3582,61 +3582,61 @@
         <v>52</v>
       </c>
       <c r="J36">
+        <v>4.75</v>
+      </c>
+      <c r="K36">
+        <v>4.2</v>
+      </c>
+      <c r="L36">
+        <v>1.5</v>
+      </c>
+      <c r="M36">
+        <v>4.2</v>
+      </c>
+      <c r="N36">
+        <v>3.8</v>
+      </c>
+      <c r="O36">
+        <v>1.65</v>
+      </c>
+      <c r="P36">
+        <v>0.75</v>
+      </c>
+      <c r="Q36">
+        <v>2</v>
+      </c>
+      <c r="R36">
         <v>1.8</v>
       </c>
-      <c r="K36">
-        <v>3.6</v>
-      </c>
-      <c r="L36">
-        <v>3.6</v>
-      </c>
-      <c r="M36">
-        <v>1.8</v>
-      </c>
-      <c r="N36">
-        <v>3.6</v>
-      </c>
-      <c r="O36">
-        <v>3.75</v>
-      </c>
-      <c r="P36">
+      <c r="S36">
+        <v>2.75</v>
+      </c>
+      <c r="T36">
+        <v>1.825</v>
+      </c>
+      <c r="U36">
+        <v>1.975</v>
+      </c>
+      <c r="V36">
+        <v>3.2</v>
+      </c>
+      <c r="W36">
+        <v>-1</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>-1</v>
+      </c>
+      <c r="AA36">
+        <v>0.4125</v>
+      </c>
+      <c r="AB36">
         <v>-0.5</v>
-      </c>
-      <c r="Q36">
-        <v>1.85</v>
-      </c>
-      <c r="R36">
-        <v>1.95</v>
-      </c>
-      <c r="S36">
-        <v>2.25</v>
-      </c>
-      <c r="T36">
-        <v>1.85</v>
-      </c>
-      <c r="U36">
-        <v>1.95</v>
-      </c>
-      <c r="V36">
-        <v>0.8</v>
-      </c>
-      <c r="W36">
-        <v>-1</v>
-      </c>
-      <c r="X36">
-        <v>-1</v>
-      </c>
-      <c r="Y36">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Z36">
-        <v>-1</v>
-      </c>
-      <c r="AA36">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB36">
-        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3644,7 +3644,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6932895</v>
+        <v>6932994</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
@@ -3653,58 +3653,58 @@
         <v>45160.65625</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="s">
         <v>52</v>
       </c>
       <c r="J37">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="K37">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L37">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="N37">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O37">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="P37">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q37">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S37">
         <v>2.75</v>
       </c>
       <c r="T37">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U37">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V37">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3713,16 +3713,16 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3730,7 +3730,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6932994</v>
+        <v>6932837</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
@@ -3739,76 +3739,76 @@
         <v>45160.65625</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J38">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="K38">
         <v>3.6</v>
       </c>
       <c r="L38">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="M38">
-        <v>1.75</v>
+        <v>3.8</v>
       </c>
       <c r="N38">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O38">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="P38">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q38">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
         <v>2.75</v>
       </c>
       <c r="T38">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB38">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -3816,7 +3816,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6932837</v>
+        <v>6932993</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -3825,73 +3825,73 @@
         <v>45160.65625</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J39">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="K39">
         <v>3.6</v>
       </c>
       <c r="L39">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="M39">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="N39">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O39">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="P39">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q39">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T39">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB39">
         <v>-1</v>
@@ -4848,7 +4848,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6932841</v>
+        <v>6933006</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -4857,73 +4857,73 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
         <v>4</v>
       </c>
-      <c r="H51">
+      <c r="I51" t="s">
+        <v>53</v>
+      </c>
+      <c r="J51">
+        <v>2.3</v>
+      </c>
+      <c r="K51">
+        <v>3.25</v>
+      </c>
+      <c r="L51">
+        <v>2.7</v>
+      </c>
+      <c r="M51">
+        <v>2.3</v>
+      </c>
+      <c r="N51">
+        <v>3.3</v>
+      </c>
+      <c r="O51">
+        <v>2.625</v>
+      </c>
+      <c r="P51">
         <v>0</v>
       </c>
-      <c r="I51" t="s">
-        <v>52</v>
-      </c>
-      <c r="J51">
-        <v>1.909</v>
-      </c>
-      <c r="K51">
-        <v>3.3</v>
-      </c>
-      <c r="L51">
-        <v>3.5</v>
-      </c>
-      <c r="M51">
-        <v>1.75</v>
-      </c>
-      <c r="N51">
-        <v>3.4</v>
-      </c>
-      <c r="O51">
-        <v>4</v>
-      </c>
-      <c r="P51">
-        <v>-0.5</v>
-      </c>
       <c r="Q51">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S51">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T51">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U51">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB51">
         <v>-1</v>
@@ -4934,7 +4934,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6932899</v>
+        <v>6932841</v>
       </c>
       <c r="C52" t="s">
         <v>27</v>
@@ -4943,73 +4943,73 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52">
+        <v>1.909</v>
+      </c>
+      <c r="K52">
+        <v>3.3</v>
+      </c>
+      <c r="L52">
+        <v>3.5</v>
+      </c>
+      <c r="M52">
+        <v>1.75</v>
+      </c>
+      <c r="N52">
+        <v>3.4</v>
+      </c>
+      <c r="O52">
         <v>4</v>
-      </c>
-      <c r="I52" t="s">
-        <v>53</v>
-      </c>
-      <c r="J52">
-        <v>1.85</v>
-      </c>
-      <c r="K52">
-        <v>3.6</v>
-      </c>
-      <c r="L52">
-        <v>3.4</v>
-      </c>
-      <c r="M52">
-        <v>1.833</v>
-      </c>
-      <c r="N52">
-        <v>3.6</v>
-      </c>
-      <c r="O52">
-        <v>3.4</v>
       </c>
       <c r="P52">
         <v>-0.5</v>
       </c>
       <c r="Q52">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R52">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
         <v>2.75</v>
       </c>
       <c r="T52">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V52">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z52">
+        <v>-1</v>
+      </c>
+      <c r="AA52">
         <v>0.925</v>
-      </c>
-      <c r="AA52">
-        <v>0.875</v>
       </c>
       <c r="AB52">
         <v>-1</v>
@@ -5020,7 +5020,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6932900</v>
+        <v>6932899</v>
       </c>
       <c r="C53" t="s">
         <v>27</v>
@@ -5029,73 +5029,73 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E53" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
         <v>4</v>
       </c>
-      <c r="H53">
-        <v>2</v>
-      </c>
       <c r="I53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J53">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="K53">
         <v>3.6</v>
       </c>
       <c r="L53">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="N53">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O53">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P53">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q53">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R53">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S53">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T53">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U53">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA53">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB53">
         <v>-1</v>
@@ -5106,7 +5106,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6933001</v>
+        <v>6932900</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -5115,58 +5115,58 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="s">
         <v>52</v>
       </c>
       <c r="J54">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="K54">
         <v>3.6</v>
       </c>
       <c r="L54">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="N54">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O54">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="P54">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q54">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="R54">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V54">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5175,16 +5175,16 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5192,7 +5192,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6933002</v>
+        <v>6933001</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -5201,76 +5201,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J55">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K55">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L55">
+        <v>2.3</v>
+      </c>
+      <c r="M55">
+        <v>2.6</v>
+      </c>
+      <c r="N55">
+        <v>3.6</v>
+      </c>
+      <c r="O55">
         <v>2.2</v>
-      </c>
-      <c r="M55">
-        <v>2.8</v>
-      </c>
-      <c r="N55">
-        <v>3.4</v>
-      </c>
-      <c r="O55">
-        <v>2.15</v>
       </c>
       <c r="P55">
         <v>0.25</v>
       </c>
       <c r="Q55">
+        <v>1.775</v>
+      </c>
+      <c r="R55">
+        <v>2.025</v>
+      </c>
+      <c r="S55">
+        <v>2.75</v>
+      </c>
+      <c r="T55">
+        <v>1.975</v>
+      </c>
+      <c r="U55">
         <v>1.825</v>
       </c>
-      <c r="R55">
-        <v>1.975</v>
-      </c>
-      <c r="S55">
-        <v>2.25</v>
-      </c>
-      <c r="T55">
-        <v>1.8</v>
-      </c>
-      <c r="U55">
-        <v>2</v>
-      </c>
       <c r="V55">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z55">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
+        <v>0.4875</v>
+      </c>
+      <c r="AB55">
         <v>-0.5</v>
-      </c>
-      <c r="AB55">
-        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5278,7 +5278,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6933003</v>
+        <v>6933002</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
@@ -5287,76 +5287,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J56">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K56">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L56">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="M56">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="N56">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O56">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q56">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R56">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S56">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T56">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U56">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V56">
         <v>-1</v>
       </c>
       <c r="W56">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA56">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5364,7 +5364,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6933004</v>
+        <v>6933003</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
@@ -5373,76 +5373,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E57" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="s">
         <v>54</v>
       </c>
       <c r="J57">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K57">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L57">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M57">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="N57">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O57">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="P57">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S57">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T57">
+        <v>2.025</v>
+      </c>
+      <c r="U57">
         <v>1.775</v>
       </c>
-      <c r="U57">
-        <v>2.025</v>
-      </c>
       <c r="V57">
         <v>-1</v>
       </c>
       <c r="W57">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB57">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5450,7 +5450,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6933005</v>
+        <v>6933004</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
@@ -5459,37 +5459,37 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J58">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="K58">
+        <v>4</v>
+      </c>
+      <c r="L58">
+        <v>5</v>
+      </c>
+      <c r="M58">
+        <v>1.65</v>
+      </c>
+      <c r="N58">
         <v>3.75</v>
       </c>
-      <c r="L58">
-        <v>4.75</v>
-      </c>
-      <c r="M58">
-        <v>1.615</v>
-      </c>
-      <c r="N58">
-        <v>3.6</v>
-      </c>
       <c r="O58">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P58">
         <v>-0.75</v>
@@ -5501,34 +5501,34 @@
         <v>1.975</v>
       </c>
       <c r="S58">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T58">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U58">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V58">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5536,7 +5536,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6933006</v>
+        <v>6933005</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
@@ -5545,76 +5545,76 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G59">
         <v>2</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J59">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="K59">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L59">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="M59">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="N59">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O59">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q59">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R59">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S59">
         <v>2.5</v>
       </c>
       <c r="T59">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U59">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z59">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -6654,7 +6654,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6933022</v>
+        <v>6933026</v>
       </c>
       <c r="C72" t="s">
         <v>27</v>
@@ -6663,46 +6663,46 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
         <v>4</v>
       </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
       <c r="I72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J72">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K72">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L72">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="M72">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="N72">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O72">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="P72">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="R72">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S72">
         <v>2.5</v>
@@ -6714,19 +6714,19 @@
         <v>2</v>
       </c>
       <c r="V72">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y72">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA72">
         <v>0.8</v>
@@ -6740,7 +6740,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6933026</v>
+        <v>6933025</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
@@ -6749,76 +6749,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G73">
         <v>2</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J73">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="K73">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="L73">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="M73">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="N73">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="O73">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="Q73">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R73">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T73">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V73">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6826,7 +6826,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6933025</v>
+        <v>6933024</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
@@ -6835,13 +6835,13 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -6850,25 +6850,25 @@
         <v>52</v>
       </c>
       <c r="J74">
-        <v>1.3</v>
+        <v>1.666</v>
       </c>
       <c r="K74">
+        <v>3.75</v>
+      </c>
+      <c r="L74">
+        <v>4</v>
+      </c>
+      <c r="M74">
+        <v>1.45</v>
+      </c>
+      <c r="N74">
+        <v>4.333</v>
+      </c>
+      <c r="O74">
         <v>5</v>
       </c>
-      <c r="L74">
-        <v>7</v>
-      </c>
-      <c r="M74">
-        <v>1.3</v>
-      </c>
-      <c r="N74">
-        <v>4.75</v>
-      </c>
-      <c r="O74">
-        <v>7</v>
-      </c>
       <c r="P74">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q74">
         <v>1.85</v>
@@ -6877,16 +6877,16 @@
         <v>1.95</v>
       </c>
       <c r="S74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T74">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U74">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -6895,16 +6895,16 @@
         <v>-1</v>
       </c>
       <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>-1</v>
+      </c>
+      <c r="AB74">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z74">
-        <v>-1</v>
-      </c>
-      <c r="AA74">
-        <v>-1</v>
-      </c>
-      <c r="AB74">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6912,7 +6912,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6933024</v>
+        <v>6933023</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
@@ -6921,76 +6921,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
         <v>1</v>
       </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
       <c r="I75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J75">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="K75">
+        <v>3.5</v>
+      </c>
+      <c r="L75">
+        <v>2.8</v>
+      </c>
+      <c r="M75">
+        <v>1.727</v>
+      </c>
+      <c r="N75">
+        <v>3.8</v>
+      </c>
+      <c r="O75">
         <v>3.75</v>
       </c>
-      <c r="L75">
-        <v>4</v>
-      </c>
-      <c r="M75">
-        <v>1.45</v>
-      </c>
-      <c r="N75">
-        <v>4.333</v>
-      </c>
-      <c r="O75">
-        <v>5</v>
-      </c>
       <c r="P75">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S75">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T75">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6998,7 +6998,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6933023</v>
+        <v>6933022</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -7007,76 +7007,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J76">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K76">
         <v>3.5</v>
       </c>
       <c r="L76">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="N76">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O76">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
         <v>-0.75</v>
       </c>
       <c r="Q76">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S76">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T76">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U76">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V76">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB76">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7428,7 +7428,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6932912</v>
+        <v>6932849</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
@@ -7437,13 +7437,13 @@
         <v>45195.65625</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7452,43 +7452,43 @@
         <v>52</v>
       </c>
       <c r="J81">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="K81">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L81">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="M81">
+        <v>1.55</v>
+      </c>
+      <c r="N81">
+        <v>4.333</v>
+      </c>
+      <c r="O81">
+        <v>4.2</v>
+      </c>
+      <c r="P81">
+        <v>-1</v>
+      </c>
+      <c r="Q81">
+        <v>1.95</v>
+      </c>
+      <c r="R81">
+        <v>1.85</v>
+      </c>
+      <c r="S81">
+        <v>3</v>
+      </c>
+      <c r="T81">
         <v>1.8</v>
       </c>
-      <c r="N81">
-        <v>3.8</v>
-      </c>
-      <c r="O81">
-        <v>3.3</v>
-      </c>
-      <c r="P81">
-        <v>-0.5</v>
-      </c>
-      <c r="Q81">
-        <v>1.85</v>
-      </c>
-      <c r="R81">
-        <v>1.95</v>
-      </c>
-      <c r="S81">
-        <v>2.75</v>
-      </c>
-      <c r="T81">
-        <v>1.75</v>
-      </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V81">
-        <v>0.8</v>
+        <v>0.55</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7497,7 +7497,7 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z81">
         <v>-1</v>
@@ -7506,7 +7506,7 @@
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7514,7 +7514,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6933031</v>
+        <v>6932911</v>
       </c>
       <c r="C82" t="s">
         <v>27</v>
@@ -7523,10 +7523,10 @@
         <v>45195.65625</v>
       </c>
       <c r="E82" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7538,34 +7538,34 @@
         <v>54</v>
       </c>
       <c r="J82">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="K82">
+        <v>3.75</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>3.25</v>
+      </c>
+      <c r="N82">
         <v>3.8</v>
       </c>
-      <c r="L82">
-        <v>2.5</v>
-      </c>
-      <c r="M82">
-        <v>2.15</v>
-      </c>
-      <c r="N82">
-        <v>4</v>
-      </c>
       <c r="O82">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="P82">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q82">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R82">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T82">
         <v>1.95</v>
@@ -7577,16 +7577,16 @@
         <v>-1</v>
       </c>
       <c r="W82">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
         <v>-1</v>
@@ -7600,7 +7600,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6933028</v>
+        <v>6933031</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7609,76 +7609,76 @@
         <v>45195.65625</v>
       </c>
       <c r="E83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J83">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K83">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L83">
         <v>2.5</v>
       </c>
       <c r="M83">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="N83">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O83">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="P83">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R83">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S83">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T83">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U83">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
         <v>-1</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X83">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z83">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7686,7 +7686,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6933027</v>
+        <v>6933028</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7695,73 +7695,73 @@
         <v>45195.65625</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J84">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K84">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L84">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M84">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N84">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O84">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="P84">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q84">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R84">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S84">
         <v>2.5</v>
       </c>
       <c r="T84">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U84">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA84">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB84">
         <v>-1</v>
@@ -7772,7 +7772,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6932913</v>
+        <v>6933027</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -7781,58 +7781,58 @@
         <v>45195.65625</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="s">
         <v>52</v>
       </c>
       <c r="J85">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="K85">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L85">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="M85">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N85">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O85">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="P85">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q85">
+        <v>1.85</v>
+      </c>
+      <c r="R85">
+        <v>1.95</v>
+      </c>
+      <c r="S85">
+        <v>2.5</v>
+      </c>
+      <c r="T85">
         <v>1.8</v>
       </c>
-      <c r="R85">
-        <v>2</v>
-      </c>
-      <c r="S85">
-        <v>3.25</v>
-      </c>
-      <c r="T85">
-        <v>1.925</v>
-      </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -7841,13 +7841,13 @@
         <v>-1</v>
       </c>
       <c r="Y85">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z85">
+        <v>-1</v>
+      </c>
+      <c r="AA85">
         <v>0.8</v>
-      </c>
-      <c r="Z85">
-        <v>-1</v>
-      </c>
-      <c r="AA85">
-        <v>0.925</v>
       </c>
       <c r="AB85">
         <v>-1</v>
@@ -7858,7 +7858,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6932911</v>
+        <v>6932913</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -7867,76 +7867,76 @@
         <v>45195.65625</v>
       </c>
       <c r="E86" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J86">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="K86">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L86">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="M86">
+        <v>1.5</v>
+      </c>
+      <c r="N86">
+        <v>4.5</v>
+      </c>
+      <c r="O86">
+        <v>4.5</v>
+      </c>
+      <c r="P86">
+        <v>-1</v>
+      </c>
+      <c r="Q86">
+        <v>1.8</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
         <v>3.25</v>
       </c>
-      <c r="N86">
-        <v>3.8</v>
-      </c>
-      <c r="O86">
-        <v>1.85</v>
-      </c>
-      <c r="P86">
+      <c r="T86">
+        <v>1.925</v>
+      </c>
+      <c r="U86">
+        <v>1.875</v>
+      </c>
+      <c r="V86">
         <v>0.5</v>
       </c>
-      <c r="Q86">
-        <v>1.9</v>
-      </c>
-      <c r="R86">
-        <v>1.9</v>
-      </c>
-      <c r="S86">
-        <v>3</v>
-      </c>
-      <c r="T86">
-        <v>1.95</v>
-      </c>
-      <c r="U86">
-        <v>1.85</v>
-      </c>
-      <c r="V86">
-        <v>-1</v>
-      </c>
       <c r="W86">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7944,7 +7944,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6933032</v>
+        <v>6932912</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -7953,19 +7953,19 @@
         <v>45195.65625</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J87">
         <v>2.1</v>
@@ -7977,52 +7977,52 @@
         <v>2.7</v>
       </c>
       <c r="M87">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="N87">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O87">
+        <v>3.3</v>
+      </c>
+      <c r="P87">
+        <v>-0.5</v>
+      </c>
+      <c r="Q87">
+        <v>1.85</v>
+      </c>
+      <c r="R87">
         <v>1.95</v>
       </c>
-      <c r="P87">
-        <v>0.25</v>
-      </c>
-      <c r="Q87">
-        <v>2.025</v>
-      </c>
-      <c r="R87">
-        <v>1.775</v>
-      </c>
       <c r="S87">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T87">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U87">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
+        <v>-1</v>
+      </c>
+      <c r="Y87">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z87">
+        <v>-1</v>
+      </c>
+      <c r="AA87">
+        <v>-1</v>
+      </c>
+      <c r="AB87">
         <v>0.95</v>
-      </c>
-      <c r="Y87">
-        <v>-1</v>
-      </c>
-      <c r="Z87">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA87">
-        <v>0.8</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8030,7 +8030,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6933030</v>
+        <v>6933032</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8039,73 +8039,73 @@
         <v>45195.65625</v>
       </c>
       <c r="E88" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F88" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H88">
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J88">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="K88">
         <v>3.75</v>
       </c>
       <c r="L88">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="M88">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="N88">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O88">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="P88">
         <v>0.25</v>
       </c>
       <c r="Q88">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T88">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V88">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA88">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB88">
         <v>-1</v>
@@ -8116,7 +8116,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6932849</v>
+        <v>6933030</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8125,40 +8125,40 @@
         <v>45195.65625</v>
       </c>
       <c r="E89" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="s">
         <v>52</v>
       </c>
       <c r="J89">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="K89">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L89">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="M89">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="N89">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="O89">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="P89">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q89">
         <v>1.95</v>
@@ -8167,16 +8167,16 @@
         <v>1.85</v>
       </c>
       <c r="S89">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T89">
+        <v>1.85</v>
+      </c>
+      <c r="U89">
+        <v>1.95</v>
+      </c>
+      <c r="V89">
         <v>1.8</v>
-      </c>
-      <c r="U89">
-        <v>2</v>
-      </c>
-      <c r="V89">
-        <v>0.55</v>
       </c>
       <c r="W89">
         <v>-1</v>
@@ -8191,10 +8191,10 @@
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB89">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -11126,7 +11126,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6933058</v>
+        <v>6932923</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
@@ -11135,58 +11135,58 @@
         <v>45223.65625</v>
       </c>
       <c r="E124" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="s">
         <v>52</v>
       </c>
       <c r="J124">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K124">
         <v>3.5</v>
       </c>
       <c r="L124">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="M124">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N124">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O124">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="P124">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q124">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="R124">
+        <v>1.8</v>
+      </c>
+      <c r="S124">
+        <v>3</v>
+      </c>
+      <c r="T124">
         <v>1.975</v>
       </c>
-      <c r="S124">
-        <v>2.5</v>
-      </c>
-      <c r="T124">
-        <v>1.75</v>
-      </c>
       <c r="U124">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>1.3</v>
+        <v>0.909</v>
       </c>
       <c r="W124">
         <v>-1</v>
@@ -11195,16 +11195,16 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11212,7 +11212,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6932923</v>
+        <v>6933053</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
@@ -11221,58 +11221,58 @@
         <v>45223.65625</v>
       </c>
       <c r="E125" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="s">
         <v>52</v>
       </c>
       <c r="J125">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K125">
         <v>3.5</v>
       </c>
       <c r="L125">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M125">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N125">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P125">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q125">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R125">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S125">
         <v>3</v>
       </c>
       <c r="T125">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11281,16 +11281,16 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11298,7 +11298,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6933053</v>
+        <v>6933054</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
@@ -11307,58 +11307,58 @@
         <v>45223.65625</v>
       </c>
       <c r="E126" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="s">
         <v>52</v>
       </c>
       <c r="J126">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K126">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L126">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M126">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="N126">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P126">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q126">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R126">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S126">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T126">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U126">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11367,16 +11367,16 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -11384,7 +11384,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6933054</v>
+        <v>6933055</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>
@@ -11393,58 +11393,58 @@
         <v>45223.65625</v>
       </c>
       <c r="E127" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="s">
         <v>52</v>
       </c>
       <c r="J127">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="K127">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L127">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M127">
-        <v>1.7</v>
+        <v>1.285</v>
       </c>
       <c r="N127">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="O127">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P127">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="Q127">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R127">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S127">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T127">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U127">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V127">
-        <v>0.7</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11453,16 +11453,16 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB127">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:28">
@@ -11470,7 +11470,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6933055</v>
+        <v>6933056</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
@@ -11479,73 +11479,73 @@
         <v>45223.65625</v>
       </c>
       <c r="E128" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G128">
+        <v>2</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128" t="s">
+        <v>54</v>
+      </c>
+      <c r="J128">
         <v>3</v>
       </c>
-      <c r="H128">
-        <v>1</v>
-      </c>
-      <c r="I128" t="s">
-        <v>52</v>
-      </c>
-      <c r="J128">
-        <v>1.166</v>
-      </c>
       <c r="K128">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="L128">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M128">
-        <v>1.285</v>
+        <v>3.25</v>
       </c>
       <c r="N128">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="O128">
-        <v>5.75</v>
+        <v>1.95</v>
       </c>
       <c r="P128">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q128">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R128">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S128">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T128">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U128">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V128">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z128">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB128">
         <v>-1</v>
@@ -11556,7 +11556,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6933056</v>
+        <v>6933057</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
@@ -11565,10 +11565,10 @@
         <v>45223.65625</v>
       </c>
       <c r="E129" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11580,40 +11580,40 @@
         <v>54</v>
       </c>
       <c r="J129">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K129">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L129">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="M129">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N129">
         <v>3.4</v>
       </c>
       <c r="O129">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="P129">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q129">
+        <v>2.025</v>
+      </c>
+      <c r="R129">
         <v>1.775</v>
       </c>
-      <c r="R129">
-        <v>2.025</v>
-      </c>
       <c r="S129">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T129">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
         <v>-1</v>
@@ -11625,13 +11625,13 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA129">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB129">
         <v>-1</v>
@@ -11642,7 +11642,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6933057</v>
+        <v>6933058</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
@@ -11651,73 +11651,73 @@
         <v>45223.65625</v>
       </c>
       <c r="E130" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G130">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J130">
+        <v>2.3</v>
+      </c>
+      <c r="K130">
+        <v>3.5</v>
+      </c>
+      <c r="L130">
+        <v>2.55</v>
+      </c>
+      <c r="M130">
+        <v>2.3</v>
+      </c>
+      <c r="N130">
+        <v>3.5</v>
+      </c>
+      <c r="O130">
+        <v>2.55</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>1.725</v>
+      </c>
+      <c r="R130">
+        <v>1.975</v>
+      </c>
+      <c r="S130">
         <v>2.5</v>
       </c>
-      <c r="K130">
-        <v>3.4</v>
-      </c>
-      <c r="L130">
-        <v>2.375</v>
-      </c>
-      <c r="M130">
-        <v>2.1</v>
-      </c>
-      <c r="N130">
-        <v>3.4</v>
-      </c>
-      <c r="O130">
-        <v>2.875</v>
-      </c>
-      <c r="P130">
-        <v>-0.25</v>
-      </c>
-      <c r="Q130">
-        <v>2.025</v>
-      </c>
-      <c r="R130">
-        <v>1.775</v>
-      </c>
-      <c r="S130">
-        <v>2.75</v>
-      </c>
       <c r="T130">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W130">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z130">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB130">
         <v>-1</v>
@@ -17662,7 +17662,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7496517</v>
+        <v>7496559</v>
       </c>
       <c r="C200" t="s">
         <v>27</v>
@@ -17671,76 +17671,76 @@
         <v>45272.69791666666</v>
       </c>
       <c r="E200" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F200" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G200">
+        <v>3</v>
+      </c>
+      <c r="H200">
+        <v>3</v>
+      </c>
+      <c r="I200" t="s">
+        <v>54</v>
+      </c>
+      <c r="J200">
+        <v>2.6</v>
+      </c>
+      <c r="K200">
+        <v>4</v>
+      </c>
+      <c r="L200">
+        <v>2.1</v>
+      </c>
+      <c r="M200">
+        <v>2.9</v>
+      </c>
+      <c r="N200">
+        <v>4.2</v>
+      </c>
+      <c r="O200">
+        <v>1.85</v>
+      </c>
+      <c r="P200">
+        <v>0.5</v>
+      </c>
+      <c r="Q200">
+        <v>1.875</v>
+      </c>
+      <c r="R200">
+        <v>1.925</v>
+      </c>
+      <c r="S200">
+        <v>3.5</v>
+      </c>
+      <c r="T200">
+        <v>2</v>
+      </c>
+      <c r="U200">
+        <v>1.8</v>
+      </c>
+      <c r="V200">
+        <v>-1</v>
+      </c>
+      <c r="W200">
+        <v>3.2</v>
+      </c>
+      <c r="X200">
+        <v>-1</v>
+      </c>
+      <c r="Y200">
+        <v>0.875</v>
+      </c>
+      <c r="Z200">
+        <v>-1</v>
+      </c>
+      <c r="AA200">
         <v>1</v>
       </c>
-      <c r="H200">
-        <v>0</v>
-      </c>
-      <c r="I200" t="s">
-        <v>52</v>
-      </c>
-      <c r="J200">
-        <v>2.2</v>
-      </c>
-      <c r="K200">
-        <v>3.5</v>
-      </c>
-      <c r="L200">
-        <v>2.7</v>
-      </c>
-      <c r="M200">
-        <v>2.6</v>
-      </c>
-      <c r="N200">
-        <v>3.6</v>
-      </c>
-      <c r="O200">
-        <v>2.25</v>
-      </c>
-      <c r="P200">
-        <v>0.25</v>
-      </c>
-      <c r="Q200">
-        <v>1.775</v>
-      </c>
-      <c r="R200">
-        <v>2.025</v>
-      </c>
-      <c r="S200">
-        <v>3</v>
-      </c>
-      <c r="T200">
-        <v>1.9</v>
-      </c>
-      <c r="U200">
-        <v>1.9</v>
-      </c>
-      <c r="V200">
-        <v>1.6</v>
-      </c>
-      <c r="W200">
-        <v>-1</v>
-      </c>
-      <c r="X200">
-        <v>-1</v>
-      </c>
-      <c r="Y200">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="Z200">
-        <v>-1</v>
-      </c>
-      <c r="AA200">
-        <v>-1</v>
-      </c>
       <c r="AB200">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:28">
@@ -17748,7 +17748,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7496513</v>
+        <v>7496517</v>
       </c>
       <c r="C201" t="s">
         <v>27</v>
@@ -17757,58 +17757,58 @@
         <v>45272.69791666666</v>
       </c>
       <c r="E201" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F201" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="s">
         <v>52</v>
       </c>
       <c r="J201">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="K201">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L201">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="M201">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="N201">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="O201">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="P201">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q201">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R201">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S201">
         <v>3</v>
       </c>
       <c r="T201">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U201">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V201">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="W201">
         <v>-1</v>
@@ -17817,16 +17817,16 @@
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:28">
@@ -17834,7 +17834,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7496559</v>
+        <v>7496513</v>
       </c>
       <c r="C202" t="s">
         <v>27</v>
@@ -17843,76 +17843,76 @@
         <v>45272.69791666666</v>
       </c>
       <c r="E202" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F202" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G202">
+        <v>2</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202" t="s">
+        <v>52</v>
+      </c>
+      <c r="J202">
+        <v>1.363</v>
+      </c>
+      <c r="K202">
+        <v>4.5</v>
+      </c>
+      <c r="L202">
+        <v>6.5</v>
+      </c>
+      <c r="M202">
+        <v>1.5</v>
+      </c>
+      <c r="N202">
+        <v>4.333</v>
+      </c>
+      <c r="O202">
+        <v>4.75</v>
+      </c>
+      <c r="P202">
+        <v>-1</v>
+      </c>
+      <c r="Q202">
+        <v>1.85</v>
+      </c>
+      <c r="R202">
+        <v>1.95</v>
+      </c>
+      <c r="S202">
         <v>3</v>
       </c>
-      <c r="H202">
-        <v>3</v>
-      </c>
-      <c r="I202" t="s">
-        <v>54</v>
-      </c>
-      <c r="J202">
-        <v>2.6</v>
-      </c>
-      <c r="K202">
-        <v>4</v>
-      </c>
-      <c r="L202">
-        <v>2.1</v>
-      </c>
-      <c r="M202">
-        <v>2.9</v>
-      </c>
-      <c r="N202">
-        <v>4.2</v>
-      </c>
-      <c r="O202">
+      <c r="T202">
         <v>1.85</v>
       </c>
-      <c r="P202">
+      <c r="U202">
+        <v>1.95</v>
+      </c>
+      <c r="V202">
         <v>0.5</v>
       </c>
-      <c r="Q202">
-        <v>1.875</v>
-      </c>
-      <c r="R202">
-        <v>1.925</v>
-      </c>
-      <c r="S202">
-        <v>3.5</v>
-      </c>
-      <c r="T202">
-        <v>2</v>
-      </c>
-      <c r="U202">
-        <v>1.8</v>
-      </c>
-      <c r="V202">
-        <v>-1</v>
-      </c>
       <c r="W202">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:28">
@@ -21962,7 +21962,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6933133</v>
+        <v>6933134</v>
       </c>
       <c r="C250" t="s">
         <v>27</v>
@@ -21971,49 +21971,49 @@
         <v>45297.5</v>
       </c>
       <c r="E250" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F250" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G250">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H250">
         <v>1</v>
       </c>
       <c r="I250" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J250">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="K250">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L250">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="M250">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N250">
         <v>3.5</v>
       </c>
       <c r="O250">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P250">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q250">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R250">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S250">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T250">
         <v>1.9</v>
@@ -22022,25 +22022,25 @@
         <v>1.9</v>
       </c>
       <c r="V250">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y250">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA250">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB250">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="251" spans="1:28">
@@ -22048,7 +22048,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6933131</v>
+        <v>6933133</v>
       </c>
       <c r="C251" t="s">
         <v>27</v>
@@ -22057,76 +22057,76 @@
         <v>45297.5</v>
       </c>
       <c r="E251" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F251" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G251">
+        <v>2</v>
+      </c>
+      <c r="H251">
         <v>1</v>
       </c>
-      <c r="H251">
-        <v>2</v>
-      </c>
       <c r="I251" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J251">
-        <v>1.285</v>
+        <v>1.571</v>
       </c>
       <c r="K251">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="L251">
-        <v>6.5</v>
+        <v>4.8</v>
       </c>
       <c r="M251">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="N251">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="O251">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P251">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q251">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R251">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S251">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T251">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U251">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V251">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W251">
         <v>-1</v>
       </c>
       <c r="X251">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z251">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA251">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AB251">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="252" spans="1:28">
@@ -22134,7 +22134,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6933130</v>
+        <v>6933131</v>
       </c>
       <c r="C252" t="s">
         <v>27</v>
@@ -22143,76 +22143,76 @@
         <v>45297.5</v>
       </c>
       <c r="E252" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F252" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252" t="s">
         <v>53</v>
       </c>
       <c r="J252">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="K252">
+        <v>5.5</v>
+      </c>
+      <c r="L252">
+        <v>6.5</v>
+      </c>
+      <c r="M252">
+        <v>1.444</v>
+      </c>
+      <c r="N252">
+        <v>4.75</v>
+      </c>
+      <c r="O252">
+        <v>4.75</v>
+      </c>
+      <c r="P252">
+        <v>-1.25</v>
+      </c>
+      <c r="Q252">
+        <v>1.925</v>
+      </c>
+      <c r="R252">
+        <v>1.875</v>
+      </c>
+      <c r="S252">
+        <v>3</v>
+      </c>
+      <c r="T252">
+        <v>1.85</v>
+      </c>
+      <c r="U252">
+        <v>1.95</v>
+      </c>
+      <c r="V252">
+        <v>-1</v>
+      </c>
+      <c r="W252">
+        <v>-1</v>
+      </c>
+      <c r="X252">
         <v>3.75</v>
       </c>
-      <c r="L252">
-        <v>3.75</v>
-      </c>
-      <c r="M252">
-        <v>1.5</v>
-      </c>
-      <c r="N252">
-        <v>4.2</v>
-      </c>
-      <c r="O252">
-        <v>5</v>
-      </c>
-      <c r="P252">
-        <v>-1</v>
-      </c>
-      <c r="Q252">
-        <v>1.9</v>
-      </c>
-      <c r="R252">
-        <v>1.9</v>
-      </c>
-      <c r="S252">
-        <v>2.75</v>
-      </c>
-      <c r="T252">
-        <v>1.825</v>
-      </c>
-      <c r="U252">
-        <v>1.975</v>
-      </c>
-      <c r="V252">
-        <v>-1</v>
-      </c>
-      <c r="W252">
-        <v>-1</v>
-      </c>
-      <c r="X252">
-        <v>4</v>
-      </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB252">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:28">
@@ -22220,7 +22220,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6932957</v>
+        <v>6933130</v>
       </c>
       <c r="C253" t="s">
         <v>27</v>
@@ -22229,76 +22229,76 @@
         <v>45297.5</v>
       </c>
       <c r="E253" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F253" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G253">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I253" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J253">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="K253">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L253">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="M253">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="N253">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O253">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="P253">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q253">
+        <v>1.9</v>
+      </c>
+      <c r="R253">
+        <v>1.9</v>
+      </c>
+      <c r="S253">
+        <v>2.75</v>
+      </c>
+      <c r="T253">
+        <v>1.825</v>
+      </c>
+      <c r="U253">
         <v>1.975</v>
       </c>
-      <c r="R253">
-        <v>1.825</v>
-      </c>
-      <c r="S253">
-        <v>3</v>
-      </c>
-      <c r="T253">
-        <v>1.975</v>
-      </c>
-      <c r="U253">
-        <v>1.825</v>
-      </c>
       <c r="V253">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W253">
         <v>-1</v>
       </c>
       <c r="X253">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y253">
+        <v>-1</v>
+      </c>
+      <c r="Z253">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA253">
+        <v>-1</v>
+      </c>
+      <c r="AB253">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="Z253">
-        <v>-1</v>
-      </c>
-      <c r="AA253">
-        <v>-1</v>
-      </c>
-      <c r="AB253">
-        <v>0.825</v>
       </c>
     </row>
     <row r="254" spans="1:28">
@@ -22306,7 +22306,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6933132</v>
+        <v>6932957</v>
       </c>
       <c r="C254" t="s">
         <v>27</v>
@@ -22315,49 +22315,49 @@
         <v>45297.5</v>
       </c>
       <c r="E254" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F254" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H254">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I254" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J254">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K254">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L254">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="M254">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N254">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O254">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="P254">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q254">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R254">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S254">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T254">
         <v>1.975</v>
@@ -22366,25 +22366,25 @@
         <v>1.825</v>
       </c>
       <c r="V254">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W254">
         <v>-1</v>
       </c>
       <c r="X254">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z254">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA254">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="255" spans="1:28">
@@ -22392,7 +22392,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6933135</v>
+        <v>6933132</v>
       </c>
       <c r="C255" t="s">
         <v>27</v>
@@ -22401,76 +22401,76 @@
         <v>45297.5</v>
       </c>
       <c r="E255" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F255" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I255" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J255">
+        <v>2.2</v>
+      </c>
+      <c r="K255">
+        <v>3.2</v>
+      </c>
+      <c r="L255">
         <v>2.9</v>
       </c>
-      <c r="K255">
-        <v>3.4</v>
-      </c>
-      <c r="L255">
-        <v>2.1</v>
-      </c>
       <c r="M255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N255">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O255">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="P255">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q255">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R255">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S255">
         <v>2.75</v>
       </c>
       <c r="T255">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U255">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V255">
         <v>-1</v>
       </c>
       <c r="W255">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X255">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y255">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z255">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA255">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB255">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:28">
@@ -22478,7 +22478,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6933134</v>
+        <v>6933135</v>
       </c>
       <c r="C256" t="s">
         <v>27</v>
@@ -22487,76 +22487,76 @@
         <v>45297.5</v>
       </c>
       <c r="E256" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F256" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G256">
         <v>0</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J256">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="K256">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L256">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="M256">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N256">
         <v>3.5</v>
       </c>
       <c r="O256">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="P256">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q256">
+        <v>1.95</v>
+      </c>
+      <c r="R256">
         <v>1.85</v>
       </c>
-      <c r="R256">
+      <c r="S256">
+        <v>2.75</v>
+      </c>
+      <c r="T256">
         <v>1.95</v>
       </c>
-      <c r="S256">
+      <c r="U256">
+        <v>1.85</v>
+      </c>
+      <c r="V256">
+        <v>-1</v>
+      </c>
+      <c r="W256">
         <v>2.5</v>
       </c>
-      <c r="T256">
-        <v>1.9</v>
-      </c>
-      <c r="U256">
-        <v>1.9</v>
-      </c>
-      <c r="V256">
-        <v>-1</v>
-      </c>
-      <c r="W256">
-        <v>-1</v>
-      </c>
       <c r="X256">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y256">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z256">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA256">
         <v>-1</v>
       </c>
       <c r="AB256">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="257" spans="1:28">
@@ -22736,7 +22736,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7660483</v>
+        <v>7656277</v>
       </c>
       <c r="C259" t="s">
         <v>27</v>
@@ -22745,10 +22745,10 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E259" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F259" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -22760,40 +22760,40 @@
         <v>53</v>
       </c>
       <c r="J259">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="K259">
+        <v>3.6</v>
+      </c>
+      <c r="L259">
+        <v>2.1</v>
+      </c>
+      <c r="M259">
+        <v>3.1</v>
+      </c>
+      <c r="N259">
         <v>3.75</v>
       </c>
-      <c r="L259">
-        <v>2.5</v>
-      </c>
-      <c r="M259">
-        <v>2.6</v>
-      </c>
-      <c r="N259">
-        <v>3.8</v>
-      </c>
       <c r="O259">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="P259">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q259">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R259">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S259">
         <v>3</v>
       </c>
       <c r="T259">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U259">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V259">
         <v>-1</v>
@@ -22802,13 +22802,13 @@
         <v>-1</v>
       </c>
       <c r="X259">
-        <v>1.15</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y259">
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA259">
         <v>0</v>
@@ -22822,7 +22822,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7656277</v>
+        <v>7660483</v>
       </c>
       <c r="C260" t="s">
         <v>27</v>
@@ -22831,10 +22831,10 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E260" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F260" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -22846,40 +22846,40 @@
         <v>53</v>
       </c>
       <c r="J260">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="K260">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L260">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="M260">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N260">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O260">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="P260">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q260">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R260">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S260">
         <v>3</v>
       </c>
       <c r="T260">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U260">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V260">
         <v>-1</v>
@@ -22888,13 +22888,13 @@
         <v>-1</v>
       </c>
       <c r="X260">
-        <v>0.8500000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA260">
         <v>0</v>
@@ -23338,7 +23338,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6933144</v>
+        <v>7672840</v>
       </c>
       <c r="C266" t="s">
         <v>27</v>
@@ -23347,76 +23347,76 @@
         <v>45304.5</v>
       </c>
       <c r="E266" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F266" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G266">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I266" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J266">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="K266">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L266">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="M266">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="N266">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O266">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="P266">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q266">
+        <v>1.9</v>
+      </c>
+      <c r="R266">
+        <v>1.9</v>
+      </c>
+      <c r="S266">
+        <v>3</v>
+      </c>
+      <c r="T266">
+        <v>1.75</v>
+      </c>
+      <c r="U266">
         <v>1.95</v>
       </c>
-      <c r="R266">
-        <v>1.85</v>
-      </c>
-      <c r="S266">
-        <v>2.5</v>
-      </c>
-      <c r="T266">
-        <v>1.9</v>
-      </c>
-      <c r="U266">
-        <v>1.9</v>
-      </c>
       <c r="V266">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W266">
         <v>-1</v>
       </c>
       <c r="X266">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y266">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z266">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA266">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB266">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:28">
@@ -23424,7 +23424,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>7672840</v>
+        <v>6933142</v>
       </c>
       <c r="C267" t="s">
         <v>27</v>
@@ -23433,73 +23433,73 @@
         <v>45304.5</v>
       </c>
       <c r="E267" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F267" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G267">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H267">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J267">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="K267">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L267">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="M267">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="N267">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O267">
-        <v>1.666</v>
+        <v>4.333</v>
       </c>
       <c r="P267">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q267">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R267">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S267">
         <v>3</v>
       </c>
       <c r="T267">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U267">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V267">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W267">
         <v>-1</v>
       </c>
       <c r="X267">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y267">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z267">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB267">
         <v>-1</v>
@@ -23510,7 +23510,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6933142</v>
+        <v>6933144</v>
       </c>
       <c r="C268" t="s">
         <v>27</v>
@@ -23519,13 +23519,13 @@
         <v>45304.5</v>
       </c>
       <c r="E268" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F268" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G268">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -23534,43 +23534,43 @@
         <v>52</v>
       </c>
       <c r="J268">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="K268">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L268">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M268">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="N268">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O268">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P268">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q268">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R268">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S268">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T268">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U268">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V268">
-        <v>0.5329999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W268">
         <v>-1</v>
@@ -23579,16 +23579,16 @@
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="Z268">
         <v>-1</v>
       </c>
       <c r="AA268">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB268">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="269" spans="1:28">
@@ -24370,7 +24370,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6933155</v>
+        <v>6932884</v>
       </c>
       <c r="C278" t="s">
         <v>27</v>
@@ -24379,76 +24379,76 @@
         <v>45318.5</v>
       </c>
       <c r="E278" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F278" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G278">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="s">
         <v>54</v>
       </c>
       <c r="J278">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="K278">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L278">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="M278">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N278">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O278">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="P278">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q278">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R278">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S278">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T278">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U278">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V278">
         <v>-1</v>
       </c>
       <c r="W278">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA278">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB278">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="279" spans="1:28">
@@ -24456,7 +24456,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6933728</v>
+        <v>6932962</v>
       </c>
       <c r="C279" t="s">
         <v>27</v>
@@ -24465,76 +24465,76 @@
         <v>45318.5</v>
       </c>
       <c r="E279" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F279" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G279">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J279">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="K279">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L279">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="M279">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N279">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O279">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="P279">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q279">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R279">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S279">
         <v>2.75</v>
       </c>
       <c r="T279">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U279">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V279">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W279">
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y279">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA279">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB279">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="280" spans="1:28">
@@ -24542,7 +24542,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6932884</v>
+        <v>6933727</v>
       </c>
       <c r="C280" t="s">
         <v>27</v>
@@ -24551,76 +24551,76 @@
         <v>45318.5</v>
       </c>
       <c r="E280" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F280" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G280">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I280" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J280">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="K280">
         <v>3.4</v>
       </c>
       <c r="L280">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="M280">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N280">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O280">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="P280">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q280">
+        <v>1.9</v>
+      </c>
+      <c r="R280">
+        <v>1.9</v>
+      </c>
+      <c r="S280">
+        <v>2.75</v>
+      </c>
+      <c r="T280">
         <v>1.95</v>
       </c>
-      <c r="R280">
+      <c r="U280">
         <v>1.85</v>
       </c>
-      <c r="S280">
-        <v>3</v>
-      </c>
-      <c r="T280">
-        <v>2</v>
-      </c>
-      <c r="U280">
-        <v>1.8</v>
-      </c>
       <c r="V280">
         <v>-1</v>
       </c>
       <c r="W280">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X280">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y280">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z280">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA280">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB280">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281" spans="1:28">
@@ -24628,7 +24628,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6932962</v>
+        <v>6933158</v>
       </c>
       <c r="C281" t="s">
         <v>27</v>
@@ -24637,55 +24637,55 @@
         <v>45318.5</v>
       </c>
       <c r="E281" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F281" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I281" t="s">
         <v>53</v>
       </c>
       <c r="J281">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="K281">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L281">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="M281">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="N281">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O281">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P281">
         <v>0.25</v>
       </c>
       <c r="Q281">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R281">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S281">
         <v>2.75</v>
       </c>
       <c r="T281">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U281">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V281">
         <v>-1</v>
@@ -24694,19 +24694,19 @@
         <v>-1</v>
       </c>
       <c r="X281">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA281">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB281">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:28">
@@ -24714,7 +24714,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6933727</v>
+        <v>6933154</v>
       </c>
       <c r="C282" t="s">
         <v>27</v>
@@ -24723,55 +24723,55 @@
         <v>45318.5</v>
       </c>
       <c r="E282" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F282" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H282">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I282" t="s">
         <v>53</v>
       </c>
       <c r="J282">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="K282">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L282">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="M282">
         <v>3.5</v>
       </c>
       <c r="N282">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O282">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="P282">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q282">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R282">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S282">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T282">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U282">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V282">
         <v>-1</v>
@@ -24780,16 +24780,16 @@
         <v>-1</v>
       </c>
       <c r="X282">
-        <v>0.833</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y282">
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA282">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB282">
         <v>-1</v>
@@ -24800,7 +24800,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6933158</v>
+        <v>6933156</v>
       </c>
       <c r="C283" t="s">
         <v>27</v>
@@ -24809,55 +24809,55 @@
         <v>45318.5</v>
       </c>
       <c r="E283" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F283" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G283">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I283" t="s">
         <v>53</v>
       </c>
       <c r="J283">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="K283">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L283">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="M283">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="N283">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O283">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P283">
         <v>0.25</v>
       </c>
       <c r="Q283">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R283">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S283">
         <v>2.75</v>
       </c>
       <c r="T283">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U283">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V283">
         <v>-1</v>
@@ -24866,19 +24866,19 @@
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="Y283">
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA283">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB283">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="284" spans="1:28">
@@ -24886,7 +24886,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6933154</v>
+        <v>6933155</v>
       </c>
       <c r="C284" t="s">
         <v>27</v>
@@ -24895,73 +24895,73 @@
         <v>45318.5</v>
       </c>
       <c r="E284" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F284" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H284">
+        <v>2</v>
+      </c>
+      <c r="I284" t="s">
+        <v>54</v>
+      </c>
+      <c r="J284">
         <v>5</v>
       </c>
-      <c r="I284" t="s">
-        <v>53</v>
-      </c>
-      <c r="J284">
-        <v>5.5</v>
-      </c>
       <c r="K284">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L284">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="M284">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="N284">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O284">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="P284">
         <v>0.75</v>
       </c>
       <c r="Q284">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="R284">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S284">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T284">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U284">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V284">
         <v>-1</v>
       </c>
       <c r="W284">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X284">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y284">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z284">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA284">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB284">
         <v>-1</v>
@@ -24972,7 +24972,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6933156</v>
+        <v>6933153</v>
       </c>
       <c r="C285" t="s">
         <v>27</v>
@@ -24981,49 +24981,49 @@
         <v>45318.5</v>
       </c>
       <c r="E285" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F285" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G285">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I285" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J285">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="K285">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L285">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="M285">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="N285">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O285">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="P285">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q285">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R285">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S285">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T285">
         <v>1.9</v>
@@ -25032,25 +25032,25 @@
         <v>1.9</v>
       </c>
       <c r="V285">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W285">
         <v>-1</v>
       </c>
       <c r="X285">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y285">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z285">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA285">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB285">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:28">
@@ -25058,7 +25058,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6933153</v>
+        <v>6933157</v>
       </c>
       <c r="C286" t="s">
         <v>27</v>
@@ -25067,58 +25067,58 @@
         <v>45318.5</v>
       </c>
       <c r="E286" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F286" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G286">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H286">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I286" t="s">
         <v>52</v>
       </c>
       <c r="J286">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="K286">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L286">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="M286">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="N286">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O286">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="P286">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q286">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R286">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S286">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T286">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U286">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V286">
-        <v>0.363</v>
+        <v>1.4</v>
       </c>
       <c r="W286">
         <v>-1</v>
@@ -25127,16 +25127,16 @@
         <v>-1</v>
       </c>
       <c r="Y286">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z286">
+        <v>-1</v>
+      </c>
+      <c r="AA286">
+        <v>0.425</v>
+      </c>
+      <c r="AB286">
         <v>-0.5</v>
-      </c>
-      <c r="Z286">
-        <v>0.5</v>
-      </c>
-      <c r="AA286">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB286">
-        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:28">
@@ -25144,7 +25144,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6933157</v>
+        <v>6933728</v>
       </c>
       <c r="C287" t="s">
         <v>27</v>
@@ -25153,55 +25153,55 @@
         <v>45318.5</v>
       </c>
       <c r="E287" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F287" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G287">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="s">
         <v>52</v>
       </c>
       <c r="J287">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="K287">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L287">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="M287">
         <v>2.4</v>
       </c>
       <c r="N287">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O287">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P287">
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R287">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S287">
         <v>2.75</v>
       </c>
       <c r="T287">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U287">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V287">
         <v>1.4</v>
@@ -25213,13 +25213,13 @@
         <v>-1</v>
       </c>
       <c r="Y287">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z287">
         <v>-1</v>
       </c>
       <c r="AA287">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
       <c r="AB287">
         <v>-0.5</v>
@@ -25660,7 +25660,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6933160</v>
+        <v>6933729</v>
       </c>
       <c r="C293" t="s">
         <v>27</v>
@@ -25669,10 +25669,10 @@
         <v>45325.5</v>
       </c>
       <c r="E293" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F293" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G293">
         <v>2</v>
@@ -25684,43 +25684,43 @@
         <v>52</v>
       </c>
       <c r="J293">
-        <v>1.952</v>
+        <v>1.727</v>
       </c>
       <c r="K293">
         <v>3.75</v>
       </c>
       <c r="L293">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M293">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="N293">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O293">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P293">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q293">
+        <v>1.9</v>
+      </c>
+      <c r="R293">
+        <v>1.9</v>
+      </c>
+      <c r="S293">
+        <v>3.25</v>
+      </c>
+      <c r="T293">
         <v>1.85</v>
       </c>
-      <c r="R293">
+      <c r="U293">
         <v>1.95</v>
       </c>
-      <c r="S293">
-        <v>2.75</v>
-      </c>
-      <c r="T293">
-        <v>1.875</v>
-      </c>
-      <c r="U293">
-        <v>1.925</v>
-      </c>
       <c r="V293">
-        <v>0.8</v>
+        <v>0.55</v>
       </c>
       <c r="W293">
         <v>-1</v>
@@ -25729,7 +25729,7 @@
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z293">
         <v>-1</v>
@@ -25738,7 +25738,7 @@
         <v>-1</v>
       </c>
       <c r="AB293">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="294" spans="1:28">
@@ -25746,7 +25746,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6933729</v>
+        <v>6933160</v>
       </c>
       <c r="C294" t="s">
         <v>27</v>
@@ -25755,10 +25755,10 @@
         <v>45325.5</v>
       </c>
       <c r="E294" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F294" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G294">
         <v>2</v>
@@ -25770,43 +25770,43 @@
         <v>52</v>
       </c>
       <c r="J294">
-        <v>1.727</v>
+        <v>1.952</v>
       </c>
       <c r="K294">
         <v>3.75</v>
       </c>
       <c r="L294">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M294">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="N294">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O294">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P294">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q294">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R294">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S294">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T294">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U294">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V294">
-        <v>0.55</v>
+        <v>0.8</v>
       </c>
       <c r="W294">
         <v>-1</v>
@@ -25815,7 +25815,7 @@
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z294">
         <v>-1</v>
@@ -25824,7 +25824,7 @@
         <v>-1</v>
       </c>
       <c r="AB294">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="295" spans="1:28">
@@ -29186,7 +29186,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7911240</v>
+        <v>7841946</v>
       </c>
       <c r="C334" t="s">
         <v>27</v>
@@ -29195,13 +29195,13 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E334" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F334" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G334">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H334">
         <v>0</v>
@@ -29210,34 +29210,34 @@
         <v>52</v>
       </c>
       <c r="J334">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K334">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L334">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="M334">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N334">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O334">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P334">
         <v>-0.25</v>
       </c>
       <c r="Q334">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R334">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S334">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T334">
         <v>1.8</v>
@@ -29246,7 +29246,7 @@
         <v>2</v>
       </c>
       <c r="V334">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="W334">
         <v>-1</v>
@@ -29255,16 +29255,16 @@
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="Z334">
         <v>-1</v>
       </c>
       <c r="AA334">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB334">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:28">
@@ -29272,7 +29272,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7888730</v>
+        <v>7911240</v>
       </c>
       <c r="C335" t="s">
         <v>27</v>
@@ -29281,76 +29281,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E335" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F335" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G335">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J335">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="K335">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L335">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="M335">
+        <v>2.2</v>
+      </c>
+      <c r="N335">
         <v>3.2</v>
       </c>
-      <c r="N335">
-        <v>3.4</v>
-      </c>
       <c r="O335">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="P335">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q335">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R335">
+        <v>1.875</v>
+      </c>
+      <c r="S335">
+        <v>2.25</v>
+      </c>
+      <c r="T335">
         <v>1.8</v>
       </c>
-      <c r="S335">
-        <v>2.75</v>
-      </c>
-      <c r="T335">
-        <v>1.975</v>
-      </c>
       <c r="U335">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V335">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W335">
         <v>-1</v>
       </c>
       <c r="X335">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y335">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z335">
+        <v>-1</v>
+      </c>
+      <c r="AA335">
         <v>0.8</v>
       </c>
-      <c r="AA335">
-        <v>0.4875</v>
-      </c>
       <c r="AB335">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:28">
@@ -29358,7 +29358,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7841946</v>
+        <v>7888730</v>
       </c>
       <c r="C336" t="s">
         <v>27</v>
@@ -29367,76 +29367,76 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E336" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F336" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G336">
         <v>1</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J336">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="K336">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L336">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="M336">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N336">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O336">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P336">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q336">
+        <v>2</v>
+      </c>
+      <c r="R336">
         <v>1.8</v>
       </c>
-      <c r="R336">
-        <v>2</v>
-      </c>
       <c r="S336">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T336">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U336">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V336">
+        <v>-1</v>
+      </c>
+      <c r="W336">
+        <v>-1</v>
+      </c>
+      <c r="X336">
         <v>1</v>
       </c>
-      <c r="W336">
-        <v>-1</v>
-      </c>
-      <c r="X336">
-        <v>-1</v>
-      </c>
       <c r="Y336">
+        <v>-1</v>
+      </c>
+      <c r="Z336">
         <v>0.8</v>
       </c>
-      <c r="Z336">
-        <v>-1</v>
-      </c>
       <c r="AA336">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB336">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="337" spans="1:28">
@@ -33400,7 +33400,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>6941586</v>
+        <v>6941587</v>
       </c>
       <c r="C383" t="s">
         <v>27</v>
@@ -33409,73 +33409,73 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E383" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F383" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G383">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H383">
+        <v>2</v>
+      </c>
+      <c r="I383" t="s">
+        <v>52</v>
+      </c>
+      <c r="J383">
+        <v>2</v>
+      </c>
+      <c r="K383">
+        <v>3.7</v>
+      </c>
+      <c r="L383">
+        <v>3.1</v>
+      </c>
+      <c r="M383">
+        <v>2.05</v>
+      </c>
+      <c r="N383">
+        <v>3.75</v>
+      </c>
+      <c r="O383">
         <v>3</v>
       </c>
-      <c r="I383" t="s">
-        <v>53</v>
-      </c>
-      <c r="J383">
-        <v>2.625</v>
-      </c>
-      <c r="K383">
-        <v>3.6</v>
-      </c>
-      <c r="L383">
-        <v>2.3</v>
-      </c>
-      <c r="M383">
-        <v>2.875</v>
-      </c>
-      <c r="N383">
-        <v>3.6</v>
-      </c>
-      <c r="O383">
-        <v>2.1</v>
-      </c>
       <c r="P383">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q383">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R383">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S383">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T383">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U383">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V383">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W383">
         <v>-1</v>
       </c>
       <c r="X383">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y383">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z383">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA383">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB383">
         <v>-1</v>
@@ -33744,7 +33744,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>6941587</v>
+        <v>6941586</v>
       </c>
       <c r="C387" t="s">
         <v>27</v>
@@ -33753,73 +33753,73 @@
         <v>45383.45833333334</v>
       </c>
       <c r="E387" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F387" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G387">
+        <v>1</v>
+      </c>
+      <c r="H387">
         <v>3</v>
       </c>
-      <c r="H387">
-        <v>2</v>
-      </c>
       <c r="I387" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J387">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="K387">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L387">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="M387">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="N387">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O387">
+        <v>2.1</v>
+      </c>
+      <c r="P387">
+        <v>0.25</v>
+      </c>
+      <c r="Q387">
+        <v>1.9</v>
+      </c>
+      <c r="R387">
+        <v>1.9</v>
+      </c>
+      <c r="S387">
         <v>3</v>
       </c>
-      <c r="P387">
-        <v>-0.25</v>
-      </c>
-      <c r="Q387">
-        <v>1.825</v>
-      </c>
-      <c r="R387">
-        <v>1.975</v>
-      </c>
-      <c r="S387">
-        <v>2.75</v>
-      </c>
       <c r="T387">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U387">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V387">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W387">
         <v>-1</v>
       </c>
       <c r="X387">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y387">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z387">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA387">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB387">
         <v>-1</v>
@@ -34948,7 +34948,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>6943697</v>
+        <v>6943703</v>
       </c>
       <c r="C401" t="s">
         <v>27</v>
@@ -34957,76 +34957,76 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E401" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F401" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G401">
         <v>1</v>
       </c>
       <c r="H401">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I401" t="s">
         <v>53</v>
       </c>
       <c r="J401">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="K401">
+        <v>3.9</v>
+      </c>
+      <c r="L401">
+        <v>3</v>
+      </c>
+      <c r="M401">
+        <v>1.6</v>
+      </c>
+      <c r="N401">
+        <v>4.2</v>
+      </c>
+      <c r="O401">
         <v>4</v>
       </c>
-      <c r="L401">
-        <v>1.5</v>
-      </c>
-      <c r="M401">
-        <v>4.5</v>
-      </c>
-      <c r="N401">
-        <v>3.6</v>
-      </c>
-      <c r="O401">
-        <v>1.615</v>
-      </c>
       <c r="P401">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q401">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R401">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S401">
+        <v>2.75</v>
+      </c>
+      <c r="T401">
+        <v>1.9</v>
+      </c>
+      <c r="U401">
+        <v>1.9</v>
+      </c>
+      <c r="V401">
+        <v>-1</v>
+      </c>
+      <c r="W401">
+        <v>-1</v>
+      </c>
+      <c r="X401">
         <v>3</v>
       </c>
-      <c r="T401">
-        <v>2.025</v>
-      </c>
-      <c r="U401">
-        <v>1.775</v>
-      </c>
-      <c r="V401">
-        <v>-1</v>
-      </c>
-      <c r="W401">
-        <v>-1</v>
-      </c>
-      <c r="X401">
-        <v>0.615</v>
-      </c>
       <c r="Y401">
         <v>-1</v>
       </c>
       <c r="Z401">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA401">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AB401">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="402" spans="1:28">
@@ -35034,7 +35034,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>6943703</v>
+        <v>6943702</v>
       </c>
       <c r="C402" t="s">
         <v>27</v>
@@ -35043,49 +35043,49 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E402" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F402" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G402">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J402">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="K402">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L402">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M402">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="N402">
         <v>4.2</v>
       </c>
       <c r="O402">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="P402">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q402">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R402">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S402">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T402">
         <v>1.9</v>
@@ -35094,25 +35094,25 @@
         <v>1.9</v>
       </c>
       <c r="V402">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="W402">
         <v>-1</v>
       </c>
       <c r="X402">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y402">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z402">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA402">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB402">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="403" spans="1:28">
@@ -35378,7 +35378,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>6943702</v>
+        <v>6943696</v>
       </c>
       <c r="C406" t="s">
         <v>27</v>
@@ -35387,13 +35387,13 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E406" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F406" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G406">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H406">
         <v>0</v>
@@ -35402,43 +35402,43 @@
         <v>52</v>
       </c>
       <c r="J406">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K406">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L406">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="M406">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N406">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O406">
         <v>1.75</v>
       </c>
       <c r="P406">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q406">
+        <v>2</v>
+      </c>
+      <c r="R406">
         <v>1.8</v>
       </c>
-      <c r="R406">
-        <v>2</v>
-      </c>
       <c r="S406">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T406">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U406">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V406">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="W406">
         <v>-1</v>
@@ -35447,16 +35447,16 @@
         <v>-1</v>
       </c>
       <c r="Y406">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Z406">
         <v>-1</v>
       </c>
       <c r="AA406">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB406">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="407" spans="1:28">
@@ -35464,7 +35464,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6943696</v>
+        <v>6943695</v>
       </c>
       <c r="C407" t="s">
         <v>27</v>
@@ -35473,76 +35473,76 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E407" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F407" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G407">
         <v>1</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J407">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="K407">
         <v>3.4</v>
       </c>
       <c r="L407">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="M407">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="N407">
+        <v>3.25</v>
+      </c>
+      <c r="O407">
         <v>3.6</v>
       </c>
-      <c r="O407">
-        <v>1.75</v>
-      </c>
       <c r="P407">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q407">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R407">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S407">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T407">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U407">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V407">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="W407">
         <v>-1</v>
       </c>
       <c r="X407">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y407">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z407">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA407">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB407">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:28">
@@ -35550,7 +35550,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>6943695</v>
+        <v>6943697</v>
       </c>
       <c r="C408" t="s">
         <v>27</v>
@@ -35559,55 +35559,55 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E408" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F408" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G408">
         <v>1</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I408" t="s">
         <v>53</v>
       </c>
       <c r="J408">
+        <v>5</v>
+      </c>
+      <c r="K408">
+        <v>4</v>
+      </c>
+      <c r="L408">
+        <v>1.5</v>
+      </c>
+      <c r="M408">
+        <v>4.5</v>
+      </c>
+      <c r="N408">
+        <v>3.6</v>
+      </c>
+      <c r="O408">
+        <v>1.615</v>
+      </c>
+      <c r="P408">
+        <v>1</v>
+      </c>
+      <c r="Q408">
         <v>1.8</v>
       </c>
-      <c r="K408">
-        <v>3.4</v>
-      </c>
-      <c r="L408">
-        <v>3.8</v>
-      </c>
-      <c r="M408">
-        <v>1.909</v>
-      </c>
-      <c r="N408">
-        <v>3.25</v>
-      </c>
-      <c r="O408">
-        <v>3.6</v>
-      </c>
-      <c r="P408">
-        <v>-0.5</v>
-      </c>
-      <c r="Q408">
-        <v>1.9</v>
-      </c>
       <c r="R408">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S408">
         <v>3</v>
       </c>
       <c r="T408">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U408">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V408">
         <v>-1</v>
@@ -35616,19 +35616,19 @@
         <v>-1</v>
       </c>
       <c r="X408">
-        <v>2.6</v>
+        <v>0.615</v>
       </c>
       <c r="Y408">
         <v>-1</v>
       </c>
       <c r="Z408">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA408">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AB408">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="409" spans="1:28">
@@ -35636,7 +35636,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>7901703</v>
+        <v>8044183</v>
       </c>
       <c r="C409" t="s">
         <v>27</v>
@@ -35645,76 +35645,76 @@
         <v>45398.65625</v>
       </c>
       <c r="E409" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F409" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G409">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H409">
         <v>1</v>
       </c>
       <c r="I409" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J409">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="K409">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="L409">
-        <v>1.285</v>
+        <v>2.75</v>
       </c>
       <c r="M409">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="N409">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O409">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="P409">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q409">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R409">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S409">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T409">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U409">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V409">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W409">
         <v>-1</v>
       </c>
       <c r="X409">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y409">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Z409">
         <v>-1</v>
       </c>
       <c r="AA409">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB409">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="410" spans="1:28">
@@ -35722,7 +35722,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>7947338</v>
+        <v>7901703</v>
       </c>
       <c r="C410" t="s">
         <v>27</v>
@@ -35731,55 +35731,55 @@
         <v>45398.65625</v>
       </c>
       <c r="E410" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F410" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G410">
+        <v>0</v>
+      </c>
+      <c r="H410">
         <v>1</v>
-      </c>
-      <c r="H410">
-        <v>4</v>
       </c>
       <c r="I410" t="s">
         <v>53</v>
       </c>
       <c r="J410">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="K410">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="L410">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="M410">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="N410">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O410">
-        <v>2.05</v>
+        <v>1.285</v>
       </c>
       <c r="P410">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q410">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R410">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S410">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T410">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U410">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V410">
         <v>-1</v>
@@ -35788,19 +35788,19 @@
         <v>-1</v>
       </c>
       <c r="X410">
-        <v>1.05</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y410">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z410">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA410">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB410">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="411" spans="1:28">
@@ -35808,7 +35808,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7983901</v>
+        <v>7947338</v>
       </c>
       <c r="C411" t="s">
         <v>27</v>
@@ -35817,13 +35817,13 @@
         <v>45398.65625</v>
       </c>
       <c r="E411" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F411" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H411">
         <v>4</v>
@@ -35832,34 +35832,34 @@
         <v>53</v>
       </c>
       <c r="J411">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K411">
         <v>4</v>
       </c>
       <c r="L411">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M411">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="N411">
         <v>4</v>
       </c>
       <c r="O411">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="P411">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q411">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R411">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S411">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T411">
         <v>1.85</v>
@@ -35874,13 +35874,13 @@
         <v>-1</v>
       </c>
       <c r="X411">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="Y411">
         <v>-1</v>
       </c>
       <c r="Z411">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA411">
         <v>0.8500000000000001</v>
@@ -35894,7 +35894,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>8044183</v>
+        <v>7983901</v>
       </c>
       <c r="C412" t="s">
         <v>27</v>
@@ -35903,73 +35903,73 @@
         <v>45398.65625</v>
       </c>
       <c r="E412" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F412" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G412">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I412" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J412">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="K412">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L412">
+        <v>2.1</v>
+      </c>
+      <c r="M412">
+        <v>2.45</v>
+      </c>
+      <c r="N412">
+        <v>4</v>
+      </c>
+      <c r="O412">
+        <v>2.2</v>
+      </c>
+      <c r="P412">
+        <v>0</v>
+      </c>
+      <c r="Q412">
+        <v>2</v>
+      </c>
+      <c r="R412">
+        <v>1.8</v>
+      </c>
+      <c r="S412">
         <v>2.75</v>
       </c>
-      <c r="M412">
-        <v>1.7</v>
-      </c>
-      <c r="N412">
-        <v>4.75</v>
-      </c>
-      <c r="O412">
-        <v>3.1</v>
-      </c>
-      <c r="P412">
-        <v>-0.75</v>
-      </c>
-      <c r="Q412">
+      <c r="T412">
+        <v>1.85</v>
+      </c>
+      <c r="U412">
         <v>1.95</v>
       </c>
-      <c r="R412">
-        <v>1.85</v>
-      </c>
-      <c r="S412">
-        <v>3.25</v>
-      </c>
-      <c r="T412">
-        <v>2</v>
-      </c>
-      <c r="U412">
-        <v>1.8</v>
-      </c>
       <c r="V412">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W412">
         <v>-1</v>
       </c>
       <c r="X412">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y412">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z412">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA412">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB412">
         <v>-1</v>
@@ -36410,7 +36410,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>6944247</v>
+        <v>6944251</v>
       </c>
       <c r="C418" t="s">
         <v>27</v>
@@ -36419,76 +36419,76 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E418" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F418" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G418">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J418">
+        <v>3.6</v>
+      </c>
+      <c r="K418">
+        <v>4.5</v>
+      </c>
+      <c r="L418">
         <v>1.615</v>
       </c>
-      <c r="K418">
+      <c r="M418">
+        <v>2.625</v>
+      </c>
+      <c r="N418">
         <v>4</v>
       </c>
-      <c r="L418">
-        <v>4</v>
-      </c>
-      <c r="M418">
-        <v>1.7</v>
-      </c>
-      <c r="N418">
-        <v>3.8</v>
-      </c>
       <c r="O418">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="P418">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q418">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R418">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S418">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T418">
+        <v>1.75</v>
+      </c>
+      <c r="U418">
         <v>1.95</v>
       </c>
-      <c r="U418">
-        <v>1.85</v>
-      </c>
       <c r="V418">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W418">
         <v>-1</v>
       </c>
       <c r="X418">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y418">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="Z418">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA418">
+        <v>-1</v>
+      </c>
+      <c r="AB418">
         <v>0.95</v>
-      </c>
-      <c r="AB418">
-        <v>-1</v>
       </c>
     </row>
     <row r="419" spans="1:28">
@@ -36496,7 +36496,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>6944251</v>
+        <v>6944247</v>
       </c>
       <c r="C419" t="s">
         <v>27</v>
@@ -36505,76 +36505,76 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E419" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F419" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G419">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I419" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J419">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="K419">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L419">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="M419">
-        <v>2.625</v>
+        <v>1.7</v>
       </c>
       <c r="N419">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O419">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="P419">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q419">
+        <v>1.925</v>
+      </c>
+      <c r="R419">
+        <v>1.875</v>
+      </c>
+      <c r="S419">
+        <v>3.5</v>
+      </c>
+      <c r="T419">
+        <v>1.95</v>
+      </c>
+      <c r="U419">
         <v>1.85</v>
       </c>
-      <c r="R419">
-        <v>1.95</v>
-      </c>
-      <c r="S419">
-        <v>2.5</v>
-      </c>
-      <c r="T419">
-        <v>1.75</v>
-      </c>
-      <c r="U419">
-        <v>1.95</v>
-      </c>
       <c r="V419">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W419">
         <v>-1</v>
       </c>
       <c r="X419">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y419">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="Z419">
+        <v>-0.5</v>
+      </c>
+      <c r="AA419">
         <v>0.95</v>
       </c>
-      <c r="AA419">
-        <v>-1</v>
-      </c>
       <c r="AB419">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="420" spans="1:28">
@@ -37098,7 +37098,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>6945087</v>
+        <v>6945095</v>
       </c>
       <c r="C426" t="s">
         <v>27</v>
@@ -37107,58 +37107,58 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E426" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F426" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G426">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I426" t="s">
         <v>52</v>
       </c>
       <c r="J426">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="K426">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="L426">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="M426">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="N426">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O426">
+        <v>2.5</v>
+      </c>
+      <c r="P426">
+        <v>0</v>
+      </c>
+      <c r="Q426">
+        <v>1.825</v>
+      </c>
+      <c r="R426">
+        <v>1.975</v>
+      </c>
+      <c r="S426">
         <v>3</v>
       </c>
-      <c r="P426">
-        <v>-0.5</v>
-      </c>
-      <c r="Q426">
-        <v>1.975</v>
-      </c>
-      <c r="R426">
-        <v>1.825</v>
-      </c>
-      <c r="S426">
-        <v>3.25</v>
-      </c>
       <c r="T426">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U426">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V426">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="W426">
         <v>-1</v>
@@ -37167,13 +37167,13 @@
         <v>-1</v>
       </c>
       <c r="Y426">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="Z426">
         <v>-1</v>
       </c>
       <c r="AA426">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB426">
         <v>-1</v>
@@ -37184,7 +37184,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>6945088</v>
+        <v>6945094</v>
       </c>
       <c r="C427" t="s">
         <v>27</v>
@@ -37193,13 +37193,13 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E427" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F427" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G427">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H427">
         <v>0</v>
@@ -37208,43 +37208,43 @@
         <v>52</v>
       </c>
       <c r="J427">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="K427">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="L427">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="M427">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="N427">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O427">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="P427">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q427">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R427">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S427">
         <v>3.25</v>
       </c>
       <c r="T427">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U427">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V427">
-        <v>0.75</v>
+        <v>1.3</v>
       </c>
       <c r="W427">
         <v>-1</v>
@@ -37253,16 +37253,16 @@
         <v>-1</v>
       </c>
       <c r="Y427">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z427">
         <v>-1</v>
       </c>
       <c r="AA427">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB427">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428" spans="1:28">
@@ -37270,7 +37270,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>6945089</v>
+        <v>6945093</v>
       </c>
       <c r="C428" t="s">
         <v>27</v>
@@ -37279,76 +37279,76 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E428" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F428" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G428">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J428">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K428">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="L428">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="M428">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N428">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="O428">
-        <v>2.7</v>
+        <v>1.25</v>
       </c>
       <c r="P428">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="Q428">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="R428">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S428">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T428">
         <v>1.775</v>
       </c>
       <c r="U428">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V428">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W428">
         <v>-1</v>
       </c>
       <c r="X428">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y428">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="Z428">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA428">
         <v>-1</v>
       </c>
       <c r="AB428">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="429" spans="1:28">
@@ -37356,7 +37356,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>6945090</v>
+        <v>6945092</v>
       </c>
       <c r="C429" t="s">
         <v>27</v>
@@ -37365,43 +37365,43 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E429" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F429" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G429">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I429" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J429">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K429">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="L429">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="M429">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N429">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O429">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="P429">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q429">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R429">
         <v>1.95</v>
@@ -37416,25 +37416,25 @@
         <v>1.9</v>
       </c>
       <c r="V429">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W429">
         <v>-1</v>
       </c>
       <c r="X429">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y429">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z429">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA429">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB429">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="430" spans="1:28">
@@ -37442,7 +37442,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>6945092</v>
+        <v>6945090</v>
       </c>
       <c r="C430" t="s">
         <v>27</v>
@@ -37451,43 +37451,43 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E430" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F430" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G430">
+        <v>2</v>
+      </c>
+      <c r="H430">
         <v>1</v>
       </c>
-      <c r="H430">
-        <v>3</v>
-      </c>
       <c r="I430" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J430">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K430">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="L430">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="M430">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N430">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O430">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="P430">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q430">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R430">
         <v>1.95</v>
@@ -37502,25 +37502,25 @@
         <v>1.9</v>
       </c>
       <c r="V430">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W430">
         <v>-1</v>
       </c>
       <c r="X430">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y430">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z430">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA430">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB430">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:28">
@@ -37528,7 +37528,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>6945093</v>
+        <v>6945096</v>
       </c>
       <c r="C431" t="s">
         <v>27</v>
@@ -37537,43 +37537,43 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E431" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F431" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G431">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H431">
         <v>2</v>
       </c>
       <c r="I431" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J431">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="K431">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="L431">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="M431">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="N431">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="O431">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="P431">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Q431">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R431">
         <v>1.95</v>
@@ -37588,25 +37588,25 @@
         <v>1.925</v>
       </c>
       <c r="V431">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W431">
         <v>-1</v>
       </c>
       <c r="X431">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y431">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z431">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA431">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB431">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432" spans="1:28">
@@ -37614,7 +37614,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>6945094</v>
+        <v>6945089</v>
       </c>
       <c r="C432" t="s">
         <v>27</v>
@@ -37623,13 +37623,13 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E432" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F432" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G432">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H432">
         <v>0</v>
@@ -37638,25 +37638,25 @@
         <v>52</v>
       </c>
       <c r="J432">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="K432">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L432">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="M432">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N432">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O432">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="P432">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q432">
         <v>1.825</v>
@@ -37665,16 +37665,16 @@
         <v>1.975</v>
       </c>
       <c r="S432">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T432">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U432">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V432">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="W432">
         <v>-1</v>
@@ -37689,10 +37689,10 @@
         <v>-1</v>
       </c>
       <c r="AA432">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB432">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="433" spans="1:28">
@@ -37700,7 +37700,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>6945095</v>
+        <v>6945087</v>
       </c>
       <c r="C433" t="s">
         <v>27</v>
@@ -37709,58 +37709,58 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E433" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F433" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G433">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H433">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I433" t="s">
         <v>52</v>
       </c>
       <c r="J433">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="K433">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="L433">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="M433">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="N433">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O433">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P433">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q433">
+        <v>1.975</v>
+      </c>
+      <c r="R433">
         <v>1.825</v>
       </c>
-      <c r="R433">
-        <v>1.975</v>
-      </c>
       <c r="S433">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T433">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U433">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V433">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="W433">
         <v>-1</v>
@@ -37769,13 +37769,13 @@
         <v>-1</v>
       </c>
       <c r="Y433">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z433">
         <v>-1</v>
       </c>
       <c r="AA433">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB433">
         <v>-1</v>
@@ -37786,7 +37786,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>6945096</v>
+        <v>6945088</v>
       </c>
       <c r="C434" t="s">
         <v>27</v>
@@ -37795,58 +37795,58 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E434" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F434" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G434">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="s">
         <v>52</v>
       </c>
       <c r="J434">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="K434">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="L434">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="M434">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="N434">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="O434">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="P434">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q434">
+        <v>1.95</v>
+      </c>
+      <c r="R434">
         <v>1.85</v>
-      </c>
-      <c r="R434">
-        <v>1.95</v>
       </c>
       <c r="S434">
         <v>3.25</v>
       </c>
       <c r="T434">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U434">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V434">
-        <v>1.9</v>
+        <v>0.75</v>
       </c>
       <c r="W434">
         <v>-1</v>
@@ -37855,16 +37855,16 @@
         <v>-1</v>
       </c>
       <c r="Y434">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z434">
         <v>-1</v>
       </c>
       <c r="AA434">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB434">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="435" spans="1:28">

--- a/England Northern Premier League/England Northern Premier League.xlsx
+++ b/England Northern Premier League/England Northern Premier League.xlsx
@@ -3254,7 +3254,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6932894</v>
+        <v>6932895</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -3263,64 +3263,64 @@
         <v>45160.65625</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="s">
         <v>55</v>
       </c>
       <c r="L31">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="M31">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N31">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="O31">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="P31">
         <v>3.5</v>
       </c>
       <c r="Q31">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V31">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X31">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="Y31">
         <v>-1</v>
@@ -3329,16 +3329,16 @@
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD31">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3346,7 +3346,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6932895</v>
+        <v>6932894</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -3355,64 +3355,64 @@
         <v>45160.65625</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="s">
         <v>55</v>
       </c>
       <c r="L32">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="M32">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N32">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="P32">
         <v>3.5</v>
       </c>
       <c r="Q32">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="R32">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U32">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X32">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="Y32">
         <v>-1</v>
@@ -3421,16 +3421,16 @@
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB32">
         <v>-1</v>
       </c>
       <c r="AC32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3438,7 +3438,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6932989</v>
+        <v>6932837</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3447,61 +3447,61 @@
         <v>45160.65625</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K33" t="s">
         <v>56</v>
       </c>
       <c r="L33">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="M33">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N33">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O33">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q33">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U33">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V33">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3510,16 +3510,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC33">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AD33">
         <v>-1</v>
@@ -3530,7 +3530,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6932837</v>
+        <v>6932989</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -3539,61 +3539,61 @@
         <v>45160.65625</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K34" t="s">
         <v>56</v>
       </c>
       <c r="L34">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="M34">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N34">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O34">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="P34">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q34">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="R34">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U34">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3602,16 +3602,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC34">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AD34">
         <v>-1</v>
@@ -4984,7 +4984,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6932901</v>
+        <v>6932900</v>
       </c>
       <c r="C50" t="s">
         <v>29</v>
@@ -4993,64 +4993,58 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>3</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K50" t="s">
         <v>55</v>
       </c>
       <c r="L50">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="M50">
         <v>3.6</v>
       </c>
       <c r="N50">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O50">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="P50">
+        <v>3.75</v>
+      </c>
+      <c r="Q50">
         <v>3.8</v>
       </c>
-      <c r="Q50">
-        <v>4.5</v>
-      </c>
       <c r="R50">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S50">
         <v>1.95</v>
       </c>
       <c r="T50">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U50">
         <v>3</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X50">
-        <v>0.6000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="Y50">
         <v>-1</v>
@@ -5065,7 +5059,7 @@
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AD50">
         <v>-1</v>
@@ -5076,7 +5070,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6932900</v>
+        <v>6933002</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -5085,76 +5079,82 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>2</v>
       </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
       <c r="K51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L51">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="M51">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N51">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="O51">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="P51">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q51">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="R51">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U51">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W51">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X51">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AD51">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:30">
@@ -5162,7 +5162,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6933002</v>
+        <v>6933001</v>
       </c>
       <c r="C52" t="s">
         <v>29</v>
@@ -5171,82 +5171,82 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L52">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M52">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N52">
+        <v>2.3</v>
+      </c>
+      <c r="O52">
+        <v>2.6</v>
+      </c>
+      <c r="P52">
+        <v>3.6</v>
+      </c>
+      <c r="Q52">
         <v>2.2</v>
-      </c>
-      <c r="O52">
-        <v>2.8</v>
-      </c>
-      <c r="P52">
-        <v>3.4</v>
-      </c>
-      <c r="Q52">
-        <v>2.15</v>
       </c>
       <c r="R52">
         <v>0.25</v>
       </c>
       <c r="S52">
+        <v>1.775</v>
+      </c>
+      <c r="T52">
+        <v>2.025</v>
+      </c>
+      <c r="U52">
+        <v>2.75</v>
+      </c>
+      <c r="V52">
+        <v>1.975</v>
+      </c>
+      <c r="W52">
         <v>1.825</v>
       </c>
-      <c r="T52">
-        <v>1.975</v>
-      </c>
-      <c r="U52">
-        <v>2.25</v>
-      </c>
-      <c r="V52">
-        <v>1.8</v>
-      </c>
-      <c r="W52">
-        <v>2</v>
-      </c>
       <c r="X52">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
+        <v>0.4875</v>
+      </c>
+      <c r="AD52">
         <v>-0.5</v>
-      </c>
-      <c r="AD52">
-        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:30">
@@ -5254,7 +5254,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6933001</v>
+        <v>6932901</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
@@ -5263,64 +5263,64 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="s">
         <v>55</v>
       </c>
       <c r="L53">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="M53">
         <v>3.6</v>
       </c>
       <c r="N53">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="O53">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="P53">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q53">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="R53">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S53">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="U53">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V53">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W53">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X53">
-        <v>1.6</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y53">
         <v>-1</v>
@@ -5329,16 +5329,16 @@
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AD53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -8052,7 +8052,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6932849</v>
+        <v>6933030</v>
       </c>
       <c r="C84" t="s">
         <v>29</v>
@@ -8061,46 +8061,46 @@
         <v>45195.65625</v>
       </c>
       <c r="E84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" t="s">
         <v>55</v>
       </c>
       <c r="L84">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="M84">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N84">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O84">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="P84">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q84">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="R84">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S84">
         <v>1.95</v>
@@ -8109,16 +8109,16 @@
         <v>1.85</v>
       </c>
       <c r="U84">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V84">
+        <v>1.85</v>
+      </c>
+      <c r="W84">
+        <v>1.95</v>
+      </c>
+      <c r="X84">
         <v>1.8</v>
-      </c>
-      <c r="W84">
-        <v>2</v>
-      </c>
-      <c r="X84">
-        <v>0.55</v>
       </c>
       <c r="Y84">
         <v>-1</v>
@@ -8133,10 +8133,10 @@
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD84">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:30">
@@ -8144,7 +8144,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6933030</v>
+        <v>6933027</v>
       </c>
       <c r="C85" t="s">
         <v>29</v>
@@ -8153,16 +8153,16 @@
         <v>45195.65625</v>
       </c>
       <c r="E85" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <v>2</v>
@@ -8174,43 +8174,43 @@
         <v>55</v>
       </c>
       <c r="L85">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="M85">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O85">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="P85">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q85">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="R85">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S85">
+        <v>1.85</v>
+      </c>
+      <c r="T85">
         <v>1.95</v>
       </c>
-      <c r="T85">
-        <v>1.85</v>
-      </c>
       <c r="U85">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W85">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X85">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
@@ -8219,13 +8219,13 @@
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AD85">
         <v>-1</v>
@@ -8236,7 +8236,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6933027</v>
+        <v>6932913</v>
       </c>
       <c r="C86" t="s">
         <v>29</v>
@@ -8245,64 +8245,58 @@
         <v>45195.65625</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86">
-        <v>2</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K86" t="s">
         <v>55</v>
       </c>
       <c r="L86">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="M86">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N86">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="O86">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="P86">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q86">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="R86">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S86">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T86">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U86">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V86">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X86">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y86">
         <v>-1</v>
@@ -8311,13 +8305,13 @@
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AD86">
         <v>-1</v>
@@ -8328,7 +8322,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6932913</v>
+        <v>6933028</v>
       </c>
       <c r="C87" t="s">
         <v>29</v>
@@ -8337,73 +8331,79 @@
         <v>45195.65625</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H87">
         <v>2</v>
       </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
       <c r="K87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L87">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="M87">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N87">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="O87">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="P87">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q87">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="R87">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="S87">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U87">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V87">
+        <v>1.875</v>
+      </c>
+      <c r="W87">
         <v>1.925</v>
       </c>
-      <c r="W87">
-        <v>1.875</v>
-      </c>
       <c r="X87">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="AA87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC87">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AD87">
         <v>-1</v>
@@ -8414,7 +8414,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6933028</v>
+        <v>6932912</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
@@ -8423,82 +8423,82 @@
         <v>45195.65625</v>
       </c>
       <c r="E88" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L88">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="M88">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N88">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O88">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="P88">
         <v>3.8</v>
       </c>
       <c r="Q88">
-        <v>1.833</v>
+        <v>3.3</v>
       </c>
       <c r="R88">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T88">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W88">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB88">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:30">
@@ -8506,7 +8506,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6932912</v>
+        <v>6932849</v>
       </c>
       <c r="C89" t="s">
         <v>29</v>
@@ -8515,19 +8515,19 @@
         <v>45195.65625</v>
       </c>
       <c r="E89" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -8536,43 +8536,43 @@
         <v>55</v>
       </c>
       <c r="L89">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M89">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N89">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O89">
+        <v>1.55</v>
+      </c>
+      <c r="P89">
+        <v>4.333</v>
+      </c>
+      <c r="Q89">
+        <v>4.2</v>
+      </c>
+      <c r="R89">
+        <v>-1</v>
+      </c>
+      <c r="S89">
+        <v>1.95</v>
+      </c>
+      <c r="T89">
+        <v>1.85</v>
+      </c>
+      <c r="U89">
+        <v>3</v>
+      </c>
+      <c r="V89">
         <v>1.8</v>
       </c>
-      <c r="P89">
-        <v>3.8</v>
-      </c>
-      <c r="Q89">
-        <v>3.3</v>
-      </c>
-      <c r="R89">
-        <v>-0.5</v>
-      </c>
-      <c r="S89">
-        <v>1.85</v>
-      </c>
-      <c r="T89">
-        <v>1.95</v>
-      </c>
-      <c r="U89">
-        <v>2.75</v>
-      </c>
-      <c r="V89">
-        <v>1.75</v>
-      </c>
       <c r="W89">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X89">
-        <v>0.8</v>
+        <v>0.55</v>
       </c>
       <c r="Y89">
         <v>-1</v>
@@ -8581,7 +8581,7 @@
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB89">
         <v>-1</v>
@@ -8590,7 +8590,7 @@
         <v>-1</v>
       </c>
       <c r="AD89">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:30">
@@ -15084,7 +15084,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6933081</v>
+        <v>6933083</v>
       </c>
       <c r="C162" t="s">
         <v>29</v>
@@ -15093,58 +15093,58 @@
         <v>45248.5</v>
       </c>
       <c r="E162" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G162">
         <v>2</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K162" t="s">
         <v>55</v>
       </c>
       <c r="L162">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="M162">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N162">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="O162">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="P162">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q162">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="R162">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S162">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T162">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U162">
         <v>2.75</v>
       </c>
       <c r="V162">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W162">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X162">
-        <v>0.6499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Y162">
         <v>-1</v>
@@ -15153,16 +15153,16 @@
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB162">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AD162">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:30">
@@ -15170,7 +15170,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6933083</v>
+        <v>6933081</v>
       </c>
       <c r="C163" t="s">
         <v>29</v>
@@ -15179,58 +15179,58 @@
         <v>45248.5</v>
       </c>
       <c r="E163" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G163">
         <v>2</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K163" t="s">
         <v>55</v>
       </c>
       <c r="L163">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="M163">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N163">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="O163">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="P163">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q163">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="R163">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S163">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T163">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U163">
         <v>2.75</v>
       </c>
       <c r="V163">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W163">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X163">
-        <v>0.95</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y163">
         <v>-1</v>
@@ -15239,16 +15239,16 @@
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AD163">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="164" spans="1:30">
@@ -16170,7 +16170,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6932865</v>
+        <v>6932938</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -16179,76 +16179,76 @@
         <v>45255.5</v>
       </c>
       <c r="E174" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K174" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L174">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="M174">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N174">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="O174">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="P174">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q174">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="R174">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S174">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T174">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U174">
         <v>3</v>
       </c>
       <c r="V174">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W174">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y174">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB174">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD174">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:30">
@@ -16256,7 +16256,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6932866</v>
+        <v>6932865</v>
       </c>
       <c r="C175" t="s">
         <v>29</v>
@@ -16265,76 +16265,76 @@
         <v>45255.5</v>
       </c>
       <c r="E175" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175">
         <v>1</v>
       </c>
       <c r="K175" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L175">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="M175">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N175">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="O175">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="P175">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q175">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="R175">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S175">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T175">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U175">
         <v>3</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W175">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z175">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC175">
         <v>-1</v>
       </c>
       <c r="AD175">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="176" spans="1:30">
@@ -16342,7 +16342,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6932936</v>
+        <v>6932866</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -16351,49 +16351,43 @@
         <v>45255.5</v>
       </c>
       <c r="E176" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F176" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>3</v>
-      </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="J176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K176" t="s">
         <v>56</v>
       </c>
       <c r="L176">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="M176">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N176">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O176">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="P176">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q176">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="R176">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S176">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T176">
         <v>1.95</v>
@@ -16414,7 +16408,7 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="AA176">
         <v>-1</v>
@@ -16423,10 +16417,10 @@
         <v>0.95</v>
       </c>
       <c r="AC176">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD176">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -16434,7 +16428,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6932937</v>
+        <v>6932936</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
@@ -16443,46 +16437,46 @@
         <v>45255.5</v>
       </c>
       <c r="E177" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F177" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G177">
+        <v>2</v>
+      </c>
+      <c r="H177">
         <v>3</v>
       </c>
-      <c r="H177">
-        <v>1</v>
-      </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K177" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L177">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="M177">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N177">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="O177">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="P177">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q177">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="R177">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S177">
         <v>1.75</v>
@@ -16491,31 +16485,31 @@
         <v>1.95</v>
       </c>
       <c r="U177">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V177">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W177">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X177">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA177">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC177">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AD177">
         <v>-1</v>
@@ -16526,7 +16520,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6932938</v>
+        <v>6932937</v>
       </c>
       <c r="C178" t="s">
         <v>29</v>
@@ -16535,58 +16529,64 @@
         <v>45255.5</v>
       </c>
       <c r="E178" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G178">
         <v>3</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
       </c>
       <c r="K178" t="s">
         <v>55</v>
       </c>
       <c r="L178">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="M178">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N178">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="O178">
+        <v>1.75</v>
+      </c>
+      <c r="P178">
+        <v>4.2</v>
+      </c>
+      <c r="Q178">
+        <v>3.3</v>
+      </c>
+      <c r="R178">
+        <v>-0.5</v>
+      </c>
+      <c r="S178">
+        <v>1.75</v>
+      </c>
+      <c r="T178">
+        <v>1.95</v>
+      </c>
+      <c r="U178">
         <v>2.75</v>
       </c>
-      <c r="P178">
-        <v>3.6</v>
-      </c>
-      <c r="Q178">
-        <v>2.1</v>
-      </c>
-      <c r="R178">
-        <v>0.25</v>
-      </c>
-      <c r="S178">
-        <v>1.875</v>
-      </c>
-      <c r="T178">
-        <v>1.925</v>
-      </c>
-      <c r="U178">
-        <v>3</v>
-      </c>
       <c r="V178">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W178">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X178">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="Y178">
         <v>-1</v>
@@ -16595,13 +16595,13 @@
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AB178">
         <v>-1</v>
       </c>
       <c r="AC178">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AD178">
         <v>-1</v>
@@ -17054,7 +17054,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7496516</v>
+        <v>7496515</v>
       </c>
       <c r="C184" t="s">
         <v>29</v>
@@ -17063,82 +17063,82 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E184" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F184" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I184">
         <v>1</v>
       </c>
       <c r="J184">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K184" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L184">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M184">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N184">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O184">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="P184">
         <v>3.6</v>
       </c>
       <c r="Q184">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="R184">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S184">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T184">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U184">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V184">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W184">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X184">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="AA184">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:30">
@@ -17146,7 +17146,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7496515</v>
+        <v>7496514</v>
       </c>
       <c r="C185" t="s">
         <v>29</v>
@@ -17155,82 +17155,82 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E185" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F185" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G185">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I185">
         <v>1</v>
       </c>
       <c r="J185">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K185" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L185">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="M185">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N185">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O185">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="P185">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q185">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="R185">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S185">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T185">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U185">
         <v>3</v>
       </c>
       <c r="V185">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W185">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z185">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB185">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD185">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="186" spans="1:30">
@@ -17238,7 +17238,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7496514</v>
+        <v>7496520</v>
       </c>
       <c r="C186" t="s">
         <v>29</v>
@@ -17247,82 +17247,82 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E186" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F186" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K186" t="s">
         <v>54</v>
       </c>
       <c r="L186">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="M186">
+        <v>3.8</v>
+      </c>
+      <c r="N186">
+        <v>4</v>
+      </c>
+      <c r="O186">
+        <v>1.8</v>
+      </c>
+      <c r="P186">
         <v>3.75</v>
       </c>
-      <c r="N186">
-        <v>1.95</v>
-      </c>
-      <c r="O186">
-        <v>3.25</v>
-      </c>
-      <c r="P186">
-        <v>3.8</v>
-      </c>
       <c r="Q186">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="R186">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S186">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T186">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U186">
         <v>3</v>
       </c>
       <c r="V186">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W186">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:30">
@@ -17330,7 +17330,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7496520</v>
+        <v>7496519</v>
       </c>
       <c r="C187" t="s">
         <v>29</v>
@@ -17339,79 +17339,79 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E187" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H187">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K187" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L187">
-        <v>1.727</v>
+        <v>2.35</v>
       </c>
       <c r="M187">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N187">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="O187">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="P187">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q187">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="R187">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S187">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T187">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U187">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V187">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W187">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y187">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB187">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AD187">
         <v>-1</v>
@@ -17422,7 +17422,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7496519</v>
+        <v>7496518</v>
       </c>
       <c r="C188" t="s">
         <v>29</v>
@@ -17431,79 +17431,79 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E188" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G188">
         <v>2</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K188" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L188">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="M188">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N188">
-        <v>2.625</v>
+        <v>3.9</v>
       </c>
       <c r="O188">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="P188">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q188">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="R188">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S188">
+        <v>1.975</v>
+      </c>
+      <c r="T188">
         <v>1.825</v>
       </c>
-      <c r="T188">
-        <v>1.975</v>
-      </c>
       <c r="U188">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V188">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W188">
         <v>1.95</v>
       </c>
       <c r="X188">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
+        <v>-1</v>
+      </c>
+      <c r="AB188">
         <v>0.825</v>
       </c>
-      <c r="AB188">
-        <v>-1</v>
-      </c>
       <c r="AC188">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD188">
         <v>-1</v>
@@ -17514,7 +17514,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7496518</v>
+        <v>7496516</v>
       </c>
       <c r="C189" t="s">
         <v>29</v>
@@ -17523,40 +17523,40 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E189" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F189" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G189">
         <v>2</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K189" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L189">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="M189">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N189">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="O189">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="P189">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -17574,31 +17574,31 @@
         <v>2.75</v>
       </c>
       <c r="V189">
+        <v>1.95</v>
+      </c>
+      <c r="W189">
         <v>1.85</v>
       </c>
-      <c r="W189">
-        <v>1.95</v>
-      </c>
       <c r="X189">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y189">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB189">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
+        <v>-1</v>
+      </c>
+      <c r="AD189">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AD189">
-        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:30">
@@ -18508,7 +18508,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7496559</v>
+        <v>7496517</v>
       </c>
       <c r="C200" t="s">
         <v>29</v>
@@ -18517,82 +18517,76 @@
         <v>45272.69791666666</v>
       </c>
       <c r="E200" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F200" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="K200" t="s">
+        <v>55</v>
+      </c>
+      <c r="L200">
+        <v>2.2</v>
+      </c>
+      <c r="M200">
+        <v>3.5</v>
+      </c>
+      <c r="N200">
+        <v>2.7</v>
+      </c>
+      <c r="O200">
+        <v>2.6</v>
+      </c>
+      <c r="P200">
+        <v>3.6</v>
+      </c>
+      <c r="Q200">
+        <v>2.25</v>
+      </c>
+      <c r="R200">
+        <v>0.25</v>
+      </c>
+      <c r="S200">
+        <v>1.775</v>
+      </c>
+      <c r="T200">
+        <v>2.025</v>
+      </c>
+      <c r="U200">
         <v>3</v>
       </c>
-      <c r="H200">
-        <v>3</v>
-      </c>
-      <c r="I200">
-        <v>1</v>
-      </c>
-      <c r="J200">
-        <v>2</v>
-      </c>
-      <c r="K200" t="s">
-        <v>54</v>
-      </c>
-      <c r="L200">
-        <v>2.6</v>
-      </c>
-      <c r="M200">
-        <v>4</v>
-      </c>
-      <c r="N200">
-        <v>2.1</v>
-      </c>
-      <c r="O200">
-        <v>2.9</v>
-      </c>
-      <c r="P200">
-        <v>4.2</v>
-      </c>
-      <c r="Q200">
-        <v>1.85</v>
-      </c>
-      <c r="R200">
-        <v>0.5</v>
-      </c>
-      <c r="S200">
-        <v>1.875</v>
-      </c>
-      <c r="T200">
-        <v>1.925</v>
-      </c>
-      <c r="U200">
-        <v>3.5</v>
-      </c>
       <c r="V200">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W200">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y200">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
         <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB200">
         <v>-1</v>
       </c>
       <c r="AC200">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD200">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:30">
@@ -18600,7 +18594,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7496517</v>
+        <v>7496559</v>
       </c>
       <c r="C201" t="s">
         <v>29</v>
@@ -18609,76 +18603,82 @@
         <v>45272.69791666666</v>
       </c>
       <c r="E201" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F201" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>2</v>
       </c>
       <c r="K201" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L201">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="M201">
+        <v>4</v>
+      </c>
+      <c r="N201">
+        <v>2.1</v>
+      </c>
+      <c r="O201">
+        <v>2.9</v>
+      </c>
+      <c r="P201">
+        <v>4.2</v>
+      </c>
+      <c r="Q201">
+        <v>1.85</v>
+      </c>
+      <c r="R201">
+        <v>0.5</v>
+      </c>
+      <c r="S201">
+        <v>1.875</v>
+      </c>
+      <c r="T201">
+        <v>1.925</v>
+      </c>
+      <c r="U201">
         <v>3.5</v>
       </c>
-      <c r="N201">
-        <v>2.7</v>
-      </c>
-      <c r="O201">
-        <v>2.6</v>
-      </c>
-      <c r="P201">
-        <v>3.6</v>
-      </c>
-      <c r="Q201">
-        <v>2.25</v>
-      </c>
-      <c r="R201">
-        <v>0.25</v>
-      </c>
-      <c r="S201">
-        <v>1.775</v>
-      </c>
-      <c r="T201">
-        <v>2.025</v>
-      </c>
-      <c r="U201">
-        <v>3</v>
-      </c>
       <c r="V201">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W201">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X201">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z201">
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD201">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:30">
@@ -19146,7 +19146,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6933103</v>
+        <v>6932947</v>
       </c>
       <c r="C207" t="s">
         <v>29</v>
@@ -19155,79 +19155,79 @@
         <v>45276.5</v>
       </c>
       <c r="E207" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F207" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207" t="s">
+        <v>55</v>
+      </c>
+      <c r="L207">
+        <v>1.533</v>
+      </c>
+      <c r="M207">
+        <v>4.2</v>
+      </c>
+      <c r="N207">
+        <v>4.5</v>
+      </c>
+      <c r="O207">
+        <v>1.65</v>
+      </c>
+      <c r="P207">
+        <v>3.8</v>
+      </c>
+      <c r="Q207">
+        <v>4.2</v>
+      </c>
+      <c r="R207">
+        <v>-0.75</v>
+      </c>
+      <c r="S207">
+        <v>1.825</v>
+      </c>
+      <c r="T207">
+        <v>1.975</v>
+      </c>
+      <c r="U207">
         <v>3</v>
       </c>
-      <c r="I207">
-        <v>0</v>
-      </c>
-      <c r="J207">
-        <v>2</v>
-      </c>
-      <c r="K207" t="s">
-        <v>56</v>
-      </c>
-      <c r="L207">
-        <v>3.25</v>
-      </c>
-      <c r="M207">
-        <v>4</v>
-      </c>
-      <c r="N207">
-        <v>1.8</v>
-      </c>
-      <c r="O207">
-        <v>4</v>
-      </c>
-      <c r="P207">
-        <v>4.333</v>
-      </c>
-      <c r="Q207">
-        <v>1.6</v>
-      </c>
-      <c r="R207">
-        <v>0.75</v>
-      </c>
-      <c r="S207">
-        <v>2.025</v>
-      </c>
-      <c r="T207">
-        <v>1.775</v>
-      </c>
-      <c r="U207">
-        <v>2.75</v>
-      </c>
       <c r="V207">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W207">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB207">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AD207">
         <v>-1</v>
@@ -19238,7 +19238,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6932947</v>
+        <v>6933103</v>
       </c>
       <c r="C208" t="s">
         <v>29</v>
@@ -19247,79 +19247,79 @@
         <v>45276.5</v>
       </c>
       <c r="E208" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F208" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G208">
+        <v>2</v>
+      </c>
+      <c r="H208">
         <v>3</v>
       </c>
-      <c r="H208">
-        <v>1</v>
-      </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K208" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L208">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="M208">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N208">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="O208">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="P208">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q208">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="R208">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="S208">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T208">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U208">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V208">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W208">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X208">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AA208">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC208">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AD208">
         <v>-1</v>
@@ -19514,7 +19514,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6933104</v>
+        <v>6933108</v>
       </c>
       <c r="C211" t="s">
         <v>29</v>
@@ -19523,76 +19523,76 @@
         <v>45276.5</v>
       </c>
       <c r="E211" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F211" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G211">
         <v>2</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K211" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L211">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="M211">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N211">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O211">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="P211">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q211">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="R211">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S211">
+        <v>1.95</v>
+      </c>
+      <c r="T211">
         <v>1.85</v>
       </c>
-      <c r="T211">
-        <v>1.95</v>
-      </c>
       <c r="U211">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V211">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W211">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X211">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z211">
         <v>-1</v>
       </c>
       <c r="AA211">
+        <v>-1</v>
+      </c>
+      <c r="AB211">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB211">
-        <v>-1</v>
-      </c>
       <c r="AC211">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AD211">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:30">
@@ -19600,7 +19600,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6933108</v>
+        <v>6933107</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -19609,73 +19609,79 @@
         <v>45276.5</v>
       </c>
       <c r="E212" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
       </c>
       <c r="K212" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L212">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="M212">
         <v>3.75</v>
       </c>
       <c r="N212">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O212">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P212">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q212">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R212">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S212">
+        <v>1.8</v>
+      </c>
+      <c r="T212">
+        <v>2</v>
+      </c>
+      <c r="U212">
+        <v>2.5</v>
+      </c>
+      <c r="V212">
+        <v>1.75</v>
+      </c>
+      <c r="W212">
         <v>1.95</v>
       </c>
-      <c r="T212">
-        <v>1.85</v>
-      </c>
-      <c r="U212">
-        <v>2.75</v>
-      </c>
-      <c r="V212">
-        <v>1.825</v>
-      </c>
-      <c r="W212">
-        <v>1.975</v>
-      </c>
       <c r="X212">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y212">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB212">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AD212">
         <v>-1</v>
@@ -19686,7 +19692,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6933107</v>
+        <v>6933106</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
@@ -19695,46 +19701,46 @@
         <v>45276.5</v>
       </c>
       <c r="E213" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F213" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G213">
         <v>3</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K213" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L213">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="M213">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N213">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="O213">
-        <v>1.75</v>
+        <v>1.222</v>
       </c>
       <c r="P213">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q213">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="R213">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="S213">
         <v>1.8</v>
@@ -19743,31 +19749,31 @@
         <v>2</v>
       </c>
       <c r="U213">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V213">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W213">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X213">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA213">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC213">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD213">
         <v>-1</v>
@@ -19778,7 +19784,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6933106</v>
+        <v>6933104</v>
       </c>
       <c r="C214" t="s">
         <v>29</v>
@@ -19787,82 +19793,76 @@
         <v>45276.5</v>
       </c>
       <c r="E214" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F214" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G214">
+        <v>2</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="K214" t="s">
+        <v>55</v>
+      </c>
+      <c r="L214">
+        <v>2.4</v>
+      </c>
+      <c r="M214">
+        <v>3.6</v>
+      </c>
+      <c r="N214">
+        <v>2.4</v>
+      </c>
+      <c r="O214">
+        <v>2.375</v>
+      </c>
+      <c r="P214">
+        <v>3.6</v>
+      </c>
+      <c r="Q214">
+        <v>2.45</v>
+      </c>
+      <c r="R214">
+        <v>0</v>
+      </c>
+      <c r="S214">
+        <v>1.85</v>
+      </c>
+      <c r="T214">
+        <v>1.95</v>
+      </c>
+      <c r="U214">
         <v>3</v>
       </c>
-      <c r="H214">
-        <v>4</v>
-      </c>
-      <c r="I214">
-        <v>3</v>
-      </c>
-      <c r="J214">
-        <v>3</v>
-      </c>
-      <c r="K214" t="s">
-        <v>56</v>
-      </c>
-      <c r="L214">
-        <v>1.333</v>
-      </c>
-      <c r="M214">
-        <v>5</v>
-      </c>
-      <c r="N214">
-        <v>6</v>
-      </c>
-      <c r="O214">
-        <v>1.222</v>
-      </c>
-      <c r="P214">
-        <v>6</v>
-      </c>
-      <c r="Q214">
-        <v>7</v>
-      </c>
-      <c r="R214">
-        <v>-1.75</v>
-      </c>
-      <c r="S214">
-        <v>1.8</v>
-      </c>
-      <c r="T214">
-        <v>2</v>
-      </c>
-      <c r="U214">
-        <v>3.25</v>
-      </c>
       <c r="V214">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W214">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB214">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD214">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:30">
@@ -19870,7 +19870,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7585528</v>
+        <v>7496836</v>
       </c>
       <c r="C215" t="s">
         <v>29</v>
@@ -19879,82 +19879,82 @@
         <v>45279.69791666666</v>
       </c>
       <c r="E215" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F215" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I215">
         <v>0</v>
       </c>
       <c r="J215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K215" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L215">
-        <v>5.2</v>
+        <v>1.333</v>
       </c>
       <c r="M215">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N215">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="O215">
-        <v>5.25</v>
+        <v>1.444</v>
       </c>
       <c r="P215">
         <v>4.5</v>
       </c>
       <c r="Q215">
-        <v>1.444</v>
+        <v>5.25</v>
       </c>
       <c r="R215">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S215">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T215">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U215">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V215">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB215">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AC215">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD215">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="216" spans="1:30">
@@ -19962,7 +19962,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7496836</v>
+        <v>7585528</v>
       </c>
       <c r="C216" t="s">
         <v>29</v>
@@ -19971,82 +19971,82 @@
         <v>45279.69791666666</v>
       </c>
       <c r="E216" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F216" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I216">
         <v>0</v>
       </c>
       <c r="J216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K216" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L216">
-        <v>1.333</v>
+        <v>5.2</v>
       </c>
       <c r="M216">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N216">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="O216">
-        <v>1.444</v>
+        <v>5.25</v>
       </c>
       <c r="P216">
         <v>4.5</v>
       </c>
       <c r="Q216">
-        <v>5.25</v>
+        <v>1.444</v>
       </c>
       <c r="R216">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="S216">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T216">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U216">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V216">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W216">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X216">
+        <v>-1</v>
+      </c>
+      <c r="Y216">
+        <v>-1</v>
+      </c>
+      <c r="Z216">
         <v>0.444</v>
       </c>
-      <c r="Y216">
-        <v>-1</v>
-      </c>
-      <c r="Z216">
-        <v>-1</v>
-      </c>
       <c r="AA216">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD216">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:30">
@@ -21122,7 +21122,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6933123</v>
+        <v>6933122</v>
       </c>
       <c r="C229" t="s">
         <v>29</v>
@@ -21131,58 +21131,64 @@
         <v>45286.5</v>
       </c>
       <c r="E229" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F229" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G229">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>2</v>
+      </c>
+      <c r="J229">
         <v>0</v>
       </c>
       <c r="K229" t="s">
         <v>55</v>
       </c>
       <c r="L229">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="M229">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N229">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="O229">
-        <v>2.55</v>
+        <v>1.333</v>
       </c>
       <c r="P229">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q229">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="R229">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="S229">
+        <v>1.925</v>
+      </c>
+      <c r="T229">
         <v>1.775</v>
       </c>
-      <c r="T229">
-        <v>2.025</v>
-      </c>
       <c r="U229">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V229">
+        <v>1.975</v>
+      </c>
+      <c r="W229">
         <v>1.825</v>
       </c>
-      <c r="W229">
-        <v>1.975</v>
-      </c>
       <c r="X229">
-        <v>1.55</v>
+        <v>0.333</v>
       </c>
       <c r="Y229">
         <v>-1</v>
@@ -21191,16 +21197,16 @@
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
+        <v>-1</v>
+      </c>
+      <c r="AD229">
         <v>0.825</v>
-      </c>
-      <c r="AD229">
-        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:30">
@@ -21208,7 +21214,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6933122</v>
+        <v>6933123</v>
       </c>
       <c r="C230" t="s">
         <v>29</v>
@@ -21217,64 +21223,58 @@
         <v>45286.5</v>
       </c>
       <c r="E230" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F230" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G230">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H230">
-        <v>0</v>
-      </c>
-      <c r="I230">
-        <v>2</v>
-      </c>
-      <c r="J230">
         <v>0</v>
       </c>
       <c r="K230" t="s">
         <v>55</v>
       </c>
       <c r="L230">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="M230">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N230">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="O230">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="P230">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q230">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="R230">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="S230">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T230">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="U230">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V230">
+        <v>1.825</v>
+      </c>
+      <c r="W230">
         <v>1.975</v>
       </c>
-      <c r="W230">
-        <v>1.825</v>
-      </c>
       <c r="X230">
-        <v>0.333</v>
+        <v>1.55</v>
       </c>
       <c r="Y230">
         <v>-1</v>
@@ -21283,16 +21283,16 @@
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB230">
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD230">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:30">
@@ -23344,7 +23344,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6932957</v>
+        <v>6933134</v>
       </c>
       <c r="C254" t="s">
         <v>29</v>
@@ -23353,19 +23353,25 @@
         <v>45297.5</v>
       </c>
       <c r="E254" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F254" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G254">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
       </c>
       <c r="K254" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L254">
         <v>2.25</v>
@@ -23377,52 +23383,52 @@
         <v>2.6</v>
       </c>
       <c r="O254">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="P254">
         <v>3.5</v>
       </c>
       <c r="Q254">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="R254">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S254">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T254">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U254">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V254">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W254">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X254">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA254">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC254">
         <v>-1</v>
       </c>
       <c r="AD254">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="255" spans="1:30">
@@ -23430,7 +23436,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6933134</v>
+        <v>6933135</v>
       </c>
       <c r="C255" t="s">
         <v>29</v>
@@ -23439,82 +23445,82 @@
         <v>45297.5</v>
       </c>
       <c r="E255" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F255" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G255">
         <v>0</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255">
         <v>0</v>
       </c>
       <c r="J255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K255" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L255">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="M255">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N255">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="O255">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="P255">
         <v>3.5</v>
       </c>
       <c r="Q255">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="R255">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S255">
+        <v>1.95</v>
+      </c>
+      <c r="T255">
         <v>1.85</v>
       </c>
-      <c r="T255">
+      <c r="U255">
+        <v>2.75</v>
+      </c>
+      <c r="V255">
         <v>1.95</v>
       </c>
-      <c r="U255">
+      <c r="W255">
+        <v>1.85</v>
+      </c>
+      <c r="X255">
+        <v>-1</v>
+      </c>
+      <c r="Y255">
         <v>2.5</v>
       </c>
-      <c r="V255">
-        <v>1.9</v>
-      </c>
-      <c r="W255">
-        <v>1.9</v>
-      </c>
-      <c r="X255">
-        <v>-1</v>
-      </c>
-      <c r="Y255">
-        <v>-1</v>
-      </c>
       <c r="Z255">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB255">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC255">
         <v>-1</v>
       </c>
       <c r="AD255">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="256" spans="1:30">
@@ -23522,7 +23528,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6933135</v>
+        <v>6933130</v>
       </c>
       <c r="C256" t="s">
         <v>29</v>
@@ -23531,16 +23537,16 @@
         <v>45297.5</v>
       </c>
       <c r="E256" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F256" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G256">
         <v>0</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I256">
         <v>0</v>
@@ -23549,64 +23555,64 @@
         <v>0</v>
       </c>
       <c r="K256" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L256">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="M256">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N256">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="O256">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="P256">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q256">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="R256">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S256">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T256">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U256">
         <v>2.75</v>
       </c>
       <c r="V256">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W256">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AA256">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB256">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC256">
         <v>-1</v>
       </c>
       <c r="AD256">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="257" spans="1:30">
@@ -23614,7 +23620,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6933130</v>
+        <v>6932879</v>
       </c>
       <c r="C257" t="s">
         <v>29</v>
@@ -23623,82 +23629,82 @@
         <v>45297.5</v>
       </c>
       <c r="E257" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F257" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G257">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K257" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L257">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="M257">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N257">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="O257">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="P257">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q257">
         <v>5</v>
       </c>
       <c r="R257">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="S257">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T257">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U257">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V257">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W257">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X257">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AA257">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB257">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD257">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:30">
@@ -23706,7 +23712,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6932879</v>
+        <v>6932957</v>
       </c>
       <c r="C258" t="s">
         <v>29</v>
@@ -23715,46 +23721,40 @@
         <v>45297.5</v>
       </c>
       <c r="E258" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F258" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G258">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H258">
-        <v>1</v>
-      </c>
-      <c r="I258">
-        <v>3</v>
-      </c>
-      <c r="J258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K258" t="s">
         <v>55</v>
       </c>
       <c r="L258">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="M258">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N258">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="O258">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="P258">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q258">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="R258">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S258">
         <v>1.975</v>
@@ -23763,16 +23763,16 @@
         <v>1.825</v>
       </c>
       <c r="U258">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V258">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W258">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X258">
-        <v>0.45</v>
+        <v>1.5</v>
       </c>
       <c r="Y258">
         <v>-1</v>
@@ -23787,10 +23787,10 @@
         <v>-1</v>
       </c>
       <c r="AC258">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD258">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="259" spans="1:30">
@@ -23798,7 +23798,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7660483</v>
+        <v>7656277</v>
       </c>
       <c r="C259" t="s">
         <v>29</v>
@@ -23807,55 +23807,61 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E259" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F259" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G259">
         <v>1</v>
       </c>
       <c r="H259">
         <v>2</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
       </c>
       <c r="K259" t="s">
         <v>56</v>
       </c>
       <c r="L259">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="M259">
+        <v>3.6</v>
+      </c>
+      <c r="N259">
+        <v>2.1</v>
+      </c>
+      <c r="O259">
+        <v>3.1</v>
+      </c>
+      <c r="P259">
         <v>3.75</v>
       </c>
-      <c r="N259">
-        <v>2.5</v>
-      </c>
-      <c r="O259">
-        <v>2.6</v>
-      </c>
-      <c r="P259">
-        <v>3.8</v>
-      </c>
       <c r="Q259">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="R259">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S259">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T259">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U259">
         <v>3</v>
       </c>
       <c r="V259">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W259">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X259">
         <v>-1</v>
@@ -23864,13 +23870,13 @@
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>1.15</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA259">
         <v>-1</v>
       </c>
       <c r="AB259">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC259">
         <v>0</v>
@@ -23884,7 +23890,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7656277</v>
+        <v>7660483</v>
       </c>
       <c r="C260" t="s">
         <v>29</v>
@@ -23893,61 +23899,55 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E260" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F260" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G260">
         <v>1</v>
       </c>
       <c r="H260">
         <v>2</v>
-      </c>
-      <c r="I260">
-        <v>0</v>
-      </c>
-      <c r="J260">
-        <v>0</v>
       </c>
       <c r="K260" t="s">
         <v>56</v>
       </c>
       <c r="L260">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="M260">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N260">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O260">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="P260">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q260">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="R260">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S260">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T260">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U260">
         <v>3</v>
       </c>
       <c r="V260">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W260">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X260">
         <v>-1</v>
@@ -23956,13 +23956,13 @@
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>0.8500000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="AA260">
         <v>-1</v>
       </c>
       <c r="AB260">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC260">
         <v>0</v>
@@ -24878,7 +24878,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6933150</v>
+        <v>6933151</v>
       </c>
       <c r="C271" t="s">
         <v>29</v>
@@ -24887,76 +24887,76 @@
         <v>45311.5</v>
       </c>
       <c r="E271" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F271" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G271">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H271">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K271" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L271">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="M271">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N271">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="O271">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="P271">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q271">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="R271">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="S271">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T271">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U271">
         <v>3</v>
       </c>
       <c r="V271">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W271">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X271">
         <v>-1</v>
       </c>
       <c r="Y271">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z271">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA271">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AC271">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD271">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="272" spans="1:30">
@@ -24964,7 +24964,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6933148</v>
+        <v>6933150</v>
       </c>
       <c r="C272" t="s">
         <v>29</v>
@@ -24973,46 +24973,40 @@
         <v>45311.5</v>
       </c>
       <c r="E272" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F272" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G272">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H272">
         <v>3</v>
       </c>
-      <c r="I272">
-        <v>1</v>
-      </c>
-      <c r="J272">
-        <v>1</v>
-      </c>
       <c r="K272" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L272">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="M272">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N272">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="O272">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="P272">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q272">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="R272">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S272">
         <v>1.85</v>
@@ -25021,31 +25015,31 @@
         <v>1.95</v>
       </c>
       <c r="U272">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V272">
+        <v>1.825</v>
+      </c>
+      <c r="W272">
         <v>1.975</v>
       </c>
-      <c r="W272">
-        <v>1.825</v>
-      </c>
       <c r="X272">
         <v>-1</v>
       </c>
       <c r="Y272">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z272">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="AA272">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB272">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AC272">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AD272">
         <v>-1</v>
@@ -25056,7 +25050,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6933151</v>
+        <v>6933148</v>
       </c>
       <c r="C273" t="s">
         <v>29</v>
@@ -25065,76 +25059,82 @@
         <v>45311.5</v>
       </c>
       <c r="E273" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F273" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G273">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273">
+        <v>1</v>
       </c>
       <c r="K273" t="s">
         <v>56</v>
       </c>
       <c r="L273">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="M273">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N273">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="O273">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="P273">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q273">
+        <v>2.45</v>
+      </c>
+      <c r="R273">
+        <v>0</v>
+      </c>
+      <c r="S273">
+        <v>1.85</v>
+      </c>
+      <c r="T273">
+        <v>1.95</v>
+      </c>
+      <c r="U273">
+        <v>3.25</v>
+      </c>
+      <c r="V273">
+        <v>1.975</v>
+      </c>
+      <c r="W273">
+        <v>1.825</v>
+      </c>
+      <c r="X273">
+        <v>-1</v>
+      </c>
+      <c r="Y273">
+        <v>-1</v>
+      </c>
+      <c r="Z273">
         <v>1.45</v>
       </c>
-      <c r="R273">
-        <v>1.25</v>
-      </c>
-      <c r="S273">
-        <v>1.8</v>
-      </c>
-      <c r="T273">
-        <v>2</v>
-      </c>
-      <c r="U273">
-        <v>3</v>
-      </c>
-      <c r="V273">
-        <v>1.9</v>
-      </c>
-      <c r="W273">
-        <v>1.9</v>
-      </c>
-      <c r="X273">
-        <v>-1</v>
-      </c>
-      <c r="Y273">
-        <v>-1</v>
-      </c>
-      <c r="Z273">
-        <v>0.45</v>
-      </c>
       <c r="AA273">
         <v>-1</v>
       </c>
       <c r="AB273">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC273">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD273">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274" spans="1:30">
@@ -25142,7 +25142,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6933146</v>
+        <v>6933147</v>
       </c>
       <c r="C274" t="s">
         <v>29</v>
@@ -25151,79 +25151,79 @@
         <v>45311.5</v>
       </c>
       <c r="E274" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F274" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G274">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H274">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I274">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J274">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K274" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L274">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="M274">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N274">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="O274">
-        <v>3.3</v>
+        <v>1.363</v>
       </c>
       <c r="P274">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q274">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="R274">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="S274">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T274">
+        <v>1.825</v>
+      </c>
+      <c r="U274">
+        <v>3</v>
+      </c>
+      <c r="V274">
+        <v>1.75</v>
+      </c>
+      <c r="W274">
         <v>1.95</v>
       </c>
-      <c r="U274">
-        <v>2.75</v>
-      </c>
-      <c r="V274">
-        <v>1.95</v>
-      </c>
-      <c r="W274">
-        <v>1.85</v>
-      </c>
       <c r="X274">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y274">
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA274">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB274">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC274">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AD274">
         <v>-1</v>
@@ -25234,7 +25234,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6932960</v>
+        <v>6933146</v>
       </c>
       <c r="C275" t="s">
         <v>29</v>
@@ -25243,79 +25243,79 @@
         <v>45311.5</v>
       </c>
       <c r="E275" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F275" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="H275">
+        <v>7</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
         <v>4</v>
       </c>
-      <c r="H275">
-        <v>1</v>
-      </c>
-      <c r="I275">
-        <v>3</v>
-      </c>
-      <c r="J275">
-        <v>0</v>
-      </c>
       <c r="K275" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L275">
-        <v>1.615</v>
+        <v>3.75</v>
       </c>
       <c r="M275">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N275">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="O275">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="P275">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q275">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="R275">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S275">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T275">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U275">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V275">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W275">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X275">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y275">
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA275">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB275">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC275">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AD275">
         <v>-1</v>
@@ -25326,7 +25326,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6933147</v>
+        <v>6932960</v>
       </c>
       <c r="C276" t="s">
         <v>29</v>
@@ -25335,19 +25335,19 @@
         <v>45311.5</v>
       </c>
       <c r="E276" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F276" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G276">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I276">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J276">
         <v>0</v>
@@ -25356,43 +25356,43 @@
         <v>55</v>
       </c>
       <c r="L276">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="M276">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N276">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="O276">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="P276">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q276">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="R276">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S276">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T276">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U276">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V276">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W276">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X276">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y276">
         <v>-1</v>
@@ -25401,13 +25401,13 @@
         <v>-1</v>
       </c>
       <c r="AA276">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB276">
         <v>-1</v>
       </c>
       <c r="AC276">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AD276">
         <v>-1</v>
@@ -25958,7 +25958,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6933156</v>
+        <v>6933728</v>
       </c>
       <c r="C283" t="s">
         <v>29</v>
@@ -25967,79 +25967,79 @@
         <v>45318.5</v>
       </c>
       <c r="E283" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F283" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G283">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K283" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L283">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="M283">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N283">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="O283">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="P283">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q283">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="R283">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S283">
+        <v>1.85</v>
+      </c>
+      <c r="T283">
         <v>1.95</v>
-      </c>
-      <c r="T283">
-        <v>1.85</v>
       </c>
       <c r="U283">
         <v>2.75</v>
       </c>
       <c r="V283">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W283">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X283">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y283">
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA283">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB283">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC283">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="AD283">
         <v>-0.5</v>
@@ -26050,7 +26050,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6933728</v>
+        <v>6933157</v>
       </c>
       <c r="C284" t="s">
         <v>29</v>
@@ -26059,61 +26059,55 @@
         <v>45318.5</v>
       </c>
       <c r="E284" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F284" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G284">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H284">
-        <v>0</v>
-      </c>
-      <c r="I284">
-        <v>2</v>
-      </c>
-      <c r="J284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K284" t="s">
         <v>55</v>
       </c>
       <c r="L284">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="M284">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N284">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="O284">
         <v>2.4</v>
       </c>
       <c r="P284">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q284">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R284">
         <v>0</v>
       </c>
       <c r="S284">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T284">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U284">
         <v>2.75</v>
       </c>
       <c r="V284">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W284">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X284">
         <v>1.4</v>
@@ -26125,13 +26119,13 @@
         <v>-1</v>
       </c>
       <c r="AA284">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB284">
         <v>-1</v>
       </c>
       <c r="AC284">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="AD284">
         <v>-0.5</v>
@@ -26142,7 +26136,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6933155</v>
+        <v>6933156</v>
       </c>
       <c r="C285" t="s">
         <v>29</v>
@@ -26151,13 +26145,13 @@
         <v>45318.5</v>
       </c>
       <c r="E285" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F285" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H285">
         <v>2</v>
@@ -26169,37 +26163,37 @@
         <v>1</v>
       </c>
       <c r="K285" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L285">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="M285">
         <v>3.75</v>
       </c>
       <c r="N285">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O285">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="P285">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q285">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="R285">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S285">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T285">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U285">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V285">
         <v>1.9</v>
@@ -26211,22 +26205,22 @@
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z285">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA285">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB285">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC285">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AD285">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="286" spans="1:30">
@@ -26234,7 +26228,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6933157</v>
+        <v>6933154</v>
       </c>
       <c r="C286" t="s">
         <v>29</v>
@@ -26243,76 +26237,76 @@
         <v>45318.5</v>
       </c>
       <c r="E286" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F286" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G286">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K286" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L286">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="M286">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N286">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O286">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="P286">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q286">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="R286">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="S286">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T286">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U286">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V286">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W286">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X286">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y286">
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="AA286">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB286">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC286">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AD286">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:30">
@@ -26320,7 +26314,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6933154</v>
+        <v>6933155</v>
       </c>
       <c r="C287" t="s">
         <v>29</v>
@@ -26329,73 +26323,79 @@
         <v>45318.5</v>
       </c>
       <c r="E287" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F287" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H287">
+        <v>2</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>1</v>
+      </c>
+      <c r="K287" t="s">
+        <v>54</v>
+      </c>
+      <c r="L287">
         <v>5</v>
       </c>
-      <c r="K287" t="s">
-        <v>56</v>
-      </c>
-      <c r="L287">
-        <v>5.5</v>
-      </c>
       <c r="M287">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N287">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="O287">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P287">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q287">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="R287">
         <v>0.75</v>
       </c>
       <c r="S287">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T287">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U287">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V287">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W287">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X287">
         <v>-1</v>
       </c>
       <c r="Y287">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z287">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA287">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB287">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC287">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD287">
         <v>-1</v>
@@ -33784,7 +33784,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>6940793</v>
+        <v>6940794</v>
       </c>
       <c r="C371" t="s">
         <v>29</v>
@@ -33793,13 +33793,13 @@
         <v>45381.5</v>
       </c>
       <c r="E371" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F371" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G371">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H371">
         <v>3</v>
@@ -33814,31 +33814,31 @@
         <v>56</v>
       </c>
       <c r="L371">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="M371">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N371">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="O371">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="P371">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q371">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="R371">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S371">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T371">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U371">
         <v>2.75</v>
@@ -33856,13 +33856,13 @@
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="AA371">
         <v>-1</v>
       </c>
       <c r="AB371">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC371">
         <v>0.9750000000000001</v>
@@ -33876,7 +33876,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6940794</v>
+        <v>6940795</v>
       </c>
       <c r="C372" t="s">
         <v>29</v>
@@ -33885,79 +33885,79 @@
         <v>45381.5</v>
       </c>
       <c r="E372" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F372" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G372">
         <v>2</v>
       </c>
       <c r="H372">
+        <v>2</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="J372">
+        <v>1</v>
+      </c>
+      <c r="K372" t="s">
+        <v>54</v>
+      </c>
+      <c r="L372">
+        <v>1.909</v>
+      </c>
+      <c r="M372">
+        <v>3.6</v>
+      </c>
+      <c r="N372">
+        <v>3.2</v>
+      </c>
+      <c r="O372">
+        <v>1.5</v>
+      </c>
+      <c r="P372">
+        <v>4.2</v>
+      </c>
+      <c r="Q372">
+        <v>4.5</v>
+      </c>
+      <c r="R372">
+        <v>-1</v>
+      </c>
+      <c r="S372">
+        <v>1.8</v>
+      </c>
+      <c r="T372">
+        <v>2</v>
+      </c>
+      <c r="U372">
         <v>3</v>
       </c>
-      <c r="I372">
-        <v>1</v>
-      </c>
-      <c r="J372">
-        <v>1</v>
-      </c>
-      <c r="K372" t="s">
-        <v>56</v>
-      </c>
-      <c r="L372">
-        <v>1.615</v>
-      </c>
-      <c r="M372">
-        <v>4.333</v>
-      </c>
-      <c r="N372">
-        <v>3.75</v>
-      </c>
-      <c r="O372">
-        <v>1.85</v>
-      </c>
-      <c r="P372">
-        <v>4.333</v>
-      </c>
-      <c r="Q372">
-        <v>2.9</v>
-      </c>
-      <c r="R372">
-        <v>-0.5</v>
-      </c>
-      <c r="S372">
-        <v>1.9</v>
-      </c>
-      <c r="T372">
-        <v>1.9</v>
-      </c>
-      <c r="U372">
-        <v>2.75</v>
-      </c>
       <c r="V372">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W372">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X372">
         <v>-1</v>
       </c>
       <c r="Y372">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z372">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA372">
         <v>-1</v>
       </c>
       <c r="AB372">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC372">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AD372">
         <v>-1</v>
@@ -33968,7 +33968,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6940795</v>
+        <v>6940796</v>
       </c>
       <c r="C373" t="s">
         <v>29</v>
@@ -33977,40 +33977,40 @@
         <v>45381.5</v>
       </c>
       <c r="E373" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F373" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G373">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J373">
         <v>1</v>
       </c>
       <c r="K373" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L373">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="M373">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N373">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="O373">
         <v>1.5</v>
       </c>
       <c r="P373">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q373">
         <v>4.5</v>
@@ -34019,37 +34019,37 @@
         <v>-1</v>
       </c>
       <c r="S373">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T373">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U373">
         <v>3</v>
       </c>
       <c r="V373">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W373">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X373">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y373">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z373">
         <v>-1</v>
       </c>
       <c r="AA373">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB373">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC373">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AD373">
         <v>-1</v>
@@ -34060,7 +34060,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6940796</v>
+        <v>6940797</v>
       </c>
       <c r="C374" t="s">
         <v>29</v>
@@ -34069,82 +34069,82 @@
         <v>45381.5</v>
       </c>
       <c r="E374" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F374" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G374">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H374">
         <v>1</v>
       </c>
       <c r="I374">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J374">
         <v>1</v>
       </c>
       <c r="K374" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L374">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="M374">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N374">
-        <v>5.5</v>
+        <v>1.615</v>
       </c>
       <c r="O374">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="P374">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q374">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="R374">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="S374">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T374">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U374">
         <v>3</v>
       </c>
       <c r="V374">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W374">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X374">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y374">
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="AA374">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB374">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC374">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD374">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="375" spans="1:30">
@@ -34152,7 +34152,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6940797</v>
+        <v>6940793</v>
       </c>
       <c r="C375" t="s">
         <v>29</v>
@@ -34161,19 +34161,19 @@
         <v>45381.5</v>
       </c>
       <c r="E375" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F375" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J375">
         <v>1</v>
@@ -34182,40 +34182,40 @@
         <v>56</v>
       </c>
       <c r="L375">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="M375">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N375">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="O375">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="P375">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q375">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="R375">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S375">
+        <v>1.875</v>
+      </c>
+      <c r="T375">
         <v>1.925</v>
       </c>
-      <c r="T375">
-        <v>1.875</v>
-      </c>
       <c r="U375">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V375">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W375">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X375">
         <v>-1</v>
@@ -34224,19 +34224,19 @@
         <v>-1</v>
       </c>
       <c r="Z375">
-        <v>0.6659999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AA375">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB375">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC375">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD375">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376" spans="1:30">
@@ -34244,7 +34244,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6940798</v>
+        <v>6940789</v>
       </c>
       <c r="C376" t="s">
         <v>29</v>
@@ -34253,46 +34253,52 @@
         <v>45381.5</v>
       </c>
       <c r="E376" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F376" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G376">
         <v>1</v>
       </c>
       <c r="H376">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I376">
+        <v>1</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
       </c>
       <c r="K376" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L376">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="M376">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N376">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="O376">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P376">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q376">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="R376">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S376">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T376">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U376">
         <v>3</v>
@@ -34304,25 +34310,25 @@
         <v>1.875</v>
       </c>
       <c r="X376">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y376">
         <v>-1</v>
       </c>
       <c r="Z376">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA376">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB376">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC376">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD376">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="377" spans="1:30">
@@ -34330,7 +34336,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6940789</v>
+        <v>6940790</v>
       </c>
       <c r="C377" t="s">
         <v>29</v>
@@ -34339,10 +34345,10 @@
         <v>45381.5</v>
       </c>
       <c r="E377" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F377" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G377">
         <v>1</v>
@@ -34360,43 +34366,43 @@
         <v>55</v>
       </c>
       <c r="L377">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="M377">
         <v>3.5</v>
       </c>
       <c r="N377">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="O377">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="P377">
         <v>3.6</v>
       </c>
       <c r="Q377">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="R377">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S377">
+        <v>2</v>
+      </c>
+      <c r="T377">
+        <v>1.8</v>
+      </c>
+      <c r="U377">
+        <v>2.5</v>
+      </c>
+      <c r="V377">
         <v>1.825</v>
       </c>
-      <c r="T377">
+      <c r="W377">
         <v>1.975</v>
       </c>
-      <c r="U377">
-        <v>3</v>
-      </c>
-      <c r="V377">
-        <v>1.925</v>
-      </c>
-      <c r="W377">
-        <v>1.875</v>
-      </c>
       <c r="X377">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="Y377">
         <v>-1</v>
@@ -34405,7 +34411,7 @@
         <v>-1</v>
       </c>
       <c r="AA377">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB377">
         <v>-1</v>
@@ -34414,7 +34420,7 @@
         <v>-1</v>
       </c>
       <c r="AD377">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="378" spans="1:30">
@@ -34422,7 +34428,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>6940790</v>
+        <v>6940792</v>
       </c>
       <c r="C378" t="s">
         <v>29</v>
@@ -34431,46 +34437,46 @@
         <v>45381.5</v>
       </c>
       <c r="E378" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F378" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G378">
         <v>1</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J378">
         <v>0</v>
       </c>
       <c r="K378" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L378">
+        <v>2.4</v>
+      </c>
+      <c r="M378">
+        <v>3.75</v>
+      </c>
+      <c r="N378">
+        <v>2.3</v>
+      </c>
+      <c r="O378">
+        <v>2.45</v>
+      </c>
+      <c r="P378">
+        <v>3.75</v>
+      </c>
+      <c r="Q378">
         <v>2.25</v>
       </c>
-      <c r="M378">
-        <v>3.5</v>
-      </c>
-      <c r="N378">
-        <v>2.6</v>
-      </c>
-      <c r="O378">
-        <v>2.2</v>
-      </c>
-      <c r="P378">
-        <v>3.6</v>
-      </c>
-      <c r="Q378">
-        <v>2.625</v>
-      </c>
       <c r="R378">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S378">
         <v>2</v>
@@ -34479,34 +34485,34 @@
         <v>1.8</v>
       </c>
       <c r="U378">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V378">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W378">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X378">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y378">
         <v>-1</v>
       </c>
       <c r="Z378">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA378">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB378">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC378">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AD378">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="379" spans="1:30">
@@ -34514,7 +34520,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>6940792</v>
+        <v>6940798</v>
       </c>
       <c r="C379" t="s">
         <v>29</v>
@@ -34523,61 +34529,55 @@
         <v>45381.5</v>
       </c>
       <c r="E379" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F379" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G379">
         <v>1</v>
       </c>
       <c r="H379">
-        <v>2</v>
-      </c>
-      <c r="I379">
-        <v>0</v>
-      </c>
-      <c r="J379">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K379" t="s">
         <v>56</v>
       </c>
       <c r="L379">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="M379">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N379">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O379">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="P379">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q379">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="R379">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S379">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T379">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U379">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V379">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W379">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X379">
         <v>-1</v>
@@ -34586,19 +34586,19 @@
         <v>-1</v>
       </c>
       <c r="Z379">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="AA379">
         <v>-1</v>
       </c>
       <c r="AB379">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC379">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AD379">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380" spans="1:30">
@@ -35968,7 +35968,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>6942514</v>
+        <v>6942512</v>
       </c>
       <c r="C395" t="s">
         <v>29</v>
@@ -35977,10 +35977,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E395" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F395" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G395">
         <v>2</v>
@@ -35989,7 +35989,7 @@
         <v>1</v>
       </c>
       <c r="I395">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J395">
         <v>1</v>
@@ -35998,43 +35998,43 @@
         <v>55</v>
       </c>
       <c r="L395">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="M395">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="N395">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="O395">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="P395">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q395">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="R395">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S395">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T395">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U395">
         <v>2.75</v>
       </c>
       <c r="V395">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W395">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="X395">
-        <v>0.6000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="Y395">
         <v>-1</v>
@@ -36043,13 +36043,13 @@
         <v>-1</v>
       </c>
       <c r="AA395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB395">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC395">
-        <v>0.3875</v>
+        <v>0.4625</v>
       </c>
       <c r="AD395">
         <v>-0.5</v>
@@ -36060,7 +36060,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>6942516</v>
+        <v>6942514</v>
       </c>
       <c r="C396" t="s">
         <v>29</v>
@@ -36069,58 +36069,64 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E396" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F396" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G396">
         <v>2</v>
       </c>
       <c r="H396">
+        <v>1</v>
+      </c>
+      <c r="I396">
+        <v>1</v>
+      </c>
+      <c r="J396">
         <v>1</v>
       </c>
       <c r="K396" t="s">
         <v>55</v>
       </c>
       <c r="L396">
-        <v>2.25</v>
+        <v>1.285</v>
       </c>
       <c r="M396">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N396">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="O396">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="P396">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q396">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="R396">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S396">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T396">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U396">
         <v>2.75</v>
       </c>
       <c r="V396">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W396">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="X396">
-        <v>1.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y396">
         <v>-1</v>
@@ -36129,13 +36135,13 @@
         <v>-1</v>
       </c>
       <c r="AA396">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB396">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC396">
-        <v>0.5</v>
+        <v>0.3875</v>
       </c>
       <c r="AD396">
         <v>-0.5</v>
@@ -36146,7 +36152,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>6942515</v>
+        <v>6942516</v>
       </c>
       <c r="C397" t="s">
         <v>29</v>
@@ -36155,64 +36161,58 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E397" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F397" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G397">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H397">
-        <v>0</v>
-      </c>
-      <c r="I397">
-        <v>0</v>
-      </c>
-      <c r="J397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K397" t="s">
         <v>55</v>
       </c>
       <c r="L397">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="M397">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N397">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O397">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="P397">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q397">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="R397">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S397">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T397">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U397">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V397">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W397">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X397">
-        <v>0.3999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Y397">
         <v>-1</v>
@@ -36221,16 +36221,16 @@
         <v>-1</v>
       </c>
       <c r="AA397">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB397">
         <v>-1</v>
       </c>
       <c r="AC397">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AD397">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="398" spans="1:30">
@@ -36238,7 +36238,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>6942512</v>
+        <v>6942515</v>
       </c>
       <c r="C398" t="s">
         <v>29</v>
@@ -36247,55 +36247,55 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E398" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F398" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G398">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K398" t="s">
         <v>55</v>
       </c>
       <c r="L398">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="M398">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N398">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="O398">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="P398">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q398">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="R398">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S398">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T398">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U398">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V398">
         <v>1.925</v>
@@ -36304,7 +36304,7 @@
         <v>1.875</v>
       </c>
       <c r="X398">
-        <v>1.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y398">
         <v>-1</v>
@@ -36313,16 +36313,16 @@
         <v>-1</v>
       </c>
       <c r="AA398">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB398">
         <v>-1</v>
       </c>
       <c r="AC398">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AD398">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="399" spans="1:30">
@@ -37306,7 +37306,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>7983901</v>
+        <v>7947338</v>
       </c>
       <c r="C410" t="s">
         <v>29</v>
@@ -37315,13 +37315,13 @@
         <v>45398.65625</v>
       </c>
       <c r="E410" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F410" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H410">
         <v>4</v>
@@ -37330,40 +37330,40 @@
         <v>0</v>
       </c>
       <c r="J410">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K410" t="s">
         <v>56</v>
       </c>
       <c r="L410">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M410">
         <v>4</v>
       </c>
       <c r="N410">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O410">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="P410">
         <v>4</v>
       </c>
       <c r="Q410">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="R410">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S410">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T410">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U410">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V410">
         <v>1.85</v>
@@ -37378,13 +37378,13 @@
         <v>-1</v>
       </c>
       <c r="Z410">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="AA410">
         <v>-1</v>
       </c>
       <c r="AB410">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC410">
         <v>0.8500000000000001</v>
@@ -37398,7 +37398,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7947338</v>
+        <v>7983901</v>
       </c>
       <c r="C411" t="s">
         <v>29</v>
@@ -37407,13 +37407,13 @@
         <v>45398.65625</v>
       </c>
       <c r="E411" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F411" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H411">
         <v>4</v>
@@ -37422,40 +37422,40 @@
         <v>0</v>
       </c>
       <c r="J411">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K411" t="s">
         <v>56</v>
       </c>
       <c r="L411">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="M411">
         <v>4</v>
       </c>
       <c r="N411">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O411">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="P411">
         <v>4</v>
       </c>
       <c r="Q411">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="R411">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S411">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T411">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U411">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V411">
         <v>1.85</v>
@@ -37470,13 +37470,13 @@
         <v>-1</v>
       </c>
       <c r="Z411">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="AA411">
         <v>-1</v>
       </c>
       <c r="AB411">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC411">
         <v>0.8500000000000001</v>
@@ -38944,7 +38944,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>6945096</v>
+        <v>6945087</v>
       </c>
       <c r="C428" t="s">
         <v>29</v>
@@ -38953,64 +38953,58 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E428" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F428" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G428">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H428">
-        <v>2</v>
-      </c>
-      <c r="I428">
-        <v>0</v>
-      </c>
-      <c r="J428">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K428" t="s">
         <v>55</v>
       </c>
       <c r="L428">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="M428">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N428">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="O428">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="P428">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q428">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="R428">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S428">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T428">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U428">
         <v>3.25</v>
       </c>
       <c r="V428">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W428">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X428">
-        <v>1.9</v>
+        <v>0.909</v>
       </c>
       <c r="Y428">
         <v>-1</v>
@@ -39019,13 +39013,13 @@
         <v>-1</v>
       </c>
       <c r="AA428">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB428">
         <v>-1</v>
       </c>
       <c r="AC428">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AD428">
         <v>-1</v>
@@ -39036,7 +39030,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>6945087</v>
+        <v>6945096</v>
       </c>
       <c r="C429" t="s">
         <v>29</v>
@@ -39045,58 +39039,64 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E429" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F429" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G429">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I429">
+        <v>0</v>
+      </c>
+      <c r="J429">
+        <v>1</v>
       </c>
       <c r="K429" t="s">
         <v>55</v>
       </c>
       <c r="L429">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="M429">
+        <v>4.5</v>
+      </c>
+      <c r="N429">
+        <v>1.727</v>
+      </c>
+      <c r="O429">
+        <v>2.9</v>
+      </c>
+      <c r="P429">
         <v>4.333</v>
       </c>
-      <c r="N429">
-        <v>4</v>
-      </c>
-      <c r="O429">
+      <c r="Q429">
         <v>1.909</v>
       </c>
-      <c r="P429">
-        <v>4.2</v>
-      </c>
-      <c r="Q429">
-        <v>3</v>
-      </c>
       <c r="R429">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S429">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T429">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U429">
         <v>3.25</v>
       </c>
       <c r="V429">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W429">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X429">
-        <v>0.909</v>
+        <v>1.9</v>
       </c>
       <c r="Y429">
         <v>-1</v>
@@ -39105,13 +39105,13 @@
         <v>-1</v>
       </c>
       <c r="AA429">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB429">
         <v>-1</v>
       </c>
       <c r="AC429">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD429">
         <v>-1</v>
@@ -39122,7 +39122,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>6945088</v>
+        <v>6945089</v>
       </c>
       <c r="C430" t="s">
         <v>29</v>
@@ -39131,64 +39131,58 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E430" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F430" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G430">
         <v>2</v>
       </c>
       <c r="H430">
-        <v>0</v>
-      </c>
-      <c r="I430">
-        <v>0</v>
-      </c>
-      <c r="J430">
         <v>0</v>
       </c>
       <c r="K430" t="s">
         <v>55</v>
       </c>
       <c r="L430">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="M430">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="N430">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O430">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="P430">
         <v>4.75</v>
       </c>
       <c r="Q430">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="R430">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S430">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T430">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U430">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V430">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W430">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="X430">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y430">
         <v>-1</v>
@@ -39197,7 +39191,7 @@
         <v>-1</v>
       </c>
       <c r="AA430">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB430">
         <v>-1</v>
@@ -39206,7 +39200,7 @@
         <v>-1</v>
       </c>
       <c r="AD430">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="431" spans="1:30">
@@ -39214,7 +39208,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>6945089</v>
+        <v>6945093</v>
       </c>
       <c r="C431" t="s">
         <v>29</v>
@@ -39223,76 +39217,82 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E431" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F431" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G431">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I431">
+        <v>0</v>
+      </c>
+      <c r="J431">
+        <v>1</v>
       </c>
       <c r="K431" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L431">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="M431">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N431">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="O431">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P431">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q431">
-        <v>2.7</v>
+        <v>1.25</v>
       </c>
       <c r="R431">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="S431">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T431">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U431">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V431">
         <v>1.775</v>
       </c>
       <c r="W431">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X431">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y431">
         <v>-1</v>
       </c>
       <c r="Z431">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="AA431">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB431">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC431">
         <v>-1</v>
       </c>
       <c r="AD431">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="432" spans="1:30">
@@ -39300,7 +39300,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>6945093</v>
+        <v>6945094</v>
       </c>
       <c r="C432" t="s">
         <v>29</v>
@@ -39309,82 +39309,82 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E432" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F432" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G432">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K432" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L432">
-        <v>17</v>
+        <v>2.25</v>
       </c>
       <c r="M432">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N432">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="O432">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="P432">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q432">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="R432">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S432">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T432">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U432">
         <v>3.25</v>
       </c>
       <c r="V432">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W432">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X432">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y432">
         <v>-1</v>
       </c>
       <c r="Z432">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="AA432">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB432">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC432">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD432">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433" spans="1:30">
@@ -39392,7 +39392,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>6945095</v>
+        <v>6945090</v>
       </c>
       <c r="C433" t="s">
         <v>29</v>
@@ -39401,64 +39401,64 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E433" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F433" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G433">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H433">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I433">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J433">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K433" t="s">
         <v>55</v>
       </c>
       <c r="L433">
+        <v>2.4</v>
+      </c>
+      <c r="M433">
+        <v>4</v>
+      </c>
+      <c r="N433">
+        <v>2.25</v>
+      </c>
+      <c r="O433">
         <v>2.5</v>
       </c>
-      <c r="M433">
+      <c r="P433">
         <v>3.8</v>
       </c>
-      <c r="N433">
+      <c r="Q433">
         <v>2.2</v>
       </c>
-      <c r="O433">
-        <v>2.375</v>
-      </c>
-      <c r="P433">
-        <v>3.6</v>
-      </c>
-      <c r="Q433">
-        <v>2.5</v>
-      </c>
       <c r="R433">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S433">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T433">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U433">
         <v>3</v>
       </c>
       <c r="V433">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W433">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X433">
-        <v>1.375</v>
+        <v>1.5</v>
       </c>
       <c r="Y433">
         <v>-1</v>
@@ -39467,16 +39467,16 @@
         <v>-1</v>
       </c>
       <c r="AA433">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB433">
         <v>-1</v>
       </c>
       <c r="AC433">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AD433">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:30">
@@ -39484,7 +39484,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>6945090</v>
+        <v>6945088</v>
       </c>
       <c r="C434" t="s">
         <v>29</v>
@@ -39493,19 +39493,19 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E434" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F434" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G434">
         <v>2</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J434">
         <v>0</v>
@@ -39514,43 +39514,43 @@
         <v>55</v>
       </c>
       <c r="L434">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="M434">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="N434">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="O434">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="P434">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q434">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="R434">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S434">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T434">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U434">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V434">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W434">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X434">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="Y434">
         <v>-1</v>
@@ -39559,16 +39559,16 @@
         <v>-1</v>
       </c>
       <c r="AA434">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB434">
         <v>-1</v>
       </c>
       <c r="AC434">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD434">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="435" spans="1:30">
@@ -39576,7 +39576,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>6945094</v>
+        <v>6945095</v>
       </c>
       <c r="C435" t="s">
         <v>29</v>
@@ -39585,43 +39585,43 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E435" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F435" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G435">
         <v>4</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I435">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J435">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K435" t="s">
         <v>55</v>
       </c>
       <c r="L435">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="M435">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N435">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="O435">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="P435">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q435">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="R435">
         <v>0</v>
@@ -39633,16 +39633,16 @@
         <v>1.975</v>
       </c>
       <c r="U435">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V435">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W435">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X435">
-        <v>1.3</v>
+        <v>1.375</v>
       </c>
       <c r="Y435">
         <v>-1</v>
@@ -39657,7 +39657,7 @@
         <v>-1</v>
       </c>
       <c r="AC435">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AD435">
         <v>-1</v>

--- a/England Northern Premier League/England Northern Premier League.xlsx
+++ b/England Northern Premier League/England Northern Premier League.xlsx
@@ -3438,7 +3438,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6932990</v>
+        <v>6932894</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3447,19 +3447,19 @@
         <v>45160.65625</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3468,43 +3468,43 @@
         <v>55</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="M33">
+        <v>3.6</v>
+      </c>
+      <c r="N33">
+        <v>2.4</v>
+      </c>
+      <c r="O33">
+        <v>2.45</v>
+      </c>
+      <c r="P33">
         <v>3.5</v>
       </c>
-      <c r="N33">
+      <c r="Q33">
+        <v>2.4</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>1.95</v>
+      </c>
+      <c r="T33">
+        <v>1.85</v>
+      </c>
+      <c r="U33">
         <v>3</v>
       </c>
-      <c r="O33">
-        <v>2.2</v>
-      </c>
-      <c r="P33">
-        <v>3.6</v>
-      </c>
-      <c r="Q33">
-        <v>2.75</v>
-      </c>
-      <c r="R33">
-        <v>-0.25</v>
-      </c>
-      <c r="S33">
-        <v>2</v>
-      </c>
-      <c r="T33">
-        <v>1.8</v>
-      </c>
-      <c r="U33">
-        <v>2.5</v>
-      </c>
       <c r="V33">
+        <v>1.925</v>
+      </c>
+      <c r="W33">
         <v>1.875</v>
       </c>
-      <c r="W33">
-        <v>1.925</v>
-      </c>
       <c r="X33">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="Y33">
         <v>-1</v>
@@ -3513,16 +3513,16 @@
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
+        <v>-1</v>
+      </c>
+      <c r="AD33">
         <v>0.875</v>
-      </c>
-      <c r="AD33">
-        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -3530,7 +3530,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6932837</v>
+        <v>6932990</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -3539,79 +3539,79 @@
         <v>45160.65625</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>3.5</v>
+      </c>
+      <c r="N34">
         <v>3</v>
       </c>
-      <c r="K34" t="s">
-        <v>56</v>
-      </c>
-      <c r="L34">
-        <v>2.8</v>
-      </c>
-      <c r="M34">
+      <c r="O34">
+        <v>2.2</v>
+      </c>
+      <c r="P34">
         <v>3.6</v>
       </c>
-      <c r="N34">
-        <v>2.1</v>
-      </c>
-      <c r="O34">
-        <v>3.8</v>
-      </c>
-      <c r="P34">
-        <v>3.8</v>
-      </c>
       <c r="Q34">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="R34">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U34">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AD34">
         <v>-1</v>
@@ -3622,7 +3622,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6932991</v>
+        <v>6932837</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -3631,79 +3631,79 @@
         <v>45160.65625</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L35">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="M35">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N35">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="O35">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="P35">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q35">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="R35">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U35">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V35">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W35">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X35">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC35">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AD35">
         <v>-1</v>
@@ -3714,7 +3714,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6932894</v>
+        <v>6932991</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -3723,55 +3723,55 @@
         <v>45160.65625</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="s">
         <v>55</v>
       </c>
       <c r="L36">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="M36">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N36">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="O36">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="P36">
         <v>3.5</v>
       </c>
       <c r="Q36">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T36">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U36">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V36">
         <v>1.925</v>
@@ -3780,7 +3780,7 @@
         <v>1.875</v>
       </c>
       <c r="X36">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="Y36">
         <v>-1</v>
@@ -3789,16 +3789,16 @@
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -5070,7 +5070,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6933001</v>
+        <v>6933002</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -5079,82 +5079,82 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L51">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="M51">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N51">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O51">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="P51">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q51">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R51">
         <v>0.25</v>
       </c>
       <c r="S51">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U51">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V51">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X51">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA51">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AD51">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:30">
@@ -5162,7 +5162,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6932901</v>
+        <v>6933001</v>
       </c>
       <c r="C52" t="s">
         <v>29</v>
@@ -5171,65 +5171,65 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="s">
         <v>55</v>
       </c>
       <c r="L52">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="M52">
         <v>3.6</v>
       </c>
       <c r="N52">
+        <v>2.3</v>
+      </c>
+      <c r="O52">
+        <v>2.6</v>
+      </c>
+      <c r="P52">
         <v>3.6</v>
       </c>
-      <c r="O52">
+      <c r="Q52">
+        <v>2.2</v>
+      </c>
+      <c r="R52">
+        <v>0.25</v>
+      </c>
+      <c r="S52">
+        <v>1.775</v>
+      </c>
+      <c r="T52">
+        <v>2.025</v>
+      </c>
+      <c r="U52">
+        <v>2.75</v>
+      </c>
+      <c r="V52">
+        <v>1.975</v>
+      </c>
+      <c r="W52">
+        <v>1.825</v>
+      </c>
+      <c r="X52">
         <v>1.6</v>
       </c>
-      <c r="P52">
-        <v>3.8</v>
-      </c>
-      <c r="Q52">
-        <v>4.5</v>
-      </c>
-      <c r="R52">
-        <v>-1</v>
-      </c>
-      <c r="S52">
-        <v>1.95</v>
-      </c>
-      <c r="T52">
-        <v>1.75</v>
-      </c>
-      <c r="U52">
-        <v>3</v>
-      </c>
-      <c r="V52">
-        <v>1.925</v>
-      </c>
-      <c r="W52">
-        <v>1.875</v>
-      </c>
-      <c r="X52">
-        <v>0.6000000000000001</v>
-      </c>
       <c r="Y52">
         <v>-1</v>
       </c>
@@ -5237,16 +5237,16 @@
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AD52">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="53" spans="1:30">
@@ -5254,7 +5254,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6933005</v>
+        <v>6932901</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
@@ -5263,58 +5263,64 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
         <v>0</v>
       </c>
       <c r="K53" t="s">
         <v>55</v>
       </c>
       <c r="L53">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="M53">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N53">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="O53">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="P53">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q53">
         <v>4.5</v>
       </c>
       <c r="R53">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S53">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U53">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W53">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X53">
-        <v>0.615</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y53">
         <v>-1</v>
@@ -5323,16 +5329,16 @@
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5340,7 +5346,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6933002</v>
+        <v>6933005</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -5349,46 +5355,40 @@
         <v>45166.45833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H54">
-        <v>2</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L54">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="M54">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N54">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="O54">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="P54">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q54">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="R54">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S54">
         <v>1.825</v>
@@ -5397,34 +5397,34 @@
         <v>1.975</v>
       </c>
       <c r="U54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V54">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB54">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD54">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:30">
@@ -9328,7 +9328,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7200910</v>
+        <v>7263574</v>
       </c>
       <c r="C98" t="s">
         <v>29</v>
@@ -9337,61 +9337,61 @@
         <v>45202.65625</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K98" t="s">
         <v>56</v>
       </c>
       <c r="L98">
+        <v>2.9</v>
+      </c>
+      <c r="M98">
+        <v>3.6</v>
+      </c>
+      <c r="N98">
+        <v>2.05</v>
+      </c>
+      <c r="O98">
         <v>3.25</v>
       </c>
-      <c r="M98">
-        <v>4</v>
-      </c>
-      <c r="N98">
+      <c r="P98">
+        <v>3.8</v>
+      </c>
+      <c r="Q98">
+        <v>1.85</v>
+      </c>
+      <c r="R98">
+        <v>0.5</v>
+      </c>
+      <c r="S98">
+        <v>1.9</v>
+      </c>
+      <c r="T98">
+        <v>1.9</v>
+      </c>
+      <c r="U98">
+        <v>2.5</v>
+      </c>
+      <c r="V98">
         <v>1.8</v>
       </c>
-      <c r="O98">
-        <v>3.4</v>
-      </c>
-      <c r="P98">
-        <v>4.2</v>
-      </c>
-      <c r="Q98">
-        <v>1.727</v>
-      </c>
-      <c r="R98">
-        <v>0.75</v>
-      </c>
-      <c r="S98">
-        <v>1.925</v>
-      </c>
-      <c r="T98">
-        <v>1.875</v>
-      </c>
-      <c r="U98">
-        <v>3.25</v>
-      </c>
-      <c r="V98">
-        <v>1.9</v>
-      </c>
       <c r="W98">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9400,16 +9400,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.7270000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC98">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AD98">
         <v>-1</v>
@@ -9420,7 +9420,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7263574</v>
+        <v>7200910</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
@@ -9429,62 +9429,62 @@
         <v>45202.65625</v>
       </c>
       <c r="E99" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K99" t="s">
         <v>56</v>
       </c>
       <c r="L99">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M99">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N99">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O99">
+        <v>3.4</v>
+      </c>
+      <c r="P99">
+        <v>4.2</v>
+      </c>
+      <c r="Q99">
+        <v>1.727</v>
+      </c>
+      <c r="R99">
+        <v>0.75</v>
+      </c>
+      <c r="S99">
+        <v>1.925</v>
+      </c>
+      <c r="T99">
+        <v>1.875</v>
+      </c>
+      <c r="U99">
         <v>3.25</v>
       </c>
-      <c r="P99">
-        <v>3.8</v>
-      </c>
-      <c r="Q99">
-        <v>1.85</v>
-      </c>
-      <c r="R99">
-        <v>0.5</v>
-      </c>
-      <c r="S99">
+      <c r="V99">
         <v>1.9</v>
       </c>
-      <c r="T99">
+      <c r="W99">
         <v>1.9</v>
       </c>
-      <c r="U99">
-        <v>2.5</v>
-      </c>
-      <c r="V99">
-        <v>1.8</v>
-      </c>
-      <c r="W99">
-        <v>2</v>
-      </c>
       <c r="X99">
         <v>-1</v>
       </c>
@@ -9492,16 +9492,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.8500000000000001</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
+        <v>0.875</v>
+      </c>
+      <c r="AC99">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC99">
-        <v>0.8</v>
       </c>
       <c r="AD99">
         <v>-1</v>
@@ -11064,7 +11064,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6933048</v>
+        <v>6933047</v>
       </c>
       <c r="C117" t="s">
         <v>29</v>
@@ -11073,40 +11073,46 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F117" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G117">
         <v>2</v>
       </c>
       <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
         <v>0</v>
       </c>
       <c r="K117" t="s">
         <v>55</v>
       </c>
       <c r="L117">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="M117">
         <v>4</v>
       </c>
       <c r="N117">
-        <v>1.666</v>
+        <v>4.333</v>
       </c>
       <c r="O117">
+        <v>1.909</v>
+      </c>
+      <c r="P117">
+        <v>3.75</v>
+      </c>
+      <c r="Q117">
         <v>3.4</v>
       </c>
-      <c r="P117">
-        <v>4</v>
-      </c>
-      <c r="Q117">
-        <v>1.8</v>
-      </c>
       <c r="R117">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S117">
         <v>1.95</v>
@@ -11115,16 +11121,16 @@
         <v>1.85</v>
       </c>
       <c r="U117">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V117">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W117">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X117">
-        <v>2.4</v>
+        <v>0.909</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -11139,10 +11145,10 @@
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD117">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:30">
@@ -11150,7 +11156,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6933047</v>
+        <v>6933049</v>
       </c>
       <c r="C118" t="s">
         <v>29</v>
@@ -11159,46 +11165,46 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L118">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="M118">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N118">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="O118">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="P118">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q118">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="R118">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S118">
         <v>1.95</v>
@@ -11210,31 +11216,31 @@
         <v>2.5</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X118">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC118">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:30">
@@ -11242,7 +11248,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6933050</v>
+        <v>6933048</v>
       </c>
       <c r="C119" t="s">
         <v>29</v>
@@ -11251,74 +11257,68 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119">
         <v>0</v>
       </c>
       <c r="K119" t="s">
         <v>55</v>
       </c>
       <c r="L119">
+        <v>3.75</v>
+      </c>
+      <c r="M119">
+        <v>4</v>
+      </c>
+      <c r="N119">
+        <v>1.666</v>
+      </c>
+      <c r="O119">
+        <v>3.4</v>
+      </c>
+      <c r="P119">
+        <v>4</v>
+      </c>
+      <c r="Q119">
+        <v>1.8</v>
+      </c>
+      <c r="R119">
+        <v>0.5</v>
+      </c>
+      <c r="S119">
         <v>1.95</v>
       </c>
-      <c r="M119">
-        <v>3.75</v>
-      </c>
-      <c r="N119">
+      <c r="T119">
+        <v>1.85</v>
+      </c>
+      <c r="U119">
         <v>3</v>
       </c>
-      <c r="O119">
-        <v>1.95</v>
-      </c>
-      <c r="P119">
-        <v>3.75</v>
-      </c>
-      <c r="Q119">
-        <v>3.2</v>
-      </c>
-      <c r="R119">
-        <v>-0.5</v>
-      </c>
-      <c r="S119">
-        <v>2</v>
-      </c>
-      <c r="T119">
+      <c r="V119">
         <v>1.8</v>
       </c>
-      <c r="U119">
-        <v>2.75</v>
-      </c>
-      <c r="V119">
-        <v>1.95</v>
-      </c>
       <c r="W119">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X119">
+        <v>2.4</v>
+      </c>
+      <c r="Y119">
+        <v>-1</v>
+      </c>
+      <c r="Z119">
+        <v>-1</v>
+      </c>
+      <c r="AA119">
         <v>0.95</v>
       </c>
-      <c r="Y119">
-        <v>-1</v>
-      </c>
-      <c r="Z119">
-        <v>-1</v>
-      </c>
-      <c r="AA119">
-        <v>1</v>
-      </c>
       <c r="AB119">
         <v>-1</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>-1</v>
       </c>
       <c r="AD119">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:30">
@@ -11334,7 +11334,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6933049</v>
+        <v>6933050</v>
       </c>
       <c r="C120" t="s">
         <v>29</v>
@@ -11343,82 +11343,82 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G120">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L120">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="M120">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N120">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O120">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="P120">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q120">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="R120">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S120">
+        <v>2</v>
+      </c>
+      <c r="T120">
+        <v>1.8</v>
+      </c>
+      <c r="U120">
+        <v>2.75</v>
+      </c>
+      <c r="V120">
         <v>1.95</v>
       </c>
-      <c r="T120">
+      <c r="W120">
         <v>1.85</v>
       </c>
-      <c r="U120">
-        <v>2.5</v>
-      </c>
-      <c r="V120">
-        <v>1.825</v>
-      </c>
-      <c r="W120">
-        <v>1.975</v>
-      </c>
       <c r="X120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y120">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
         <v>-1</v>
       </c>
       <c r="AD120">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:30">
@@ -11518,7 +11518,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6933056</v>
+        <v>6933054</v>
       </c>
       <c r="C122" t="s">
         <v>29</v>
@@ -11527,76 +11527,76 @@
         <v>45223.65625</v>
       </c>
       <c r="E122" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G122">
         <v>2</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L122">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M122">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N122">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O122">
-        <v>3.25</v>
+        <v>1.7</v>
       </c>
       <c r="P122">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q122">
+        <v>4</v>
+      </c>
+      <c r="R122">
+        <v>-0.75</v>
+      </c>
+      <c r="S122">
         <v>1.95</v>
       </c>
-      <c r="R122">
-        <v>0.5</v>
-      </c>
-      <c r="S122">
-        <v>1.775</v>
-      </c>
       <c r="T122">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U122">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W122">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y122">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="123" spans="1:30">
@@ -11604,7 +11604,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6933057</v>
+        <v>6933055</v>
       </c>
       <c r="C123" t="s">
         <v>29</v>
@@ -11613,79 +11613,73 @@
         <v>45223.65625</v>
       </c>
       <c r="E123" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H123">
-        <v>2</v>
-      </c>
-      <c r="I123">
-        <v>1</v>
-      </c>
-      <c r="J123">
         <v>1</v>
       </c>
       <c r="K123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L123">
-        <v>2.5</v>
+        <v>1.166</v>
       </c>
       <c r="M123">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="N123">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="O123">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="P123">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q123">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="R123">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="S123">
+        <v>2</v>
+      </c>
+      <c r="T123">
+        <v>1.8</v>
+      </c>
+      <c r="U123">
+        <v>3.25</v>
+      </c>
+      <c r="V123">
         <v>2.025</v>
       </c>
-      <c r="T123">
+      <c r="W123">
         <v>1.775</v>
       </c>
-      <c r="U123">
-        <v>2.75</v>
-      </c>
-      <c r="V123">
-        <v>1.9</v>
-      </c>
-      <c r="W123">
-        <v>1.9</v>
-      </c>
       <c r="X123">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y123">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
+        <v>0.5</v>
+      </c>
+      <c r="AB123">
         <v>-0.5</v>
       </c>
-      <c r="AB123">
-        <v>0.3875</v>
-      </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AD123">
         <v>-1</v>
@@ -11696,7 +11690,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6933058</v>
+        <v>6933056</v>
       </c>
       <c r="C124" t="s">
         <v>29</v>
@@ -11705,79 +11699,73 @@
         <v>45223.65625</v>
       </c>
       <c r="E124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F124" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H124">
         <v>2</v>
       </c>
-      <c r="I124">
-        <v>2</v>
-      </c>
-      <c r="J124">
-        <v>2</v>
-      </c>
       <c r="K124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L124">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="M124">
         <v>3.5</v>
       </c>
       <c r="N124">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="O124">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="P124">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q124">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="R124">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S124">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T124">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U124">
         <v>2.5</v>
       </c>
       <c r="V124">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W124">
         <v>1.95</v>
       </c>
       <c r="X124">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.7250000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD124">
         <v>-1</v>
@@ -11788,7 +11776,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6933054</v>
+        <v>6933057</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
@@ -11797,76 +11785,82 @@
         <v>45223.65625</v>
       </c>
       <c r="E125" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G125">
         <v>2</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
       </c>
       <c r="K125" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L125">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="M125">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N125">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="O125">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="P125">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q125">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="R125">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T125">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U125">
         <v>2.75</v>
       </c>
       <c r="V125">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X125">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD125">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:30">
@@ -11874,7 +11868,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6933053</v>
+        <v>6933058</v>
       </c>
       <c r="C126" t="s">
         <v>29</v>
@@ -11883,64 +11877,64 @@
         <v>45223.65625</v>
       </c>
       <c r="E126" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F126" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H126">
         <v>2</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K126" t="s">
         <v>55</v>
       </c>
       <c r="L126">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="M126">
         <v>3.5</v>
       </c>
       <c r="N126">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="O126">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="P126">
         <v>3.5</v>
       </c>
       <c r="Q126">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="R126">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S126">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T126">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U126">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V126">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W126">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X126">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="Y126">
         <v>-1</v>
@@ -11949,13 +11943,13 @@
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB126">
         <v>-1</v>
       </c>
       <c r="AC126">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AD126">
         <v>-1</v>
@@ -11966,7 +11960,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6933055</v>
+        <v>6933053</v>
       </c>
       <c r="C127" t="s">
         <v>29</v>
@@ -11975,58 +11969,64 @@
         <v>45223.65625</v>
       </c>
       <c r="E127" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F127" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G127">
         <v>3</v>
       </c>
       <c r="H127">
+        <v>2</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
         <v>1</v>
       </c>
       <c r="K127" t="s">
         <v>55</v>
       </c>
       <c r="L127">
-        <v>1.166</v>
+        <v>2</v>
       </c>
       <c r="M127">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N127">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O127">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="P127">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q127">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="R127">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S127">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T127">
+        <v>2</v>
+      </c>
+      <c r="U127">
+        <v>3</v>
+      </c>
+      <c r="V127">
         <v>1.8</v>
       </c>
-      <c r="U127">
-        <v>3.25</v>
-      </c>
-      <c r="V127">
-        <v>2.025</v>
-      </c>
       <c r="W127">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="X127">
-        <v>0.2849999999999999</v>
+        <v>1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
@@ -12035,13 +12035,13 @@
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AD127">
         <v>-1</v>
@@ -12052,7 +12052,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6932856</v>
+        <v>6932923</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
@@ -12061,28 +12061,28 @@
         <v>45223.65625</v>
       </c>
       <c r="E128" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F128" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K128" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L128">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="M128">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N128">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="O128">
         <v>1.909</v>
@@ -12106,31 +12106,31 @@
         <v>3</v>
       </c>
       <c r="V128">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W128">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB128">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD128">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="129" spans="1:30">
@@ -12138,7 +12138,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6932857</v>
+        <v>6932922</v>
       </c>
       <c r="C129" t="s">
         <v>29</v>
@@ -12147,76 +12147,82 @@
         <v>45223.65625</v>
       </c>
       <c r="E129" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
         <v>0</v>
       </c>
       <c r="K129" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L129">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="M129">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N129">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="O129">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="P129">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q129">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="R129">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="S129">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U129">
         <v>3.25</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X129">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA129">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD129">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:30">
@@ -12224,7 +12230,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6932922</v>
+        <v>6932856</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
@@ -12233,62 +12239,56 @@
         <v>45223.65625</v>
       </c>
       <c r="E130" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F130" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130">
         <v>2</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
       </c>
       <c r="K130" t="s">
         <v>56</v>
       </c>
       <c r="L130">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="M130">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N130">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="O130">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="P130">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q130">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="R130">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S130">
+        <v>2</v>
+      </c>
+      <c r="T130">
+        <v>1.8</v>
+      </c>
+      <c r="U130">
+        <v>3</v>
+      </c>
+      <c r="V130">
+        <v>1.925</v>
+      </c>
+      <c r="W130">
         <v>1.875</v>
       </c>
-      <c r="T130">
-        <v>1.925</v>
-      </c>
-      <c r="U130">
-        <v>3.25</v>
-      </c>
-      <c r="V130">
-        <v>1.9</v>
-      </c>
-      <c r="W130">
-        <v>1.9</v>
-      </c>
       <c r="X130">
         <v>-1</v>
       </c>
@@ -12296,19 +12296,19 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD130">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:30">
@@ -12316,7 +12316,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6932923</v>
+        <v>6932857</v>
       </c>
       <c r="C131" t="s">
         <v>29</v>
@@ -12325,13 +12325,13 @@
         <v>45223.65625</v>
       </c>
       <c r="E131" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12340,61 +12340,61 @@
         <v>55</v>
       </c>
       <c r="L131">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="M131">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N131">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="O131">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="P131">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q131">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="R131">
+        <v>0.25</v>
+      </c>
+      <c r="S131">
+        <v>1.8</v>
+      </c>
+      <c r="T131">
+        <v>2</v>
+      </c>
+      <c r="U131">
+        <v>3.25</v>
+      </c>
+      <c r="V131">
+        <v>1.875</v>
+      </c>
+      <c r="W131">
+        <v>1.925</v>
+      </c>
+      <c r="X131">
+        <v>1.5</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>-1</v>
+      </c>
+      <c r="AA131">
+        <v>0.8</v>
+      </c>
+      <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
         <v>-0.5</v>
       </c>
-      <c r="S131">
-        <v>2</v>
-      </c>
-      <c r="T131">
-        <v>1.8</v>
-      </c>
-      <c r="U131">
-        <v>3</v>
-      </c>
-      <c r="V131">
-        <v>1.975</v>
-      </c>
-      <c r="W131">
-        <v>1.825</v>
-      </c>
-      <c r="X131">
-        <v>0.909</v>
-      </c>
-      <c r="Y131">
-        <v>-1</v>
-      </c>
-      <c r="Z131">
-        <v>-1</v>
-      </c>
-      <c r="AA131">
-        <v>1</v>
-      </c>
-      <c r="AB131">
-        <v>-1</v>
-      </c>
-      <c r="AC131">
-        <v>-1</v>
-      </c>
       <c r="AD131">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="132" spans="1:30">
@@ -15618,7 +15618,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7326842</v>
+        <v>7472373</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
@@ -15627,13 +15627,13 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E168" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G168">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15648,43 +15648,43 @@
         <v>55</v>
       </c>
       <c r="L168">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="M168">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="N168">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="O168">
-        <v>1.666</v>
+        <v>1.166</v>
       </c>
       <c r="P168">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q168">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="R168">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="S168">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U168">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V168">
+        <v>1.925</v>
+      </c>
+      <c r="W168">
         <v>1.875</v>
       </c>
-      <c r="W168">
-        <v>1.925</v>
-      </c>
       <c r="X168">
-        <v>0.6659999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y168">
         <v>-1</v>
@@ -15693,13 +15693,13 @@
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AD168">
         <v>-1</v>
@@ -15710,7 +15710,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7354286</v>
+        <v>7355168</v>
       </c>
       <c r="C169" t="s">
         <v>29</v>
@@ -15719,52 +15719,52 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E169" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K169" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L169">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="M169">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N169">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O169">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="P169">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q169">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="R169">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S169">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T169">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U169">
         <v>3</v>
@@ -15779,22 +15779,22 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="AA169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC169">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD169">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="170" spans="1:30">
@@ -15802,7 +15802,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7355168</v>
+        <v>7354286</v>
       </c>
       <c r="C170" t="s">
         <v>29</v>
@@ -15811,52 +15811,52 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F170" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K170" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L170">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="M170">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N170">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O170">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="P170">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q170">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="R170">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S170">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T170">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U170">
         <v>3</v>
@@ -15871,22 +15871,22 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z170">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB170">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD170">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:30">
@@ -15894,7 +15894,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7472373</v>
+        <v>7326842</v>
       </c>
       <c r="C171" t="s">
         <v>29</v>
@@ -15903,13 +15903,13 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E171" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F171" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G171">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15924,43 +15924,43 @@
         <v>55</v>
       </c>
       <c r="L171">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="M171">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="N171">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="O171">
-        <v>1.166</v>
+        <v>1.666</v>
       </c>
       <c r="P171">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q171">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="R171">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="S171">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T171">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U171">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V171">
+        <v>1.875</v>
+      </c>
+      <c r="W171">
         <v>1.925</v>
       </c>
-      <c r="W171">
-        <v>1.875</v>
-      </c>
       <c r="X171">
-        <v>0.1659999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y171">
         <v>-1</v>
@@ -15969,13 +15969,13 @@
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AD171">
         <v>-1</v>
@@ -16256,7 +16256,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6932865</v>
+        <v>6932937</v>
       </c>
       <c r="C175" t="s">
         <v>29</v>
@@ -16265,76 +16265,82 @@
         <v>45255.5</v>
       </c>
       <c r="E175" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H175">
         <v>1</v>
       </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
       <c r="K175" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L175">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="M175">
+        <v>4.333</v>
+      </c>
+      <c r="N175">
         <v>4</v>
-      </c>
-      <c r="N175">
-        <v>3.75</v>
       </c>
       <c r="O175">
         <v>1.75</v>
       </c>
       <c r="P175">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q175">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="R175">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T175">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U175">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V175">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W175">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y175">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB175">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD175">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:30">
@@ -16342,7 +16348,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6932866</v>
+        <v>6932865</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -16351,76 +16357,76 @@
         <v>45255.5</v>
       </c>
       <c r="E176" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F176" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="K176" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L176">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="M176">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N176">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="O176">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="P176">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q176">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="R176">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S176">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T176">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U176">
         <v>3</v>
       </c>
       <c r="V176">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W176">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z176">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC176">
         <v>-1</v>
       </c>
       <c r="AD176">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -16428,7 +16434,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6932936</v>
+        <v>6932866</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
@@ -16437,49 +16443,43 @@
         <v>45255.5</v>
       </c>
       <c r="E177" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>3</v>
-      </c>
-      <c r="I177">
-        <v>0</v>
-      </c>
-      <c r="J177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K177" t="s">
         <v>56</v>
       </c>
       <c r="L177">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="M177">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N177">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O177">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="P177">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q177">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="R177">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S177">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T177">
         <v>1.95</v>
@@ -16500,7 +16500,7 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="AA177">
         <v>-1</v>
@@ -16509,10 +16509,10 @@
         <v>0.95</v>
       </c>
       <c r="AC177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD177">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="178" spans="1:30">
@@ -16520,7 +16520,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6932937</v>
+        <v>6932936</v>
       </c>
       <c r="C178" t="s">
         <v>29</v>
@@ -16529,46 +16529,46 @@
         <v>45255.5</v>
       </c>
       <c r="E178" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F178" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G178">
+        <v>2</v>
+      </c>
+      <c r="H178">
         <v>3</v>
       </c>
-      <c r="H178">
-        <v>1</v>
-      </c>
       <c r="I178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K178" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L178">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="M178">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N178">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="O178">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="P178">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q178">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="R178">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S178">
         <v>1.75</v>
@@ -16577,31 +16577,31 @@
         <v>1.95</v>
       </c>
       <c r="U178">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V178">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W178">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X178">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA178">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC178">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AD178">
         <v>-1</v>
@@ -17956,7 +17956,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6932870</v>
+        <v>6932946</v>
       </c>
       <c r="C194" t="s">
         <v>29</v>
@@ -17965,16 +17965,16 @@
         <v>45269.5</v>
       </c>
       <c r="E194" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F194" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194">
         <v>0</v>
@@ -17983,64 +17983,64 @@
         <v>1</v>
       </c>
       <c r="K194" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L194">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="M194">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N194">
         <v>3</v>
       </c>
       <c r="O194">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P194">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q194">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="R194">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S194">
+        <v>1.975</v>
+      </c>
+      <c r="T194">
+        <v>1.825</v>
+      </c>
+      <c r="U194">
+        <v>2.75</v>
+      </c>
+      <c r="V194">
         <v>1.75</v>
       </c>
-      <c r="T194">
+      <c r="W194">
         <v>1.95</v>
       </c>
-      <c r="U194">
-        <v>3.25</v>
-      </c>
-      <c r="V194">
-        <v>1.9</v>
-      </c>
-      <c r="W194">
-        <v>1.9</v>
-      </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC194">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD194">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="195" spans="1:30">
@@ -18048,7 +18048,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6932946</v>
+        <v>6932870</v>
       </c>
       <c r="C195" t="s">
         <v>29</v>
@@ -18057,16 +18057,16 @@
         <v>45269.5</v>
       </c>
       <c r="E195" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F195" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -18075,64 +18075,64 @@
         <v>1</v>
       </c>
       <c r="K195" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L195">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="M195">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N195">
         <v>3</v>
       </c>
       <c r="O195">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P195">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q195">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="R195">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S195">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T195">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U195">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V195">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W195">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z195">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB195">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:30">
@@ -18508,7 +18508,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7496559</v>
+        <v>7496517</v>
       </c>
       <c r="C200" t="s">
         <v>29</v>
@@ -18517,82 +18517,76 @@
         <v>45272.69791666666</v>
       </c>
       <c r="E200" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F200" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="K200" t="s">
+        <v>55</v>
+      </c>
+      <c r="L200">
+        <v>2.2</v>
+      </c>
+      <c r="M200">
+        <v>3.5</v>
+      </c>
+      <c r="N200">
+        <v>2.7</v>
+      </c>
+      <c r="O200">
+        <v>2.6</v>
+      </c>
+      <c r="P200">
+        <v>3.6</v>
+      </c>
+      <c r="Q200">
+        <v>2.25</v>
+      </c>
+      <c r="R200">
+        <v>0.25</v>
+      </c>
+      <c r="S200">
+        <v>1.775</v>
+      </c>
+      <c r="T200">
+        <v>2.025</v>
+      </c>
+      <c r="U200">
         <v>3</v>
       </c>
-      <c r="H200">
-        <v>3</v>
-      </c>
-      <c r="I200">
-        <v>1</v>
-      </c>
-      <c r="J200">
-        <v>2</v>
-      </c>
-      <c r="K200" t="s">
-        <v>54</v>
-      </c>
-      <c r="L200">
-        <v>2.6</v>
-      </c>
-      <c r="M200">
-        <v>4</v>
-      </c>
-      <c r="N200">
-        <v>2.1</v>
-      </c>
-      <c r="O200">
-        <v>2.9</v>
-      </c>
-      <c r="P200">
-        <v>4.2</v>
-      </c>
-      <c r="Q200">
-        <v>1.85</v>
-      </c>
-      <c r="R200">
-        <v>0.5</v>
-      </c>
-      <c r="S200">
-        <v>1.875</v>
-      </c>
-      <c r="T200">
-        <v>1.925</v>
-      </c>
-      <c r="U200">
-        <v>3.5</v>
-      </c>
       <c r="V200">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W200">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y200">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
         <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB200">
         <v>-1</v>
       </c>
       <c r="AC200">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD200">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:30">
@@ -18600,7 +18594,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7496517</v>
+        <v>7496559</v>
       </c>
       <c r="C201" t="s">
         <v>29</v>
@@ -18609,76 +18603,82 @@
         <v>45272.69791666666</v>
       </c>
       <c r="E201" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F201" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>2</v>
       </c>
       <c r="K201" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L201">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="M201">
+        <v>4</v>
+      </c>
+      <c r="N201">
+        <v>2.1</v>
+      </c>
+      <c r="O201">
+        <v>2.9</v>
+      </c>
+      <c r="P201">
+        <v>4.2</v>
+      </c>
+      <c r="Q201">
+        <v>1.85</v>
+      </c>
+      <c r="R201">
+        <v>0.5</v>
+      </c>
+      <c r="S201">
+        <v>1.875</v>
+      </c>
+      <c r="T201">
+        <v>1.925</v>
+      </c>
+      <c r="U201">
         <v>3.5</v>
       </c>
-      <c r="N201">
-        <v>2.7</v>
-      </c>
-      <c r="O201">
-        <v>2.6</v>
-      </c>
-      <c r="P201">
-        <v>3.6</v>
-      </c>
-      <c r="Q201">
-        <v>2.25</v>
-      </c>
-      <c r="R201">
-        <v>0.25</v>
-      </c>
-      <c r="S201">
-        <v>1.775</v>
-      </c>
-      <c r="T201">
-        <v>2.025</v>
-      </c>
-      <c r="U201">
-        <v>3</v>
-      </c>
       <c r="V201">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W201">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X201">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z201">
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD201">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:30">
@@ -20324,7 +20324,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6933115</v>
+        <v>6933112</v>
       </c>
       <c r="C220" t="s">
         <v>29</v>
@@ -20333,40 +20333,40 @@
         <v>45283.5</v>
       </c>
       <c r="E220" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F220" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K220" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L220">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="M220">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N220">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="O220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P220">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q220">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="R220">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S220">
         <v>1.8</v>
@@ -20375,34 +20375,34 @@
         <v>2</v>
       </c>
       <c r="U220">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W220">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA220">
+        <v>-1</v>
+      </c>
+      <c r="AB220">
+        <v>1</v>
+      </c>
+      <c r="AC220">
+        <v>0.4</v>
+      </c>
+      <c r="AD220">
         <v>-0.5</v>
-      </c>
-      <c r="AB220">
-        <v>0.5</v>
-      </c>
-      <c r="AC220">
-        <v>-1</v>
-      </c>
-      <c r="AD220">
-        <v>0.825</v>
       </c>
     </row>
     <row r="221" spans="1:30">
@@ -20502,7 +20502,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6933116</v>
+        <v>6933115</v>
       </c>
       <c r="C222" t="s">
         <v>29</v>
@@ -20511,82 +20511,76 @@
         <v>45283.5</v>
       </c>
       <c r="E222" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F222" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G222">
         <v>1</v>
       </c>
       <c r="H222">
         <v>1</v>
-      </c>
-      <c r="I222">
-        <v>1</v>
-      </c>
-      <c r="J222">
-        <v>0</v>
       </c>
       <c r="K222" t="s">
         <v>54</v>
       </c>
       <c r="L222">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="M222">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N222">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="O222">
-        <v>1.166</v>
+        <v>2</v>
       </c>
       <c r="P222">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q222">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="R222">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S222">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T222">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U222">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W222">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z222">
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB222">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AC222">
         <v>-1</v>
       </c>
       <c r="AD222">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="223" spans="1:30">
@@ -20594,7 +20588,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6933117</v>
+        <v>6933116</v>
       </c>
       <c r="C223" t="s">
         <v>29</v>
@@ -20603,76 +20597,82 @@
         <v>45283.5</v>
       </c>
       <c r="E223" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F223" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G223">
         <v>1</v>
       </c>
       <c r="H223">
         <v>1</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
       </c>
       <c r="K223" t="s">
         <v>54</v>
       </c>
       <c r="L223">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="M223">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N223">
-        <v>2.9</v>
+        <v>9</v>
       </c>
       <c r="O223">
-        <v>2.55</v>
+        <v>1.166</v>
       </c>
       <c r="P223">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q223">
-        <v>2.3</v>
+        <v>11</v>
       </c>
       <c r="R223">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="S223">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T223">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U223">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V223">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W223">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Z223">
         <v>-1</v>
       </c>
       <c r="AA223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC223">
         <v>-1</v>
       </c>
       <c r="AD223">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="224" spans="1:30">
@@ -20680,7 +20680,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6933112</v>
+        <v>6932948</v>
       </c>
       <c r="C224" t="s">
         <v>29</v>
@@ -20689,76 +20689,76 @@
         <v>45283.5</v>
       </c>
       <c r="E224" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F224" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H224">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K224" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L224">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="M224">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N224">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="O224">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="P224">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q224">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="R224">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S224">
+        <v>1.9</v>
+      </c>
+      <c r="T224">
+        <v>1.9</v>
+      </c>
+      <c r="U224">
+        <v>3.25</v>
+      </c>
+      <c r="V224">
+        <v>2</v>
+      </c>
+      <c r="W224">
         <v>1.8</v>
       </c>
-      <c r="T224">
-        <v>2</v>
-      </c>
-      <c r="U224">
-        <v>2.75</v>
-      </c>
-      <c r="V224">
-        <v>1.8</v>
-      </c>
-      <c r="W224">
-        <v>2</v>
-      </c>
       <c r="X224">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB224">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AC224">
+        <v>-0.5</v>
+      </c>
+      <c r="AD224">
         <v>0.4</v>
-      </c>
-      <c r="AD224">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="225" spans="1:30">
@@ -20766,7 +20766,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6932948</v>
+        <v>6933113</v>
       </c>
       <c r="C225" t="s">
         <v>29</v>
@@ -20775,49 +20775,55 @@
         <v>45283.5</v>
       </c>
       <c r="E225" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F225" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>2</v>
       </c>
       <c r="K225" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L225">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="M225">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N225">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="O225">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="P225">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q225">
-        <v>5.25</v>
+        <v>1.666</v>
       </c>
       <c r="R225">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="S225">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T225">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U225">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V225">
         <v>2</v>
@@ -20826,25 +20832,25 @@
         <v>1.8</v>
       </c>
       <c r="X225">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="AA225">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC225">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AD225">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:30">
@@ -20852,7 +20858,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6933113</v>
+        <v>6932873</v>
       </c>
       <c r="C226" t="s">
         <v>29</v>
@@ -20861,82 +20867,76 @@
         <v>45283.5</v>
       </c>
       <c r="E226" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F226" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H226">
-        <v>3</v>
-      </c>
-      <c r="I226">
-        <v>1</v>
-      </c>
-      <c r="J226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K226" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L226">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M226">
         <v>4</v>
       </c>
       <c r="N226">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O226">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P226">
         <v>4.2</v>
       </c>
       <c r="Q226">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="R226">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S226">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T226">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U226">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V226">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W226">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z226">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB226">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD226">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:30">
@@ -20944,7 +20944,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6932873</v>
+        <v>6933114</v>
       </c>
       <c r="C227" t="s">
         <v>29</v>
@@ -20953,76 +20953,82 @@
         <v>45283.5</v>
       </c>
       <c r="E227" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F227" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G227">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>1</v>
       </c>
       <c r="K227" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L227">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M227">
         <v>4</v>
       </c>
       <c r="N227">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O227">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P227">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q227">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="R227">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S227">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T227">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U227">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V227">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W227">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y227">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB227">
         <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD227">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:30">
@@ -21030,7 +21036,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6933114</v>
+        <v>6933117</v>
       </c>
       <c r="C228" t="s">
         <v>29</v>
@@ -21039,82 +21045,76 @@
         <v>45283.5</v>
       </c>
       <c r="E228" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F228" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H228">
         <v>1</v>
       </c>
-      <c r="I228">
-        <v>1</v>
-      </c>
-      <c r="J228">
-        <v>1</v>
-      </c>
       <c r="K228" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L228">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="M228">
         <v>4</v>
       </c>
       <c r="N228">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O228">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="P228">
         <v>3.8</v>
       </c>
       <c r="Q228">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="R228">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S228">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T228">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U228">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V228">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W228">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="X228">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC228">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD228">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:30">
@@ -21300,7 +21300,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6933118</v>
+        <v>6933119</v>
       </c>
       <c r="C231" t="s">
         <v>29</v>
@@ -21309,49 +21309,49 @@
         <v>45286.5</v>
       </c>
       <c r="E231" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F231" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K231" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L231">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="M231">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N231">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="O231">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="P231">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q231">
+        <v>5</v>
+      </c>
+      <c r="R231">
+        <v>-1</v>
+      </c>
+      <c r="S231">
+        <v>1.975</v>
+      </c>
+      <c r="T231">
+        <v>1.825</v>
+      </c>
+      <c r="U231">
         <v>3</v>
-      </c>
-      <c r="R231">
-        <v>-0.25</v>
-      </c>
-      <c r="S231">
-        <v>1.775</v>
-      </c>
-      <c r="T231">
-        <v>2.025</v>
-      </c>
-      <c r="U231">
-        <v>2.75</v>
       </c>
       <c r="V231">
         <v>1.9</v>
@@ -21360,25 +21360,25 @@
         <v>1.9</v>
       </c>
       <c r="X231">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC231">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AD231">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="232" spans="1:30">
@@ -21834,7 +21834,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6933119</v>
+        <v>6933118</v>
       </c>
       <c r="C237" t="s">
         <v>29</v>
@@ -21843,49 +21843,49 @@
         <v>45286.5</v>
       </c>
       <c r="E237" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F237" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K237" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L237">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="M237">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N237">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="O237">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="P237">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q237">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R237">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S237">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T237">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U237">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V237">
         <v>1.9</v>
@@ -21894,25 +21894,25 @@
         <v>1.9</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y237">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB237">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AD237">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="238" spans="1:30">
@@ -22362,7 +22362,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6932878</v>
+        <v>6932877</v>
       </c>
       <c r="C243" t="s">
         <v>29</v>
@@ -22371,16 +22371,16 @@
         <v>45292.5</v>
       </c>
       <c r="E243" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F243" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G243">
         <v>2</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243">
         <v>1</v>
@@ -22389,64 +22389,64 @@
         <v>0</v>
       </c>
       <c r="K243" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L243">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="M243">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N243">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O243">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="P243">
+        <v>4.2</v>
+      </c>
+      <c r="Q243">
+        <v>1.5</v>
+      </c>
+      <c r="R243">
+        <v>1</v>
+      </c>
+      <c r="S243">
+        <v>1.975</v>
+      </c>
+      <c r="T243">
+        <v>1.825</v>
+      </c>
+      <c r="U243">
+        <v>3</v>
+      </c>
+      <c r="V243">
+        <v>1.9</v>
+      </c>
+      <c r="W243">
+        <v>1.9</v>
+      </c>
+      <c r="X243">
         <v>3.75</v>
       </c>
-      <c r="Q243">
-        <v>2.55</v>
-      </c>
-      <c r="R243">
-        <v>-0.25</v>
-      </c>
-      <c r="S243">
-        <v>1.95</v>
-      </c>
-      <c r="T243">
-        <v>1.75</v>
-      </c>
-      <c r="U243">
-        <v>3.25</v>
-      </c>
-      <c r="V243">
-        <v>1.875</v>
-      </c>
-      <c r="W243">
-        <v>1.925</v>
-      </c>
-      <c r="X243">
-        <v>-1</v>
-      </c>
       <c r="Y243">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
         <v>-1</v>
       </c>
       <c r="AA243">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB243">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD243">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="244" spans="1:30">
@@ -22454,7 +22454,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6932877</v>
+        <v>6932955</v>
       </c>
       <c r="C244" t="s">
         <v>29</v>
@@ -22463,19 +22463,19 @@
         <v>45292.5</v>
       </c>
       <c r="E244" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F244" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G244">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H244">
         <v>0</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244">
         <v>0</v>
@@ -22484,43 +22484,43 @@
         <v>55</v>
       </c>
       <c r="L244">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="M244">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N244">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O244">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="P244">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q244">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="R244">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="S244">
+        <v>1.825</v>
+      </c>
+      <c r="T244">
         <v>1.975</v>
       </c>
-      <c r="T244">
-        <v>1.825</v>
-      </c>
       <c r="U244">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V244">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W244">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X244">
-        <v>3.75</v>
+        <v>0.75</v>
       </c>
       <c r="Y244">
         <v>-1</v>
@@ -22529,16 +22529,16 @@
         <v>-1</v>
       </c>
       <c r="AA244">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB244">
         <v>-1</v>
       </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AD244">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="245" spans="1:30">
@@ -22546,7 +22546,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6933129</v>
+        <v>6932878</v>
       </c>
       <c r="C245" t="s">
         <v>29</v>
@@ -22555,79 +22555,79 @@
         <v>45292.5</v>
       </c>
       <c r="E245" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F245" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G245">
         <v>2</v>
       </c>
       <c r="H245">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I245">
         <v>1</v>
       </c>
       <c r="J245">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K245" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L245">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="M245">
         <v>3.6</v>
       </c>
       <c r="N245">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O245">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="P245">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q245">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="R245">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S245">
+        <v>1.95</v>
+      </c>
+      <c r="T245">
+        <v>1.75</v>
+      </c>
+      <c r="U245">
+        <v>3.25</v>
+      </c>
+      <c r="V245">
+        <v>1.875</v>
+      </c>
+      <c r="W245">
         <v>1.925</v>
       </c>
-      <c r="T245">
-        <v>1.875</v>
-      </c>
-      <c r="U245">
+      <c r="X245">
+        <v>-1</v>
+      </c>
+      <c r="Y245">
         <v>2.75</v>
       </c>
-      <c r="V245">
-        <v>1.975</v>
-      </c>
-      <c r="W245">
-        <v>1.825</v>
-      </c>
-      <c r="X245">
-        <v>-1</v>
-      </c>
-      <c r="Y245">
-        <v>-1</v>
-      </c>
       <c r="Z245">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB245">
+        <v>0.375</v>
+      </c>
+      <c r="AC245">
         <v>0.875</v>
-      </c>
-      <c r="AC245">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AD245">
         <v>-1</v>
@@ -22638,7 +22638,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6933127</v>
+        <v>6933129</v>
       </c>
       <c r="C246" t="s">
         <v>29</v>
@@ -22647,73 +22647,79 @@
         <v>45292.5</v>
       </c>
       <c r="E246" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F246" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G246">
+        <v>2</v>
+      </c>
+      <c r="H246">
         <v>3</v>
       </c>
-      <c r="H246">
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246">
         <v>2</v>
       </c>
       <c r="K246" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L246">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="M246">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N246">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="O246">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="P246">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q246">
-        <v>11</v>
+        <v>2.375</v>
       </c>
       <c r="R246">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="S246">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T246">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U246">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V246">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W246">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X246">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Y246">
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC246">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD246">
         <v>-1</v>
@@ -22724,7 +22730,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6933126</v>
+        <v>6933127</v>
       </c>
       <c r="C247" t="s">
         <v>29</v>
@@ -22733,67 +22739,61 @@
         <v>45292.5</v>
       </c>
       <c r="E247" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F247" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H247">
         <v>2</v>
       </c>
-      <c r="I247">
-        <v>1</v>
-      </c>
-      <c r="J247">
-        <v>1</v>
-      </c>
       <c r="K247" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L247">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="M247">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N247">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="O247">
-        <v>1.85</v>
+        <v>1.2</v>
       </c>
       <c r="P247">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q247">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="R247">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="S247">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T247">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U247">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V247">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="W247">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Y247">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z247">
         <v>-1</v>
@@ -22802,10 +22802,10 @@
         <v>-1</v>
       </c>
       <c r="AB247">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC247">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AD247">
         <v>-1</v>
@@ -22816,7 +22816,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6933125</v>
+        <v>6933126</v>
       </c>
       <c r="C248" t="s">
         <v>29</v>
@@ -22825,46 +22825,46 @@
         <v>45292.5</v>
       </c>
       <c r="E248" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F248" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248">
         <v>1</v>
       </c>
       <c r="K248" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L248">
+        <v>2.2</v>
+      </c>
+      <c r="M248">
+        <v>3.6</v>
+      </c>
+      <c r="N248">
         <v>2.6</v>
       </c>
-      <c r="M248">
-        <v>3.75</v>
-      </c>
-      <c r="N248">
-        <v>2.15</v>
-      </c>
       <c r="O248">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="P248">
         <v>3.8</v>
       </c>
       <c r="Q248">
-        <v>1.833</v>
+        <v>3.3</v>
       </c>
       <c r="R248">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S248">
         <v>1.9</v>
@@ -22876,19 +22876,19 @@
         <v>2.75</v>
       </c>
       <c r="V248">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="W248">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z248">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
         <v>-1</v>
@@ -22897,10 +22897,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AD248">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:30">
@@ -22908,7 +22908,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6932955</v>
+        <v>6933125</v>
       </c>
       <c r="C249" t="s">
         <v>29</v>
@@ -22917,82 +22917,82 @@
         <v>45292.5</v>
       </c>
       <c r="E249" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F249" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G249">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249">
         <v>0</v>
       </c>
       <c r="J249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K249" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L249">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="M249">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N249">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O249">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="P249">
         <v>3.8</v>
       </c>
       <c r="Q249">
-        <v>3.5</v>
+        <v>1.833</v>
       </c>
       <c r="R249">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S249">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T249">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U249">
         <v>2.75</v>
       </c>
       <c r="V249">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W249">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X249">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y249">
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="AA249">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB249">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC249">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AD249">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="250" spans="1:30">
@@ -23178,7 +23178,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6933134</v>
+        <v>6933131</v>
       </c>
       <c r="C252" t="s">
         <v>29</v>
@@ -23187,62 +23187,56 @@
         <v>45297.5</v>
       </c>
       <c r="E252" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F252" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252">
-        <v>1</v>
-      </c>
-      <c r="I252">
-        <v>0</v>
-      </c>
-      <c r="J252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K252" t="s">
         <v>56</v>
       </c>
       <c r="L252">
-        <v>2.25</v>
+        <v>1.285</v>
       </c>
       <c r="M252">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N252">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="O252">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="P252">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q252">
+        <v>4.75</v>
+      </c>
+      <c r="R252">
+        <v>-1.25</v>
+      </c>
+      <c r="S252">
+        <v>1.925</v>
+      </c>
+      <c r="T252">
+        <v>1.875</v>
+      </c>
+      <c r="U252">
         <v>3</v>
       </c>
-      <c r="R252">
-        <v>-0.25</v>
-      </c>
-      <c r="S252">
+      <c r="V252">
         <v>1.85</v>
       </c>
-      <c r="T252">
+      <c r="W252">
         <v>1.95</v>
       </c>
-      <c r="U252">
-        <v>2.5</v>
-      </c>
-      <c r="V252">
-        <v>1.9</v>
-      </c>
-      <c r="W252">
-        <v>1.9</v>
-      </c>
       <c r="X252">
         <v>-1</v>
       </c>
@@ -23250,19 +23244,19 @@
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="AA252">
         <v>-1</v>
       </c>
       <c r="AB252">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD252">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:30">
@@ -23270,7 +23264,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6933131</v>
+        <v>6933133</v>
       </c>
       <c r="C253" t="s">
         <v>29</v>
@@ -23279,76 +23273,76 @@
         <v>45297.5</v>
       </c>
       <c r="E253" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F253" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K253" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L253">
-        <v>1.285</v>
+        <v>1.571</v>
       </c>
       <c r="M253">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N253">
-        <v>6.5</v>
+        <v>4.8</v>
       </c>
       <c r="O253">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="P253">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q253">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="R253">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S253">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T253">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U253">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V253">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W253">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X253">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB253">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC253">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AD253">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="254" spans="1:30">
@@ -23356,7 +23350,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6933133</v>
+        <v>6933132</v>
       </c>
       <c r="C254" t="s">
         <v>29</v>
@@ -23365,76 +23359,76 @@
         <v>45297.5</v>
       </c>
       <c r="E254" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F254" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K254" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L254">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="M254">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N254">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="O254">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="P254">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q254">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="R254">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S254">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T254">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U254">
         <v>2.75</v>
       </c>
       <c r="V254">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W254">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X254">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA254">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC254">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD254">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:30">
@@ -23442,7 +23436,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6933132</v>
+        <v>6932957</v>
       </c>
       <c r="C255" t="s">
         <v>29</v>
@@ -23451,49 +23445,49 @@
         <v>45297.5</v>
       </c>
       <c r="E255" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F255" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H255">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K255" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L255">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M255">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N255">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="O255">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="P255">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q255">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="R255">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S255">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T255">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U255">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V255">
         <v>1.975</v>
@@ -23502,25 +23496,25 @@
         <v>1.825</v>
       </c>
       <c r="X255">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y255">
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB255">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC255">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD255">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="256" spans="1:30">
@@ -23528,7 +23522,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6932957</v>
+        <v>6933134</v>
       </c>
       <c r="C256" t="s">
         <v>29</v>
@@ -23537,19 +23531,25 @@
         <v>45297.5</v>
       </c>
       <c r="E256" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F256" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G256">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>1</v>
       </c>
       <c r="K256" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L256">
         <v>2.25</v>
@@ -23561,52 +23561,52 @@
         <v>2.6</v>
       </c>
       <c r="O256">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="P256">
         <v>3.5</v>
       </c>
       <c r="Q256">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="R256">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S256">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T256">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U256">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V256">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W256">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X256">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y256">
         <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA256">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB256">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC256">
         <v>-1</v>
       </c>
       <c r="AD256">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="257" spans="1:30">
@@ -24252,7 +24252,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6933140</v>
+        <v>6933141</v>
       </c>
       <c r="C264" t="s">
         <v>29</v>
@@ -24261,40 +24261,40 @@
         <v>45304.5</v>
       </c>
       <c r="E264" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F264" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G264">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K264" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L264">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M264">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N264">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O264">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="P264">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q264">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="R264">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S264">
         <v>1.8</v>
@@ -24303,34 +24303,34 @@
         <v>2</v>
       </c>
       <c r="U264">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V264">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W264">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X264">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="AA264">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB264">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC264">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD264">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:30">
@@ -24608,7 +24608,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6933141</v>
+        <v>6933140</v>
       </c>
       <c r="C268" t="s">
         <v>29</v>
@@ -24617,40 +24617,40 @@
         <v>45304.5</v>
       </c>
       <c r="E268" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F268" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G268">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H268">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K268" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L268">
+        <v>2</v>
+      </c>
+      <c r="M268">
+        <v>3.5</v>
+      </c>
+      <c r="N268">
         <v>3</v>
       </c>
-      <c r="M268">
-        <v>3.3</v>
-      </c>
-      <c r="N268">
-        <v>2.1</v>
-      </c>
       <c r="O268">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="P268">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q268">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="R268">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S268">
         <v>1.8</v>
@@ -24659,34 +24659,34 @@
         <v>2</v>
       </c>
       <c r="U268">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V268">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W268">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X268">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y268">
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="AA268">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB268">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC268">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD268">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="269" spans="1:30">
@@ -24878,7 +24878,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6933151</v>
+        <v>6933150</v>
       </c>
       <c r="C271" t="s">
         <v>29</v>
@@ -24887,76 +24887,76 @@
         <v>45311.5</v>
       </c>
       <c r="E271" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F271" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G271">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K271" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L271">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="M271">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N271">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="O271">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="P271">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q271">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="R271">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S271">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T271">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U271">
         <v>3</v>
       </c>
       <c r="V271">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W271">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X271">
         <v>-1</v>
       </c>
       <c r="Y271">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z271">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA271">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB271">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AC271">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD271">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272" spans="1:30">
@@ -24964,7 +24964,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6933150</v>
+        <v>6933148</v>
       </c>
       <c r="C272" t="s">
         <v>29</v>
@@ -24973,40 +24973,46 @@
         <v>45311.5</v>
       </c>
       <c r="E272" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F272" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G272">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H272">
         <v>3</v>
       </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272">
+        <v>1</v>
+      </c>
       <c r="K272" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L272">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="M272">
+        <v>3.4</v>
+      </c>
+      <c r="N272">
+        <v>2.625</v>
+      </c>
+      <c r="O272">
+        <v>2.375</v>
+      </c>
+      <c r="P272">
         <v>3.5</v>
       </c>
-      <c r="N272">
-        <v>2.75</v>
-      </c>
-      <c r="O272">
-        <v>2.05</v>
-      </c>
-      <c r="P272">
-        <v>3.75</v>
-      </c>
       <c r="Q272">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="R272">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S272">
         <v>1.85</v>
@@ -25015,31 +25021,31 @@
         <v>1.95</v>
       </c>
       <c r="U272">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V272">
+        <v>1.975</v>
+      </c>
+      <c r="W272">
         <v>1.825</v>
       </c>
-      <c r="W272">
-        <v>1.975</v>
-      </c>
       <c r="X272">
         <v>-1</v>
       </c>
       <c r="Y272">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z272">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="AA272">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB272">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AC272">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD272">
         <v>-1</v>
@@ -25050,7 +25056,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6933148</v>
+        <v>6933151</v>
       </c>
       <c r="C273" t="s">
         <v>29</v>
@@ -25059,61 +25065,55 @@
         <v>45311.5</v>
       </c>
       <c r="E273" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F273" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G273">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H273">
-        <v>3</v>
-      </c>
-      <c r="I273">
-        <v>1</v>
-      </c>
-      <c r="J273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K273" t="s">
         <v>56</v>
       </c>
       <c r="L273">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="M273">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N273">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="O273">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="P273">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q273">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="R273">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S273">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T273">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U273">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V273">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W273">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X273">
         <v>-1</v>
@@ -25122,19 +25122,19 @@
         <v>-1</v>
       </c>
       <c r="Z273">
-        <v>1.45</v>
+        <v>0.45</v>
       </c>
       <c r="AA273">
         <v>-1</v>
       </c>
       <c r="AB273">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC273">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD273">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="274" spans="1:30">
@@ -25142,7 +25142,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6933147</v>
+        <v>6933146</v>
       </c>
       <c r="C274" t="s">
         <v>29</v>
@@ -25151,79 +25151,79 @@
         <v>45311.5</v>
       </c>
       <c r="E274" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F274" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G274">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I274">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J274">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K274" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L274">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="M274">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N274">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="O274">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="P274">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q274">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="R274">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="S274">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T274">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U274">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V274">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W274">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X274">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y274">
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA274">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB274">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC274">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AD274">
         <v>-1</v>
@@ -25234,7 +25234,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6933146</v>
+        <v>6932960</v>
       </c>
       <c r="C275" t="s">
         <v>29</v>
@@ -25243,79 +25243,79 @@
         <v>45311.5</v>
       </c>
       <c r="E275" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F275" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G275">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H275">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I275">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275" t="s">
+        <v>55</v>
+      </c>
+      <c r="L275">
+        <v>1.615</v>
+      </c>
+      <c r="M275">
         <v>4</v>
       </c>
-      <c r="K275" t="s">
-        <v>56</v>
-      </c>
-      <c r="L275">
-        <v>3.75</v>
-      </c>
-      <c r="M275">
-        <v>3.75</v>
-      </c>
       <c r="N275">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="O275">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="P275">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q275">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="R275">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S275">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T275">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U275">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V275">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W275">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X275">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y275">
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA275">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB275">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC275">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AD275">
         <v>-1</v>
@@ -25326,7 +25326,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6932960</v>
+        <v>6933147</v>
       </c>
       <c r="C276" t="s">
         <v>29</v>
@@ -25335,19 +25335,19 @@
         <v>45311.5</v>
       </c>
       <c r="E276" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F276" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G276">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J276">
         <v>0</v>
@@ -25356,43 +25356,43 @@
         <v>55</v>
       </c>
       <c r="L276">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="M276">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N276">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="O276">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="P276">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q276">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="R276">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="S276">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T276">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U276">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V276">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W276">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X276">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="Y276">
         <v>-1</v>
@@ -25401,13 +25401,13 @@
         <v>-1</v>
       </c>
       <c r="AA276">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB276">
         <v>-1</v>
       </c>
       <c r="AC276">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AD276">
         <v>-1</v>
@@ -25510,7 +25510,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6932884</v>
+        <v>6933728</v>
       </c>
       <c r="C278" t="s">
         <v>29</v>
@@ -25519,82 +25519,82 @@
         <v>45318.5</v>
       </c>
       <c r="E278" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F278" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G278">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H278">
         <v>0</v>
       </c>
       <c r="I278">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J278">
         <v>0</v>
       </c>
       <c r="K278" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L278">
+        <v>1.909</v>
+      </c>
+      <c r="M278">
+        <v>3.5</v>
+      </c>
+      <c r="N278">
+        <v>3.25</v>
+      </c>
+      <c r="O278">
         <v>2.4</v>
       </c>
-      <c r="M278">
-        <v>3.4</v>
-      </c>
-      <c r="N278">
+      <c r="P278">
+        <v>3.3</v>
+      </c>
+      <c r="Q278">
         <v>2.5</v>
       </c>
-      <c r="O278">
-        <v>2.5</v>
-      </c>
-      <c r="P278">
-        <v>3.4</v>
-      </c>
-      <c r="Q278">
-        <v>2.4</v>
-      </c>
       <c r="R278">
         <v>0</v>
       </c>
       <c r="S278">
+        <v>1.85</v>
+      </c>
+      <c r="T278">
         <v>1.95</v>
       </c>
-      <c r="T278">
-        <v>1.85</v>
-      </c>
       <c r="U278">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V278">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W278">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X278">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y278">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
         <v>-1</v>
       </c>
       <c r="AA278">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB278">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC278">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AD278">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="279" spans="1:30">
@@ -25602,7 +25602,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6932962</v>
+        <v>6932884</v>
       </c>
       <c r="C279" t="s">
         <v>29</v>
@@ -25611,76 +25611,82 @@
         <v>45318.5</v>
       </c>
       <c r="E279" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F279" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G279">
         <v>0</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
       </c>
       <c r="K279" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L279">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="M279">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N279">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O279">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P279">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q279">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="R279">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S279">
+        <v>1.95</v>
+      </c>
+      <c r="T279">
+        <v>1.85</v>
+      </c>
+      <c r="U279">
+        <v>3</v>
+      </c>
+      <c r="V279">
+        <v>2</v>
+      </c>
+      <c r="W279">
         <v>1.8</v>
       </c>
-      <c r="T279">
-        <v>2</v>
-      </c>
-      <c r="U279">
-        <v>2.75</v>
-      </c>
-      <c r="V279">
-        <v>1.875</v>
-      </c>
-      <c r="W279">
-        <v>1.925</v>
-      </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z279">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA279">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC279">
         <v>-1</v>
       </c>
       <c r="AD279">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="280" spans="1:30">
@@ -25688,7 +25694,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6933153</v>
+        <v>6932962</v>
       </c>
       <c r="C280" t="s">
         <v>29</v>
@@ -25697,46 +25703,40 @@
         <v>45318.5</v>
       </c>
       <c r="E280" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F280" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G280">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H280">
-        <v>3</v>
-      </c>
-      <c r="I280">
-        <v>2</v>
-      </c>
-      <c r="J280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K280" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L280">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="M280">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N280">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="O280">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="P280">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q280">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="R280">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S280">
         <v>1.8</v>
@@ -25745,34 +25745,34 @@
         <v>2</v>
       </c>
       <c r="U280">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V280">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W280">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X280">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y280">
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA280">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB280">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC280">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD280">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="281" spans="1:30">
@@ -25780,7 +25780,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6933157</v>
+        <v>6933153</v>
       </c>
       <c r="C281" t="s">
         <v>29</v>
@@ -25789,58 +25789,64 @@
         <v>45318.5</v>
       </c>
       <c r="E281" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F281" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G281">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H281">
+        <v>3</v>
+      </c>
+      <c r="I281">
+        <v>2</v>
+      </c>
+      <c r="J281">
         <v>1</v>
       </c>
       <c r="K281" t="s">
         <v>55</v>
       </c>
       <c r="L281">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="M281">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N281">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="O281">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="P281">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q281">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="R281">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S281">
+        <v>1.8</v>
+      </c>
+      <c r="T281">
+        <v>2</v>
+      </c>
+      <c r="U281">
+        <v>3</v>
+      </c>
+      <c r="V281">
         <v>1.9</v>
       </c>
-      <c r="T281">
+      <c r="W281">
         <v>1.9</v>
       </c>
-      <c r="U281">
-        <v>2.75</v>
-      </c>
-      <c r="V281">
-        <v>1.85</v>
-      </c>
-      <c r="W281">
-        <v>1.95</v>
-      </c>
       <c r="X281">
-        <v>1.4</v>
+        <v>0.363</v>
       </c>
       <c r="Y281">
         <v>-1</v>
@@ -25849,16 +25855,16 @@
         <v>-1</v>
       </c>
       <c r="AA281">
+        <v>-0.5</v>
+      </c>
+      <c r="AB281">
+        <v>0.5</v>
+      </c>
+      <c r="AC281">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB281">
-        <v>-1</v>
-      </c>
-      <c r="AC281">
-        <v>0.425</v>
-      </c>
       <c r="AD281">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:30">
@@ -25866,7 +25872,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6933158</v>
+        <v>6933157</v>
       </c>
       <c r="C282" t="s">
         <v>29</v>
@@ -25875,76 +25881,76 @@
         <v>45318.5</v>
       </c>
       <c r="E282" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F282" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H282">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K282" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L282">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="M282">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N282">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O282">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="P282">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q282">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="R282">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S282">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T282">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U282">
         <v>2.75</v>
       </c>
       <c r="V282">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W282">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X282">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y282">
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA282">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB282">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC282">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AD282">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="283" spans="1:30">
@@ -25952,7 +25958,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6933727</v>
+        <v>6933158</v>
       </c>
       <c r="C283" t="s">
         <v>29</v>
@@ -25961,61 +25967,55 @@
         <v>45318.5</v>
       </c>
       <c r="E283" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F283" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H283">
-        <v>3</v>
-      </c>
-      <c r="I283">
-        <v>1</v>
-      </c>
-      <c r="J283">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K283" t="s">
         <v>56</v>
       </c>
       <c r="L283">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="M283">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N283">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O283">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P283">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q283">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="R283">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S283">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T283">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U283">
         <v>2.75</v>
       </c>
       <c r="V283">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W283">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X283">
         <v>-1</v>
@@ -26024,16 +26024,16 @@
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>0.833</v>
+        <v>1.1</v>
       </c>
       <c r="AA283">
         <v>-1</v>
       </c>
       <c r="AB283">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC283">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AD283">
         <v>-1</v>
@@ -26044,7 +26044,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6933728</v>
+        <v>6933727</v>
       </c>
       <c r="C284" t="s">
         <v>29</v>
@@ -26053,82 +26053,82 @@
         <v>45318.5</v>
       </c>
       <c r="E284" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F284" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G284">
+        <v>2</v>
+      </c>
+      <c r="H284">
         <v>3</v>
       </c>
-      <c r="H284">
-        <v>0</v>
-      </c>
       <c r="I284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J284">
         <v>0</v>
       </c>
       <c r="K284" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L284">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="M284">
+        <v>3.4</v>
+      </c>
+      <c r="N284">
+        <v>1.8</v>
+      </c>
+      <c r="O284">
         <v>3.5</v>
       </c>
-      <c r="N284">
-        <v>3.25</v>
-      </c>
-      <c r="O284">
-        <v>2.4</v>
-      </c>
       <c r="P284">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q284">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="R284">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S284">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T284">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U284">
         <v>2.75</v>
       </c>
       <c r="V284">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W284">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X284">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y284">
         <v>-1</v>
       </c>
       <c r="Z284">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="AA284">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB284">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC284">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AD284">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:30">
@@ -26860,7 +26860,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6933162</v>
+        <v>6933161</v>
       </c>
       <c r="C293" t="s">
         <v>29</v>
@@ -26869,76 +26869,76 @@
         <v>45325.5</v>
       </c>
       <c r="E293" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F293" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G293">
         <v>2</v>
       </c>
       <c r="H293">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K293" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L293">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="M293">
         <v>5</v>
       </c>
       <c r="N293">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O293">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="P293">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q293">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="R293">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="S293">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T293">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U293">
         <v>3.25</v>
       </c>
       <c r="V293">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W293">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X293">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y293">
         <v>-1</v>
       </c>
       <c r="Z293">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="AA293">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB293">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC293">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AD293">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="294" spans="1:30">
@@ -26946,7 +26946,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6933163</v>
+        <v>6933162</v>
       </c>
       <c r="C294" t="s">
         <v>29</v>
@@ -26955,73 +26955,73 @@
         <v>45325.5</v>
       </c>
       <c r="E294" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F294" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G294">
+        <v>2</v>
+      </c>
+      <c r="H294">
         <v>3</v>
       </c>
-      <c r="H294">
-        <v>0</v>
-      </c>
       <c r="K294" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L294">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="M294">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N294">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="O294">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="P294">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q294">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="R294">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="S294">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T294">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U294">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V294">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W294">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X294">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y294">
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="AA294">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB294">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC294">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AD294">
         <v>-1</v>
@@ -27032,7 +27032,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6933164</v>
+        <v>6933160</v>
       </c>
       <c r="C295" t="s">
         <v>29</v>
@@ -27041,64 +27041,58 @@
         <v>45325.5</v>
       </c>
       <c r="E295" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F295" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H295">
-        <v>0</v>
-      </c>
-      <c r="I295">
-        <v>1</v>
-      </c>
-      <c r="J295">
         <v>0</v>
       </c>
       <c r="K295" t="s">
         <v>55</v>
       </c>
       <c r="L295">
-        <v>1.5</v>
+        <v>1.952</v>
       </c>
       <c r="M295">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N295">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O295">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="P295">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q295">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="R295">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S295">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T295">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U295">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V295">
+        <v>1.875</v>
+      </c>
+      <c r="W295">
         <v>1.925</v>
       </c>
-      <c r="W295">
-        <v>1.875</v>
-      </c>
       <c r="X295">
-        <v>0.5329999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Y295">
         <v>-1</v>
@@ -27107,16 +27101,16 @@
         <v>-1</v>
       </c>
       <c r="AA295">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB295">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC295">
         <v>-1</v>
       </c>
       <c r="AD295">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="296" spans="1:30">
@@ -27124,7 +27118,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6933807</v>
+        <v>6933163</v>
       </c>
       <c r="C296" t="s">
         <v>29</v>
@@ -27133,13 +27127,13 @@
         <v>45325.5</v>
       </c>
       <c r="E296" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F296" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G296">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H296">
         <v>0</v>
@@ -27148,43 +27142,43 @@
         <v>55</v>
       </c>
       <c r="L296">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="M296">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N296">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="O296">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="P296">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q296">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="R296">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S296">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T296">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U296">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V296">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W296">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X296">
-        <v>1.15</v>
+        <v>0.571</v>
       </c>
       <c r="Y296">
         <v>-1</v>
@@ -27193,16 +27187,16 @@
         <v>-1</v>
       </c>
       <c r="AA296">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB296">
         <v>-1</v>
       </c>
       <c r="AC296">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD296">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:30">
@@ -27210,7 +27204,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6933160</v>
+        <v>6933164</v>
       </c>
       <c r="C297" t="s">
         <v>29</v>
@@ -27219,58 +27213,64 @@
         <v>45325.5</v>
       </c>
       <c r="E297" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F297" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G297">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H297">
+        <v>0</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297">
         <v>0</v>
       </c>
       <c r="K297" t="s">
         <v>55</v>
       </c>
       <c r="L297">
-        <v>1.952</v>
+        <v>1.5</v>
       </c>
       <c r="M297">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N297">
+        <v>4.5</v>
+      </c>
+      <c r="O297">
+        <v>1.533</v>
+      </c>
+      <c r="P297">
+        <v>4.333</v>
+      </c>
+      <c r="Q297">
+        <v>4.2</v>
+      </c>
+      <c r="R297">
+        <v>-1</v>
+      </c>
+      <c r="S297">
+        <v>1.9</v>
+      </c>
+      <c r="T297">
+        <v>1.9</v>
+      </c>
+      <c r="U297">
         <v>3</v>
       </c>
-      <c r="O297">
-        <v>1.8</v>
-      </c>
-      <c r="P297">
-        <v>3.8</v>
-      </c>
-      <c r="Q297">
-        <v>3.3</v>
-      </c>
-      <c r="R297">
-        <v>-0.5</v>
-      </c>
-      <c r="S297">
-        <v>1.85</v>
-      </c>
-      <c r="T297">
-        <v>1.95</v>
-      </c>
-      <c r="U297">
-        <v>2.75</v>
-      </c>
       <c r="V297">
+        <v>1.925</v>
+      </c>
+      <c r="W297">
         <v>1.875</v>
       </c>
-      <c r="W297">
-        <v>1.925</v>
-      </c>
       <c r="X297">
-        <v>0.8</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y297">
         <v>-1</v>
@@ -27279,16 +27279,16 @@
         <v>-1</v>
       </c>
       <c r="AA297">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB297">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC297">
         <v>-1</v>
       </c>
       <c r="AD297">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="298" spans="1:30">
@@ -27296,7 +27296,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6933161</v>
+        <v>6933807</v>
       </c>
       <c r="C298" t="s">
         <v>29</v>
@@ -27305,58 +27305,58 @@
         <v>45325.5</v>
       </c>
       <c r="E298" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F298" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K298" t="s">
         <v>55</v>
       </c>
       <c r="L298">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="M298">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N298">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="O298">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="P298">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q298">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="R298">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S298">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T298">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U298">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V298">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W298">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X298">
-        <v>0.45</v>
+        <v>1.15</v>
       </c>
       <c r="Y298">
         <v>-1</v>
@@ -27365,16 +27365,16 @@
         <v>-1</v>
       </c>
       <c r="AA298">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB298">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC298">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD298">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="299" spans="1:30">

--- a/England Northern Premier League/England Northern Premier League.xlsx
+++ b/England Northern Premier League/England Northern Premier League.xlsx
@@ -3530,7 +3530,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6932837</v>
+        <v>6932990</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -3539,79 +3539,79 @@
         <v>45160.65625</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>3.5</v>
+      </c>
+      <c r="N34">
         <v>3</v>
       </c>
-      <c r="K34" t="s">
-        <v>56</v>
-      </c>
-      <c r="L34">
-        <v>2.8</v>
-      </c>
-      <c r="M34">
+      <c r="O34">
+        <v>2.2</v>
+      </c>
+      <c r="P34">
         <v>3.6</v>
       </c>
-      <c r="N34">
-        <v>2.1</v>
-      </c>
-      <c r="O34">
-        <v>3.8</v>
-      </c>
-      <c r="P34">
-        <v>3.8</v>
-      </c>
       <c r="Q34">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="R34">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U34">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AD34">
         <v>-1</v>
@@ -3622,7 +3622,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6932990</v>
+        <v>6932837</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -3631,79 +3631,79 @@
         <v>45160.65625</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
         <v>4</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
       <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
         <v>3</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
       <c r="K35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="M35">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N35">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O35">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="P35">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q35">
+        <v>1.7</v>
+      </c>
+      <c r="R35">
+        <v>0.75</v>
+      </c>
+      <c r="S35">
+        <v>1.9</v>
+      </c>
+      <c r="T35">
+        <v>1.9</v>
+      </c>
+      <c r="U35">
         <v>2.75</v>
       </c>
-      <c r="R35">
-        <v>-0.25</v>
-      </c>
-      <c r="S35">
-        <v>2</v>
-      </c>
-      <c r="T35">
-        <v>1.8</v>
-      </c>
-      <c r="U35">
-        <v>2.5</v>
-      </c>
       <c r="V35">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W35">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X35">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC35">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AD35">
         <v>-1</v>
@@ -3806,7 +3806,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6932993</v>
+        <v>6932992</v>
       </c>
       <c r="C37" t="s">
         <v>29</v>
@@ -3815,10 +3815,10 @@
         <v>45160.65625</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3836,61 +3836,61 @@
         <v>55</v>
       </c>
       <c r="L37">
+        <v>4.75</v>
+      </c>
+      <c r="M37">
+        <v>4.2</v>
+      </c>
+      <c r="N37">
+        <v>1.5</v>
+      </c>
+      <c r="O37">
+        <v>4.2</v>
+      </c>
+      <c r="P37">
+        <v>3.8</v>
+      </c>
+      <c r="Q37">
+        <v>1.65</v>
+      </c>
+      <c r="R37">
+        <v>0.75</v>
+      </c>
+      <c r="S37">
+        <v>2</v>
+      </c>
+      <c r="T37">
         <v>1.8</v>
       </c>
-      <c r="M37">
-        <v>3.6</v>
-      </c>
-      <c r="N37">
-        <v>3.6</v>
-      </c>
-      <c r="O37">
-        <v>1.8</v>
-      </c>
-      <c r="P37">
-        <v>3.6</v>
-      </c>
-      <c r="Q37">
-        <v>3.75</v>
-      </c>
-      <c r="R37">
+      <c r="U37">
+        <v>2.75</v>
+      </c>
+      <c r="V37">
+        <v>1.825</v>
+      </c>
+      <c r="W37">
+        <v>1.975</v>
+      </c>
+      <c r="X37">
+        <v>3.2</v>
+      </c>
+      <c r="Y37">
+        <v>-1</v>
+      </c>
+      <c r="Z37">
+        <v>-1</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <v>-1</v>
+      </c>
+      <c r="AC37">
+        <v>0.4125</v>
+      </c>
+      <c r="AD37">
         <v>-0.5</v>
-      </c>
-      <c r="S37">
-        <v>1.85</v>
-      </c>
-      <c r="T37">
-        <v>1.95</v>
-      </c>
-      <c r="U37">
-        <v>2.25</v>
-      </c>
-      <c r="V37">
-        <v>1.85</v>
-      </c>
-      <c r="W37">
-        <v>1.95</v>
-      </c>
-      <c r="X37">
-        <v>0.8</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
-      <c r="Z37">
-        <v>-1</v>
-      </c>
-      <c r="AA37">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
-      <c r="AC37">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AD37">
-        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -3898,7 +3898,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6932994</v>
+        <v>6932993</v>
       </c>
       <c r="C38" t="s">
         <v>29</v>
@@ -3907,19 +3907,19 @@
         <v>45160.65625</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3928,34 +3928,34 @@
         <v>55</v>
       </c>
       <c r="L38">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="M38">
         <v>3.6</v>
       </c>
       <c r="N38">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O38">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P38">
         <v>3.6</v>
       </c>
       <c r="Q38">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="R38">
         <v>-0.5</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U38">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V38">
         <v>1.85</v>
@@ -3964,7 +3964,7 @@
         <v>1.95</v>
       </c>
       <c r="X38">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Y38">
         <v>-1</v>
@@ -3973,16 +3973,16 @@
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD38">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -3990,7 +3990,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6932992</v>
+        <v>6932994</v>
       </c>
       <c r="C39" t="s">
         <v>29</v>
@@ -3999,19 +3999,19 @@
         <v>45160.65625</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -4020,43 +4020,43 @@
         <v>55</v>
       </c>
       <c r="L39">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="M39">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N39">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="O39">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="P39">
+        <v>3.6</v>
+      </c>
+      <c r="Q39">
         <v>3.8</v>
       </c>
-      <c r="Q39">
-        <v>1.65</v>
-      </c>
       <c r="R39">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U39">
         <v>2.75</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X39">
-        <v>3.2</v>
+        <v>0.75</v>
       </c>
       <c r="Y39">
         <v>-1</v>
@@ -4065,16 +4065,16 @@
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AD39">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -4082,7 +4082,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6933000</v>
+        <v>6932995</v>
       </c>
       <c r="C40" t="s">
         <v>29</v>
@@ -4091,82 +4091,82 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L40">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="M40">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N40">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="O40">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="P40">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q40">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="R40">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S40">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U40">
         <v>2.5</v>
       </c>
       <c r="V40">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W40">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z40">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC40">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -4266,7 +4266,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6932995</v>
+        <v>6933000</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -4275,82 +4275,82 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L42">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="M42">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N42">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="O42">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="P42">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q42">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="R42">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S42">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T42">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U42">
         <v>2.5</v>
       </c>
       <c r="V42">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="AA42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD42">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -35968,7 +35968,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>6942512</v>
+        <v>6942514</v>
       </c>
       <c r="C395" t="s">
         <v>29</v>
@@ -35977,10 +35977,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E395" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F395" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G395">
         <v>2</v>
@@ -35989,7 +35989,7 @@
         <v>1</v>
       </c>
       <c r="I395">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J395">
         <v>1</v>
@@ -35998,43 +35998,43 @@
         <v>55</v>
       </c>
       <c r="L395">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="M395">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="N395">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="O395">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="P395">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q395">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="R395">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S395">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T395">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U395">
         <v>2.75</v>
       </c>
       <c r="V395">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W395">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="X395">
-        <v>1.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y395">
         <v>-1</v>
@@ -36043,13 +36043,13 @@
         <v>-1</v>
       </c>
       <c r="AA395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB395">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC395">
-        <v>0.4625</v>
+        <v>0.3875</v>
       </c>
       <c r="AD395">
         <v>-0.5</v>
@@ -36060,7 +36060,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>6942514</v>
+        <v>6942516</v>
       </c>
       <c r="C396" t="s">
         <v>29</v>
@@ -36069,64 +36069,58 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E396" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F396" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G396">
         <v>2</v>
       </c>
       <c r="H396">
-        <v>1</v>
-      </c>
-      <c r="I396">
-        <v>1</v>
-      </c>
-      <c r="J396">
         <v>1</v>
       </c>
       <c r="K396" t="s">
         <v>55</v>
       </c>
       <c r="L396">
-        <v>1.285</v>
+        <v>2.25</v>
       </c>
       <c r="M396">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N396">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="O396">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="P396">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q396">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="R396">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S396">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T396">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U396">
         <v>2.75</v>
       </c>
       <c r="V396">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W396">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="X396">
-        <v>0.6000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="Y396">
         <v>-1</v>
@@ -36135,13 +36129,13 @@
         <v>-1</v>
       </c>
       <c r="AA396">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB396">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC396">
-        <v>0.3875</v>
+        <v>0.5</v>
       </c>
       <c r="AD396">
         <v>-0.5</v>
@@ -36152,7 +36146,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>6942516</v>
+        <v>6942515</v>
       </c>
       <c r="C397" t="s">
         <v>29</v>
@@ -36161,58 +36155,64 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E397" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F397" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G397">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I397">
+        <v>0</v>
+      </c>
+      <c r="J397">
+        <v>0</v>
       </c>
       <c r="K397" t="s">
         <v>55</v>
       </c>
       <c r="L397">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="M397">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N397">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O397">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="P397">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q397">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="R397">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S397">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T397">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U397">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V397">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W397">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X397">
-        <v>1.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y397">
         <v>-1</v>
@@ -36221,16 +36221,16 @@
         <v>-1</v>
       </c>
       <c r="AA397">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB397">
         <v>-1</v>
       </c>
       <c r="AC397">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD397">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="398" spans="1:30">
@@ -36238,7 +36238,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>6942515</v>
+        <v>6942512</v>
       </c>
       <c r="C398" t="s">
         <v>29</v>
@@ -36247,55 +36247,55 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E398" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F398" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G398">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I398">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K398" t="s">
         <v>55</v>
       </c>
       <c r="L398">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="M398">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N398">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="O398">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="P398">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q398">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="R398">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S398">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T398">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U398">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V398">
         <v>1.925</v>
@@ -36304,7 +36304,7 @@
         <v>1.875</v>
       </c>
       <c r="X398">
-        <v>0.3999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Y398">
         <v>-1</v>
@@ -36313,16 +36313,16 @@
         <v>-1</v>
       </c>
       <c r="AA398">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB398">
         <v>-1</v>
       </c>
       <c r="AC398">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AD398">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="399" spans="1:30">
